--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Вакансии" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Название вакансии</t>
   </si>
@@ -49,9 +49,6 @@
 (Имя)</t>
   </si>
   <si>
-    <t>E-mail</t>
-  </si>
-  <si>
     <t>Телефон</t>
   </si>
   <si>
@@ -122,6 +119,67 @@
   </si>
   <si>
     <t>Qaz123</t>
+  </si>
+  <si>
+    <t>E-mail
+Контактного лица</t>
+  </si>
+  <si>
+    <t>высшее</t>
+  </si>
+  <si>
+    <t>неполное высшее</t>
+  </si>
+  <si>
+    <t>среднее профессиональное</t>
+  </si>
+  <si>
+    <t>среднее</t>
+  </si>
+  <si>
+    <t>любое</t>
+  </si>
+  <si>
+    <t>Мужской</t>
+  </si>
+  <si>
+    <t>выафывапф</t>
+  </si>
+  <si>
+    <t>выафыфва</t>
+  </si>
+  <si>
+    <t>фыВФЫАВЫФА</t>
+  </si>
+  <si>
+    <t>ЫВФАЫВАЦ</t>
+  </si>
+  <si>
+    <t>фывывасы</t>
+  </si>
+  <si>
+    <t>пкевысыф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Светлана </t>
+  </si>
+  <si>
+    <t>svetlana@ya.ru</t>
+  </si>
+  <si>
+    <t>код</t>
+  </si>
+  <si>
+    <t>номер</t>
+  </si>
+  <si>
+    <t>fggkj</t>
+  </si>
+  <si>
+    <t>Рабочие дни</t>
+  </si>
+  <si>
+    <t>Выходные дни</t>
   </si>
 </sst>
 </file>
@@ -172,9 +230,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -184,9 +251,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -489,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,132 +565,365 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" customWidth="1"/>
     <col min="11" max="11" width="33.140625" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="30.42578125" customWidth="1"/>
     <col min="18" max="18" width="27" customWidth="1"/>
+    <col min="19" max="19" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="2" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3">
+        <v>999</v>
+      </c>
+      <c r="M3">
+        <v>7894455</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1213</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4">
+        <v>999</v>
+      </c>
+      <c r="M4">
+        <v>7894455</v>
+      </c>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5">
+        <v>999</v>
+      </c>
+      <c r="M5">
+        <v>7894455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6">
+        <v>999</v>
+      </c>
+      <c r="M6">
+        <v>7894455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>213214</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7">
+        <v>999</v>
+      </c>
+      <c r="M7">
+        <v>7894455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8">
         <v>20</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8">
+        <v>999</v>
+      </c>
+      <c r="M8">
+        <v>7894455</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -638,21 +935,22 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:P2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="K4:K8" r:id="rId2" display="svetlana@ya.ru"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,128 +960,44 @@
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -806,18 +1020,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
   <si>
     <t>Название вакансии</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Описание вакансии</t>
-  </si>
-  <si>
-    <t>Опыт рабты</t>
   </si>
   <si>
     <t>Образование</t>
@@ -70,28 +67,10 @@
     <t>Регион публикации вакансии</t>
   </si>
   <si>
-    <t>Програмист</t>
-  </si>
-  <si>
-    <t>`123`</t>
-  </si>
-  <si>
-    <t>eszdfcgf</t>
-  </si>
-  <si>
-    <t>kjkkl</t>
-  </si>
-  <si>
     <t>Город</t>
   </si>
   <si>
-    <t>гор1</t>
-  </si>
-  <si>
     <t>Адреса</t>
-  </si>
-  <si>
-    <t>гор2</t>
   </si>
   <si>
     <t>адр1 для гор1</t>
@@ -143,24 +122,6 @@
     <t>Мужской</t>
   </si>
   <si>
-    <t>выафывапф</t>
-  </si>
-  <si>
-    <t>выафыфва</t>
-  </si>
-  <si>
-    <t>фыВФЫАВЫФА</t>
-  </si>
-  <si>
-    <t>ЫВФАЫВАЦ</t>
-  </si>
-  <si>
-    <t>фывывасы</t>
-  </si>
-  <si>
-    <t>пкевысыф</t>
-  </si>
-  <si>
     <t xml:space="preserve">Светлана </t>
   </si>
   <si>
@@ -180,13 +141,183 @@
   </si>
   <si>
     <t>Выходные дни</t>
+  </si>
+  <si>
+    <t>Любой день</t>
+  </si>
+  <si>
+    <t>График работы</t>
+  </si>
+  <si>
+    <t>полный рабочий день</t>
+  </si>
+  <si>
+    <t>сменный график</t>
+  </si>
+  <si>
+    <t>свободный график</t>
+  </si>
+  <si>
+    <t>частичная занятость</t>
+  </si>
+  <si>
+    <t>удаленная работа</t>
+  </si>
+  <si>
+    <t>вахта</t>
+  </si>
+  <si>
+    <t>Опыт рабты в годах</t>
+  </si>
+  <si>
+    <t>не имеет значения</t>
+  </si>
+  <si>
+    <t>1 год</t>
+  </si>
+  <si>
+    <t>2 года</t>
+  </si>
+  <si>
+    <t>3 года</t>
+  </si>
+  <si>
+    <t>4 года</t>
+  </si>
+  <si>
+    <t>5 лет</t>
+  </si>
+  <si>
+    <t>6 лет</t>
+  </si>
+  <si>
+    <t>7 лет</t>
+  </si>
+  <si>
+    <t>8 лет</t>
+  </si>
+  <si>
+    <t>9 лет</t>
+  </si>
+  <si>
+    <t>10 лет</t>
+  </si>
+  <si>
+    <t>менее года</t>
+  </si>
+  <si>
+    <t>без опыта</t>
+  </si>
+  <si>
+    <t>sfdsfadsf
+sdfasdfs
+asdasfsdf</t>
+  </si>
+  <si>
+    <t>Барнаул</t>
+  </si>
+  <si>
+    <t>Волгоград</t>
+  </si>
+  <si>
+    <t>Воронеж</t>
+  </si>
+  <si>
+    <t>Екатеринбург</t>
+  </si>
+  <si>
+    <t>Ижевск</t>
+  </si>
+  <si>
+    <t>Иркутск</t>
+  </si>
+  <si>
+    <t>Казань</t>
+  </si>
+  <si>
+    <t>Калининград</t>
+  </si>
+  <si>
+    <t>Кемерово</t>
+  </si>
+  <si>
+    <t>Краснодар</t>
+  </si>
+  <si>
+    <t>Красноярск</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Набережные Челны</t>
+  </si>
+  <si>
+    <t>Нижний Новгород</t>
+  </si>
+  <si>
+    <t>Новосибирск</t>
+  </si>
+  <si>
+    <t>Омск</t>
+  </si>
+  <si>
+    <t>Оренбург</t>
+  </si>
+  <si>
+    <t>Пермь</t>
+  </si>
+  <si>
+    <t>Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>Рязань</t>
+  </si>
+  <si>
+    <t>Самара</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Саратов</t>
+  </si>
+  <si>
+    <t>Сочи (+Адлер)</t>
+  </si>
+  <si>
+    <t>Тольятти</t>
+  </si>
+  <si>
+    <t>Томск</t>
+  </si>
+  <si>
+    <t>Тула</t>
+  </si>
+  <si>
+    <t>Тюмень</t>
+  </si>
+  <si>
+    <t>Уфа</t>
+  </si>
+  <si>
+    <t>Челябинск</t>
+  </si>
+  <si>
+    <t>Ярославль</t>
+  </si>
+  <si>
+    <t>Программист</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +332,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -230,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -238,13 +376,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,393 +708,759 @@
     <col min="1" max="1" width="50.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="30.42578125" customWidth="1"/>
-    <col min="18" max="18" width="27" customWidth="1"/>
-    <col min="19" max="19" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="18" width="30.42578125" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
+    <col min="20" max="20" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>100000</v>
+      </c>
+      <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>36</v>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="9">
+        <v>20</v>
+      </c>
+      <c r="H3" s="9">
+        <v>60</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3">
+        <v>999</v>
+      </c>
+      <c r="N3">
+        <v>7894455</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0.9375</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>100000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="9">
+        <v>20</v>
+      </c>
+      <c r="H4" s="9">
+        <v>60</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4">
+        <v>999</v>
+      </c>
+      <c r="N4">
+        <v>7894455</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Q4" t="s">
         <v>40</v>
       </c>
-      <c r="G3">
+    </row>
+    <row r="5" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="9">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="H5" s="9">
         <v>60</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5">
+        <v>999</v>
+      </c>
+      <c r="N5">
+        <v>7894455</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>100000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="9">
+        <v>20</v>
+      </c>
+      <c r="H6" s="9">
+        <v>60</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <v>999</v>
+      </c>
+      <c r="N6">
+        <v>7894455</v>
+      </c>
+      <c r="O6" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>100000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="9">
+        <v>20</v>
+      </c>
+      <c r="H7" s="9">
+        <v>60</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7">
+        <v>999</v>
+      </c>
+      <c r="N7">
+        <v>7894455</v>
+      </c>
+      <c r="O7" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>100000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="9">
+        <v>20</v>
+      </c>
+      <c r="H8" s="9">
+        <v>60</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L3">
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8">
         <v>999</v>
       </c>
-      <c r="M3">
+      <c r="N8">
         <v>7894455</v>
       </c>
-      <c r="P3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1213</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="O8" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="Q8" t="s">
         <v>40</v>
       </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4">
-        <v>999</v>
-      </c>
-      <c r="M4">
-        <v>7894455</v>
-      </c>
-      <c r="P4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5">
-        <v>999</v>
-      </c>
-      <c r="M5">
-        <v>7894455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>60</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6">
-        <v>999</v>
-      </c>
-      <c r="M6">
-        <v>7894455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>213214</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7">
-        <v>999</v>
-      </c>
-      <c r="M7">
-        <v>7894455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>1000</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>60</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8">
-        <v>999</v>
-      </c>
-      <c r="M8">
-        <v>7894455</v>
-      </c>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="L1:M1"/>
+  <mergeCells count="15">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H46">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="K4:K8" r:id="rId2" display="svetlana@ya.ru"/>
+    <hyperlink ref="L3" r:id="rId1"/>
+    <hyperlink ref="L4:L8" r:id="rId2" display="svetlana@ya.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Авторизация!$BN$1:$BN$48</xm:f>
+          </x14:formula1>
+          <xm:sqref>O3:P1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Авторизация!$BP$1:$BP$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q3:Q658</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Авторизация!$BR$1:$BR$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E472</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Авторизация!$BL$1:$BL$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>J3:J187</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Авторизация!$BM$1:$BM$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D966</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,76 +1472,545 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:BR48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="63" max="63" width="8.42578125" customWidth="1"/>
+    <col min="64" max="64" width="22.140625" customWidth="1"/>
+    <col min="68" max="68" width="15.28515625" customWidth="1"/>
+    <col min="70" max="70" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN1" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BN2" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BL3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN3" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BL4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BN4" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="BR4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BL5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN5" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BR5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BL6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BN6" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BM7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN7" s="7">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BM8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BN8" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BM9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN9" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BM10" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN10" s="7">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BM11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN11" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BM12" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN12" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BM13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN13" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BN14" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BN15" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BN16" s="7">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="17" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN17" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN18" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN19" s="7">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="20" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN20" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN21" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN22" s="7">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="23" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN23" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN24" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN25" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN26" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN27" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN28" s="7">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="29" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN29" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN30" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="31" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN31" s="7">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="32" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN32" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN33" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="34" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN34" s="7">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="35" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN35" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="36" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN36" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="37" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN37" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN38" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN39" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="40" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN40" s="7">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="41" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN41" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="42" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN42" s="7">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="43" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN43" s="7">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="44" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN44" s="7">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="45" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN45" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN46" s="7">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="47" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN47" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="48" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN48" s="7">
+        <v>0.97916666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -1039,5 +2018,6 @@
     <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="99">
   <si>
     <t>Название вакансии</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>Адреса</t>
-  </si>
-  <si>
-    <t>адр1 для гор1</t>
-  </si>
-  <si>
-    <t>адр2 для гор1</t>
   </si>
   <si>
     <t>адр1 для гор2</t>
@@ -308,6 +302,21 @@
   </si>
   <si>
     <t>Программист</t>
+  </si>
+  <si>
+    <t>Ленина 1</t>
+  </si>
+  <si>
+    <t>Ленина 2</t>
+  </si>
+  <si>
+    <t>Ленина 3</t>
+  </si>
+  <si>
+    <t>Женский</t>
+  </si>
+  <si>
+    <t>Не важно</t>
   </si>
 </sst>
 </file>
@@ -700,7 +709,7 @@
   <dimension ref="A1:AB70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,6 +719,7 @@
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="45.7109375" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" customWidth="1"/>
@@ -733,7 +743,7 @@
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>5</v>
@@ -749,13 +759,13 @@
         <v>4</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>9</v>
@@ -798,10 +808,10 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>11</v>
@@ -818,7 +828,7 @@
     </row>
     <row r="3" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>10000</v>
@@ -827,13 +837,13 @@
         <v>100000</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="9">
         <v>20</v>
@@ -842,16 +852,16 @@
         <v>60</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M3">
         <v>999</v>
@@ -866,12 +876,12 @@
         <v>0.9375</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>10000</v>
@@ -880,13 +890,13 @@
         <v>100000</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="G4" s="9">
         <v>20</v>
@@ -895,16 +905,16 @@
         <v>60</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M4">
         <v>999</v>
@@ -919,12 +929,12 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -933,13 +943,13 @@
         <v>100000</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="G5" s="9">
         <v>20</v>
@@ -948,16 +958,16 @@
         <v>60</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5">
         <v>999</v>
@@ -972,13 +982,13 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="Q5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB5" s="7"/>
     </row>
     <row r="6" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -987,13 +997,13 @@
         <v>100000</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="9">
         <v>20</v>
@@ -1002,16 +1012,16 @@
         <v>60</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6">
         <v>999</v>
@@ -1026,13 +1036,13 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="7"/>
     </row>
     <row r="7" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -1041,13 +1051,13 @@
         <v>100000</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="9">
         <v>20</v>
@@ -1056,16 +1066,16 @@
         <v>60</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7">
         <v>999</v>
@@ -1080,13 +1090,13 @@
         <v>0.5625</v>
       </c>
       <c r="Q7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB7" s="7"/>
     </row>
     <row r="8" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -1095,13 +1105,13 @@
         <v>100000</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" s="9">
         <v>20</v>
@@ -1110,16 +1120,16 @@
         <v>60</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8">
         <v>999</v>
@@ -1134,7 +1144,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="Q8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB8" s="7"/>
     </row>
@@ -1418,7 +1428,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Авторизация!$BN$1:$BN$48</xm:f>
@@ -1449,6 +1459,12 @@
           </x14:formula1>
           <xm:sqref>D3:D966</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Авторизация!$BQ$1:$BQ$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F582</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1459,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,178 +1496,178 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1665,8 +1681,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BR48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BQ3" sqref="BQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,101 +1698,110 @@
   <sheetData>
     <row r="1" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="BL1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BM1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BN1" s="7">
         <v>0</v>
       </c>
       <c r="BP1" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>97</v>
       </c>
       <c r="BR1" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
       <c r="BL2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BM2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN2" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="BP2" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>31</v>
       </c>
       <c r="BR2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BL3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BM3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="BN3" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="BP3" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>98</v>
       </c>
       <c r="BR3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BL4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BM4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BN4" s="7">
         <v>6.25E-2</v>
       </c>
       <c r="BR4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BL5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BM5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BN5" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="BR5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BL6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BM6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="BN6" s="7">
         <v>0.10416666666666667</v>
@@ -1784,7 +1809,7 @@
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BM7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BN7" s="7">
         <v>0.125</v>
@@ -1792,7 +1817,7 @@
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BM8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BN8" s="7">
         <v>0.14583333333333334</v>
@@ -1800,7 +1825,7 @@
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BM9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BN9" s="7">
         <v>0.16666666666666666</v>
@@ -1808,7 +1833,7 @@
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BM10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="BN10" s="7">
         <v>0.1875</v>
@@ -1816,7 +1841,7 @@
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BM11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BN11" s="7">
         <v>0.20833333333333334</v>
@@ -1824,7 +1849,7 @@
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BM12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BN12" s="7">
         <v>0.22916666666666666</v>
@@ -1832,7 +1857,7 @@
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="BM13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BN13" s="7">
         <v>0.25</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -11,12 +11,24 @@
     <sheet name="Города_адреса" sheetId="10" r:id="rId2"/>
     <sheet name="Авторизация" sheetId="11" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="IT">Авторизация!$BT$3:$BT$37</definedName>
+    <definedName name="восемь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="девять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$10,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="десять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$11,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="КАТЕГОРИЯ">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$3:$R$102,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="пять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$6:$R$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="семь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="три">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$4:$R$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="четыре">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$5:$R$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="шесть">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="594">
   <si>
     <t>Название вакансии</t>
   </si>
@@ -56,12 +68,6 @@
   </si>
   <si>
     <t>какие дни</t>
-  </si>
-  <si>
-    <t>Название компании</t>
-  </si>
-  <si>
-    <t>Краткое описание компании</t>
   </si>
   <si>
     <t>Регион публикации вакансии</t>
@@ -317,6 +323,1497 @@
   </si>
   <si>
     <t>Не важно</t>
+  </si>
+  <si>
+    <t>IT / Интернет / Телеком</t>
+  </si>
+  <si>
+    <t>Топ-менеджмент</t>
+  </si>
+  <si>
+    <t>Банки / Инвестиции / Ценные бумаги</t>
+  </si>
+  <si>
+    <t>Бухгалтерия / Аудит / Экономика предприятия</t>
+  </si>
+  <si>
+    <t>Страхование</t>
+  </si>
+  <si>
+    <t>HR / Кадры / Подбор персонала</t>
+  </si>
+  <si>
+    <t>Административный персонал</t>
+  </si>
+  <si>
+    <t>Консалтинг / Тренинги</t>
+  </si>
+  <si>
+    <t>Охрана / Безопасность</t>
+  </si>
+  <si>
+    <t>Юриспруденция</t>
+  </si>
+  <si>
+    <t>Дизайн / Полиграфия</t>
+  </si>
+  <si>
+    <t>Маркетинг / Реклама / PR</t>
+  </si>
+  <si>
+    <t>СМИ / Издательства</t>
+  </si>
+  <si>
+    <t>Госслужба / Некоммерческие организации</t>
+  </si>
+  <si>
+    <t>Культура / Искусство / Развлечения</t>
+  </si>
+  <si>
+    <t>Образование / Наука</t>
+  </si>
+  <si>
+    <t>Торговля</t>
+  </si>
+  <si>
+    <t>Производство / Агропром</t>
+  </si>
+  <si>
+    <t>Недвижимость / Риелторские услуги</t>
+  </si>
+  <si>
+    <t>Строительство / ЖКХ / Эксплуатация</t>
+  </si>
+  <si>
+    <t>Логистика / Склад / ВЭД</t>
+  </si>
+  <si>
+    <t>Транспорт / Автобизнес / Автосервис</t>
+  </si>
+  <si>
+    <t>Красота / Фитнес / Спорт</t>
+  </si>
+  <si>
+    <t>Медицина / Фармация / Ветеринария</t>
+  </si>
+  <si>
+    <t>Бытовые услуги / Обслуживание оборудования</t>
+  </si>
+  <si>
+    <t>Домашний персонал</t>
+  </si>
+  <si>
+    <t>Рестораны / Питание</t>
+  </si>
+  <si>
+    <t>Туризм / Гостиницы</t>
+  </si>
+  <si>
+    <t>Работа без специальной подготовки / Без опыта</t>
+  </si>
+  <si>
+    <t>Работа для студентов / Стажировки</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Профессиональная сфера</t>
+  </si>
+  <si>
+    <t>Продажи, работа с клиентами</t>
+  </si>
+  <si>
+    <t>Электронная коммерция</t>
+  </si>
+  <si>
+    <t>Ведущий разработчик</t>
+  </si>
+  <si>
+    <t>Проектировщик</t>
+  </si>
+  <si>
+    <t>Тестировщик</t>
+  </si>
+  <si>
+    <t>1С</t>
+  </si>
+  <si>
+    <t>ERP-системы</t>
+  </si>
+  <si>
+    <t>Банковское ПО</t>
+  </si>
+  <si>
+    <t>Игровое ПО</t>
+  </si>
+  <si>
+    <t>Бизнес-аналитик</t>
+  </si>
+  <si>
+    <t>Системный аналитик</t>
+  </si>
+  <si>
+    <t>Технический писатель</t>
+  </si>
+  <si>
+    <t>Компьютерная, информационная безопасность</t>
+  </si>
+  <si>
+    <t>Системное администрирование, DBA</t>
+  </si>
+  <si>
+    <t>Беспроводные технологии, сотовая связь</t>
+  </si>
+  <si>
+    <t>Монтаж оборудования и сетей</t>
+  </si>
+  <si>
+    <t>Обслуживание банкоматов и платежных терминалов</t>
+  </si>
+  <si>
+    <t>Сборка ПК</t>
+  </si>
+  <si>
+    <t>Техподдержка, сервисное обслуживание</t>
+  </si>
+  <si>
+    <t>Тендеры</t>
+  </si>
+  <si>
+    <t>IT-консалтинг</t>
+  </si>
+  <si>
+    <t>Интернет-маркетинг, SMO, SMM</t>
+  </si>
+  <si>
+    <t>Поисковая оптимизация, SEO</t>
+  </si>
+  <si>
+    <t>Веб-дизайн</t>
+  </si>
+  <si>
+    <t>Верстка</t>
+  </si>
+  <si>
+    <t>Контент, модерация</t>
+  </si>
+  <si>
+    <t>Мультимедиа</t>
+  </si>
+  <si>
+    <t>Call-центр</t>
+  </si>
+  <si>
+    <t>ПК, БД</t>
+  </si>
+  <si>
+    <t>IT-директор, технический директор</t>
+  </si>
+  <si>
+    <t>Директор, управляющий</t>
+  </si>
+  <si>
+    <t>Руководитель отдела, заместитель руководителя</t>
+  </si>
+  <si>
+    <t>Руководитель проекта</t>
+  </si>
+  <si>
+    <t>Небольшой опыт, нет опыта</t>
+  </si>
+  <si>
+    <t>Другое</t>
+  </si>
+  <si>
+    <t>HR-директор, директор по персоналу</t>
+  </si>
+  <si>
+    <t>Директор филиала, офиса</t>
+  </si>
+  <si>
+    <t>Исполнительный директор, административный директор</t>
+  </si>
+  <si>
+    <t>Арт-директор, креативный директор</t>
+  </si>
+  <si>
+    <t>Директор по маркетингу</t>
+  </si>
+  <si>
+    <t>Директор по развитию</t>
+  </si>
+  <si>
+    <t>Коммерческий директор, директор по продажам</t>
+  </si>
+  <si>
+    <t>Финансовый директор</t>
+  </si>
+  <si>
+    <t>Валютные операции</t>
+  </si>
+  <si>
+    <t>Лизинг</t>
+  </si>
+  <si>
+    <t>Межбанковские операции</t>
+  </si>
+  <si>
+    <t>Налогообложение</t>
+  </si>
+  <si>
+    <t>Обслуживание банкоматов</t>
+  </si>
+  <si>
+    <t>Пластиковые карты</t>
+  </si>
+  <si>
+    <t>Финансовая аналитика</t>
+  </si>
+  <si>
+    <t>Ценные бумаги</t>
+  </si>
+  <si>
+    <t>Консультирование, работа с клиентами</t>
+  </si>
+  <si>
+    <t>Кредитование</t>
+  </si>
+  <si>
+    <t>Продажи финансовых услуг</t>
+  </si>
+  <si>
+    <t>Расчетно-кассовое обслуживание</t>
+  </si>
+  <si>
+    <t>Руководитель департамента, высшее руководство</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>Казначейство</t>
+  </si>
+  <si>
+    <t>Касса</t>
+  </si>
+  <si>
+    <t>МСФО, GAAP</t>
+  </si>
+  <si>
+    <t>Налоговый учет</t>
+  </si>
+  <si>
+    <t>Первичная документация</t>
+  </si>
+  <si>
+    <t>Расчет заработной платы</t>
+  </si>
+  <si>
+    <t>Расчет себестоимости</t>
+  </si>
+  <si>
+    <t>Расчеты с покупателями</t>
+  </si>
+  <si>
+    <t>Составление отчетности</t>
+  </si>
+  <si>
+    <t>Учет основных средств и материальных активов</t>
+  </si>
+  <si>
+    <t>Аудит, внутренний контроль</t>
+  </si>
+  <si>
+    <t>Планово-экономическое управление</t>
+  </si>
+  <si>
+    <t>Финансовый консалтинг</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер</t>
+  </si>
+  <si>
+    <t>Заместитель главного бухгалтера</t>
+  </si>
+  <si>
+    <t>Автострахование</t>
+  </si>
+  <si>
+    <t>Страхование недвижимости, имущества</t>
+  </si>
+  <si>
+    <t>Медицинское страхование</t>
+  </si>
+  <si>
+    <t>Страхование жизни</t>
+  </si>
+  <si>
+    <t>Корпоративное страхование</t>
+  </si>
+  <si>
+    <t>Оценка, экспертиза</t>
+  </si>
+  <si>
+    <t>Урегулирование убытков</t>
+  </si>
+  <si>
+    <t>Директор филиала</t>
+  </si>
+  <si>
+    <t>Консультирование</t>
+  </si>
+  <si>
+    <t>Кадровое делопроизводство</t>
+  </si>
+  <si>
+    <t>Охрана труда</t>
+  </si>
+  <si>
+    <t>Льготы и компенсации</t>
+  </si>
+  <si>
+    <t>Обучение и развитие персонала</t>
+  </si>
+  <si>
+    <t>Тренинги</t>
+  </si>
+  <si>
+    <t>Кадровый консалтинг</t>
+  </si>
+  <si>
+    <t>Психологические консультации</t>
+  </si>
+  <si>
+    <t>Аутстаффинг, лизинг персонала</t>
+  </si>
+  <si>
+    <t>Подбор домашнего персонала</t>
+  </si>
+  <si>
+    <t>Подбор сотрудников, рекрутмент</t>
+  </si>
+  <si>
+    <t>Региональный подбор</t>
+  </si>
+  <si>
+    <t>Хедхантинг, executive search</t>
+  </si>
+  <si>
+    <t>Архив</t>
+  </si>
+  <si>
+    <t>Делопроизводство</t>
+  </si>
+  <si>
+    <t>Офис-менеджер</t>
+  </si>
+  <si>
+    <t>Переводчик</t>
+  </si>
+  <si>
+    <t>Помощник руководителя</t>
+  </si>
+  <si>
+    <t>Ресепшн, приемная</t>
+  </si>
+  <si>
+    <t>Секретарь</t>
+  </si>
+  <si>
+    <t>Оператор call-центра, на телефоне</t>
+  </si>
+  <si>
+    <t>Оператор ПК, БД</t>
+  </si>
+  <si>
+    <t>Администратор</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>Диспетчер</t>
+  </si>
+  <si>
+    <t>Курьер</t>
+  </si>
+  <si>
+    <t>Специалист АХО</t>
+  </si>
+  <si>
+    <t>Уборщик</t>
+  </si>
+  <si>
+    <t>Консалтинг</t>
+  </si>
+  <si>
+    <t>Продажи</t>
+  </si>
+  <si>
+    <t>Консалтинг в области налогов и бухучета</t>
+  </si>
+  <si>
+    <t>Управленческий консалтинг, организационное развитие</t>
+  </si>
+  <si>
+    <t>Юридический консалтинг</t>
+  </si>
+  <si>
+    <t>Аналитика, исследования рынка</t>
+  </si>
+  <si>
+    <t>Продажа услуг, работа с клиентами</t>
+  </si>
+  <si>
+    <t>Психологическое консультирование</t>
+  </si>
+  <si>
+    <t>Тренинги, коучинг</t>
+  </si>
+  <si>
+    <t>Инкассация</t>
+  </si>
+  <si>
+    <t>Личная охрана, охрана мероприятий</t>
+  </si>
+  <si>
+    <t>Охрана объектов, сопровождение грузов</t>
+  </si>
+  <si>
+    <t>Сторож / Вахтер / Консьерж</t>
+  </si>
+  <si>
+    <t>Коллекторская деятельность</t>
+  </si>
+  <si>
+    <t>Экономическая безопасность</t>
+  </si>
+  <si>
+    <t>Сотрудники полиции, МВД, МЧС</t>
+  </si>
+  <si>
+    <t>Системы безопасности и видеонаблюдения</t>
+  </si>
+  <si>
+    <t>Начальник охраны, руководитель СБ</t>
+  </si>
+  <si>
+    <t>Авторское право, интеллектуальная собственность</t>
+  </si>
+  <si>
+    <t>Административное право</t>
+  </si>
+  <si>
+    <t>Гражданское право</t>
+  </si>
+  <si>
+    <t>Трудовое право</t>
+  </si>
+  <si>
+    <t>Уголовное право</t>
+  </si>
+  <si>
+    <t>Финансовое, налоговое право</t>
+  </si>
+  <si>
+    <t>Адвокатура, судебная деятельность</t>
+  </si>
+  <si>
+    <t>Арбитраж</t>
+  </si>
+  <si>
+    <t>Лицензирование</t>
+  </si>
+  <si>
+    <t>Нотариат</t>
+  </si>
+  <si>
+    <t>Регистрация, ликвидация предприятий</t>
+  </si>
+  <si>
+    <t>Юридическое консультирование</t>
+  </si>
+  <si>
+    <t>Юридическое сопровождение бизнеса</t>
+  </si>
+  <si>
+    <t>3D-дизайн, промышленный дизайн</t>
+  </si>
+  <si>
+    <t>Веб-дизайн, мультимедиа</t>
+  </si>
+  <si>
+    <t>Дизайнер</t>
+  </si>
+  <si>
+    <t>Дизайн интерьера</t>
+  </si>
+  <si>
+    <t>Дизайн одежды, аксессуаров</t>
+  </si>
+  <si>
+    <t>Дизайн печатных изданий</t>
+  </si>
+  <si>
+    <t>Дизайн упаковки, рекламной и сувенирной продукции</t>
+  </si>
+  <si>
+    <t>Ландшафтный дизайн</t>
+  </si>
+  <si>
+    <t>Флористика</t>
+  </si>
+  <si>
+    <t>Продажа полиграфических услуг</t>
+  </si>
+  <si>
+    <t>Препресс, верстка</t>
+  </si>
+  <si>
+    <t>Технолог печати, инженер</t>
+  </si>
+  <si>
+    <t>Типографские мастера и рабочие</t>
+  </si>
+  <si>
+    <t>BTL-услуги</t>
+  </si>
+  <si>
+    <t>Бренд-менеджмент</t>
+  </si>
+  <si>
+    <t>Мерчандайзинг</t>
+  </si>
+  <si>
+    <t>Рекламно-сувенирная продукция</t>
+  </si>
+  <si>
+    <t>Трейд-маркетинг</t>
+  </si>
+  <si>
+    <t>Event-услуги</t>
+  </si>
+  <si>
+    <t>Выставочная деятельность</t>
+  </si>
+  <si>
+    <t>Копирайтер, редактор, журналист</t>
+  </si>
+  <si>
+    <t>Маркетинговые коммуникации, PR</t>
+  </si>
+  <si>
+    <t>Промоутер, модель</t>
+  </si>
+  <si>
+    <t>Медиапланирование</t>
+  </si>
+  <si>
+    <t>Продажа рекламных услуг</t>
+  </si>
+  <si>
+    <t>Производство рекламы</t>
+  </si>
+  <si>
+    <t>Директор по маркетингу, развитию</t>
+  </si>
+  <si>
+    <t>Директор по продажам</t>
+  </si>
+  <si>
+    <t>Креативный директор, арт-директор</t>
+  </si>
+  <si>
+    <t>Руководитель проекта, направления</t>
+  </si>
+  <si>
+    <t>Журналистика</t>
+  </si>
+  <si>
+    <t>Корректура</t>
+  </si>
+  <si>
+    <t>Перевод</t>
+  </si>
+  <si>
+    <t>Редакторское дело</t>
+  </si>
+  <si>
+    <t>Дизайн, верстка, препресс</t>
+  </si>
+  <si>
+    <t>Дистрибуция, распространение печатной продукции</t>
+  </si>
+  <si>
+    <t>Издательская деятельность</t>
+  </si>
+  <si>
+    <t>Фотосъемка, фотодело</t>
+  </si>
+  <si>
+    <t>Производство телепрограмм и кинофильмов</t>
+  </si>
+  <si>
+    <t>Радио</t>
+  </si>
+  <si>
+    <t>Телевидение</t>
+  </si>
+  <si>
+    <t>Главный редактор, шеф-редактор</t>
+  </si>
+  <si>
+    <t>Лицензирование, экспертиза</t>
+  </si>
+  <si>
+    <t>Социальная защита</t>
+  </si>
+  <si>
+    <t>Управление, контроль</t>
+  </si>
+  <si>
+    <t>Благотворительность</t>
+  </si>
+  <si>
+    <t>Волонтерство</t>
+  </si>
+  <si>
+    <t>Общественная деятельность</t>
+  </si>
+  <si>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>Изобразительное искусство</t>
+  </si>
+  <si>
+    <t>Искусствоведение , реставрация, антиквариат</t>
+  </si>
+  <si>
+    <t>Мода</t>
+  </si>
+  <si>
+    <t>Фотография</t>
+  </si>
+  <si>
+    <t>Актер , артист эстрады</t>
+  </si>
+  <si>
+    <t>Кино, мультипликация</t>
+  </si>
+  <si>
+    <t>Музыка, вокальное искусство</t>
+  </si>
+  <si>
+    <t>Театр</t>
+  </si>
+  <si>
+    <t>Хореография, балет</t>
+  </si>
+  <si>
+    <t>Библиотечное дело, архивное дело</t>
+  </si>
+  <si>
+    <t>Литература, переводы</t>
+  </si>
+  <si>
+    <t>Организация мероприятий</t>
+  </si>
+  <si>
+    <t>Технический, административный персонал</t>
+  </si>
+  <si>
+    <t>Руководитель отдела, коллектива</t>
+  </si>
+  <si>
+    <t>Воспитатель</t>
+  </si>
+  <si>
+    <t>Преподаватель вуза, учебного центра</t>
+  </si>
+  <si>
+    <t>Преподаватель иностранного языка</t>
+  </si>
+  <si>
+    <t>Репетитор</t>
+  </si>
+  <si>
+    <t>Учитель начальных классов</t>
+  </si>
+  <si>
+    <t>Учитель среднего и старшего звена</t>
+  </si>
+  <si>
+    <t>Логопедия, дефектология</t>
+  </si>
+  <si>
+    <t>Психология</t>
+  </si>
+  <si>
+    <t>Научная деятельность, лабораторные работы</t>
+  </si>
+  <si>
+    <t>Методист</t>
+  </si>
+  <si>
+    <t>Руководитель отдела, направления</t>
+  </si>
+  <si>
+    <t>Администратор магазина, торгового зала</t>
+  </si>
+  <si>
+    <t>Менеджер по продажам</t>
+  </si>
+  <si>
+    <t>Мерчандайзер</t>
+  </si>
+  <si>
+    <t>Продавец / Кассир</t>
+  </si>
+  <si>
+    <t>Продавец-консультант</t>
+  </si>
+  <si>
+    <t>Продажи по телефону / Телемаркетинг</t>
+  </si>
+  <si>
+    <t>Товаровед / Учет товаров</t>
+  </si>
+  <si>
+    <t>Торговый представитель</t>
+  </si>
+  <si>
+    <t>Менеджер по закупкам</t>
+  </si>
+  <si>
+    <t>Снабжение</t>
+  </si>
+  <si>
+    <t>Продажи по каталогам / MLM</t>
+  </si>
+  <si>
+    <t>Продажи / Работа с клиентами</t>
+  </si>
+  <si>
+    <t>Работа с регионами</t>
+  </si>
+  <si>
+    <t>Директор / Управляющий</t>
+  </si>
+  <si>
+    <t>Коммерческий директор / Директор по продажам</t>
+  </si>
+  <si>
+    <t>Руководитель отдела / Заместитель руководителя</t>
+  </si>
+  <si>
+    <t>Небольшой опыт / Нет опыта</t>
+  </si>
+  <si>
+    <t>Инженер / Технолог / Конструктор</t>
+  </si>
+  <si>
+    <t>КИПиА / Метрология</t>
+  </si>
+  <si>
+    <t>Контроль качества</t>
+  </si>
+  <si>
+    <t>Охрана труда / Экология</t>
+  </si>
+  <si>
+    <t>Проектирование</t>
+  </si>
+  <si>
+    <t>Сертификация</t>
+  </si>
+  <si>
+    <t>Монтажник</t>
+  </si>
+  <si>
+    <t>Оператор станков / Автоматических линий</t>
+  </si>
+  <si>
+    <t>Сборщик</t>
+  </si>
+  <si>
+    <t>Сварщик</t>
+  </si>
+  <si>
+    <t>Столяр</t>
+  </si>
+  <si>
+    <t>Техник</t>
+  </si>
+  <si>
+    <t>Токарь</t>
+  </si>
+  <si>
+    <t>Фрезеровщик</t>
+  </si>
+  <si>
+    <t>Швея</t>
+  </si>
+  <si>
+    <t>Электрик</t>
+  </si>
+  <si>
+    <t>Электромонтажник</t>
+  </si>
+  <si>
+    <t>Ювелир</t>
+  </si>
+  <si>
+    <t>Снабжение / Закупки / Тендеры</t>
+  </si>
+  <si>
+    <t>Автомобилестроение, производство автозапчастей</t>
+  </si>
+  <si>
+    <t>Атомная и другие виды энергетики</t>
+  </si>
+  <si>
+    <t>Деревообработка, производство мебели</t>
+  </si>
+  <si>
+    <t>Добывающая промышленность</t>
+  </si>
+  <si>
+    <t>Животноводство / Мясопереработка</t>
+  </si>
+  <si>
+    <t>Легкая промышленность, производство ТНП</t>
+  </si>
+  <si>
+    <t>Металлургия, металлообработка</t>
+  </si>
+  <si>
+    <t>Нефтегазовая отрасль</t>
+  </si>
+  <si>
+    <t>Оборонное производство, авиакосмическая отрасль</t>
+  </si>
+  <si>
+    <t>Пищевое производство</t>
+  </si>
+  <si>
+    <t>Приборостроение, радиотехника, электроника</t>
+  </si>
+  <si>
+    <t>Производство пищевого и торгового оборудования</t>
+  </si>
+  <si>
+    <t>Производство стройматериалов и конструкций</t>
+  </si>
+  <si>
+    <t>Растениеводство / Сельхозпроизводство</t>
+  </si>
+  <si>
+    <t>Станкостроение, производство техники и оборудования</t>
+  </si>
+  <si>
+    <t>Судостроение, судоремонт</t>
+  </si>
+  <si>
+    <t>Фармацевтическое производство</t>
+  </si>
+  <si>
+    <t>Химия, нефтехимия</t>
+  </si>
+  <si>
+    <t>Другие виды производства</t>
+  </si>
+  <si>
+    <t>Главный инженер / Главный специалист</t>
+  </si>
+  <si>
+    <t>Мастер участка / смены / Бригадир</t>
+  </si>
+  <si>
+    <t>Начальник производства / цеха / отдела</t>
+  </si>
+  <si>
+    <t>Аренда</t>
+  </si>
+  <si>
+    <t>Продажа</t>
+  </si>
+  <si>
+    <t>Консалтинг / Оценка</t>
+  </si>
+  <si>
+    <t>Руководитель отдела / направления</t>
+  </si>
+  <si>
+    <t>Архитектура</t>
+  </si>
+  <si>
+    <t>Геодезия / Землеустройство</t>
+  </si>
+  <si>
+    <t>Замерщик</t>
+  </si>
+  <si>
+    <t>Инженер ПТО</t>
+  </si>
+  <si>
+    <t>Сметное дело</t>
+  </si>
+  <si>
+    <t>Вентиляция / Климатическое оборудование</t>
+  </si>
+  <si>
+    <t>Водоснабжение / Водоотведение / Отопление</t>
+  </si>
+  <si>
+    <t>Газоснабжение</t>
+  </si>
+  <si>
+    <t>Инженер по сервису</t>
+  </si>
+  <si>
+    <t>Инженер по сетям</t>
+  </si>
+  <si>
+    <t>Инженер-строитель</t>
+  </si>
+  <si>
+    <t>Наружные трубопроводы и коммуникации</t>
+  </si>
+  <si>
+    <t>Электроснабжение / Слаботочные системы</t>
+  </si>
+  <si>
+    <t>Энергетик / Теплотехник</t>
+  </si>
+  <si>
+    <t>Благоустройство территорий</t>
+  </si>
+  <si>
+    <t>Лифты</t>
+  </si>
+  <si>
+    <t>Машинист/водитель спецтехники</t>
+  </si>
+  <si>
+    <t>Эксплуатация зданий / Коммунальные службы</t>
+  </si>
+  <si>
+    <t>Охрана труда / Техника безопасности</t>
+  </si>
+  <si>
+    <t>Технадзор</t>
+  </si>
+  <si>
+    <t>Бетонщик / Арматурщик</t>
+  </si>
+  <si>
+    <t>Дорожный рабочий</t>
+  </si>
+  <si>
+    <t>Каменщик</t>
+  </si>
+  <si>
+    <t>Кровельщик / Жестянщик</t>
+  </si>
+  <si>
+    <t>Маляр</t>
+  </si>
+  <si>
+    <t>Машинист стройтехники</t>
+  </si>
+  <si>
+    <t>Монтажник / Сборщик</t>
+  </si>
+  <si>
+    <t>Монтажник-слаботочник</t>
+  </si>
+  <si>
+    <t>Отделочник</t>
+  </si>
+  <si>
+    <t>Плотник / Столяр</t>
+  </si>
+  <si>
+    <t>Промышленный альпинист</t>
+  </si>
+  <si>
+    <t>Сантехник / Слесарь-сантехник</t>
+  </si>
+  <si>
+    <t>Слесарь / Сборщик</t>
+  </si>
+  <si>
+    <t>Штукатур / Плиточник</t>
+  </si>
+  <si>
+    <t>Электрик / Электромонтер</t>
+  </si>
+  <si>
+    <t>Главный инженер / Ведущий специалист</t>
+  </si>
+  <si>
+    <t>Прораб</t>
+  </si>
+  <si>
+    <t>Руководитель отдела / участка / Бригадир</t>
+  </si>
+  <si>
+    <t>Логистика</t>
+  </si>
+  <si>
+    <t>Экспедирование</t>
+  </si>
+  <si>
+    <t>Менеджер по ВЭД</t>
+  </si>
+  <si>
+    <t>Таможенное оформление</t>
+  </si>
+  <si>
+    <t>Закупки / Снабжение</t>
+  </si>
+  <si>
+    <t>Продажа логистических услуг</t>
+  </si>
+  <si>
+    <t>Грузчик / Комплектовщик</t>
+  </si>
+  <si>
+    <t>Кладовщик / Товаровед</t>
+  </si>
+  <si>
+    <t>Оператор</t>
+  </si>
+  <si>
+    <t>Упаковщик / Фасовщик</t>
+  </si>
+  <si>
+    <t>Заведующий / начальник склада</t>
+  </si>
+  <si>
+    <t>Автобус / маршрутное такси</t>
+  </si>
+  <si>
+    <t>Газель (малый коммерческий а/т)</t>
+  </si>
+  <si>
+    <t>На служебном грузовом а/м</t>
+  </si>
+  <si>
+    <t>На служебном легковом а/м</t>
+  </si>
+  <si>
+    <t>С личным грузовым а/м</t>
+  </si>
+  <si>
+    <t>С личным легковым а/м</t>
+  </si>
+  <si>
+    <t>Спецтехника</t>
+  </si>
+  <si>
+    <t>Такси</t>
+  </si>
+  <si>
+    <t>Троллейбус / трамвай</t>
+  </si>
+  <si>
+    <t>Лизинг / прокат автотранспорта</t>
+  </si>
+  <si>
+    <t>Продажа автозапчастей и автохимии</t>
+  </si>
+  <si>
+    <t>Продажа коммерческого транспорта / спецтехники</t>
+  </si>
+  <si>
+    <t>Продажа легковых автомобилей</t>
+  </si>
+  <si>
+    <t>Продажа мототехники и запчастей</t>
+  </si>
+  <si>
+    <t>Авиация</t>
+  </si>
+  <si>
+    <t>Водный транспорт</t>
+  </si>
+  <si>
+    <t>Железнодорожный транспорт</t>
+  </si>
+  <si>
+    <t>Метрополитен</t>
+  </si>
+  <si>
+    <t>Автомойщик</t>
+  </si>
+  <si>
+    <t>Заправщик</t>
+  </si>
+  <si>
+    <t>Жестянщик</t>
+  </si>
+  <si>
+    <t>Маляр / Колорист</t>
+  </si>
+  <si>
+    <t>Слесарь / Механик</t>
+  </si>
+  <si>
+    <t>Арматурщик</t>
+  </si>
+  <si>
+    <t>Инженер</t>
+  </si>
+  <si>
+    <t>Установщик дополнительного оборудования</t>
+  </si>
+  <si>
+    <t>Шиномонтажник</t>
+  </si>
+  <si>
+    <t>Визажист</t>
+  </si>
+  <si>
+    <t>Косметология</t>
+  </si>
+  <si>
+    <t>Маникюр / Педикюр</t>
+  </si>
+  <si>
+    <t>Массаж</t>
+  </si>
+  <si>
+    <t>Парикмахер / Стилист</t>
+  </si>
+  <si>
+    <t>Тренер / Инструктор</t>
+  </si>
+  <si>
+    <t>Продажи услуг / Работа с клиентами</t>
+  </si>
+  <si>
+    <t>Ветеринария</t>
+  </si>
+  <si>
+    <t>Аллерголог-иммунолог</t>
+  </si>
+  <si>
+    <t>Анестезиолог</t>
+  </si>
+  <si>
+    <t>Гастроэнтеролог</t>
+  </si>
+  <si>
+    <t>Гинеколог / Акушер</t>
+  </si>
+  <si>
+    <t>Кардиолог</t>
+  </si>
+  <si>
+    <t>Косметолог / Дерматовенеролог</t>
+  </si>
+  <si>
+    <t>Медицинская диагностика / УЗИ / Рентген</t>
+  </si>
+  <si>
+    <t>Невролог / Мануальный терапевт</t>
+  </si>
+  <si>
+    <t>Онколог / Маммолог</t>
+  </si>
+  <si>
+    <t>Отоларинголог</t>
+  </si>
+  <si>
+    <t>Офтальмолог</t>
+  </si>
+  <si>
+    <t>Педиатр</t>
+  </si>
+  <si>
+    <t>Психиатр / Нарколог</t>
+  </si>
+  <si>
+    <t>Стоматолог</t>
+  </si>
+  <si>
+    <t>Терапевт</t>
+  </si>
+  <si>
+    <t>Травматолог / Ортопед</t>
+  </si>
+  <si>
+    <t>Уролог</t>
+  </si>
+  <si>
+    <t>Физиотерапевт / ЛФК</t>
+  </si>
+  <si>
+    <t>Хирург</t>
+  </si>
+  <si>
+    <t>Эндокринолог</t>
+  </si>
+  <si>
+    <t>Другие специалисты</t>
+  </si>
+  <si>
+    <t>Ассистент</t>
+  </si>
+  <si>
+    <t>Лаборант</t>
+  </si>
+  <si>
+    <t>Массажист</t>
+  </si>
+  <si>
+    <t>Медсестра</t>
+  </si>
+  <si>
+    <t>Санитар</t>
+  </si>
+  <si>
+    <t>Сиделка / Няня</t>
+  </si>
+  <si>
+    <t>Фельдшер</t>
+  </si>
+  <si>
+    <t>Обслуживание медтехники и оборудования</t>
+  </si>
+  <si>
+    <t>Оптика</t>
+  </si>
+  <si>
+    <t>Продажа медицинских товаров / услуг</t>
+  </si>
+  <si>
+    <t>Фармацевт / Провизор</t>
+  </si>
+  <si>
+    <t>Клинические испытания / Лабораторные исследования</t>
+  </si>
+  <si>
+    <t>Консультирование / Экспертиза</t>
+  </si>
+  <si>
+    <t>Медицинский представитель</t>
+  </si>
+  <si>
+    <t>Регистратура / Административный персонал</t>
+  </si>
+  <si>
+    <t>Главврач / Заведующий отделением</t>
+  </si>
+  <si>
+    <t>Металлоремонт</t>
+  </si>
+  <si>
+    <t>Пошив и ремонт одежды</t>
+  </si>
+  <si>
+    <t>Ремонт часов, ювелирных изделий</t>
+  </si>
+  <si>
+    <t>Ремонт электроники, ПК, телефонов</t>
+  </si>
+  <si>
+    <t>Уборка помещений / Клининговые услуги</t>
+  </si>
+  <si>
+    <t>Фото / видеосъемка</t>
+  </si>
+  <si>
+    <t>Химчистка / Прачечная</t>
+  </si>
+  <si>
+    <t>Прием заказов / Диспетчер</t>
+  </si>
+  <si>
+    <t>Продажа услуг / Работа с клиентами</t>
+  </si>
+  <si>
+    <t>Пищевое и холодильное оборудование</t>
+  </si>
+  <si>
+    <t>Промышленное оборудование</t>
+  </si>
+  <si>
+    <t>Системы вентиляции и климатическая техника</t>
+  </si>
+  <si>
+    <t>Строительная и спецтехника</t>
+  </si>
+  <si>
+    <t>Торговое и складское оборудование</t>
+  </si>
+  <si>
+    <t>Руководитель отдела / службы</t>
+  </si>
+  <si>
+    <t>Горничная</t>
+  </si>
+  <si>
+    <t>Домработница</t>
+  </si>
+  <si>
+    <t>Повар</t>
+  </si>
+  <si>
+    <t>Помощник по хозяйству</t>
+  </si>
+  <si>
+    <t>Разнорабочий</t>
+  </si>
+  <si>
+    <t>Садовник</t>
+  </si>
+  <si>
+    <t>Семейная пара</t>
+  </si>
+  <si>
+    <t>Управляющий</t>
+  </si>
+  <si>
+    <t>Экономка</t>
+  </si>
+  <si>
+    <t>Воспитатель / Гувернантка</t>
+  </si>
+  <si>
+    <t>Няня</t>
+  </si>
+  <si>
+    <t>Сиделка</t>
+  </si>
+  <si>
+    <t>Кондитер</t>
+  </si>
+  <si>
+    <t>Пекарь</t>
+  </si>
+  <si>
+    <t>Пиццамейкер</t>
+  </si>
+  <si>
+    <t>Посудомойщик</t>
+  </si>
+  <si>
+    <t>Сушист</t>
+  </si>
+  <si>
+    <t>Бармен / Бариста</t>
+  </si>
+  <si>
+    <t>Буфетчик</t>
+  </si>
+  <si>
+    <t>Кассир</t>
+  </si>
+  <si>
+    <t>Официант</t>
+  </si>
+  <si>
+    <t>Сомелье</t>
+  </si>
+  <si>
+    <t>Хостес / Администратор зала</t>
+  </si>
+  <si>
+    <t>Кальянщик</t>
+  </si>
+  <si>
+    <t>Су-шеф</t>
+  </si>
+  <si>
+    <t>Шеф-повар / Заведующий производством</t>
+  </si>
+  <si>
+    <t>Авиа / железнодорожные билеты</t>
+  </si>
+  <si>
+    <t>Бронирование гостиниц</t>
+  </si>
+  <si>
+    <t>Визовая поддержка</t>
+  </si>
+  <si>
+    <t>Экскурсионное обслуживание</t>
+  </si>
+  <si>
+    <t>Администратор / Портье</t>
+  </si>
+  <si>
+    <t>Обслуживающий персонал</t>
+  </si>
+  <si>
+    <t>Организация и проведение мероприятий</t>
+  </si>
+  <si>
+    <t>Агент</t>
+  </si>
+  <si>
+    <t>Мерчандайзинг / Выкладка товара</t>
+  </si>
+  <si>
+    <t>Тайный покупатель / Тайный клиент</t>
+  </si>
+  <si>
+    <t>Грузчик</t>
+  </si>
+  <si>
+    <t>Складские работы</t>
+  </si>
+  <si>
+    <t>Гардеробщик</t>
+  </si>
+  <si>
+    <t>Дворник</t>
+  </si>
+  <si>
+    <t>Заправщик / Парковщик</t>
+  </si>
+  <si>
+    <t>Персонал гостиниц и ресторанов</t>
+  </si>
+  <si>
+    <t>Прием заказов</t>
+  </si>
+  <si>
+    <t>Оператор call-центра / на телефоне</t>
+  </si>
+  <si>
+    <t>Оператор ПК</t>
+  </si>
+  <si>
+    <t>Промоутер / Проведение опросов</t>
+  </si>
+  <si>
+    <t>Расклейщик / Раздатчик</t>
+  </si>
+  <si>
+    <t>Маркетинг / Реклама / СМИ</t>
+  </si>
+  <si>
+    <t>Производство</t>
+  </si>
+  <si>
+    <t>Рестораны / Гостиницы / Туризм</t>
+  </si>
+  <si>
+    <t>Строительство</t>
+  </si>
+  <si>
+    <t>Финансы / Банки</t>
+  </si>
+  <si>
+    <t>Стажировка</t>
   </si>
 </sst>
 </file>
@@ -417,6 +1914,16 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="BS1:BS30" totalsRowShown="0">
+  <autoFilter ref="BS1:BS30"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="IT / Интернет / Телеком"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +2236,7 @@
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" customWidth="1"/>
     <col min="17" max="17" width="14.7109375" customWidth="1"/>
-    <col min="18" max="18" width="30.42578125" customWidth="1"/>
+    <col min="18" max="18" width="45.28515625" customWidth="1"/>
     <col min="19" max="19" width="27" customWidth="1"/>
     <col min="20" max="20" width="32.28515625" customWidth="1"/>
   </cols>
@@ -743,7 +2250,7 @@
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>5</v>
@@ -759,13 +2266,13 @@
         <v>4</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>9</v>
@@ -777,13 +2284,13 @@
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -808,10 +2315,10 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>11</v>
@@ -828,7 +2335,7 @@
     </row>
     <row r="3" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>10000</v>
@@ -837,13 +2344,13 @@
         <v>100000</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="9">
         <v>20</v>
@@ -852,16 +2359,16 @@
         <v>60</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M3">
         <v>999</v>
@@ -876,12 +2383,18 @@
         <v>0.9375</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>10000</v>
@@ -890,13 +2403,13 @@
         <v>100000</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="9">
         <v>20</v>
@@ -905,16 +2418,16 @@
         <v>60</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M4">
         <v>999</v>
@@ -929,12 +2442,18 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>119</v>
+      </c>
+      <c r="S4" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -943,13 +2462,13 @@
         <v>100000</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5" s="9">
         <v>20</v>
@@ -958,16 +2477,16 @@
         <v>60</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M5">
         <v>999</v>
@@ -982,13 +2501,19 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" t="s">
+        <v>590</v>
       </c>
       <c r="AB5" s="7"/>
     </row>
     <row r="6" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -997,13 +2522,13 @@
         <v>100000</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="9">
         <v>20</v>
@@ -1012,16 +2537,16 @@
         <v>60</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6">
         <v>999</v>
@@ -1036,13 +2561,19 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="R6" t="s">
+        <v>120</v>
+      </c>
+      <c r="S6" t="s">
+        <v>489</v>
       </c>
       <c r="AB6" s="7"/>
     </row>
     <row r="7" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -1051,13 +2582,13 @@
         <v>100000</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="9">
         <v>20</v>
@@ -1066,16 +2597,16 @@
         <v>60</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7">
         <v>999</v>
@@ -1090,13 +2621,19 @@
         <v>0.5625</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="R7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" t="s">
+        <v>239</v>
       </c>
       <c r="AB7" s="7"/>
     </row>
     <row r="8" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -1105,13 +2642,13 @@
         <v>100000</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="9">
         <v>20</v>
@@ -1120,16 +2657,16 @@
         <v>60</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M8">
         <v>999</v>
@@ -1144,21 +2681,45 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="Q8" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="R8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" t="s">
+        <v>235</v>
       </c>
       <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
+      <c r="R9" t="s">
+        <v>104</v>
+      </c>
+      <c r="S9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
+      <c r="R10" t="s">
+        <v>102</v>
+      </c>
+      <c r="S10" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
+      <c r="R11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G12" s="9"/>
@@ -1414,10 +2975,37 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:J2"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="10">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H46">
       <formula1>1</formula1>
       <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S103:S820 S3 S12:S102">
+      <formula1>КАТЕГОРИЯ</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4">
+      <formula1>три</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
+      <formula1>четыре</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6">
+      <formula1>пять</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7">
+      <formula1>шесть</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8">
+      <formula1>семь</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S9">
+      <formula1>восемь</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S11">
+      <formula1>десять</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10">
+      <formula1>девять</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1428,7 +3016,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Авторизация!$BN$1:$BN$48</xm:f>
@@ -1465,6 +3053,12 @@
           </x14:formula1>
           <xm:sqref>F3:F582</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Авторизация!$BS$1:$BS$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>R3:R1347</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1476,7 +3070,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,186 +3082,186 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1679,10 +3273,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:BR48"/>
+  <dimension ref="A1:BU611"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BQ3" sqref="BQ3"/>
+    <sheetView topLeftCell="BR596" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BU458" sqref="BU458:BU468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,348 +3288,5231 @@
     <col min="64" max="64" width="22.140625" customWidth="1"/>
     <col min="68" max="68" width="15.28515625" customWidth="1"/>
     <col min="70" max="70" width="25.28515625" customWidth="1"/>
+    <col min="71" max="71" width="45.85546875" customWidth="1"/>
+    <col min="72" max="72" width="61.140625" customWidth="1"/>
+    <col min="73" max="73" width="82.140625" customWidth="1"/>
+    <col min="74" max="74" width="5.5703125" customWidth="1"/>
+    <col min="75" max="75" width="5.42578125" customWidth="1"/>
+    <col min="76" max="76" width="13" customWidth="1"/>
+    <col min="77" max="77" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="BL1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BM1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BN1" s="7">
         <v>0</v>
       </c>
       <c r="BP1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BQ1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS1" t="s">
         <v>97</v>
       </c>
-      <c r="BR1" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
       <c r="BL2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BM2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BN2" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="BP2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BQ2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BR2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BL3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BN3" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="BP3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BQ3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BR3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BL4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BM4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BN4" s="7">
         <v>6.25E-2</v>
       </c>
       <c r="BR4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BL5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BM5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="BN5" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="BR5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BL6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BM6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BN6" s="7">
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BN7" s="7">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS7" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="BN8" s="7">
         <v>0.14583333333333334</v>
       </c>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BN9" s="7">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BN10" s="7">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BN11" s="7">
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="BN12" s="7">
         <v>0.22916666666666666</v>
       </c>
-    </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BN13" s="7">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS13" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BN14" s="7">
         <v>0.27083333333333331</v>
       </c>
-    </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS14" t="s">
+        <v>110</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BN15" s="7">
         <v>0.29166666666666669</v>
       </c>
-    </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BS15" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BN16" s="7">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="17" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS16" t="s">
+        <v>112</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN17" s="7">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="18" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS17" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN18" s="7">
         <v>0.35416666666666669</v>
       </c>
-    </row>
-    <row r="19" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS18" t="s">
+        <v>114</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN19" s="7">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="20" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS19" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN20" s="7">
         <v>0.39583333333333331</v>
       </c>
-    </row>
-    <row r="21" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS20" t="s">
+        <v>116</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN21" s="7">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="22" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN22" s="7">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="23" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS22" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN23" s="7">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="24" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS23" t="s">
+        <v>119</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN24" s="7">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="25" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN25" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS25" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN26" s="7">
         <v>0.52083333333333337</v>
       </c>
-    </row>
-    <row r="27" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS26" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN27" s="7">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="28" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS27" t="s">
+        <v>123</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN28" s="7">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="29" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN29" s="7">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="30" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS29" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN30" s="7">
         <v>0.60416666666666663</v>
       </c>
-    </row>
-    <row r="31" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BS30" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN31" s="7">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="32" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT31" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN32" s="7">
         <v>0.64583333333333337</v>
       </c>
-    </row>
-    <row r="33" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT32" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN33" s="7">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="34" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT33" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN34" s="7">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="35" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT34" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN35" s="7">
         <v>0.70833333333333337</v>
       </c>
-    </row>
-    <row r="36" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT35" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN36" s="7">
         <v>0.72916666666666663</v>
       </c>
-    </row>
-    <row r="37" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT36" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN37" s="7">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="38" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT37" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN38" s="7">
         <v>0.77083333333333337</v>
       </c>
-    </row>
-    <row r="39" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT38" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN39" s="7">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="40" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT39" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN40" s="7">
         <v>0.8125</v>
       </c>
-    </row>
-    <row r="41" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT40" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN41" s="7">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="42" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT41" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN42" s="7">
         <v>0.85416666666666663</v>
       </c>
-    </row>
-    <row r="43" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT42" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN43" s="7">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="44" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT43" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN44" s="7">
         <v>0.89583333333333337</v>
       </c>
-    </row>
-    <row r="45" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT44" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN45" s="7">
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="46" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT45" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN46" s="7">
         <v>0.9375</v>
       </c>
-    </row>
-    <row r="47" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT46" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN47" s="7">
         <v>0.95833333333333337</v>
       </c>
-    </row>
-    <row r="48" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BT47" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="66:73" x14ac:dyDescent="0.25">
       <c r="BN48" s="7">
         <v>0.97916666666666663</v>
+      </c>
+      <c r="BT48" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT49" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT50" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT51" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT52" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT53" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT54" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT55" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT56" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT57" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT58" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT59" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT60" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT61" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT62" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT63" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT64" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT65" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU65" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT66" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT67" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT68" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT69" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU69" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT70" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT71" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT72" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT73" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT74" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU74" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT75" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT76" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU76" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT77" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT78" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT79" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU79" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT80" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT81" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU81" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT82" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT83" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT84" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT85" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU85" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT86" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT87" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT88" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU88" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT89" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT90" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT91" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU91" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT92" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT93" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU93" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT94" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU94" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT95" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU95" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT96" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU96" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT97" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT98" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU98" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT99" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU99" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT100" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU100" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT101" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU101" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT102" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU102" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT103" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU103" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT104" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU104" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="105" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT105" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU105" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT106" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU106" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT107" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU107" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT108" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU108" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT109" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU109" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT110" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU110" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT111" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT112" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT113" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT114" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT115" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU115" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT116" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU116" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT117" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU117" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT118" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU118" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT119" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU119" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT120" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU120" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT121" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU121" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT122" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU122" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT123" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU123" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="124" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT124" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU124" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT125" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU125" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT126" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU126" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="127" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT127" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU127" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="128" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT128" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU128" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT129" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU129" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT130" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT131" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT132" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT133" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU133" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT134" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU134" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT135" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU135" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="136" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT136" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU136" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT137" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU137" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="138" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT138" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU138" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT139" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU139" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT140" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU140" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT141" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU141" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="142" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT142" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU142" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="143" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT143" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT144" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU144" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT145" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU145" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT146" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU146" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="147" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT147" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU147" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="148" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT148" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU148" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="149" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT149" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU149" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="150" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT150" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU150" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="151" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT151" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU151" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="152" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT152" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU152" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="153" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT153" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU153" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="154" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT154" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU154" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="155" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT155" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU155" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="156" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT156" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT157" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU157" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT158" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU158" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="159" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT159" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU159" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT160" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU160" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="161" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT161" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU161" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="162" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT162" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU162" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="163" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT163" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU163" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="164" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT164" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU164" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="165" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT165" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU165" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="166" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT166" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU166" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="167" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT167" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU167" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="168" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT168" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU168" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="169" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT169" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU169" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="170" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT170" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU170" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="171" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT171" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU171" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="172" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT172" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU172" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="173" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT173" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU173" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="174" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT174" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU174" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="175" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT175" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU175" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="176" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT176" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU176" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="177" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT177" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU177" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="178" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT178" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU178" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="179" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT179" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU179" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="180" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT180" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU180" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="181" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT181" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU181" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="182" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT182" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU182" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="183" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT183" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU183" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="184" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT184" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU184" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="185" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT185" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU185" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="186" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT186" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU186" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="187" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT187" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU187" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="188" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT188" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU188" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="189" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT189" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU189" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="190" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT190" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU190" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="191" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT191" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU191" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="192" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT192" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU192" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="193" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT193" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU193" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="194" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT194" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU194" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT195" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU195" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="196" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT196" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU196" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="197" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT197" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU197" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="198" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT198" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU198" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT199" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU199" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="200" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT200" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU200" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="201" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT201" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU201" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="202" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT202" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU202" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="203" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT203" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU203" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="204" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT204" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU204" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="205" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT205" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU205" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="206" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT206" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU206" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="207" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT207" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU207" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="208" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT208" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU208" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="209" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT209" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU209" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="210" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT210" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU210" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="211" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT211" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU211" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="212" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT212" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU212" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="213" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT213" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU213" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="214" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT214" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU214" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="215" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT215" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU215" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="216" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT216" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU216" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="217" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT217" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU217" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="218" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT218" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU218" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="219" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT219" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU219" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="220" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT220" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU220" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="221" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT221" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU221" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="222" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT222" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU222" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="223" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT223" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU223" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="224" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT224" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU224" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="225" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT225" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU225" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="226" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT226" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU226" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="227" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT227" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU227" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="228" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT228" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU228" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="229" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT229" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU229" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="230" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT230" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU230" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="231" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT231" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU231" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="232" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT232" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU232" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="233" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT233" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU233" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="234" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT234" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU234" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="235" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT235" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU235" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="236" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT236" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU236" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="237" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT237" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU237" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="238" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT238" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU238" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="239" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT239" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU239" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="240" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT240" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU240" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="241" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT241" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU241" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="242" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT242" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU242" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="243" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT243" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU243" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="244" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT244" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU244" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="245" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT245" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU245" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="246" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT246" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU246" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="247" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT247" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU247" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="248" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT248" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU248" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="249" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT249" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU249" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="250" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT250" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU250" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="251" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT251" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU251" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="252" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT252" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU252" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="253" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT253" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU253" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="254" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT254" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU254" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="255" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT255" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU255" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="256" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT256" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU256" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="257" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT257" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU257" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="258" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT258" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU258" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="259" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT259" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU259" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="260" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT260" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU260" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="261" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT261" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU261" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="262" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT262" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU262" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="263" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT263" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU263" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="264" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT264" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU264" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="265" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT265" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU265" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="266" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT266" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU266" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="267" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT267" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU267" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="268" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT268" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU268" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="269" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT269" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU269" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="270" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT270" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU270" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="271" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT271" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU271" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="272" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT272" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU272" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="273" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT273" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU273" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="274" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT274" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU274" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="275" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT275" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU275" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="276" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT276" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU276" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="277" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT277" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU277" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="278" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT278" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU278" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="279" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT279" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU279" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="280" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT280" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU280" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="281" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT281" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU281" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="282" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT282" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU282" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="283" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT283" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU283" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="284" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT284" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU284" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="285" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT285" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU285" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="286" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT286" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU286" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="287" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT287" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU287" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="288" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT288" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU288" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="289" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT289" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU289" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="290" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT290" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU290" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="291" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT291" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU291" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="292" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT292" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU292" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="293" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT293" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU293" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="294" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT294" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU294" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="295" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT295" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU295" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="296" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT296" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU296" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="297" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT297" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU297" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="298" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT298" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU298" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="299" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT299" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU299" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="300" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT300" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU300" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="301" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT301" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU301" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="302" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT302" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU302" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="303" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT303" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU303" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="304" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT304" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU304" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="305" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT305" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU305" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="306" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT306" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU306" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="307" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT307" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU307" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="308" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT308" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU308" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="309" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT309" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU309" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="310" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT310" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU310" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="311" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT311" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU311" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="312" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT312" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU312" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="313" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT313" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU313" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="314" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT314" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU314" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="315" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT315" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU315" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="316" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT316" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU316" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="317" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT317" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU317" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="318" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT318" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU318" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="319" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT319" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU319" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="320" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT320" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU320" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="321" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT321" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU321" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="322" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT322" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU322" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="323" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT323" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU323" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="324" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT324" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU324" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="325" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT325" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU325" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="326" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT326" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU326" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="327" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT327" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU327" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="328" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT328" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU328" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="329" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT329" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU329" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="330" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT330" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU330" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="331" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT331" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU331" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="332" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT332" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU332" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="333" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT333" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU333" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="334" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT334" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU334" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="335" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT335" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU335" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="336" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT336" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU336" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="337" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT337" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU337" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="338" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT338" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU338" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="339" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT339" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU339" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="340" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT340" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU340" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="341" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT341" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU341" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="342" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT342" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU342" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="343" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT343" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU343" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="344" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT344" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU344" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="345" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT345" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU345" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="346" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT346" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU346" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="347" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT347" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU347" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="348" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT348" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU348" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="349" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT349" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU349" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="350" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT350" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU350" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="351" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT351" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU351" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="352" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT352" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU352" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="353" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT353" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU353" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="354" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT354" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU354" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="355" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT355" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU355" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="356" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT356" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU356" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="357" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT357" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU357" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="358" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT358" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU358" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="359" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT359" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU359" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="360" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT360" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU360" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="361" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT361" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU361" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="362" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT362" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU362" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="363" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT363" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU363" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="364" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT364" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU364" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="365" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT365" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU365" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="366" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT366" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU366" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="367" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT367" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU367" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="368" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT368" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU368" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="369" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT369" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU369" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="370" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT370" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU370" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="371" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT371" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU371" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="372" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT372" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU372" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="373" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT373" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU373" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="374" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT374" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU374" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="375" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT375" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU375" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="376" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT376" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU376" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="377" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT377" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU377" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="378" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT378" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU378" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="379" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT379" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU379" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="380" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT380" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU380" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="381" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT381" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU381" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="382" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT382" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU382" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="383" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT383" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU383" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="384" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT384" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU384" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="385" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT385" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU385" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="386" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT386" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU386" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="387" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT387" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU387" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="388" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT388" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU388" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="389" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT389" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU389" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="390" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT390" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU390" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="391" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT391" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU391" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="392" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT392" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU392" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="393" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT393" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU393" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="394" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT394" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU394" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="395" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT395" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU395" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="396" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT396" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU396" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="397" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT397" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU397" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="398" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT398" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU398" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="399" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT399" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU399" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="400" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT400" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU400" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="401" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT401" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU401" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="402" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT402" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU402" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="403" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT403" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU403" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="404" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT404" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU404" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="405" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT405" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU405" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="406" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT406" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU406" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="407" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT407" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU407" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="408" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT408" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU408" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="409" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT409" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU409" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="410" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT410" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU410" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="411" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT411" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU411" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="412" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT412" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU412" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="413" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT413" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU413" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="414" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT414" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU414" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="415" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT415" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU415" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="416" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT416" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU416" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="417" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT417" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU417" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="418" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT418" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU418" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="419" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT419" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU419" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="420" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT420" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU420" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="421" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT421" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU421" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="422" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT422" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU422" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="423" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT423" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU423" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="424" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT424" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU424" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="425" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT425" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU425" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="426" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT426" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU426" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="427" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT427" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU427" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="428" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT428" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU428" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="429" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT429" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU429" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="430" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT430" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU430" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="431" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT431" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU431" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="432" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT432" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU432" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="433" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT433" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU433" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="434" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT434" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU434" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="435" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT435" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU435" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="436" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT436" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU436" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="437" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT437" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU437" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="438" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT438" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU438" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="439" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT439" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU439" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="440" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT440" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU440" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="441" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT441" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU441" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="442" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT442" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU442" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="443" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT443" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU443" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="444" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT444" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU444" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="445" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT445" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU445" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="446" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT446" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU446" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="447" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT447" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU447" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="448" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT448" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU448" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="449" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT449" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU449" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="450" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT450" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU450" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="451" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT451" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU451" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="452" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT452" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU452" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="453" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT453" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU453" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="454" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT454" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU454" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="455" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT455" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU455" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="456" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT456" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU456" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="457" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT457" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU457" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="458" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT458" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU458" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="459" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT459" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU459" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="460" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT460" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU460" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="461" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT461" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU461" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="462" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT462" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU462" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="463" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT463" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU463" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="464" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT464" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU464" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="465" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT465" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU465" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="466" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT466" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU466" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="467" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT467" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU467" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="468" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT468" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU468" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="469" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT469" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU469" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="470" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT470" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU470" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="471" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT471" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU471" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="472" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT472" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU472" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="473" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT473" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU473" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="474" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT474" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU474" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="475" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT475" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU475" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="476" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT476" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU476" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="477" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT477" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU477" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="478" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT478" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU478" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="479" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT479" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU479" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="480" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT480" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU480" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="481" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT481" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU481" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="482" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT482" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU482" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="483" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT483" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU483" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="484" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT484" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU484" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="485" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT485" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU485" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="486" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT486" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU486" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="487" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT487" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU487" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="488" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT488" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU488" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="489" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT489" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU489" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="490" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT490" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU490" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="491" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT491" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU491" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="492" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT492" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU492" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="493" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT493" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU493" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="494" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT494" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU494" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="495" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT495" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU495" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="496" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT496" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU496" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="497" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT497" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU497" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="498" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT498" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU498" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="499" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT499" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU499" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="500" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT500" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU500" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="501" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT501" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU501" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="502" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT502" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU502" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="503" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT503" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU503" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="504" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT504" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU504" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="505" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT505" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU505" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="506" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT506" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU506" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="507" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT507" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU507" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="508" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT508" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU508" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="509" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT509" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU509" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="510" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT510" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU510" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="511" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT511" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU511" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="512" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT512" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU512" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="513" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT513" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU513" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="514" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT514" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU514" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="515" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT515" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU515" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="516" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT516" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU516" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="517" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT517" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU517" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="518" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT518" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU518" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="519" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT519" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU519" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="520" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT520" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU520" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="521" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT521" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU521" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="522" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT522" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU522" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="523" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT523" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU523" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="524" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT524" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU524" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="525" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT525" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU525" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="526" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT526" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU526" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="527" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT527" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU527" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="528" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT528" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU528" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="529" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT529" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU529" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="530" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT530" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU530" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="531" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT531" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU531" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="532" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT532" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU532" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="533" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT533" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU533" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="534" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT534" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU534" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="535" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT535" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU535" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="536" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT536" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU536" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="537" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT537" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU537" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="538" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT538" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU538" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="539" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT539" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU539" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="540" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT540" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU540" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="541" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT541" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU541" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="542" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT542" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU542" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="543" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT543" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU543" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="544" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT544" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU544" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="545" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT545" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU545" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="546" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT546" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU546" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="547" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT547" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU547" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="548" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT548" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU548" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="549" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT549" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU549" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="550" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT550" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU550" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="551" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT551" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU551" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="552" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT552" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU552" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="553" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT553" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU553" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="554" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT554" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU554" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="555" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT555" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU555" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="556" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT556" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU556" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="557" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT557" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU557" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="558" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT558" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU558" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="559" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT559" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU559" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="560" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT560" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU560" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="561" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT561" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU561" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="562" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT562" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU562" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="563" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT563" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU563" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="564" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT564" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU564" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="565" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT565" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU565" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="566" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT566" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU566" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="567" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT567" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU567" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="568" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT568" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU568" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="569" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT569" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU569" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="570" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT570" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU570" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="571" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT571" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU571" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="572" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT572" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU572" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="573" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT573" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU573" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="574" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT574" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU574" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="575" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT575" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU575" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="576" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT576" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU576" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="577" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT577" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU577" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT578" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU578" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="579" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT579" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU579" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="580" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT580" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU580" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="581" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT581" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU581" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="582" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT582" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU582" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="583" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT583" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU583" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="584" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT584" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU584" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="585" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT585" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU585" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="586" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT586" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU586" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="587" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT587" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU587" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="588" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT588" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU588" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="589" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT589" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU589" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="590" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT590" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU590" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="591" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT591" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU591" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="592" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT592" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU592" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="593" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT593" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU593" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="594" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT594" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU594" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="595" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT595" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU595" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="596" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT596" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU596" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="597" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT597" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU597" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="598" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT598" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU598" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="599" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT599" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU599" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="600" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT600" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU600" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="601" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT601" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU601" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="602" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT602" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU602" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="603" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT603" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU603" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="604" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT604" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU604" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="605" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT605" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU605" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="606" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT606" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU606" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="607" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT607" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU607" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="608" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT608" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU608" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="609" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT609" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU609" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="610" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT610" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU610" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="611" spans="72:73" x14ac:dyDescent="0.25">
+      <c r="BT611" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU611" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2044,5 +8521,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -13,14 +13,18 @@
   </sheets>
   <definedNames>
     <definedName name="IT">Авторизация!$BT$3:$BT$37</definedName>
-    <definedName name="восемь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="восемь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="двенадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$13,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="девять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$10,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="десять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$11,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="КАТЕГОРИЯ">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$3:$R$102,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="одинадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$12,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="пять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$6:$R$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="семь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="три">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$4:$R$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="тринадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$14,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="четыре">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$5:$R$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="четырнадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$15,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="шесть">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="593">
   <si>
     <t>Название вакансии</t>
   </si>
@@ -68,9 +72,6 @@
   </si>
   <si>
     <t>какие дни</t>
-  </si>
-  <si>
-    <t>Регион публикации вакансии</t>
   </si>
   <si>
     <t>Город</t>
@@ -2213,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,11 +2238,10 @@
     <col min="16" max="16" width="10.42578125" customWidth="1"/>
     <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="18" width="45.28515625" customWidth="1"/>
-    <col min="19" max="19" width="27" customWidth="1"/>
-    <col min="20" max="20" width="32.28515625" customWidth="1"/>
+    <col min="19" max="19" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>5</v>
@@ -2266,13 +2266,13 @@
         <v>4</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>9</v>
@@ -2284,16 +2284,13 @@
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -2315,10 +2312,10 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>11</v>
@@ -2331,11 +2328,10 @@
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>10000</v>
@@ -2344,13 +2340,13 @@
         <v>100000</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="9">
         <v>20</v>
@@ -2359,16 +2355,16 @@
         <v>60</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="M3">
         <v>999</v>
@@ -2383,18 +2379,18 @@
         <v>0.9375</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>10000</v>
@@ -2403,13 +2399,13 @@
         <v>100000</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="9">
         <v>20</v>
@@ -2418,16 +2414,16 @@
         <v>60</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="M4">
         <v>999</v>
@@ -2442,18 +2438,18 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="Q4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -2462,13 +2458,13 @@
         <v>100000</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="9">
         <v>20</v>
@@ -2477,16 +2473,16 @@
         <v>60</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="M5">
         <v>999</v>
@@ -2501,19 +2497,19 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="Q5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S5" t="s">
-        <v>590</v>
-      </c>
-      <c r="AB5" s="7"/>
-    </row>
-    <row r="6" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -2522,13 +2518,13 @@
         <v>100000</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="9">
         <v>20</v>
@@ -2537,16 +2533,16 @@
         <v>60</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="M6">
         <v>999</v>
@@ -2561,19 +2557,19 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="Q6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S6" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB6" s="7"/>
-    </row>
-    <row r="7" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -2582,13 +2578,13 @@
         <v>100000</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="9">
         <v>20</v>
@@ -2597,16 +2593,16 @@
         <v>60</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="M7">
         <v>999</v>
@@ -2621,19 +2617,19 @@
         <v>0.5625</v>
       </c>
       <c r="Q7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB7" s="7"/>
-    </row>
-    <row r="8" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -2642,13 +2638,13 @@
         <v>100000</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="9">
         <v>20</v>
@@ -2657,16 +2653,16 @@
         <v>60</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="M8">
         <v>999</v>
@@ -2681,63 +2677,87 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="Q8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S8" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB8" s="7"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="R9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="R10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="R11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>100</v>
+      </c>
+      <c r="S13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>101</v>
+      </c>
+      <c r="S14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>99</v>
+      </c>
+      <c r="S15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
@@ -2958,8 +2978,7 @@
       <c r="H70" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="T1:T2"/>
+  <mergeCells count="14">
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="G1:H1"/>
@@ -2975,12 +2994,12 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:J2"/>
   </mergeCells>
-  <dataValidations count="10">
+  <dataValidations count="14">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H46">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S103:S820 S3 S12:S102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S103:S820 S3 S16:S102">
       <formula1>КАТЕГОРИЯ</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4">
@@ -3006,6 +3025,18 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10">
       <formula1>девять</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S12">
+      <formula1>одинадцать</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S13">
+      <formula1>двенадцать</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S14">
+      <formula1>тринадцать</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S15">
+      <formula1>четырнадцать</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -3082,186 +3113,186 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3275,7 +3306,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BU611"/>
   <sheetViews>
-    <sheetView topLeftCell="BR596" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="BS399" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BU458" sqref="BU458:BU468"/>
     </sheetView>
   </sheetViews>
@@ -3299,280 +3330,280 @@
   <sheetData>
     <row r="1" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BL1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BM1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BN1" s="7">
         <v>0</v>
       </c>
       <c r="BP1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BQ1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BR1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BS1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BL2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BM2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BN2" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="BP2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BQ2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BR2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BS2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BT2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BL3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BM3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BN3" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="BP3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BQ3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT3" t="s">
         <v>96</v>
       </c>
-      <c r="BR3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>97</v>
-      </c>
       <c r="BU3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BL4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BM4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BN4" s="7">
         <v>6.25E-2</v>
       </c>
       <c r="BR4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BS4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BT4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BL5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BM5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BN5" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="BR5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BS5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BT5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BL6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BM6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BN6" s="7">
         <v>0.10416666666666667</v>
       </c>
       <c r="BS6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BT6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BN7" s="7">
         <v>0.125</v>
       </c>
       <c r="BS7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BT7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BN8" s="7">
         <v>0.14583333333333334</v>
       </c>
       <c r="BS8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BT8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BN9" s="7">
         <v>0.16666666666666666</v>
       </c>
       <c r="BS9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BT9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BN10" s="7">
         <v>0.1875</v>
       </c>
       <c r="BS10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BT10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BN11" s="7">
         <v>0.20833333333333334</v>
       </c>
       <c r="BS11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BT11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BN12" s="7">
         <v>0.22916666666666666</v>
       </c>
       <c r="BS12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BT12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BN13" s="7">
         <v>0.25</v>
       </c>
       <c r="BS13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BT13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.25">
@@ -3580,13 +3611,13 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="BS14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BT14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.25">
@@ -3594,13 +3625,13 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="BS15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BT15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.25">
@@ -3608,13 +3639,13 @@
         <v>0.3125</v>
       </c>
       <c r="BS16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BT16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="66:73" x14ac:dyDescent="0.25">
@@ -3622,13 +3653,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="BS17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BT17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="66:73" x14ac:dyDescent="0.25">
@@ -3636,13 +3667,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="BS18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BT18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="66:73" x14ac:dyDescent="0.25">
@@ -3650,13 +3681,13 @@
         <v>0.375</v>
       </c>
       <c r="BS19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BT19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="66:73" x14ac:dyDescent="0.25">
@@ -3664,13 +3695,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="BS20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BT20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="66:73" x14ac:dyDescent="0.25">
@@ -3678,13 +3709,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="BS21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BT21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="66:73" x14ac:dyDescent="0.25">
@@ -3692,13 +3723,13 @@
         <v>0.4375</v>
       </c>
       <c r="BS22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BT22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="66:73" x14ac:dyDescent="0.25">
@@ -3706,13 +3737,13 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="BS23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BT23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="66:73" x14ac:dyDescent="0.25">
@@ -3720,13 +3751,13 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="BS24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BT24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="66:73" x14ac:dyDescent="0.25">
@@ -3734,13 +3765,13 @@
         <v>0.5</v>
       </c>
       <c r="BS25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BT25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="66:73" x14ac:dyDescent="0.25">
@@ -3748,13 +3779,13 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="BS26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BT26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="66:73" x14ac:dyDescent="0.25">
@@ -3762,13 +3793,13 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="BS27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BT27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="66:73" x14ac:dyDescent="0.25">
@@ -3776,13 +3807,13 @@
         <v>0.5625</v>
       </c>
       <c r="BS28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BT28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="66:73" x14ac:dyDescent="0.25">
@@ -3790,13 +3821,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="BS29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BT29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="66:73" x14ac:dyDescent="0.25">
@@ -3804,13 +3835,13 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="BS30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BT30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="66:73" x14ac:dyDescent="0.25">
@@ -3818,10 +3849,10 @@
         <v>0.625</v>
       </c>
       <c r="BT31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="66:73" x14ac:dyDescent="0.25">
@@ -3829,10 +3860,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="BT32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="66:73" x14ac:dyDescent="0.25">
@@ -3840,10 +3871,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="BT33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="66:73" x14ac:dyDescent="0.25">
@@ -3851,10 +3882,10 @@
         <v>0.6875</v>
       </c>
       <c r="BT34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="66:73" x14ac:dyDescent="0.25">
@@ -3862,10 +3893,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="BT35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="66:73" x14ac:dyDescent="0.25">
@@ -3873,10 +3904,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="BT36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="66:73" x14ac:dyDescent="0.25">
@@ -3884,10 +3915,10 @@
         <v>0.75</v>
       </c>
       <c r="BT37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="66:73" x14ac:dyDescent="0.25">
@@ -3895,10 +3926,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="BT38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="66:73" x14ac:dyDescent="0.25">
@@ -3906,10 +3937,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="BT39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="66:73" x14ac:dyDescent="0.25">
@@ -3917,10 +3948,10 @@
         <v>0.8125</v>
       </c>
       <c r="BT40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="66:73" x14ac:dyDescent="0.25">
@@ -3928,10 +3959,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="BT41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="66:73" x14ac:dyDescent="0.25">
@@ -3939,10 +3970,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="BT42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="66:73" x14ac:dyDescent="0.25">
@@ -3950,10 +3981,10 @@
         <v>0.875</v>
       </c>
       <c r="BT43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="66:73" x14ac:dyDescent="0.25">
@@ -3961,10 +3992,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="BT44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="66:73" x14ac:dyDescent="0.25">
@@ -3972,10 +4003,10 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="BT45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="66:73" x14ac:dyDescent="0.25">
@@ -3983,10 +4014,10 @@
         <v>0.9375</v>
       </c>
       <c r="BT46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="66:73" x14ac:dyDescent="0.25">
@@ -3994,10 +4025,10 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="BT47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="66:73" x14ac:dyDescent="0.25">
@@ -4005,4514 +4036,4514 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="BT48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU99" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU107" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU108" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU115" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT116" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU116" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT117" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU117" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT118" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU118" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU119" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU120" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT122" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU122" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT123" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU123" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="124" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT124" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU124" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="125" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT125" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU125" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="126" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT126" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU126" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU127" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT128" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU128" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT129" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU129" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT130" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU130" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT131" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT132" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT133" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU133" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT134" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT135" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT136" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU137" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT138" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU138" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="139" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU139" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT140" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="141" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT141" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU141" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="142" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU142" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT143" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU143" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT145" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU145" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT146" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT147" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT148" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU148" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="149" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT149" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU149" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="150" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT150" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU150" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT151" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU151" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="152" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT152" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU152" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="153" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT153" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU153" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT154" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU154" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT155" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU155" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT156" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT157" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU157" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="158" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT158" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT159" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT160" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU160" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT161" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU161" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT162" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU162" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT163" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU163" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT164" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU164" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="165" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT165" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU165" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT166" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU166" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT167" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU167" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT168" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU168" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="169" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT169" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU169" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT170" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU170" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT171" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU171" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT172" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU172" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT173" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU173" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="174" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT174" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU174" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT175" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT176" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT177" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU177" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="178" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT178" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU178" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="179" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT179" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU179" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="180" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT180" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU180" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="181" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT181" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU181" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="182" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT182" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU182" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="183" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT183" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU183" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="184" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT184" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU184" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="185" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT185" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU185" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="186" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT186" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU186" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="187" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT187" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU187" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="188" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT188" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU188" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="189" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT189" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU189" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="190" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT190" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU190" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT191" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU191" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="192" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT192" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU192" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="193" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT193" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU193" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="194" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT194" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU194" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT195" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU195" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="196" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT196" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU196" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="197" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT197" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU197" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="198" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT198" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU198" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="199" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT199" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU199" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT200" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU200" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="201" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT201" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU201" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="202" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT202" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU202" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="203" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT203" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU203" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="204" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT204" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU204" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="205" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT205" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU205" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="206" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT206" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU206" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="207" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT207" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU207" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="208" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT208" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU208" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="209" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT209" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU209" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="210" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT210" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU210" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="211" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT211" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU211" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="212" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT212" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU212" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="213" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT213" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU213" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="214" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT214" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU214" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="215" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT215" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU215" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="216" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT216" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU216" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="217" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT217" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU217" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="218" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT218" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU218" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="219" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT219" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU219" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="220" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT220" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU220" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="221" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT221" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU221" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="222" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT222" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU222" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="223" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT223" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU223" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="224" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT224" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU224" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="225" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT225" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU225" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="226" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT226" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU226" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="227" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT227" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU227" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="228" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT228" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU228" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="229" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT229" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU229" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="230" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT230" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU230" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="231" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT231" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU231" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="232" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT232" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU232" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="233" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT233" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU233" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="234" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT234" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU234" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="235" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT235" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU235" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="236" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT236" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU236" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="237" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT237" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU237" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="238" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT238" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU238" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="239" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT239" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU239" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="240" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT240" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU240" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="241" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT241" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU241" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="242" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT242" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU242" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="243" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT243" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU243" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="244" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT244" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU244" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="245" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT245" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU245" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="246" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT246" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU246" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="247" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT247" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU247" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="248" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT248" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU248" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="249" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT249" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU249" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="250" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT250" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU250" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="251" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT251" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU251" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="252" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT252" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU252" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="253" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT253" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU253" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="254" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT254" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU254" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="255" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT255" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU255" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="256" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT256" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU256" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="257" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT257" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU257" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="258" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT258" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU258" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="259" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT259" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU259" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="260" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT260" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU260" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="261" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT261" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU261" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="262" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT262" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU262" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="263" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT263" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU263" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="264" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT264" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU264" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="265" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT265" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU265" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="266" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT266" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU266" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="267" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT267" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU267" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="268" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT268" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU268" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="269" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT269" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU269" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="270" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT270" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU270" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="271" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT271" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU271" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="272" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT272" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU272" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="273" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT273" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU273" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="274" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT274" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU274" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="275" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT275" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU275" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="276" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT276" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU276" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="277" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT277" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU277" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="278" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT278" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU278" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="279" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT279" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU279" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="280" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT280" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU280" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="281" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT281" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU281" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="282" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT282" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU282" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="283" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT283" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU283" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="284" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT284" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU284" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="285" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT285" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU285" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="286" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT286" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU286" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="287" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT287" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU287" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="288" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT288" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU288" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="289" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT289" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU289" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="290" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT290" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU290" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="291" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT291" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU291" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="292" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT292" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU292" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="293" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT293" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU293" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="294" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT294" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU294" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="295" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT295" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU295" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="296" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT296" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU296" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="297" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT297" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU297" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="298" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT298" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU298" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="299" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT299" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU299" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="300" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT300" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU300" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="301" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT301" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU301" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="302" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT302" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU302" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="303" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT303" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU303" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="304" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT304" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU304" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="305" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT305" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU305" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="306" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT306" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU306" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="307" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT307" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU307" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="308" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT308" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU308" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="309" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT309" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU309" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="310" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT310" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU310" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="311" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT311" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU311" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="312" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT312" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU312" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="313" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT313" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU313" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="314" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT314" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU314" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="315" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT315" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU315" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="316" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT316" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU316" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="317" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT317" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU317" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="318" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT318" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU318" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="319" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT319" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU319" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="320" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT320" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU320" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="321" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT321" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU321" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="322" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT322" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU322" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="323" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT323" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU323" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="324" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT324" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU324" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="325" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT325" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU325" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="326" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT326" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU326" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="327" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT327" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU327" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="328" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT328" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU328" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="329" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT329" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU329" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="330" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT330" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU330" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="331" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT331" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU331" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="332" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT332" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU332" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="333" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT333" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU333" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="334" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT334" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU334" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="335" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT335" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU335" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="336" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT336" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU336" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="337" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT337" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU337" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="338" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT338" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU338" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="339" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT339" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU339" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="340" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT340" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU340" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="341" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT341" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU341" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="342" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT342" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU342" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="343" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT343" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU343" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="344" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT344" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU344" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="345" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT345" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU345" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="346" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT346" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU346" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="347" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT347" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU347" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="348" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT348" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BU348" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="349" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT349" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BU349" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="350" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT350" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BU350" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="351" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT351" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BU351" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="352" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT352" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BU352" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="353" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT353" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BU353" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="354" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT354" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BU354" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="355" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT355" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BU355" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="356" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT356" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BU356" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="357" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT357" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BU357" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="358" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT358" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU358" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="359" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT359" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU359" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="360" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT360" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU360" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="361" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT361" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU361" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="362" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT362" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU362" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="363" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT363" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU363" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="364" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT364" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU364" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="365" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT365" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU365" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="366" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT366" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU366" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="367" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT367" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU367" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="368" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT368" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU368" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="369" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT369" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU369" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="370" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT370" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU370" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="371" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT371" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU371" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="372" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT372" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU372" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="373" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT373" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU373" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="374" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT374" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU374" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="375" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT375" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU375" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="376" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT376" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU376" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="377" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT377" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU377" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="378" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT378" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU378" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="379" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT379" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU379" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="380" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT380" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU380" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="381" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT381" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU381" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="382" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT382" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU382" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="383" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT383" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU383" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="384" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT384" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU384" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="385" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT385" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU385" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="386" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT386" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU386" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="387" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT387" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU387" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="388" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT388" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU388" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="389" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT389" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU389" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="390" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT390" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU390" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="391" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT391" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU391" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="392" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT392" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU392" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="393" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT393" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU393" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="394" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT394" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU394" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="395" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT395" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU395" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="396" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT396" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU396" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="397" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT397" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU397" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="398" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT398" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU398" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="399" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT399" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU399" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="400" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT400" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU400" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="401" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT401" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU401" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="402" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT402" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU402" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="403" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT403" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU403" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="404" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT404" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BU404" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="405" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT405" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU405" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="406" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT406" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU406" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="407" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT407" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU407" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="408" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT408" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU408" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="409" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT409" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU409" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="410" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT410" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU410" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="411" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT411" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU411" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="412" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT412" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU412" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="413" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT413" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU413" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="414" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT414" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU414" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="415" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT415" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU415" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="416" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT416" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU416" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="417" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT417" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU417" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="418" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT418" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU418" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="419" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT419" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU419" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="420" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT420" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU420" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="421" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT421" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU421" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="422" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT422" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU422" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="423" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT423" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU423" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="424" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT424" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU424" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="425" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT425" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU425" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="426" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT426" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU426" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="427" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT427" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU427" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="428" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT428" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU428" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="429" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT429" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU429" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="430" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT430" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU430" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="431" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT431" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU431" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="432" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT432" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU432" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="433" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT433" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU433" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="434" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT434" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU434" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="435" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT435" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU435" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="436" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT436" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU436" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="437" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT437" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU437" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="438" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT438" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU438" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="439" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT439" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU439" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="440" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT440" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU440" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="441" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT441" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU441" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="442" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT442" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU442" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="443" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT443" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU443" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="444" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT444" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU444" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="445" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT445" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU445" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="446" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT446" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU446" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="447" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT447" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU447" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="448" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT448" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU448" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="449" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT449" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU449" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="450" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT450" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU450" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="451" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT451" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU451" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="452" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT452" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU452" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="453" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT453" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU453" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="454" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT454" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU454" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="455" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT455" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU455" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="456" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT456" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU456" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="457" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT457" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BU457" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="458" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT458" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BU458" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="459" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT459" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BU459" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="460" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT460" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BU460" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="461" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT461" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BU461" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="462" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT462" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BU462" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="463" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT463" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BU463" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="464" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT464" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BU464" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="465" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT465" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BU465" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="466" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT466" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BU466" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="467" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT467" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BU467" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="468" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT468" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BU468" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="469" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT469" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU469" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="470" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT470" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU470" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="471" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT471" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU471" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="472" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT472" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU472" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="473" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT473" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU473" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="474" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT474" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU474" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="475" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT475" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU475" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="476" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT476" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU476" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="477" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT477" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU477" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="478" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT478" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU478" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="479" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT479" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU479" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="480" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT480" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU480" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="481" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT481" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU481" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="482" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT482" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU482" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="483" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT483" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU483" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="484" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT484" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU484" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="485" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT485" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU485" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="486" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT486" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU486" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="487" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT487" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU487" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="488" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT488" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU488" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="489" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT489" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU489" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="490" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT490" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU490" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="491" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT491" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU491" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="492" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT492" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU492" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="493" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT493" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU493" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="494" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT494" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU494" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="495" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT495" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU495" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="496" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT496" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU496" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="497" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT497" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU497" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="498" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT498" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU498" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="499" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT499" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU499" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="500" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT500" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU500" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="501" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT501" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU501" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="502" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT502" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU502" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="503" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT503" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU503" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="504" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT504" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU504" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="505" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT505" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU505" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="506" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT506" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU506" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="507" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT507" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU507" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="508" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT508" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU508" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="509" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT509" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU509" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="510" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT510" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU510" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="511" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT511" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU511" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="512" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT512" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU512" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="513" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT513" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU513" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="514" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT514" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU514" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="515" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT515" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU515" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="516" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT516" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU516" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="517" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT517" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU517" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="518" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT518" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU518" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="519" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT519" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU519" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="520" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT520" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU520" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="521" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT521" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU521" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="522" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT522" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU522" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="523" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT523" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU523" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="524" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT524" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU524" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="525" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT525" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU525" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="526" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT526" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU526" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="527" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT527" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU527" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="528" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT528" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BU528" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="529" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT529" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU529" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="530" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT530" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU530" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="531" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT531" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU531" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="532" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT532" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU532" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="533" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT533" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU533" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="534" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT534" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU534" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="535" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT535" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU535" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="536" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT536" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU536" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="537" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT537" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU537" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="538" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT538" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU538" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="539" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT539" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU539" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="540" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT540" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU540" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="541" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT541" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU541" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="542" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT542" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU542" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="543" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT543" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU543" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="544" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT544" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU544" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="545" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT545" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU545" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="546" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT546" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU546" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="547" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT547" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU547" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="548" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT548" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU548" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="549" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT549" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU549" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="550" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT550" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU550" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="551" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT551" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU551" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="552" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT552" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU552" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="553" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT553" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU553" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="554" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT554" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU554" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="555" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT555" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU555" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="556" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT556" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU556" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="557" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT557" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU557" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="558" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT558" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU558" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="559" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT559" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU559" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="560" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT560" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU560" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="561" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT561" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU561" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="562" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT562" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU562" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="563" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT563" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU563" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="564" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT564" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU564" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="565" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT565" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU565" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="566" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT566" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU566" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="567" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT567" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU567" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="568" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT568" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU568" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="569" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT569" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU569" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="570" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT570" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU570" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="571" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT571" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU571" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="572" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT572" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU572" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="573" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT573" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU573" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="574" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT574" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU574" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="575" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT575" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU575" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="576" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT576" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU576" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="577" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT577" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU577" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="578" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT578" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU578" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="579" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT579" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU579" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="580" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT580" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU580" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="581" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT581" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU581" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="582" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT582" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU582" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="583" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT583" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU583" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="584" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT584" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU584" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="585" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT585" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU585" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="586" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT586" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU586" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="587" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT587" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU587" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="588" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT588" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU588" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="589" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT589" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU589" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="590" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT590" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU590" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="591" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT591" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU591" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="592" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT592" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU592" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="593" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT593" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU593" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="594" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT594" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU594" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="595" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT595" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU595" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="596" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT596" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU596" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="597" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT597" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU597" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="598" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT598" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU598" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="599" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT599" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU599" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="600" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT600" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU600" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="601" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT601" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU601" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="602" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT602" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU602" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="603" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT603" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU603" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="604" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT604" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU604" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="605" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT605" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU605" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="606" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT606" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU606" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="607" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT607" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU607" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="608" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT608" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU608" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="609" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT609" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU609" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="610" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT610" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU610" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="611" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT611" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU611" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="747">
   <si>
     <t>Название вакансии</t>
   </si>
@@ -80,25 +80,10 @@
     <t>Адреса</t>
   </si>
   <si>
-    <t>адр1 для гор2</t>
-  </si>
-  <si>
-    <t>адр2 для гор2</t>
-  </si>
-  <si>
-    <t>и т.д</t>
-  </si>
-  <si>
     <t>Логин:</t>
   </si>
   <si>
     <t>Пароль:</t>
-  </si>
-  <si>
-    <t>Mylogin@ya.ru</t>
-  </si>
-  <si>
-    <t>Qaz123</t>
   </si>
   <si>
     <t>E-mail
@@ -126,18 +111,12 @@
     <t xml:space="preserve">Светлана </t>
   </si>
   <si>
-    <t>svetlana@ya.ru</t>
-  </si>
-  <si>
     <t>код</t>
   </si>
   <si>
     <t>номер</t>
   </si>
   <si>
-    <t>fggkj</t>
-  </si>
-  <si>
     <t>Рабочие дни</t>
   </si>
   <si>
@@ -210,11 +189,6 @@
     <t>без опыта</t>
   </si>
   <si>
-    <t>sfdsfadsf
-sdfasdfs
-asdasfsdf</t>
-  </si>
-  <si>
     <t>Барнаул</t>
   </si>
   <si>
@@ -311,15 +285,6 @@
     <t>Программист</t>
   </si>
   <si>
-    <t>Ленина 1</t>
-  </si>
-  <si>
-    <t>Ленина 2</t>
-  </si>
-  <si>
-    <t>Ленина 3</t>
-  </si>
-  <si>
     <t>Женский</t>
   </si>
   <si>
@@ -1815,6 +1780,531 @@
   </si>
   <si>
     <t>Стажировка</t>
+  </si>
+  <si>
+    <t>shweper@ya.ru</t>
+  </si>
+  <si>
+    <t>Fqtawe98</t>
+  </si>
+  <si>
+    <t>Эмилии Алексеевой, 6</t>
+  </si>
+  <si>
+    <t>Молодёжная, 29а</t>
+  </si>
+  <si>
+    <t>80 Гвардейской Дивизии, 41а к2</t>
+  </si>
+  <si>
+    <t>Малахова, 21</t>
+  </si>
+  <si>
+    <t>Воровского, 104</t>
+  </si>
+  <si>
+    <t>Козловская, 45а</t>
+  </si>
+  <si>
+    <t>Маршала Чуйкова, 71</t>
+  </si>
+  <si>
+    <t>Маршала Жукова проспект, 83/1</t>
+  </si>
+  <si>
+    <t>Хиросимы, 16</t>
+  </si>
+  <si>
+    <t>Советская, 38</t>
+  </si>
+  <si>
+    <t>Хользунова, 44</t>
+  </si>
+  <si>
+    <t>20-летия Октября, 77</t>
+  </si>
+  <si>
+    <t>Хользунова, 50</t>
+  </si>
+  <si>
+    <t>Ломоносова, 81д</t>
+  </si>
+  <si>
+    <t>Советская, 4</t>
+  </si>
+  <si>
+    <t>Комсомольская, 66</t>
+  </si>
+  <si>
+    <t>8 Марта, 50</t>
+  </si>
+  <si>
+    <t>8 Марта, 84</t>
+  </si>
+  <si>
+    <t>Колмогорова, 52</t>
+  </si>
+  <si>
+    <t>Ленина проспект, 91</t>
+  </si>
+  <si>
+    <t>Удмуртская, 226</t>
+  </si>
+  <si>
+    <t>Дзержинского, 4а</t>
+  </si>
+  <si>
+    <t>Кирова, 14</t>
+  </si>
+  <si>
+    <t>Воровского, 149</t>
+  </si>
+  <si>
+    <t>30 лет Победы, 30</t>
+  </si>
+  <si>
+    <t>Байкальская, 128</t>
+  </si>
+  <si>
+    <t>Улан-Баторская, 12</t>
+  </si>
+  <si>
+    <t>Красного Восстания, 16</t>
+  </si>
+  <si>
+    <t>Лермонтова, 102</t>
+  </si>
+  <si>
+    <t>Лермонтова, 6</t>
+  </si>
+  <si>
+    <t>Товарищеская, 30</t>
+  </si>
+  <si>
+    <t>Латышских Стрелков, 23</t>
+  </si>
+  <si>
+    <t>Калинина, 19</t>
+  </si>
+  <si>
+    <t>Юго-Западная 2-я, 26</t>
+  </si>
+  <si>
+    <t>Галеева, 3</t>
+  </si>
+  <si>
+    <t>Генерала Соммера, 23</t>
+  </si>
+  <si>
+    <t>Александра Невского, 89</t>
+  </si>
+  <si>
+    <t>Мореходный переулок, 4</t>
+  </si>
+  <si>
+    <t>Горького, 19</t>
+  </si>
+  <si>
+    <t>Горького, 166 к1</t>
+  </si>
+  <si>
+    <t>Строителей бульвар, 50</t>
+  </si>
+  <si>
+    <t>Мичурина, 55</t>
+  </si>
+  <si>
+    <t>Ворошилова, 24в</t>
+  </si>
+  <si>
+    <t>Тухачевского, 23</t>
+  </si>
+  <si>
+    <t>Ленина проспект, 81</t>
+  </si>
+  <si>
+    <t>Длинная, 181</t>
+  </si>
+  <si>
+    <t>Красная, 188</t>
+  </si>
+  <si>
+    <t>40 лет Победы, 85</t>
+  </si>
+  <si>
+    <t>Восточно-Кругликовская, 49</t>
+  </si>
+  <si>
+    <t>40 лет Победы, 89</t>
+  </si>
+  <si>
+    <t>Борисова, 3</t>
+  </si>
+  <si>
+    <t>Мира проспект, 5</t>
+  </si>
+  <si>
+    <t>Ленина, 32</t>
+  </si>
+  <si>
+    <t>Новосибирская, 62</t>
+  </si>
+  <si>
+    <t>Урицкого, 33</t>
+  </si>
+  <si>
+    <t>Ленинские Горы, 1Б</t>
+  </si>
+  <si>
+    <t>Дмитрия Ульянова, 5</t>
+  </si>
+  <si>
+    <t>Бориса Галушкина, 11</t>
+  </si>
+  <si>
+    <t>Миклухо-Маклая, 21 к3</t>
+  </si>
+  <si>
+    <t>Донской 2-й проезд, 7/1</t>
+  </si>
+  <si>
+    <t>8-й комплекс, 3</t>
+  </si>
+  <si>
+    <t>56-й комплекс, 4а</t>
+  </si>
+  <si>
+    <t>Мира проспект, 17Б</t>
+  </si>
+  <si>
+    <t>30 лет Победы, 11</t>
+  </si>
+  <si>
+    <t>Мусы Джалиля проспект, 8</t>
+  </si>
+  <si>
+    <t>Гагарина проспект, 2</t>
+  </si>
+  <si>
+    <t>Львовская, 1в</t>
+  </si>
+  <si>
+    <t>Пискунова, 11</t>
+  </si>
+  <si>
+    <t>Большая Печёрская, 93</t>
+  </si>
+  <si>
+    <t>Гагарина проспект, 6</t>
+  </si>
+  <si>
+    <t>Карла Маркса проспект, 37</t>
+  </si>
+  <si>
+    <t>Красный проспект, 75</t>
+  </si>
+  <si>
+    <t>Фрунзе, 16</t>
+  </si>
+  <si>
+    <t>Бориса Богаткова, 264</t>
+  </si>
+  <si>
+    <t>Красный проспект, 40</t>
+  </si>
+  <si>
+    <t>Мира проспект, 30г</t>
+  </si>
+  <si>
+    <t>Поселковая 2-я, 1</t>
+  </si>
+  <si>
+    <t>Сибаковская, 7</t>
+  </si>
+  <si>
+    <t>Долгирева, 81</t>
+  </si>
+  <si>
+    <t>Малунцева, 36</t>
+  </si>
+  <si>
+    <t>Невельская, 26/1</t>
+  </si>
+  <si>
+    <t>Гагарина проспект, 7</t>
+  </si>
+  <si>
+    <t>Пролетарская, 308</t>
+  </si>
+  <si>
+    <t>Челюскинцев, 22</t>
+  </si>
+  <si>
+    <t>Победы проспект, 13в</t>
+  </si>
+  <si>
+    <t>Советская, 62</t>
+  </si>
+  <si>
+    <t>Попова, 58</t>
+  </si>
+  <si>
+    <t>Рабоче-Крестьянская, 2</t>
+  </si>
+  <si>
+    <t>Екатерининская, 101</t>
+  </si>
+  <si>
+    <t>9 Мая, 15</t>
+  </si>
+  <si>
+    <t>Михаила Нагибина проспект, 5</t>
+  </si>
+  <si>
+    <t>Зорге, 21ж</t>
+  </si>
+  <si>
+    <t>Пушкинская, 128</t>
+  </si>
+  <si>
+    <t>Театральный проспект, 59</t>
+  </si>
+  <si>
+    <t>Ленина проспект, 44/3</t>
+  </si>
+  <si>
+    <t>Дзержинского, 56/11</t>
+  </si>
+  <si>
+    <t>Гагарина, 63</t>
+  </si>
+  <si>
+    <t>Баженова, 24 к1</t>
+  </si>
+  <si>
+    <t>Касимовское шоссе, 25/2</t>
+  </si>
+  <si>
+    <t>Пугачёва, 7</t>
+  </si>
+  <si>
+    <t>Свободы, 2а</t>
+  </si>
+  <si>
+    <t>Революционная, 42</t>
+  </si>
+  <si>
+    <t>Московское шоссе, 32</t>
+  </si>
+  <si>
+    <t>Гагарина, 18а</t>
+  </si>
+  <si>
+    <t>Партизанская, 56</t>
+  </si>
+  <si>
+    <t>Набережная реки Фонтанки, 123</t>
+  </si>
+  <si>
+    <t>Просвещения проспект, 45</t>
+  </si>
+  <si>
+    <t>Непокорённых проспект, 8 к2</t>
+  </si>
+  <si>
+    <t>Стачек площадь, 5</t>
+  </si>
+  <si>
+    <t>Вяземский переулок, 5-7</t>
+  </si>
+  <si>
+    <t>​Соколовогорская, 8 к1</t>
+  </si>
+  <si>
+    <t>Комсомольская улица, 143</t>
+  </si>
+  <si>
+    <t>улица Мичурина, 55/61</t>
+  </si>
+  <si>
+    <t>Дегтярная улица, 28</t>
+  </si>
+  <si>
+    <t>Соколовая улица, 220</t>
+  </si>
+  <si>
+    <t>Куйбышева, 24</t>
+  </si>
+  <si>
+    <t>Донская, 15А</t>
+  </si>
+  <si>
+    <t>Горького, 37</t>
+  </si>
+  <si>
+    <t>Пластунская улица, 40</t>
+  </si>
+  <si>
+    <t>Учительская улица, 33</t>
+  </si>
+  <si>
+    <t>Ленина, 37а</t>
+  </si>
+  <si>
+    <t>Белорусская, 29</t>
+  </si>
+  <si>
+    <t>Ленинградская, 29</t>
+  </si>
+  <si>
+    <t>Победы, 26</t>
+  </si>
+  <si>
+    <t>Ленина, 74</t>
+  </si>
+  <si>
+    <t>Буяновский переулок, 3а</t>
+  </si>
+  <si>
+    <t>Усова, 15Б</t>
+  </si>
+  <si>
+    <t>Кирова проспект, 56а</t>
+  </si>
+  <si>
+    <t>Вершинина, 50</t>
+  </si>
+  <si>
+    <t>Кирова проспект, 36/3</t>
+  </si>
+  <si>
+    <t>Смидович, 12</t>
+  </si>
+  <si>
+    <t>Металлургов, 85</t>
+  </si>
+  <si>
+    <t>Мира, 33</t>
+  </si>
+  <si>
+    <t>Чмутова, 1в</t>
+  </si>
+  <si>
+    <t>Смидович, 7</t>
+  </si>
+  <si>
+    <t>Котовского, 54а</t>
+  </si>
+  <si>
+    <t>Мельникайте, 93а</t>
+  </si>
+  <si>
+    <t>Одесская, 48</t>
+  </si>
+  <si>
+    <t>Рощинское шоссе, 2 к16</t>
+  </si>
+  <si>
+    <t>Энергетиков, 45</t>
+  </si>
+  <si>
+    <t>Мингажева, 138</t>
+  </si>
+  <si>
+    <t>Менделеева, 193</t>
+  </si>
+  <si>
+    <t>Аксакова, 57</t>
+  </si>
+  <si>
+    <t>Коммунистическая, 52а</t>
+  </si>
+  <si>
+    <t>8 Марта, 2</t>
+  </si>
+  <si>
+    <t>Воровского, 38Б</t>
+  </si>
+  <si>
+    <t>Ленина проспект, 80</t>
+  </si>
+  <si>
+    <t>Энгельса, 103</t>
+  </si>
+  <si>
+    <t>Молодогвардейцев, 57 к1</t>
+  </si>
+  <si>
+    <t>Цвиллинга, 64 к1</t>
+  </si>
+  <si>
+    <t>Володарского, 1</t>
+  </si>
+  <si>
+    <t>Гагарина, 1а</t>
+  </si>
+  <si>
+    <t>Октября проспект, 63</t>
+  </si>
+  <si>
+    <t>Некрасова, 60а</t>
+  </si>
+  <si>
+    <t>Союзная, 141</t>
+  </si>
+  <si>
+    <t>Пеший курьер по доставке еды</t>
+  </si>
+  <si>
+    <t>Курьер (Подработка)</t>
+  </si>
+  <si>
+    <t>Курьер в курьерскую службу</t>
+  </si>
+  <si>
+    <t>Курьер партнер Яндекс.Еда</t>
+  </si>
+  <si>
+    <t>Пеший курьер</t>
+  </si>
+  <si>
+    <t>Яндекс.Еда - сервис заказа еды из ресторанов.
+Срочно на работу или подработку к партнеру Яндекс.Еда требуются пеший курьер и авто-курьер!
+Заработай до 2500 рублей в день!
+Условия:
+Работа в любом районе города, даже рядом с домом;
+На выбор смены по 4/6/8/10/12 часов;
+Утренние/дневные/вечерние смены;
+Можно совмещать с другой работой или учебой;
+Платим, даже если нет заказов!
+Выплаты каждую неделю.
+Обязанности:
+Доставка еды из ресторанов партнеров
+Требования:
+Для трудоустройства потребуется только паспорт
+Навыки использования устройств на базе ОС Android (в работе используется приложение на базе Android версия 4.2 и выше)
+Чтобы устроиться, просто напишите нам в Viber или WhatsApp по номеру из объявления!  После получения сообщения в течение 10 минут поступит ответное сообщение с приглашением на работу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яндекс.Еда - сервис заказа еды из ресторанов.
+Срочно на работу или подработку к партнеру Яндекс.Еда требуются пеший курьер и авто-курьер!
+Заработай до 2500 рублей в день!
+Условия:
+Работа в любом районе города, даже рядом с домом;
+На выбор смены по 4/6/8/10/12 часов;
+Утренние/дневные/вечерние смены;
+Можно совмещать с другой работой или учебой;
+Платим, даже если нет заказов!
+Выплаты каждую неделю.
+Обязанности:
+Доставка еды из ресторанов партнеров
+Требования:
+Для трудоустройства потребуется только паспорт
+Навыки использования устройств на базе ОС Android (в работе используется приложение на базе Android версия 4.2 и выше)
+Чтобы устроиться, просто напишите нам в Viber или WhatsApp по номеру из объявления!  После получения сообщения в течение 10 минут поступит ответное сообщение с приглашением на работу. </t>
+  </si>
+  <si>
+    <t>rabora.eda@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -2216,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,7 +2718,7 @@
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" customWidth="1"/>
+    <col min="9" max="9" width="107" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" customWidth="1"/>
     <col min="12" max="12" width="33.140625" customWidth="1"/>
@@ -2250,7 +2740,7 @@
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>5</v>
@@ -2266,13 +2756,13 @@
         <v>4</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>9</v>
@@ -2284,10 +2774,10 @@
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -2312,10 +2802,10 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>11</v>
@@ -2329,24 +2819,24 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>90</v>
+        <v>739</v>
       </c>
       <c r="B3">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="C3">
-        <v>100000</v>
+        <v>350000</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G3" s="9">
         <v>20</v>
@@ -2355,57 +2845,57 @@
         <v>60</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>58</v>
+        <v>744</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>30</v>
+        <v>746</v>
       </c>
       <c r="M3">
         <v>999</v>
       </c>
       <c r="N3">
-        <v>7894455</v>
+        <v>1412718</v>
       </c>
       <c r="O3" s="8">
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <v>0.9375</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>740</v>
       </c>
       <c r="B4">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="C4">
-        <v>100000</v>
+        <v>290000</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G4" s="9">
         <v>20</v>
@@ -2414,57 +2904,57 @@
         <v>60</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>58</v>
+        <v>745</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>30</v>
+        <v>746</v>
       </c>
       <c r="M4">
         <v>999</v>
       </c>
       <c r="N4">
-        <v>7894455</v>
+        <v>1412718</v>
       </c>
       <c r="O4" s="8">
         <v>0</v>
       </c>
       <c r="P4" s="8">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="S4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
       <c r="B5">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C5">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G5" s="9">
         <v>20</v>
@@ -2473,58 +2963,58 @@
         <v>60</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>58</v>
+        <v>745</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>30</v>
+        <v>746</v>
       </c>
       <c r="M5">
         <v>999</v>
       </c>
       <c r="N5">
-        <v>7894455</v>
+        <v>1412718</v>
       </c>
       <c r="O5" s="8">
         <v>0</v>
       </c>
       <c r="P5" s="8">
-        <v>0.60416666666666663</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="S5" t="s">
-        <v>589</v>
+        <v>223</v>
       </c>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>741</v>
       </c>
       <c r="B6">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="C6">
-        <v>100000</v>
+        <v>39000</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G6" s="9">
         <v>20</v>
@@ -2533,58 +3023,58 @@
         <v>60</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>58</v>
+        <v>745</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>30</v>
+        <v>746</v>
       </c>
       <c r="M6">
         <v>999</v>
       </c>
       <c r="N6">
-        <v>7894455</v>
+        <v>1412718</v>
       </c>
       <c r="O6" s="8">
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="8">
-        <v>0.85416666666666663</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="S6" t="s">
-        <v>488</v>
+        <v>223</v>
       </c>
       <c r="AA6" s="7"/>
     </row>
-    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>742</v>
       </c>
       <c r="B7">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C7">
-        <v>100000</v>
+        <v>2500</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G7" s="9">
         <v>20</v>
@@ -2593,58 +3083,58 @@
         <v>60</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>58</v>
+        <v>745</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>30</v>
+        <v>746</v>
       </c>
       <c r="M7">
         <v>999</v>
       </c>
       <c r="N7">
-        <v>7894455</v>
+        <v>1412718</v>
       </c>
       <c r="O7" s="8">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="P7" s="8">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="S7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AA7" s="7"/>
     </row>
-    <row r="8" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>90</v>
+        <v>743</v>
       </c>
       <c r="B8">
-        <v>10000</v>
+        <v>33000</v>
       </c>
       <c r="C8">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G8" s="9">
         <v>20</v>
@@ -2653,109 +3143,67 @@
         <v>60</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>58</v>
+        <v>745</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>30</v>
+        <v>746</v>
       </c>
       <c r="M8">
         <v>999</v>
       </c>
       <c r="N8">
-        <v>7894455</v>
+        <v>1412718</v>
       </c>
       <c r="O8" s="8">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="P8" s="8">
-        <v>0.77083333333333337</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="S8" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AA8" s="7"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="R9" t="s">
-        <v>103</v>
-      </c>
-      <c r="S9" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="R10" t="s">
-        <v>101</v>
-      </c>
-      <c r="S10" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="R11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S11" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="R12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S12" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="R13" t="s">
-        <v>100</v>
-      </c>
-      <c r="S13" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="R14" t="s">
-        <v>101</v>
-      </c>
-      <c r="S14" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="R15" t="s">
-        <v>99</v>
-      </c>
-      <c r="S15" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G16" s="9"/>
@@ -2979,8 +3427,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -2993,13 +3439,15 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <dataValidations count="14">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H46">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S103:S820 S3 S16:S102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3 S16:S820">
       <formula1>КАТЕГОРИЯ</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4">
@@ -3041,10 +3489,9 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1"/>
-    <hyperlink ref="L4:L8" r:id="rId2" display="svetlana@ya.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
@@ -3098,20 +3545,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -3119,180 +3569,624 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C5" t="s">
+        <v>600</v>
+      </c>
+      <c r="D5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D6" t="s">
+        <v>606</v>
+      </c>
+      <c r="E6" t="s">
+        <v>607</v>
+      </c>
+      <c r="F6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C7" t="s">
+        <v>610</v>
+      </c>
+      <c r="D7" t="s">
+        <v>611</v>
+      </c>
+      <c r="E7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C8" t="s">
+        <v>615</v>
+      </c>
+      <c r="D8" t="s">
+        <v>616</v>
+      </c>
+      <c r="E8" t="s">
+        <v>617</v>
+      </c>
+      <c r="F8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E9" t="s">
+        <v>622</v>
+      </c>
+      <c r="F9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B10" t="s">
+        <v>624</v>
+      </c>
+      <c r="C10" t="s">
+        <v>625</v>
+      </c>
+      <c r="D10" t="s">
+        <v>626</v>
+      </c>
+      <c r="E10" t="s">
+        <v>627</v>
+      </c>
+      <c r="F10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B11" t="s">
+        <v>629</v>
+      </c>
+      <c r="C11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D11" t="s">
+        <v>631</v>
+      </c>
+      <c r="E11" t="s">
+        <v>632</v>
+      </c>
+      <c r="F11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="B12" t="s">
+        <v>634</v>
+      </c>
+      <c r="C12" t="s">
+        <v>635</v>
+      </c>
+      <c r="D12" t="s">
+        <v>636</v>
+      </c>
+      <c r="E12" t="s">
+        <v>637</v>
+      </c>
+      <c r="F12" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="B13" t="s">
+        <v>639</v>
+      </c>
+      <c r="C13" t="s">
+        <v>640</v>
+      </c>
+      <c r="D13" t="s">
+        <v>641</v>
+      </c>
+      <c r="E13" t="s">
+        <v>642</v>
+      </c>
+      <c r="F13" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B14" t="s">
+        <v>644</v>
+      </c>
+      <c r="C14" t="s">
+        <v>645</v>
+      </c>
+      <c r="D14" t="s">
+        <v>646</v>
+      </c>
+      <c r="E14" t="s">
+        <v>647</v>
+      </c>
+      <c r="F14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="B15" t="s">
+        <v>649</v>
+      </c>
+      <c r="C15" t="s">
+        <v>650</v>
+      </c>
+      <c r="D15" t="s">
+        <v>651</v>
+      </c>
+      <c r="E15" t="s">
+        <v>652</v>
+      </c>
+      <c r="F15" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B16" t="s">
+        <v>654</v>
+      </c>
+      <c r="C16" t="s">
+        <v>655</v>
+      </c>
+      <c r="D16" t="s">
+        <v>656</v>
+      </c>
+      <c r="E16" t="s">
+        <v>657</v>
+      </c>
+      <c r="F16" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="B17" t="s">
+        <v>659</v>
+      </c>
+      <c r="C17" t="s">
+        <v>660</v>
+      </c>
+      <c r="D17" t="s">
+        <v>661</v>
+      </c>
+      <c r="E17" t="s">
+        <v>662</v>
+      </c>
+      <c r="F17" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="B18" t="s">
+        <v>664</v>
+      </c>
+      <c r="C18" t="s">
+        <v>665</v>
+      </c>
+      <c r="D18" t="s">
+        <v>666</v>
+      </c>
+      <c r="E18" t="s">
+        <v>667</v>
+      </c>
+      <c r="F18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="B19" t="s">
+        <v>669</v>
+      </c>
+      <c r="C19" t="s">
+        <v>670</v>
+      </c>
+      <c r="D19" t="s">
+        <v>671</v>
+      </c>
+      <c r="E19" t="s">
+        <v>672</v>
+      </c>
+      <c r="F19" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="B20" t="s">
+        <v>674</v>
+      </c>
+      <c r="C20" t="s">
+        <v>675</v>
+      </c>
+      <c r="D20" t="s">
+        <v>676</v>
+      </c>
+      <c r="E20" t="s">
+        <v>677</v>
+      </c>
+      <c r="F20" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="B21" t="s">
+        <v>679</v>
+      </c>
+      <c r="C21" t="s">
+        <v>680</v>
+      </c>
+      <c r="D21" t="s">
+        <v>681</v>
+      </c>
+      <c r="E21" t="s">
+        <v>682</v>
+      </c>
+      <c r="F21" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="B22" t="s">
+        <v>684</v>
+      </c>
+      <c r="C22" t="s">
+        <v>685</v>
+      </c>
+      <c r="D22" t="s">
+        <v>686</v>
+      </c>
+      <c r="E22" t="s">
+        <v>687</v>
+      </c>
+      <c r="F22" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="B23" t="s">
+        <v>689</v>
+      </c>
+      <c r="C23" t="s">
+        <v>690</v>
+      </c>
+      <c r="D23" t="s">
+        <v>691</v>
+      </c>
+      <c r="E23" t="s">
+        <v>692</v>
+      </c>
+      <c r="F23" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="B24" t="s">
+        <v>694</v>
+      </c>
+      <c r="C24" t="s">
+        <v>695</v>
+      </c>
+      <c r="D24" t="s">
+        <v>696</v>
+      </c>
+      <c r="E24" t="s">
+        <v>697</v>
+      </c>
+      <c r="F24" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="B25" t="s">
+        <v>699</v>
+      </c>
+      <c r="C25" t="s">
+        <v>700</v>
+      </c>
+      <c r="D25" t="s">
+        <v>701</v>
+      </c>
+      <c r="E25" t="s">
+        <v>702</v>
+      </c>
+      <c r="F25" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="B26" t="s">
+        <v>704</v>
+      </c>
+      <c r="C26" t="s">
+        <v>705</v>
+      </c>
+      <c r="D26" t="s">
+        <v>706</v>
+      </c>
+      <c r="E26" t="s">
+        <v>707</v>
+      </c>
+      <c r="F26" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="B27" t="s">
+        <v>709</v>
+      </c>
+      <c r="C27" t="s">
+        <v>710</v>
+      </c>
+      <c r="D27" t="s">
+        <v>711</v>
+      </c>
+      <c r="E27" t="s">
+        <v>712</v>
+      </c>
+      <c r="F27" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="B28" t="s">
+        <v>714</v>
+      </c>
+      <c r="C28" t="s">
+        <v>715</v>
+      </c>
+      <c r="D28" t="s">
+        <v>716</v>
+      </c>
+      <c r="E28" t="s">
+        <v>717</v>
+      </c>
+      <c r="F28" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="B29" t="s">
+        <v>719</v>
+      </c>
+      <c r="C29" t="s">
+        <v>720</v>
+      </c>
+      <c r="D29" t="s">
+        <v>721</v>
+      </c>
+      <c r="E29" t="s">
+        <v>722</v>
+      </c>
+      <c r="F29" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="B30" t="s">
+        <v>724</v>
+      </c>
+      <c r="C30" t="s">
+        <v>725</v>
+      </c>
+      <c r="D30" t="s">
+        <v>726</v>
+      </c>
+      <c r="E30" t="s">
+        <v>727</v>
+      </c>
+      <c r="F30" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="B31" t="s">
+        <v>729</v>
+      </c>
+      <c r="C31" t="s">
+        <v>730</v>
+      </c>
+      <c r="D31" t="s">
+        <v>731</v>
+      </c>
+      <c r="E31" t="s">
+        <v>732</v>
+      </c>
+      <c r="F31" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>89</v>
+      <c r="B32" t="s">
+        <v>734</v>
+      </c>
+      <c r="C32" t="s">
+        <v>735</v>
+      </c>
+      <c r="D32" t="s">
+        <v>736</v>
+      </c>
+      <c r="E32" t="s">
+        <v>737</v>
+      </c>
+      <c r="F32" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -3306,8 +4200,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BU611"/>
   <sheetViews>
-    <sheetView topLeftCell="BS399" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BU458" sqref="BU458:BU468"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3330,280 +4224,280 @@
   <sheetData>
     <row r="1" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>582</v>
       </c>
       <c r="BL1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM1" t="s">
         <v>38</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>45</v>
       </c>
       <c r="BN1" s="7">
         <v>0</v>
       </c>
       <c r="BP1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="BQ1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="BR1" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BS1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>583</v>
       </c>
       <c r="BL2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM2" t="s">
         <v>39</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>46</v>
       </c>
       <c r="BN2" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="BP2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="BQ2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="BR2" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BS2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BT2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BL3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM3" t="s">
         <v>40</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>47</v>
       </c>
       <c r="BN3" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="BP3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="BQ3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="BR3" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BS3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BT3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BL4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BM4" t="s">
         <v>41</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>48</v>
       </c>
       <c r="BN4" s="7">
         <v>6.25E-2</v>
       </c>
       <c r="BR4" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BS4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BT4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BL5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM5" t="s">
         <v>42</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>49</v>
       </c>
       <c r="BN5" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="BR5" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BS5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BT5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BL6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM6" t="s">
         <v>43</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>50</v>
       </c>
       <c r="BN6" s="7">
         <v>0.10416666666666667</v>
       </c>
       <c r="BS6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BT6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BN7" s="7">
         <v>0.125</v>
       </c>
       <c r="BS7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BT7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="BN8" s="7">
         <v>0.14583333333333334</v>
       </c>
       <c r="BS8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BT8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="BN9" s="7">
         <v>0.16666666666666666</v>
       </c>
       <c r="BS9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BT9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BN10" s="7">
         <v>0.1875</v>
       </c>
       <c r="BS10" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BT10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BN11" s="7">
         <v>0.20833333333333334</v>
       </c>
       <c r="BS11" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BT11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU11" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="BN12" s="7">
         <v>0.22916666666666666</v>
       </c>
       <c r="BS12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BT12" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU12" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="BM13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BN13" s="7">
         <v>0.25</v>
       </c>
       <c r="BS13" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BT13" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.25">
@@ -3611,13 +4505,13 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="BS14" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="BT14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU14" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.25">
@@ -3625,13 +4519,13 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="BS15" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BT15" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU15" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.25">
@@ -3639,13 +4533,13 @@
         <v>0.3125</v>
       </c>
       <c r="BS16" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BT16" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU16" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="66:73" x14ac:dyDescent="0.25">
@@ -3653,13 +4547,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="BS17" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BT17" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="66:73" x14ac:dyDescent="0.25">
@@ -3667,13 +4561,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="BS18" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BT18" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU18" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="66:73" x14ac:dyDescent="0.25">
@@ -3681,13 +4575,13 @@
         <v>0.375</v>
       </c>
       <c r="BS19" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BT19" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU19" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="66:73" x14ac:dyDescent="0.25">
@@ -3695,13 +4589,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="BS20" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BT20" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU20" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="66:73" x14ac:dyDescent="0.25">
@@ -3709,13 +4603,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="BS21" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BT21" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU21" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="66:73" x14ac:dyDescent="0.25">
@@ -3723,13 +4617,13 @@
         <v>0.4375</v>
       </c>
       <c r="BS22" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BT22" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU22" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="66:73" x14ac:dyDescent="0.25">
@@ -3737,13 +4631,13 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="BS23" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BT23" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU23" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="66:73" x14ac:dyDescent="0.25">
@@ -3751,13 +4645,13 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="BS24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BT24" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU24" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="66:73" x14ac:dyDescent="0.25">
@@ -3765,13 +4659,13 @@
         <v>0.5</v>
       </c>
       <c r="BS25" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BT25" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="66:73" x14ac:dyDescent="0.25">
@@ -3779,13 +4673,13 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="BS26" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BT26" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU26" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="66:73" x14ac:dyDescent="0.25">
@@ -3793,13 +4687,13 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="BS27" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BT27" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU27" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="66:73" x14ac:dyDescent="0.25">
@@ -3807,13 +4701,13 @@
         <v>0.5625</v>
       </c>
       <c r="BS28" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BT28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU28" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="66:73" x14ac:dyDescent="0.25">
@@ -3821,13 +4715,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="BS29" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BT29" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU29" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="66:73" x14ac:dyDescent="0.25">
@@ -3835,13 +4729,13 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="BS30" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BT30" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU30" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="66:73" x14ac:dyDescent="0.25">
@@ -3849,10 +4743,10 @@
         <v>0.625</v>
       </c>
       <c r="BT31" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU31" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="66:73" x14ac:dyDescent="0.25">
@@ -3860,10 +4754,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="BT32" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU32" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="66:73" x14ac:dyDescent="0.25">
@@ -3871,10 +4765,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="BT33" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU33" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="66:73" x14ac:dyDescent="0.25">
@@ -3882,10 +4776,10 @@
         <v>0.6875</v>
       </c>
       <c r="BT34" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU34" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="66:73" x14ac:dyDescent="0.25">
@@ -3893,10 +4787,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="BT35" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU35" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="66:73" x14ac:dyDescent="0.25">
@@ -3904,10 +4798,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="BT36" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU36" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="66:73" x14ac:dyDescent="0.25">
@@ -3915,10 +4809,10 @@
         <v>0.75</v>
       </c>
       <c r="BT37" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="BU37" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="66:73" x14ac:dyDescent="0.25">
@@ -3926,10 +4820,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="BT38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BU38" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="66:73" x14ac:dyDescent="0.25">
@@ -3937,10 +4831,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="BT39" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BU39" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="66:73" x14ac:dyDescent="0.25">
@@ -3948,10 +4842,10 @@
         <v>0.8125</v>
       </c>
       <c r="BT40" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BU40" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="66:73" x14ac:dyDescent="0.25">
@@ -3959,10 +4853,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="BT41" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BU41" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="66:73" x14ac:dyDescent="0.25">
@@ -3970,10 +4864,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="BT42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BU42" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="66:73" x14ac:dyDescent="0.25">
@@ -3981,10 +4875,10 @@
         <v>0.875</v>
       </c>
       <c r="BT43" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BU43" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="66:73" x14ac:dyDescent="0.25">
@@ -3992,10 +4886,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="BT44" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BU44" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="66:73" x14ac:dyDescent="0.25">
@@ -4003,10 +4897,10 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="BT45" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BU45" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="66:73" x14ac:dyDescent="0.25">
@@ -4014,10 +4908,10 @@
         <v>0.9375</v>
       </c>
       <c r="BT46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BU46" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="66:73" x14ac:dyDescent="0.25">
@@ -4025,10 +4919,10 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="BT47" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BU47" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="66:73" x14ac:dyDescent="0.25">
@@ -4036,4514 +4930,4514 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="BT48" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BU48" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT49" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU49" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT50" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU50" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT51" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU51" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT52" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU52" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT53" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU53" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT54" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU54" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT55" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU55" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT56" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU56" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT57" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU57" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT58" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU58" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT59" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU59" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT60" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU60" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT61" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU61" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT62" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU62" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT63" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU63" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT64" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BU64" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT65" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU65" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT66" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU66" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT67" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU67" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT68" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU68" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT69" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU69" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT70" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU70" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT71" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU71" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT72" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU72" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT73" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU73" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT74" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU74" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT75" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU75" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT76" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU76" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT77" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU77" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT78" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU78" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT79" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU79" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT80" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU80" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT81" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU81" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT82" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU82" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT83" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU83" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT84" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU84" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT85" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BU85" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT86" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BU86" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT87" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BU87" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT88" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BU88" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT89" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BU89" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT90" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BU90" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT91" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BU91" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT92" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BU92" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT93" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BU93" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT94" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BU94" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT95" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BU95" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT96" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BU96" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT97" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BU97" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT98" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU98" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT99" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU99" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT100" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU100" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT101" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU101" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT102" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU102" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT103" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU103" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT104" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU104" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT105" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU105" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT106" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU106" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT107" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU107" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT108" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU108" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT109" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU109" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT110" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU110" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT111" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU111" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT112" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU112" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT113" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU113" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT114" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BU114" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT115" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU115" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT116" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU116" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT117" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU117" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT118" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU118" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT119" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU119" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT120" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU120" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT121" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU121" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT122" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU122" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT123" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU123" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT124" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU124" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT125" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU125" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT126" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU126" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT127" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU127" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT128" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU128" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT129" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU129" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="130" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT130" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU130" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT131" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU131" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT132" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU132" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT133" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BU133" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT134" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU134" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT135" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU135" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT136" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU136" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT137" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU137" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT138" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU138" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="139" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT139" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU139" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="140" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT140" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU140" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT141" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU141" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT142" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU142" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT143" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU143" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT144" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU144" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT145" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU145" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT146" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU146" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT147" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="BU147" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT148" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BU148" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT149" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BU149" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT150" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BU150" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="151" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT151" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BU151" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="152" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT152" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BU152" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT153" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BU153" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="154" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT154" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BU154" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="155" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT155" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BU155" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT156" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BU156" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT157" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BU157" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT158" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BU158" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT159" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BU159" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT160" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU160" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="161" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT161" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU161" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="162" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT162" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU162" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="163" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT163" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU163" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="164" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT164" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU164" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="165" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT165" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU165" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="166" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT166" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU166" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="167" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT167" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU167" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="168" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT168" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU168" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT169" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU169" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="170" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT170" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU170" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="171" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT171" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU171" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT172" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU172" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="173" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT173" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU173" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT174" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU174" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT175" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU175" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="176" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT176" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BU176" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="177" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT177" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU177" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="178" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT178" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU178" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="179" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT179" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU179" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT180" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU180" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT181" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU181" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT182" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU182" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="183" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT183" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU183" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT184" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU184" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT185" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU185" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT186" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU186" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT187" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU187" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="188" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT188" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU188" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT189" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU189" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="190" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT190" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU190" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="191" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT191" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU191" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="192" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT192" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU192" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="193" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT193" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU193" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="194" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT194" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BU194" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="195" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT195" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU195" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="196" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT196" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU196" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="197" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT197" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU197" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="198" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT198" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU198" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="199" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT199" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU199" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT200" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU200" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="201" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT201" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU201" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="202" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT202" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU202" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="203" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT203" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU203" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="204" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT204" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU204" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="205" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT205" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU205" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="206" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT206" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU206" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT207" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU207" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="208" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT208" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU208" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="209" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT209" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU209" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="210" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT210" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU210" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="211" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT211" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU211" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="212" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT212" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU212" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="213" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT213" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU213" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="214" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT214" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU214" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="215" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT215" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU215" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="216" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT216" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU216" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="217" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT217" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BU217" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="218" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT218" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU218" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="219" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT219" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU219" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="220" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT220" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU220" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="221" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT221" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU221" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="222" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT222" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU222" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="223" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT223" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU223" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="224" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT224" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU224" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="225" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT225" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU225" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="226" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT226" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU226" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="227" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT227" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU227" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="228" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT228" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU228" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="229" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT229" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU229" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="230" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT230" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU230" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="231" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT231" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU231" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="232" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT232" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU232" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="233" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT233" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU233" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="234" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT234" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU234" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="235" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT235" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU235" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="236" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT236" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="BU236" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="237" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT237" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="BU237" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="238" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT238" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="BU238" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="239" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT239" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="BU239" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="240" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT240" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="BU240" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="241" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT241" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="BU241" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="242" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT242" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="BU242" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="243" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT243" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="BU243" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="244" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT244" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="BU244" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="245" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT245" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="BU245" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="246" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT246" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="BU246" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="247" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT247" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU247" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="248" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT248" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU248" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="249" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT249" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU249" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="250" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT250" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU250" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="251" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT251" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU251" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="252" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT252" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU252" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="253" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT253" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU253" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="254" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT254" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU254" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="255" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT255" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU255" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="256" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT256" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU256" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="257" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT257" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU257" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="258" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT258" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU258" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="259" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT259" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU259" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="260" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT260" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU260" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="261" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT261" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU261" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="262" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT262" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU262" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="263" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT263" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BU263" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="264" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT264" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU264" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="265" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT265" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU265" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="266" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT266" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU266" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="267" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT267" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU267" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="268" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT268" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU268" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="269" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT269" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU269" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="270" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT270" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU270" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="271" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT271" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU271" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="272" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT272" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU272" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="273" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT273" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU273" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="274" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT274" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU274" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="275" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT275" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU275" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="276" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT276" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU276" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="277" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT277" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU277" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="278" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT278" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU278" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="279" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT279" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BU279" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="280" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT280" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU280" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="281" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT281" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU281" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="282" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT282" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU282" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="283" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT283" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU283" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="284" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT284" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU284" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="285" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT285" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU285" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="286" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT286" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU286" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="287" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT287" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU287" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="288" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT288" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU288" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="289" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT289" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU289" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="290" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT290" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU290" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="291" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT291" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU291" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="292" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT292" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU292" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="293" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT293" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU293" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="294" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT294" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU294" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="295" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT295" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU295" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="296" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT296" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU296" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="297" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT297" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU297" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="298" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT298" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU298" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="299" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT299" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU299" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="300" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT300" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU300" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="301" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT301" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU301" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="302" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT302" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU302" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="303" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT303" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU303" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="304" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT304" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU304" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="305" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT305" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU305" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="306" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT306" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU306" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="307" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT307" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU307" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="308" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT308" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU308" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="309" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT309" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU309" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="310" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT310" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU310" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="311" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT311" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU311" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="312" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT312" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU312" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="313" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT313" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU313" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="314" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT314" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU314" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="315" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT315" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU315" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="316" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT316" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU316" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="317" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT317" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU317" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="318" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT318" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU318" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="319" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT319" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU319" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="320" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT320" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU320" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="321" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT321" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU321" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="322" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT322" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU322" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="323" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT323" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU323" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="324" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT324" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU324" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="325" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT325" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU325" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="326" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT326" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU326" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="327" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT327" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU327" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="328" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT328" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU328" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="329" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT329" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU329" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="330" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT330" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU330" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="331" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT331" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU331" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="332" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT332" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU332" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="333" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT333" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU333" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="334" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT334" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU334" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="335" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT335" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU335" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="336" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT336" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU336" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="337" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT337" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU337" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="338" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT338" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU338" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="339" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT339" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU339" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="340" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT340" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU340" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="341" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT341" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU341" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="342" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT342" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU342" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="343" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT343" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU343" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="344" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT344" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU344" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="345" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT345" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU345" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="346" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT346" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU346" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="347" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT347" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BU347" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="348" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT348" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BU348" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="349" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT349" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BU349" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="350" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT350" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BU350" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="351" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT351" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BU351" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="352" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT352" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BU352" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="353" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT353" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BU353" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="354" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT354" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BU354" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="355" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT355" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BU355" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="356" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT356" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BU356" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="357" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT357" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BU357" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="358" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT358" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU358" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="359" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT359" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU359" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="360" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT360" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU360" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="361" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT361" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU361" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="362" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT362" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU362" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="363" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT363" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU363" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="364" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT364" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU364" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="365" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT365" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU365" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="366" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT366" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU366" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="367" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT367" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU367" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="368" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT368" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU368" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="369" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT369" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU369" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="370" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT370" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU370" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="371" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT371" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU371" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="372" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT372" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU372" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="373" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT373" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU373" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="374" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT374" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU374" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="375" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT375" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU375" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="376" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT376" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU376" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="377" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT377" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU377" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="378" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT378" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU378" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="379" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT379" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU379" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="380" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT380" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU380" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="381" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT381" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU381" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="382" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT382" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU382" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="383" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT383" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU383" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="384" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT384" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU384" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="385" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT385" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU385" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="386" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT386" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU386" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="387" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT387" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU387" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="388" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT388" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU388" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="389" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT389" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU389" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="390" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT390" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU390" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="391" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT391" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU391" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="392" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT392" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU392" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="393" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT393" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU393" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="394" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT394" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU394" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="395" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT395" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU395" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="396" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT396" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU396" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="397" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT397" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU397" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="398" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT398" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU398" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="399" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT399" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU399" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="400" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT400" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU400" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="401" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT401" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU401" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="402" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT402" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU402" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="403" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT403" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU403" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="404" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT404" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="BU404" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="405" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT405" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU405" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="406" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT406" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU406" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="407" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT407" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU407" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="408" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT408" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU408" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="409" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT409" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU409" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="410" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT410" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU410" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="411" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT411" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU411" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="412" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT412" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU412" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="413" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT413" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU413" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="414" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT414" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU414" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="415" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT415" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU415" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="416" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT416" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU416" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="417" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT417" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU417" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="418" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT418" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU418" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="419" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT419" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU419" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="420" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT420" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU420" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="421" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT421" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU421" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="422" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT422" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BU422" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="423" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT423" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU423" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="424" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT424" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU424" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="425" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT425" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU425" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="426" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT426" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU426" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="427" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT427" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU427" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="428" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT428" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU428" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="429" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT429" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU429" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="430" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT430" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU430" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="431" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT431" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU431" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="432" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT432" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU432" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="433" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT433" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU433" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="434" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT434" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU434" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="435" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT435" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU435" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="436" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT436" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU436" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="437" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT437" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU437" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="438" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT438" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU438" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="439" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT439" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU439" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="440" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT440" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU440" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="441" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT441" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU441" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="442" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT442" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU442" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="443" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT443" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU443" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="444" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT444" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU444" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="445" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT445" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU445" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="446" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT446" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU446" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="447" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT447" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU447" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="448" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT448" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU448" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="449" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT449" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU449" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="450" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT450" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU450" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="451" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT451" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU451" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="452" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT452" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU452" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="453" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT453" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU453" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="454" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT454" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU454" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="455" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT455" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU455" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="456" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT456" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU456" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="457" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT457" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BU457" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="458" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT458" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BU458" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="459" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT459" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BU459" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="460" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT460" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BU460" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="461" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT461" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BU461" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="462" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT462" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BU462" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="463" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT463" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BU463" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="464" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT464" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BU464" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="465" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT465" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BU465" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="466" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT466" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BU466" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="467" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT467" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BU467" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="468" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT468" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BU468" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="469" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT469" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU469" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="470" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT470" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU470" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="471" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT471" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU471" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="472" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT472" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU472" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="473" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT473" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU473" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="474" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT474" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU474" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="475" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT475" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU475" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="476" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT476" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU476" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="477" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT477" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU477" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="478" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT478" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU478" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="479" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT479" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU479" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="480" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT480" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU480" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="481" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT481" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU481" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="482" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT482" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU482" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="483" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT483" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU483" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="484" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT484" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU484" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="485" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT485" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU485" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="486" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT486" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU486" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="487" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT487" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU487" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="488" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT488" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU488" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="489" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT489" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU489" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="490" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT490" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU490" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="491" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT491" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU491" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="492" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT492" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU492" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="493" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT493" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU493" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="494" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT494" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU494" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="495" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT495" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU495" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="496" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT496" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU496" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="497" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT497" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU497" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="498" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT498" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU498" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="499" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT499" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU499" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="500" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT500" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU500" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="501" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT501" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU501" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="502" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT502" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU502" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="503" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT503" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU503" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="504" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT504" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU504" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="505" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT505" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU505" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="506" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT506" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU506" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="507" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT507" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU507" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="508" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT508" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU508" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="509" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT509" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU509" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="510" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT510" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="BU510" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="511" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT511" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU511" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="512" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT512" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU512" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="513" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT513" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU513" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="514" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT514" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU514" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="515" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT515" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU515" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="516" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT516" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU516" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="517" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT517" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU517" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="518" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT518" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU518" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="519" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT519" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU519" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="520" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT520" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU520" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="521" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT521" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU521" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="522" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT522" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU522" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="523" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT523" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU523" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="524" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT524" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU524" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="525" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT525" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU525" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="526" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT526" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU526" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="527" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT527" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU527" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="528" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT528" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BU528" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="529" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT529" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU529" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="530" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT530" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU530" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="531" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT531" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU531" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="532" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT532" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU532" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="533" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT533" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU533" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="534" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT534" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU534" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="535" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT535" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU535" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="536" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT536" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU536" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="537" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT537" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU537" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="538" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT538" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU538" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="539" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT539" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU539" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="540" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT540" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU540" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="541" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT541" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU541" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="542" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT542" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU542" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="543" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT543" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BU543" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="544" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT544" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU544" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="545" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT545" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU545" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="546" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT546" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU546" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="547" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT547" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU547" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="548" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT548" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU548" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="549" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT549" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU549" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="550" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT550" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU550" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="551" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT551" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU551" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="552" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT552" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU552" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="553" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT553" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU553" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="554" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT554" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU554" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="555" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT555" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU555" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="556" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT556" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU556" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="557" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT557" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU557" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="558" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT558" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU558" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="559" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT559" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU559" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="560" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT560" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU560" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="561" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT561" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BU561" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="562" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT562" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BU562" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="563" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT563" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BU563" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
     </row>
     <row r="564" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT564" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BU564" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="565" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT565" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BU565" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
     </row>
     <row r="566" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT566" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BU566" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="567" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT567" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BU567" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="568" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT568" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BU568" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="569" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT569" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BU569" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="570" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT570" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BU570" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="571" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT571" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BU571" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="572" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT572" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BU572" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="573" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT573" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BU573" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="574" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT574" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU574" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="575" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT575" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU575" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="576" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT576" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU576" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="577" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT577" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU577" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="578" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT578" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU578" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="579" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT579" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU579" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
     </row>
     <row r="580" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT580" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU580" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="581" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT581" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU581" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="582" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT582" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU582" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="583" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT583" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU583" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="584" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT584" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU584" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="585" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT585" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU585" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="586" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT586" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU586" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="587" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT587" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU587" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="588" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT588" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU588" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="589" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT589" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU589" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
     </row>
     <row r="590" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT590" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU590" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
     </row>
     <row r="591" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT591" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU591" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="592" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT592" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU592" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="593" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT593" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU593" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="594" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT594" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU594" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="595" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT595" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU595" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="596" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT596" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU596" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="597" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT597" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="BU597" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="598" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT598" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU598" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="599" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT599" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU599" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="600" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT600" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU600" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="601" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT601" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU601" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="602" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT602" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU602" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="603" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT603" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU603" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="604" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT604" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU604" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="605" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT605" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU605" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="606" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT606" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU606" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="607" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT607" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU607" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="608" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT608" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU608" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="609" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT609" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU609" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
     </row>
     <row r="610" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT610" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU610" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="611" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT611" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BU611" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -12,27 +12,55 @@
     <sheet name="Авторизация" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="a">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$3,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="b">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$4,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="d">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$5,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="e">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$6,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="f">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="g">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="h">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="IT">Авторизация!$BT$3:$BT$37</definedName>
+    <definedName name="o">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$3,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="p">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$4,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="q">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="s">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$5,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="t">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$6,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="w">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="z">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="а">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$3,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="б">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$4,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="в">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$5,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="восемь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="г">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$6,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="д">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="двенадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$13,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="девять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$10,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="десять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$11,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="е">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="ё">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="и">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="КАТЕГОРИЯ">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$3:$R$102,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="м">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$6,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="одинадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$12,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="пять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$6:$R$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="с">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$5,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="семь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="т">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="три">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$4:$R$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="тринадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$14,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="ч">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$4,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="четыре">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$5:$R$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="четырнадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$15,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
     <definedName name="шесть">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="ь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="я">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$3,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="756">
   <si>
     <t>Название вакансии</t>
   </si>
@@ -381,12 +409,6 @@
     <t>Работа для студентов / Стажировки</t>
   </si>
   <si>
-    <t>Категория</t>
-  </si>
-  <si>
-    <t>Профессиональная сфера</t>
-  </si>
-  <si>
     <t>Продажи, работа с клиентами</t>
   </si>
   <si>
@@ -1780,12 +1802,6 @@
   </si>
   <si>
     <t>Стажировка</t>
-  </si>
-  <si>
-    <t>shweper@ya.ru</t>
-  </si>
-  <si>
-    <t>Fqtawe98</t>
   </si>
   <si>
     <t>Эмилии Алексеевой, 6</t>
@@ -2305,6 +2321,45 @@
   </si>
   <si>
     <t>rabora.eda@yandex.ru</t>
+  </si>
+  <si>
+    <t>kdd777ip2@yandex.ru</t>
+  </si>
+  <si>
+    <t>Профессиональная сфера1</t>
+  </si>
+  <si>
+    <t>Категория1</t>
+  </si>
+  <si>
+    <t>Профессиональная сфера2</t>
+  </si>
+  <si>
+    <t>Категория2</t>
+  </si>
+  <si>
+    <t>Профессиональная сфера3</t>
+  </si>
+  <si>
+    <t>Категория3</t>
+  </si>
+  <si>
+    <t>Профессиональная сфера4</t>
+  </si>
+  <si>
+    <t>Категория4</t>
+  </si>
+  <si>
+    <t>Профессиональная сфера5</t>
+  </si>
+  <si>
+    <t>Категория5</t>
+  </si>
+  <si>
+    <t>Название компании</t>
+  </si>
+  <si>
+    <t>Курьерская служба доставки</t>
   </si>
 </sst>
 </file>
@@ -2704,10 +2759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,9 +2784,18 @@
     <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="18" width="45.28515625" customWidth="1"/>
     <col min="19" max="19" width="37.42578125" customWidth="1"/>
+    <col min="20" max="20" width="37.28515625" customWidth="1"/>
+    <col min="21" max="21" width="34.28515625" customWidth="1"/>
+    <col min="22" max="22" width="39.7109375" customWidth="1"/>
+    <col min="23" max="23" width="33.140625" customWidth="1"/>
+    <col min="24" max="24" width="31.140625" customWidth="1"/>
+    <col min="25" max="25" width="28.42578125" customWidth="1"/>
+    <col min="26" max="26" width="36.7109375" customWidth="1"/>
+    <col min="27" max="27" width="27.28515625" customWidth="1"/>
+    <col min="28" max="28" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2774,13 +2838,40 @@
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12" t="s">
-        <v>116</v>
+        <v>744</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -2818,10 +2909,19 @@
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B3">
         <v>17000</v>
@@ -2845,7 +2945,7 @@
         <v>60</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>31</v>
@@ -2854,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="M3">
         <v>999</v>
@@ -2875,12 +2975,33 @@
         <v>114</v>
       </c>
       <c r="S3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="T3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U3" t="s">
+        <v>571</v>
+      </c>
+      <c r="V3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W3" t="s">
+        <v>221</v>
+      </c>
+      <c r="X3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B4">
         <v>12000</v>
@@ -2904,7 +3025,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>32</v>
@@ -2913,7 +3034,7 @@
         <v>24</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="M4">
         <v>999</v>
@@ -2934,12 +3055,33 @@
         <v>114</v>
       </c>
       <c r="S4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="T4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U4" t="s">
+        <v>336</v>
+      </c>
+      <c r="V4" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B5">
         <v>25000</v>
@@ -2963,7 +3105,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>33</v>
@@ -2972,7 +3114,7 @@
         <v>24</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="M5">
         <v>999</v>
@@ -2993,13 +3135,33 @@
         <v>114</v>
       </c>
       <c r="S5" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA5" s="7"/>
-    </row>
-    <row r="6" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="T5" t="s">
+        <v>113</v>
+      </c>
+      <c r="U5" t="s">
+        <v>336</v>
+      </c>
+      <c r="V5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B6">
         <v>19000</v>
@@ -3023,7 +3185,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>34</v>
@@ -3032,7 +3194,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="M6">
         <v>999</v>
@@ -3053,13 +3215,33 @@
         <v>114</v>
       </c>
       <c r="S6" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA6" s="7"/>
-    </row>
-    <row r="7" spans="1:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="T6" t="s">
+        <v>113</v>
+      </c>
+      <c r="U6" t="s">
+        <v>336</v>
+      </c>
+      <c r="V6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -3083,7 +3265,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>33</v>
@@ -3092,7 +3274,7 @@
         <v>24</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="M7">
         <v>999</v>
@@ -3113,13 +3295,33 @@
         <v>114</v>
       </c>
       <c r="S7" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA7" s="7"/>
-    </row>
-    <row r="8" spans="1:27" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="T7" t="s">
+        <v>113</v>
+      </c>
+      <c r="U7" t="s">
+        <v>336</v>
+      </c>
+      <c r="V7" t="s">
+        <v>91</v>
+      </c>
+      <c r="W7" t="s">
+        <v>221</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B8">
         <v>33000</v>
@@ -3143,7 +3345,7 @@
         <v>60</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>36</v>
@@ -3152,7 +3354,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="M8">
         <v>999</v>
@@ -3173,39 +3375,59 @@
         <v>114</v>
       </c>
       <c r="S8" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA8" s="7"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="T8" t="s">
+        <v>113</v>
+      </c>
+      <c r="U8" t="s">
+        <v>336</v>
+      </c>
+      <c r="V8" t="s">
+        <v>91</v>
+      </c>
+      <c r="W8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
@@ -3426,13 +3648,10 @@
       <c r="H70" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="23">
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="I1:I2"/>
@@ -3441,8 +3660,20 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
   </mergeCells>
-  <dataValidations count="14">
+  <dataValidations count="42">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H46">
       <formula1>1</formula1>
       <formula2>100</formula2>
@@ -3485,6 +3716,90 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S15">
       <formula1>четырнадцать</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3">
+      <formula1>а</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4">
+      <formula1>б</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5">
+      <formula1>в</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6">
+      <formula1>г</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7">
+      <formula1>д</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8">
+      <formula1>е</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U9">
+      <formula1>ё</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3">
+      <formula1>я</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4">
+      <formula1>ч</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W5">
+      <formula1>с</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6">
+      <formula1>м</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7">
+      <formula1>и</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W8">
+      <formula1>т</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W9">
+      <formula1>ь</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3">
+      <formula1>a</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4">
+      <formula1>b</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y5">
+      <formula1>d</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6">
+      <formula1>e</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7">
+      <formula1>f</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y8">
+      <formula1>g</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9">
+      <formula1>h</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3">
+      <formula1>o</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA4">
+      <formula1>p</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA5">
+      <formula1>s</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6">
+      <formula1>t</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7">
+      <formula1>q</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA8">
+      <formula1>w</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA9">
+      <formula1>z</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -3535,7 +3850,7 @@
           <x14:formula1>
             <xm:f>Авторизация!$BS$1:$BS$30</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R1347</xm:sqref>
+          <xm:sqref>R3:R1347 T3:T8 V3:V8 X3:X8 Z3:Z8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3574,19 +3889,19 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F2" t="s">
         <v>584</v>
-      </c>
-      <c r="C2" t="s">
-        <v>585</v>
-      </c>
-      <c r="D2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F2" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3594,19 +3909,19 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F3" t="s">
         <v>589</v>
-      </c>
-      <c r="C3" t="s">
-        <v>590</v>
-      </c>
-      <c r="D3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E3" t="s">
-        <v>592</v>
-      </c>
-      <c r="F3" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3614,19 +3929,19 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F4" t="s">
         <v>594</v>
-      </c>
-      <c r="C4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D4" t="s">
-        <v>596</v>
-      </c>
-      <c r="E4" t="s">
-        <v>597</v>
-      </c>
-      <c r="F4" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3634,19 +3949,19 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" t="s">
+        <v>597</v>
+      </c>
+      <c r="E5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F5" t="s">
         <v>599</v>
-      </c>
-      <c r="C5" t="s">
-        <v>600</v>
-      </c>
-      <c r="D5" t="s">
-        <v>601</v>
-      </c>
-      <c r="E5" t="s">
-        <v>602</v>
-      </c>
-      <c r="F5" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3654,19 +3969,19 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D6" t="s">
+        <v>602</v>
+      </c>
+      <c r="E6" t="s">
+        <v>603</v>
+      </c>
+      <c r="F6" t="s">
         <v>604</v>
-      </c>
-      <c r="C6" t="s">
-        <v>605</v>
-      </c>
-      <c r="D6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E6" t="s">
-        <v>607</v>
-      </c>
-      <c r="F6" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3674,19 +3989,19 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C7" t="s">
+        <v>606</v>
+      </c>
+      <c r="D7" t="s">
+        <v>607</v>
+      </c>
+      <c r="E7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F7" t="s">
         <v>609</v>
-      </c>
-      <c r="C7" t="s">
-        <v>610</v>
-      </c>
-      <c r="D7" t="s">
-        <v>611</v>
-      </c>
-      <c r="E7" t="s">
-        <v>612</v>
-      </c>
-      <c r="F7" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3694,19 +4009,19 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E8" t="s">
+        <v>613</v>
+      </c>
+      <c r="F8" t="s">
         <v>614</v>
-      </c>
-      <c r="C8" t="s">
-        <v>615</v>
-      </c>
-      <c r="D8" t="s">
-        <v>616</v>
-      </c>
-      <c r="E8" t="s">
-        <v>617</v>
-      </c>
-      <c r="F8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3714,19 +4029,19 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C9" t="s">
+        <v>616</v>
+      </c>
+      <c r="D9" t="s">
+        <v>617</v>
+      </c>
+      <c r="E9" t="s">
+        <v>618</v>
+      </c>
+      <c r="F9" t="s">
         <v>619</v>
-      </c>
-      <c r="C9" t="s">
-        <v>620</v>
-      </c>
-      <c r="D9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E9" t="s">
-        <v>622</v>
-      </c>
-      <c r="F9" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3734,19 +4049,19 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C10" t="s">
+        <v>621</v>
+      </c>
+      <c r="D10" t="s">
+        <v>622</v>
+      </c>
+      <c r="E10" t="s">
+        <v>623</v>
+      </c>
+      <c r="F10" t="s">
         <v>624</v>
-      </c>
-      <c r="C10" t="s">
-        <v>625</v>
-      </c>
-      <c r="D10" t="s">
-        <v>626</v>
-      </c>
-      <c r="E10" t="s">
-        <v>627</v>
-      </c>
-      <c r="F10" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3754,19 +4069,19 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
+        <v>625</v>
+      </c>
+      <c r="C11" t="s">
+        <v>626</v>
+      </c>
+      <c r="D11" t="s">
+        <v>627</v>
+      </c>
+      <c r="E11" t="s">
+        <v>628</v>
+      </c>
+      <c r="F11" t="s">
         <v>629</v>
-      </c>
-      <c r="C11" t="s">
-        <v>630</v>
-      </c>
-      <c r="D11" t="s">
-        <v>631</v>
-      </c>
-      <c r="E11" t="s">
-        <v>632</v>
-      </c>
-      <c r="F11" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3774,19 +4089,19 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
+        <v>630</v>
+      </c>
+      <c r="C12" t="s">
+        <v>631</v>
+      </c>
+      <c r="D12" t="s">
+        <v>632</v>
+      </c>
+      <c r="E12" t="s">
+        <v>633</v>
+      </c>
+      <c r="F12" t="s">
         <v>634</v>
-      </c>
-      <c r="C12" t="s">
-        <v>635</v>
-      </c>
-      <c r="D12" t="s">
-        <v>636</v>
-      </c>
-      <c r="E12" t="s">
-        <v>637</v>
-      </c>
-      <c r="F12" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3794,19 +4109,19 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
+        <v>635</v>
+      </c>
+      <c r="C13" t="s">
+        <v>636</v>
+      </c>
+      <c r="D13" t="s">
+        <v>637</v>
+      </c>
+      <c r="E13" t="s">
+        <v>638</v>
+      </c>
+      <c r="F13" t="s">
         <v>639</v>
-      </c>
-      <c r="C13" t="s">
-        <v>640</v>
-      </c>
-      <c r="D13" t="s">
-        <v>641</v>
-      </c>
-      <c r="E13" t="s">
-        <v>642</v>
-      </c>
-      <c r="F13" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3814,19 +4129,19 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
+        <v>640</v>
+      </c>
+      <c r="C14" t="s">
+        <v>641</v>
+      </c>
+      <c r="D14" t="s">
+        <v>642</v>
+      </c>
+      <c r="E14" t="s">
+        <v>643</v>
+      </c>
+      <c r="F14" t="s">
         <v>644</v>
-      </c>
-      <c r="C14" t="s">
-        <v>645</v>
-      </c>
-      <c r="D14" t="s">
-        <v>646</v>
-      </c>
-      <c r="E14" t="s">
-        <v>647</v>
-      </c>
-      <c r="F14" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3834,19 +4149,19 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
+        <v>645</v>
+      </c>
+      <c r="C15" t="s">
+        <v>646</v>
+      </c>
+      <c r="D15" t="s">
+        <v>647</v>
+      </c>
+      <c r="E15" t="s">
+        <v>648</v>
+      </c>
+      <c r="F15" t="s">
         <v>649</v>
-      </c>
-      <c r="C15" t="s">
-        <v>650</v>
-      </c>
-      <c r="D15" t="s">
-        <v>651</v>
-      </c>
-      <c r="E15" t="s">
-        <v>652</v>
-      </c>
-      <c r="F15" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3854,19 +4169,19 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
+        <v>650</v>
+      </c>
+      <c r="C16" t="s">
+        <v>651</v>
+      </c>
+      <c r="D16" t="s">
+        <v>652</v>
+      </c>
+      <c r="E16" t="s">
+        <v>653</v>
+      </c>
+      <c r="F16" t="s">
         <v>654</v>
-      </c>
-      <c r="C16" t="s">
-        <v>655</v>
-      </c>
-      <c r="D16" t="s">
-        <v>656</v>
-      </c>
-      <c r="E16" t="s">
-        <v>657</v>
-      </c>
-      <c r="F16" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3874,19 +4189,19 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
+        <v>655</v>
+      </c>
+      <c r="C17" t="s">
+        <v>656</v>
+      </c>
+      <c r="D17" t="s">
+        <v>657</v>
+      </c>
+      <c r="E17" t="s">
+        <v>658</v>
+      </c>
+      <c r="F17" t="s">
         <v>659</v>
-      </c>
-      <c r="C17" t="s">
-        <v>660</v>
-      </c>
-      <c r="D17" t="s">
-        <v>661</v>
-      </c>
-      <c r="E17" t="s">
-        <v>662</v>
-      </c>
-      <c r="F17" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3894,19 +4209,19 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
+        <v>660</v>
+      </c>
+      <c r="C18" t="s">
+        <v>661</v>
+      </c>
+      <c r="D18" t="s">
+        <v>662</v>
+      </c>
+      <c r="E18" t="s">
+        <v>663</v>
+      </c>
+      <c r="F18" t="s">
         <v>664</v>
-      </c>
-      <c r="C18" t="s">
-        <v>665</v>
-      </c>
-      <c r="D18" t="s">
-        <v>666</v>
-      </c>
-      <c r="E18" t="s">
-        <v>667</v>
-      </c>
-      <c r="F18" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3914,19 +4229,19 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
+        <v>665</v>
+      </c>
+      <c r="C19" t="s">
+        <v>666</v>
+      </c>
+      <c r="D19" t="s">
+        <v>667</v>
+      </c>
+      <c r="E19" t="s">
+        <v>668</v>
+      </c>
+      <c r="F19" t="s">
         <v>669</v>
-      </c>
-      <c r="C19" t="s">
-        <v>670</v>
-      </c>
-      <c r="D19" t="s">
-        <v>671</v>
-      </c>
-      <c r="E19" t="s">
-        <v>672</v>
-      </c>
-      <c r="F19" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3934,19 +4249,19 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C20" t="s">
+        <v>671</v>
+      </c>
+      <c r="D20" t="s">
+        <v>672</v>
+      </c>
+      <c r="E20" t="s">
+        <v>673</v>
+      </c>
+      <c r="F20" t="s">
         <v>674</v>
-      </c>
-      <c r="C20" t="s">
-        <v>675</v>
-      </c>
-      <c r="D20" t="s">
-        <v>676</v>
-      </c>
-      <c r="E20" t="s">
-        <v>677</v>
-      </c>
-      <c r="F20" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3954,19 +4269,19 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
+        <v>675</v>
+      </c>
+      <c r="C21" t="s">
+        <v>676</v>
+      </c>
+      <c r="D21" t="s">
+        <v>677</v>
+      </c>
+      <c r="E21" t="s">
+        <v>678</v>
+      </c>
+      <c r="F21" t="s">
         <v>679</v>
-      </c>
-      <c r="C21" t="s">
-        <v>680</v>
-      </c>
-      <c r="D21" t="s">
-        <v>681</v>
-      </c>
-      <c r="E21" t="s">
-        <v>682</v>
-      </c>
-      <c r="F21" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3974,19 +4289,19 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
+        <v>680</v>
+      </c>
+      <c r="C22" t="s">
+        <v>681</v>
+      </c>
+      <c r="D22" t="s">
+        <v>682</v>
+      </c>
+      <c r="E22" t="s">
+        <v>683</v>
+      </c>
+      <c r="F22" t="s">
         <v>684</v>
-      </c>
-      <c r="C22" t="s">
-        <v>685</v>
-      </c>
-      <c r="D22" t="s">
-        <v>686</v>
-      </c>
-      <c r="E22" t="s">
-        <v>687</v>
-      </c>
-      <c r="F22" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3994,19 +4309,19 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
+        <v>685</v>
+      </c>
+      <c r="C23" t="s">
+        <v>686</v>
+      </c>
+      <c r="D23" t="s">
+        <v>687</v>
+      </c>
+      <c r="E23" t="s">
+        <v>688</v>
+      </c>
+      <c r="F23" t="s">
         <v>689</v>
-      </c>
-      <c r="C23" t="s">
-        <v>690</v>
-      </c>
-      <c r="D23" t="s">
-        <v>691</v>
-      </c>
-      <c r="E23" t="s">
-        <v>692</v>
-      </c>
-      <c r="F23" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4014,19 +4329,19 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
+        <v>690</v>
+      </c>
+      <c r="C24" t="s">
+        <v>691</v>
+      </c>
+      <c r="D24" t="s">
+        <v>692</v>
+      </c>
+      <c r="E24" t="s">
+        <v>693</v>
+      </c>
+      <c r="F24" t="s">
         <v>694</v>
-      </c>
-      <c r="C24" t="s">
-        <v>695</v>
-      </c>
-      <c r="D24" t="s">
-        <v>696</v>
-      </c>
-      <c r="E24" t="s">
-        <v>697</v>
-      </c>
-      <c r="F24" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4034,19 +4349,19 @@
         <v>74</v>
       </c>
       <c r="B25" t="s">
+        <v>695</v>
+      </c>
+      <c r="C25" t="s">
+        <v>696</v>
+      </c>
+      <c r="D25" t="s">
+        <v>697</v>
+      </c>
+      <c r="E25" t="s">
+        <v>698</v>
+      </c>
+      <c r="F25" t="s">
         <v>699</v>
-      </c>
-      <c r="C25" t="s">
-        <v>700</v>
-      </c>
-      <c r="D25" t="s">
-        <v>701</v>
-      </c>
-      <c r="E25" t="s">
-        <v>702</v>
-      </c>
-      <c r="F25" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4054,19 +4369,19 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
+        <v>700</v>
+      </c>
+      <c r="C26" t="s">
+        <v>701</v>
+      </c>
+      <c r="D26" t="s">
+        <v>702</v>
+      </c>
+      <c r="E26" t="s">
+        <v>703</v>
+      </c>
+      <c r="F26" t="s">
         <v>704</v>
-      </c>
-      <c r="C26" t="s">
-        <v>705</v>
-      </c>
-      <c r="D26" t="s">
-        <v>706</v>
-      </c>
-      <c r="E26" t="s">
-        <v>707</v>
-      </c>
-      <c r="F26" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4074,19 +4389,19 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
+        <v>705</v>
+      </c>
+      <c r="C27" t="s">
+        <v>706</v>
+      </c>
+      <c r="D27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E27" t="s">
+        <v>708</v>
+      </c>
+      <c r="F27" t="s">
         <v>709</v>
-      </c>
-      <c r="C27" t="s">
-        <v>710</v>
-      </c>
-      <c r="D27" t="s">
-        <v>711</v>
-      </c>
-      <c r="E27" t="s">
-        <v>712</v>
-      </c>
-      <c r="F27" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4094,19 +4409,19 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
+        <v>710</v>
+      </c>
+      <c r="C28" t="s">
+        <v>711</v>
+      </c>
+      <c r="D28" t="s">
+        <v>712</v>
+      </c>
+      <c r="E28" t="s">
+        <v>713</v>
+      </c>
+      <c r="F28" t="s">
         <v>714</v>
-      </c>
-      <c r="C28" t="s">
-        <v>715</v>
-      </c>
-      <c r="D28" t="s">
-        <v>716</v>
-      </c>
-      <c r="E28" t="s">
-        <v>717</v>
-      </c>
-      <c r="F28" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4114,19 +4429,19 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
+        <v>715</v>
+      </c>
+      <c r="C29" t="s">
+        <v>716</v>
+      </c>
+      <c r="D29" t="s">
+        <v>717</v>
+      </c>
+      <c r="E29" t="s">
+        <v>718</v>
+      </c>
+      <c r="F29" t="s">
         <v>719</v>
-      </c>
-      <c r="C29" t="s">
-        <v>720</v>
-      </c>
-      <c r="D29" t="s">
-        <v>721</v>
-      </c>
-      <c r="E29" t="s">
-        <v>722</v>
-      </c>
-      <c r="F29" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4134,19 +4449,19 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
+        <v>720</v>
+      </c>
+      <c r="C30" t="s">
+        <v>721</v>
+      </c>
+      <c r="D30" t="s">
+        <v>722</v>
+      </c>
+      <c r="E30" t="s">
+        <v>723</v>
+      </c>
+      <c r="F30" t="s">
         <v>724</v>
-      </c>
-      <c r="C30" t="s">
-        <v>725</v>
-      </c>
-      <c r="D30" t="s">
-        <v>726</v>
-      </c>
-      <c r="E30" t="s">
-        <v>727</v>
-      </c>
-      <c r="F30" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4154,19 +4469,19 @@
         <v>80</v>
       </c>
       <c r="B31" t="s">
+        <v>725</v>
+      </c>
+      <c r="C31" t="s">
+        <v>726</v>
+      </c>
+      <c r="D31" t="s">
+        <v>727</v>
+      </c>
+      <c r="E31" t="s">
+        <v>728</v>
+      </c>
+      <c r="F31" t="s">
         <v>729</v>
-      </c>
-      <c r="C31" t="s">
-        <v>730</v>
-      </c>
-      <c r="D31" t="s">
-        <v>731</v>
-      </c>
-      <c r="E31" t="s">
-        <v>732</v>
-      </c>
-      <c r="F31" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4174,19 +4489,19 @@
         <v>81</v>
       </c>
       <c r="B32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C32" t="s">
+        <v>731</v>
+      </c>
+      <c r="D32" t="s">
+        <v>732</v>
+      </c>
+      <c r="E32" t="s">
+        <v>733</v>
+      </c>
+      <c r="F32" t="s">
         <v>734</v>
-      </c>
-      <c r="C32" t="s">
-        <v>735</v>
-      </c>
-      <c r="D32" t="s">
-        <v>736</v>
-      </c>
-      <c r="E32" t="s">
-        <v>737</v>
-      </c>
-      <c r="F32" t="s">
-        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -4200,8 +4515,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BU611"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="BM115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4227,7 +4542,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>582</v>
+        <v>743</v>
       </c>
       <c r="BL1" t="s">
         <v>31</v>
@@ -4255,8 +4570,8 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>583</v>
+      <c r="B2" s="3" t="s">
+        <v>743</v>
       </c>
       <c r="BL2" t="s">
         <v>32</v>
@@ -4283,7 +4598,7 @@
         <v>85</v>
       </c>
       <c r="BU2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.25">
@@ -4335,7 +4650,7 @@
         <v>85</v>
       </c>
       <c r="BU4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.25">
@@ -4358,7 +4673,7 @@
         <v>85</v>
       </c>
       <c r="BU5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.25">
@@ -4378,7 +4693,7 @@
         <v>85</v>
       </c>
       <c r="BU6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.25">
@@ -4395,7 +4710,7 @@
         <v>85</v>
       </c>
       <c r="BU7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.25">
@@ -4412,7 +4727,7 @@
         <v>85</v>
       </c>
       <c r="BU8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.25">
@@ -4429,7 +4744,7 @@
         <v>85</v>
       </c>
       <c r="BU9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.25">
@@ -4446,7 +4761,7 @@
         <v>85</v>
       </c>
       <c r="BU10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.25">
@@ -4463,7 +4778,7 @@
         <v>85</v>
       </c>
       <c r="BU11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.25">
@@ -4480,7 +4795,7 @@
         <v>85</v>
       </c>
       <c r="BU12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.25">
@@ -4497,7 +4812,7 @@
         <v>85</v>
       </c>
       <c r="BU13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.25">
@@ -4511,7 +4826,7 @@
         <v>85</v>
       </c>
       <c r="BU14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.25">
@@ -4525,7 +4840,7 @@
         <v>85</v>
       </c>
       <c r="BU15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.25">
@@ -4539,7 +4854,7 @@
         <v>85</v>
       </c>
       <c r="BU16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="66:73" x14ac:dyDescent="0.25">
@@ -4553,7 +4868,7 @@
         <v>85</v>
       </c>
       <c r="BU17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="66:73" x14ac:dyDescent="0.25">
@@ -4567,7 +4882,7 @@
         <v>85</v>
       </c>
       <c r="BU18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="66:73" x14ac:dyDescent="0.25">
@@ -4581,7 +4896,7 @@
         <v>85</v>
       </c>
       <c r="BU19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="66:73" x14ac:dyDescent="0.25">
@@ -4595,7 +4910,7 @@
         <v>85</v>
       </c>
       <c r="BU20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="66:73" x14ac:dyDescent="0.25">
@@ -4609,7 +4924,7 @@
         <v>85</v>
       </c>
       <c r="BU21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="66:73" x14ac:dyDescent="0.25">
@@ -4623,7 +4938,7 @@
         <v>85</v>
       </c>
       <c r="BU22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="66:73" x14ac:dyDescent="0.25">
@@ -4637,7 +4952,7 @@
         <v>85</v>
       </c>
       <c r="BU23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="66:73" x14ac:dyDescent="0.25">
@@ -4651,7 +4966,7 @@
         <v>85</v>
       </c>
       <c r="BU24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="66:73" x14ac:dyDescent="0.25">
@@ -4665,7 +4980,7 @@
         <v>85</v>
       </c>
       <c r="BU25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="66:73" x14ac:dyDescent="0.25">
@@ -4679,7 +4994,7 @@
         <v>85</v>
       </c>
       <c r="BU26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="66:73" x14ac:dyDescent="0.25">
@@ -4693,7 +5008,7 @@
         <v>85</v>
       </c>
       <c r="BU27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="66:73" x14ac:dyDescent="0.25">
@@ -4707,7 +5022,7 @@
         <v>85</v>
       </c>
       <c r="BU28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="66:73" x14ac:dyDescent="0.25">
@@ -4721,7 +5036,7 @@
         <v>85</v>
       </c>
       <c r="BU29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="66:73" x14ac:dyDescent="0.25">
@@ -4735,7 +5050,7 @@
         <v>85</v>
       </c>
       <c r="BU30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="66:73" x14ac:dyDescent="0.25">
@@ -4746,7 +5061,7 @@
         <v>85</v>
       </c>
       <c r="BU31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="66:73" x14ac:dyDescent="0.25">
@@ -4757,7 +5072,7 @@
         <v>85</v>
       </c>
       <c r="BU32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="66:73" x14ac:dyDescent="0.25">
@@ -4768,7 +5083,7 @@
         <v>85</v>
       </c>
       <c r="BU33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="66:73" x14ac:dyDescent="0.25">
@@ -4779,7 +5094,7 @@
         <v>85</v>
       </c>
       <c r="BU34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="66:73" x14ac:dyDescent="0.25">
@@ -4790,7 +5105,7 @@
         <v>85</v>
       </c>
       <c r="BU35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="66:73" x14ac:dyDescent="0.25">
@@ -4801,7 +5116,7 @@
         <v>85</v>
       </c>
       <c r="BU36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="66:73" x14ac:dyDescent="0.25">
@@ -4812,7 +5127,7 @@
         <v>85</v>
       </c>
       <c r="BU37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="66:73" x14ac:dyDescent="0.25">
@@ -4823,7 +5138,7 @@
         <v>86</v>
       </c>
       <c r="BU38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="66:73" x14ac:dyDescent="0.25">
@@ -4834,7 +5149,7 @@
         <v>86</v>
       </c>
       <c r="BU39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="66:73" x14ac:dyDescent="0.25">
@@ -4845,7 +5160,7 @@
         <v>86</v>
       </c>
       <c r="BU40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="66:73" x14ac:dyDescent="0.25">
@@ -4856,7 +5171,7 @@
         <v>86</v>
       </c>
       <c r="BU41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="66:73" x14ac:dyDescent="0.25">
@@ -4867,7 +5182,7 @@
         <v>86</v>
       </c>
       <c r="BU42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="66:73" x14ac:dyDescent="0.25">
@@ -4878,7 +5193,7 @@
         <v>86</v>
       </c>
       <c r="BU43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="66:73" x14ac:dyDescent="0.25">
@@ -4889,7 +5204,7 @@
         <v>86</v>
       </c>
       <c r="BU44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="66:73" x14ac:dyDescent="0.25">
@@ -4900,7 +5215,7 @@
         <v>86</v>
       </c>
       <c r="BU45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="66:73" x14ac:dyDescent="0.25">
@@ -4911,7 +5226,7 @@
         <v>86</v>
       </c>
       <c r="BU46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="66:73" x14ac:dyDescent="0.25">
@@ -4922,7 +5237,7 @@
         <v>86</v>
       </c>
       <c r="BU47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="66:73" x14ac:dyDescent="0.25">
@@ -4933,7 +5248,7 @@
         <v>86</v>
       </c>
       <c r="BU48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="72:73" x14ac:dyDescent="0.25">
@@ -4941,7 +5256,7 @@
         <v>87</v>
       </c>
       <c r="BU49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="72:73" x14ac:dyDescent="0.25">
@@ -4949,7 +5264,7 @@
         <v>87</v>
       </c>
       <c r="BU50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="72:73" x14ac:dyDescent="0.25">
@@ -4957,7 +5272,7 @@
         <v>87</v>
       </c>
       <c r="BU51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="72:73" x14ac:dyDescent="0.25">
@@ -4965,7 +5280,7 @@
         <v>87</v>
       </c>
       <c r="BU52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="72:73" x14ac:dyDescent="0.25">
@@ -4973,7 +5288,7 @@
         <v>87</v>
       </c>
       <c r="BU53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="72:73" x14ac:dyDescent="0.25">
@@ -4981,7 +5296,7 @@
         <v>87</v>
       </c>
       <c r="BU54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="72:73" x14ac:dyDescent="0.25">
@@ -4989,7 +5304,7 @@
         <v>87</v>
       </c>
       <c r="BU55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="72:73" x14ac:dyDescent="0.25">
@@ -4997,7 +5312,7 @@
         <v>87</v>
       </c>
       <c r="BU56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="72:73" x14ac:dyDescent="0.25">
@@ -5005,7 +5320,7 @@
         <v>87</v>
       </c>
       <c r="BU57" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="72:73" x14ac:dyDescent="0.25">
@@ -5013,7 +5328,7 @@
         <v>87</v>
       </c>
       <c r="BU58" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="72:73" x14ac:dyDescent="0.25">
@@ -5021,7 +5336,7 @@
         <v>87</v>
       </c>
       <c r="BU59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="72:73" x14ac:dyDescent="0.25">
@@ -5029,7 +5344,7 @@
         <v>87</v>
       </c>
       <c r="BU60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="72:73" x14ac:dyDescent="0.25">
@@ -5037,7 +5352,7 @@
         <v>87</v>
       </c>
       <c r="BU61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="72:73" x14ac:dyDescent="0.25">
@@ -5045,7 +5360,7 @@
         <v>87</v>
       </c>
       <c r="BU62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="72:73" x14ac:dyDescent="0.25">
@@ -5053,7 +5368,7 @@
         <v>87</v>
       </c>
       <c r="BU63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="72:73" x14ac:dyDescent="0.25">
@@ -5061,7 +5376,7 @@
         <v>87</v>
       </c>
       <c r="BU64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="72:73" x14ac:dyDescent="0.25">
@@ -5069,7 +5384,7 @@
         <v>88</v>
       </c>
       <c r="BU65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="72:73" x14ac:dyDescent="0.25">
@@ -5077,7 +5392,7 @@
         <v>88</v>
       </c>
       <c r="BU66" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="72:73" x14ac:dyDescent="0.25">
@@ -5085,7 +5400,7 @@
         <v>88</v>
       </c>
       <c r="BU67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="72:73" x14ac:dyDescent="0.25">
@@ -5093,7 +5408,7 @@
         <v>88</v>
       </c>
       <c r="BU68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="72:73" x14ac:dyDescent="0.25">
@@ -5101,7 +5416,7 @@
         <v>88</v>
       </c>
       <c r="BU69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="72:73" x14ac:dyDescent="0.25">
@@ -5109,7 +5424,7 @@
         <v>88</v>
       </c>
       <c r="BU70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="72:73" x14ac:dyDescent="0.25">
@@ -5117,7 +5432,7 @@
         <v>88</v>
       </c>
       <c r="BU71" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="72:73" x14ac:dyDescent="0.25">
@@ -5125,7 +5440,7 @@
         <v>88</v>
       </c>
       <c r="BU72" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="72:73" x14ac:dyDescent="0.25">
@@ -5133,7 +5448,7 @@
         <v>88</v>
       </c>
       <c r="BU73" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="72:73" x14ac:dyDescent="0.25">
@@ -5141,7 +5456,7 @@
         <v>88</v>
       </c>
       <c r="BU74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="72:73" x14ac:dyDescent="0.25">
@@ -5149,7 +5464,7 @@
         <v>88</v>
       </c>
       <c r="BU75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="72:73" x14ac:dyDescent="0.25">
@@ -5157,7 +5472,7 @@
         <v>88</v>
       </c>
       <c r="BU76" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="72:73" x14ac:dyDescent="0.25">
@@ -5165,7 +5480,7 @@
         <v>88</v>
       </c>
       <c r="BU77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="72:73" x14ac:dyDescent="0.25">
@@ -5173,7 +5488,7 @@
         <v>88</v>
       </c>
       <c r="BU78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="72:73" x14ac:dyDescent="0.25">
@@ -5181,7 +5496,7 @@
         <v>88</v>
       </c>
       <c r="BU79" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="72:73" x14ac:dyDescent="0.25">
@@ -5189,7 +5504,7 @@
         <v>88</v>
       </c>
       <c r="BU80" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="72:73" x14ac:dyDescent="0.25">
@@ -5197,7 +5512,7 @@
         <v>88</v>
       </c>
       <c r="BU81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="72:73" x14ac:dyDescent="0.25">
@@ -5205,7 +5520,7 @@
         <v>88</v>
       </c>
       <c r="BU82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="72:73" x14ac:dyDescent="0.25">
@@ -5213,7 +5528,7 @@
         <v>88</v>
       </c>
       <c r="BU83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="72:73" x14ac:dyDescent="0.25">
@@ -5221,7 +5536,7 @@
         <v>88</v>
       </c>
       <c r="BU84" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="72:73" x14ac:dyDescent="0.25">
@@ -5229,7 +5544,7 @@
         <v>88</v>
       </c>
       <c r="BU85" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="72:73" x14ac:dyDescent="0.25">
@@ -5237,7 +5552,7 @@
         <v>89</v>
       </c>
       <c r="BU86" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="72:73" x14ac:dyDescent="0.25">
@@ -5245,7 +5560,7 @@
         <v>89</v>
       </c>
       <c r="BU87" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="72:73" x14ac:dyDescent="0.25">
@@ -5253,7 +5568,7 @@
         <v>89</v>
       </c>
       <c r="BU88" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="72:73" x14ac:dyDescent="0.25">
@@ -5261,7 +5576,7 @@
         <v>89</v>
       </c>
       <c r="BU89" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="72:73" x14ac:dyDescent="0.25">
@@ -5269,7 +5584,7 @@
         <v>89</v>
       </c>
       <c r="BU90" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="72:73" x14ac:dyDescent="0.25">
@@ -5277,7 +5592,7 @@
         <v>89</v>
       </c>
       <c r="BU91" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="72:73" x14ac:dyDescent="0.25">
@@ -5285,7 +5600,7 @@
         <v>89</v>
       </c>
       <c r="BU92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="72:73" x14ac:dyDescent="0.25">
@@ -5293,7 +5608,7 @@
         <v>89</v>
       </c>
       <c r="BU93" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="72:73" x14ac:dyDescent="0.25">
@@ -5301,7 +5616,7 @@
         <v>89</v>
       </c>
       <c r="BU94" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="72:73" x14ac:dyDescent="0.25">
@@ -5309,7 +5624,7 @@
         <v>89</v>
       </c>
       <c r="BU95" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="72:73" x14ac:dyDescent="0.25">
@@ -5317,7 +5632,7 @@
         <v>89</v>
       </c>
       <c r="BU96" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="72:73" x14ac:dyDescent="0.25">
@@ -5325,7 +5640,7 @@
         <v>89</v>
       </c>
       <c r="BU97" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="72:73" x14ac:dyDescent="0.25">
@@ -5333,7 +5648,7 @@
         <v>90</v>
       </c>
       <c r="BU98" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="72:73" x14ac:dyDescent="0.25">
@@ -5341,7 +5656,7 @@
         <v>90</v>
       </c>
       <c r="BU99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="72:73" x14ac:dyDescent="0.25">
@@ -5349,7 +5664,7 @@
         <v>90</v>
       </c>
       <c r="BU100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="72:73" x14ac:dyDescent="0.25">
@@ -5357,7 +5672,7 @@
         <v>90</v>
       </c>
       <c r="BU101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="72:73" x14ac:dyDescent="0.25">
@@ -5365,7 +5680,7 @@
         <v>90</v>
       </c>
       <c r="BU102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="72:73" x14ac:dyDescent="0.25">
@@ -5373,7 +5688,7 @@
         <v>90</v>
       </c>
       <c r="BU103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="72:73" x14ac:dyDescent="0.25">
@@ -5381,7 +5696,7 @@
         <v>90</v>
       </c>
       <c r="BU104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="72:73" x14ac:dyDescent="0.25">
@@ -5389,7 +5704,7 @@
         <v>90</v>
       </c>
       <c r="BU105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="72:73" x14ac:dyDescent="0.25">
@@ -5397,7 +5712,7 @@
         <v>90</v>
       </c>
       <c r="BU106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="72:73" x14ac:dyDescent="0.25">
@@ -5405,7 +5720,7 @@
         <v>90</v>
       </c>
       <c r="BU107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="72:73" x14ac:dyDescent="0.25">
@@ -5413,7 +5728,7 @@
         <v>90</v>
       </c>
       <c r="BU108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="72:73" x14ac:dyDescent="0.25">
@@ -5421,7 +5736,7 @@
         <v>90</v>
       </c>
       <c r="BU109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="72:73" x14ac:dyDescent="0.25">
@@ -5429,7 +5744,7 @@
         <v>90</v>
       </c>
       <c r="BU110" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="72:73" x14ac:dyDescent="0.25">
@@ -5437,7 +5752,7 @@
         <v>90</v>
       </c>
       <c r="BU111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="72:73" x14ac:dyDescent="0.25">
@@ -5445,7 +5760,7 @@
         <v>90</v>
       </c>
       <c r="BU112" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="72:73" x14ac:dyDescent="0.25">
@@ -5453,7 +5768,7 @@
         <v>90</v>
       </c>
       <c r="BU113" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="72:73" x14ac:dyDescent="0.25">
@@ -5461,7 +5776,7 @@
         <v>90</v>
       </c>
       <c r="BU114" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="72:73" x14ac:dyDescent="0.25">
@@ -5469,7 +5784,7 @@
         <v>91</v>
       </c>
       <c r="BU115" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="72:73" x14ac:dyDescent="0.25">
@@ -5477,7 +5792,7 @@
         <v>91</v>
       </c>
       <c r="BU116" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="72:73" x14ac:dyDescent="0.25">
@@ -5485,7 +5800,7 @@
         <v>91</v>
       </c>
       <c r="BU117" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="72:73" x14ac:dyDescent="0.25">
@@ -5493,7 +5808,7 @@
         <v>91</v>
       </c>
       <c r="BU118" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="72:73" x14ac:dyDescent="0.25">
@@ -5501,7 +5816,7 @@
         <v>91</v>
       </c>
       <c r="BU119" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="72:73" x14ac:dyDescent="0.25">
@@ -5509,7 +5824,7 @@
         <v>91</v>
       </c>
       <c r="BU120" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="72:73" x14ac:dyDescent="0.25">
@@ -5517,7 +5832,7 @@
         <v>91</v>
       </c>
       <c r="BU121" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="72:73" x14ac:dyDescent="0.25">
@@ -5525,7 +5840,7 @@
         <v>91</v>
       </c>
       <c r="BU122" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="72:73" x14ac:dyDescent="0.25">
@@ -5533,7 +5848,7 @@
         <v>91</v>
       </c>
       <c r="BU123" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="72:73" x14ac:dyDescent="0.25">
@@ -5541,7 +5856,7 @@
         <v>91</v>
       </c>
       <c r="BU124" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="72:73" x14ac:dyDescent="0.25">
@@ -5549,7 +5864,7 @@
         <v>91</v>
       </c>
       <c r="BU125" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="72:73" x14ac:dyDescent="0.25">
@@ -5557,7 +5872,7 @@
         <v>91</v>
       </c>
       <c r="BU126" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="72:73" x14ac:dyDescent="0.25">
@@ -5565,7 +5880,7 @@
         <v>91</v>
       </c>
       <c r="BU127" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="72:73" x14ac:dyDescent="0.25">
@@ -5573,7 +5888,7 @@
         <v>91</v>
       </c>
       <c r="BU128" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" spans="72:73" x14ac:dyDescent="0.25">
@@ -5581,7 +5896,7 @@
         <v>91</v>
       </c>
       <c r="BU129" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="72:73" x14ac:dyDescent="0.25">
@@ -5589,7 +5904,7 @@
         <v>91</v>
       </c>
       <c r="BU130" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="72:73" x14ac:dyDescent="0.25">
@@ -5597,7 +5912,7 @@
         <v>91</v>
       </c>
       <c r="BU131" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="72:73" x14ac:dyDescent="0.25">
@@ -5605,7 +5920,7 @@
         <v>91</v>
       </c>
       <c r="BU132" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="72:73" x14ac:dyDescent="0.25">
@@ -5613,7 +5928,7 @@
         <v>91</v>
       </c>
       <c r="BU133" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="72:73" x14ac:dyDescent="0.25">
@@ -5621,7 +5936,7 @@
         <v>92</v>
       </c>
       <c r="BU134" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="72:73" x14ac:dyDescent="0.25">
@@ -5629,7 +5944,7 @@
         <v>92</v>
       </c>
       <c r="BU135" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="72:73" x14ac:dyDescent="0.25">
@@ -5637,7 +5952,7 @@
         <v>92</v>
       </c>
       <c r="BU136" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="72:73" x14ac:dyDescent="0.25">
@@ -5645,7 +5960,7 @@
         <v>92</v>
       </c>
       <c r="BU137" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138" spans="72:73" x14ac:dyDescent="0.25">
@@ -5653,7 +5968,7 @@
         <v>92</v>
       </c>
       <c r="BU138" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="139" spans="72:73" x14ac:dyDescent="0.25">
@@ -5661,7 +5976,7 @@
         <v>92</v>
       </c>
       <c r="BU139" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="72:73" x14ac:dyDescent="0.25">
@@ -5669,7 +5984,7 @@
         <v>92</v>
       </c>
       <c r="BU140" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="141" spans="72:73" x14ac:dyDescent="0.25">
@@ -5677,7 +5992,7 @@
         <v>92</v>
       </c>
       <c r="BU141" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="142" spans="72:73" x14ac:dyDescent="0.25">
@@ -5685,7 +6000,7 @@
         <v>92</v>
       </c>
       <c r="BU142" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="143" spans="72:73" x14ac:dyDescent="0.25">
@@ -5693,7 +6008,7 @@
         <v>92</v>
       </c>
       <c r="BU143" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="72:73" x14ac:dyDescent="0.25">
@@ -5701,7 +6016,7 @@
         <v>92</v>
       </c>
       <c r="BU144" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="72:73" x14ac:dyDescent="0.25">
@@ -5709,7 +6024,7 @@
         <v>92</v>
       </c>
       <c r="BU145" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="72:73" x14ac:dyDescent="0.25">
@@ -5717,7 +6032,7 @@
         <v>92</v>
       </c>
       <c r="BU146" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="72:73" x14ac:dyDescent="0.25">
@@ -5725,7 +6040,7 @@
         <v>92</v>
       </c>
       <c r="BU147" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="72:73" x14ac:dyDescent="0.25">
@@ -5733,7 +6048,7 @@
         <v>93</v>
       </c>
       <c r="BU148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="72:73" x14ac:dyDescent="0.25">
@@ -5741,7 +6056,7 @@
         <v>93</v>
       </c>
       <c r="BU149" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="72:73" x14ac:dyDescent="0.25">
@@ -5749,7 +6064,7 @@
         <v>93</v>
       </c>
       <c r="BU150" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="72:73" x14ac:dyDescent="0.25">
@@ -5757,7 +6072,7 @@
         <v>93</v>
       </c>
       <c r="BU151" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="72:73" x14ac:dyDescent="0.25">
@@ -5765,7 +6080,7 @@
         <v>93</v>
       </c>
       <c r="BU152" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="72:73" x14ac:dyDescent="0.25">
@@ -5773,7 +6088,7 @@
         <v>93</v>
       </c>
       <c r="BU153" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="154" spans="72:73" x14ac:dyDescent="0.25">
@@ -5781,7 +6096,7 @@
         <v>93</v>
       </c>
       <c r="BU154" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="72:73" x14ac:dyDescent="0.25">
@@ -5789,7 +6104,7 @@
         <v>93</v>
       </c>
       <c r="BU155" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="156" spans="72:73" x14ac:dyDescent="0.25">
@@ -5797,7 +6112,7 @@
         <v>93</v>
       </c>
       <c r="BU156" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="72:73" x14ac:dyDescent="0.25">
@@ -5805,7 +6120,7 @@
         <v>93</v>
       </c>
       <c r="BU157" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="72:73" x14ac:dyDescent="0.25">
@@ -5813,7 +6128,7 @@
         <v>93</v>
       </c>
       <c r="BU158" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159" spans="72:73" x14ac:dyDescent="0.25">
@@ -5821,7 +6136,7 @@
         <v>93</v>
       </c>
       <c r="BU159" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="72:73" x14ac:dyDescent="0.25">
@@ -5829,7 +6144,7 @@
         <v>94</v>
       </c>
       <c r="BU160" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="161" spans="72:73" x14ac:dyDescent="0.25">
@@ -5837,7 +6152,7 @@
         <v>94</v>
       </c>
       <c r="BU161" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" spans="72:73" x14ac:dyDescent="0.25">
@@ -5845,7 +6160,7 @@
         <v>94</v>
       </c>
       <c r="BU162" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="163" spans="72:73" x14ac:dyDescent="0.25">
@@ -5853,7 +6168,7 @@
         <v>94</v>
       </c>
       <c r="BU163" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="164" spans="72:73" x14ac:dyDescent="0.25">
@@ -5861,7 +6176,7 @@
         <v>94</v>
       </c>
       <c r="BU164" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="165" spans="72:73" x14ac:dyDescent="0.25">
@@ -5869,7 +6184,7 @@
         <v>94</v>
       </c>
       <c r="BU165" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="166" spans="72:73" x14ac:dyDescent="0.25">
@@ -5877,7 +6192,7 @@
         <v>94</v>
       </c>
       <c r="BU166" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="167" spans="72:73" x14ac:dyDescent="0.25">
@@ -5885,7 +6200,7 @@
         <v>94</v>
       </c>
       <c r="BU167" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="168" spans="72:73" x14ac:dyDescent="0.25">
@@ -5893,7 +6208,7 @@
         <v>94</v>
       </c>
       <c r="BU168" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="169" spans="72:73" x14ac:dyDescent="0.25">
@@ -5901,7 +6216,7 @@
         <v>94</v>
       </c>
       <c r="BU169" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="170" spans="72:73" x14ac:dyDescent="0.25">
@@ -5909,7 +6224,7 @@
         <v>94</v>
       </c>
       <c r="BU170" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="171" spans="72:73" x14ac:dyDescent="0.25">
@@ -5917,7 +6232,7 @@
         <v>94</v>
       </c>
       <c r="BU171" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="72:73" x14ac:dyDescent="0.25">
@@ -5925,7 +6240,7 @@
         <v>94</v>
       </c>
       <c r="BU172" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="173" spans="72:73" x14ac:dyDescent="0.25">
@@ -5933,7 +6248,7 @@
         <v>94</v>
       </c>
       <c r="BU173" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="174" spans="72:73" x14ac:dyDescent="0.25">
@@ -5941,7 +6256,7 @@
         <v>94</v>
       </c>
       <c r="BU174" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175" spans="72:73" x14ac:dyDescent="0.25">
@@ -5949,7 +6264,7 @@
         <v>94</v>
       </c>
       <c r="BU175" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" spans="72:73" x14ac:dyDescent="0.25">
@@ -5957,7 +6272,7 @@
         <v>94</v>
       </c>
       <c r="BU176" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177" spans="72:73" x14ac:dyDescent="0.25">
@@ -5965,7 +6280,7 @@
         <v>95</v>
       </c>
       <c r="BU177" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="178" spans="72:73" x14ac:dyDescent="0.25">
@@ -5973,7 +6288,7 @@
         <v>95</v>
       </c>
       <c r="BU178" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="179" spans="72:73" x14ac:dyDescent="0.25">
@@ -5981,7 +6296,7 @@
         <v>95</v>
       </c>
       <c r="BU179" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="72:73" x14ac:dyDescent="0.25">
@@ -5989,7 +6304,7 @@
         <v>95</v>
       </c>
       <c r="BU180" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="72:73" x14ac:dyDescent="0.25">
@@ -5997,7 +6312,7 @@
         <v>95</v>
       </c>
       <c r="BU181" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="182" spans="72:73" x14ac:dyDescent="0.25">
@@ -6005,7 +6320,7 @@
         <v>95</v>
       </c>
       <c r="BU182" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="183" spans="72:73" x14ac:dyDescent="0.25">
@@ -6013,7 +6328,7 @@
         <v>95</v>
       </c>
       <c r="BU183" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="72:73" x14ac:dyDescent="0.25">
@@ -6021,7 +6336,7 @@
         <v>95</v>
       </c>
       <c r="BU184" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="72:73" x14ac:dyDescent="0.25">
@@ -6029,7 +6344,7 @@
         <v>95</v>
       </c>
       <c r="BU185" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="186" spans="72:73" x14ac:dyDescent="0.25">
@@ -6037,7 +6352,7 @@
         <v>95</v>
       </c>
       <c r="BU186" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="187" spans="72:73" x14ac:dyDescent="0.25">
@@ -6045,7 +6360,7 @@
         <v>95</v>
       </c>
       <c r="BU187" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="188" spans="72:73" x14ac:dyDescent="0.25">
@@ -6053,7 +6368,7 @@
         <v>95</v>
       </c>
       <c r="BU188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="189" spans="72:73" x14ac:dyDescent="0.25">
@@ -6061,7 +6376,7 @@
         <v>95</v>
       </c>
       <c r="BU189" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="190" spans="72:73" x14ac:dyDescent="0.25">
@@ -6069,7 +6384,7 @@
         <v>95</v>
       </c>
       <c r="BU190" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="191" spans="72:73" x14ac:dyDescent="0.25">
@@ -6077,7 +6392,7 @@
         <v>95</v>
       </c>
       <c r="BU191" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192" spans="72:73" x14ac:dyDescent="0.25">
@@ -6085,7 +6400,7 @@
         <v>95</v>
       </c>
       <c r="BU192" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="193" spans="72:73" x14ac:dyDescent="0.25">
@@ -6093,7 +6408,7 @@
         <v>95</v>
       </c>
       <c r="BU193" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="194" spans="72:73" x14ac:dyDescent="0.25">
@@ -6101,7 +6416,7 @@
         <v>95</v>
       </c>
       <c r="BU194" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="195" spans="72:73" x14ac:dyDescent="0.25">
@@ -6109,7 +6424,7 @@
         <v>96</v>
       </c>
       <c r="BU195" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="196" spans="72:73" x14ac:dyDescent="0.25">
@@ -6117,7 +6432,7 @@
         <v>96</v>
       </c>
       <c r="BU196" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="197" spans="72:73" x14ac:dyDescent="0.25">
@@ -6125,7 +6440,7 @@
         <v>96</v>
       </c>
       <c r="BU197" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="198" spans="72:73" x14ac:dyDescent="0.25">
@@ -6133,7 +6448,7 @@
         <v>96</v>
       </c>
       <c r="BU198" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="199" spans="72:73" x14ac:dyDescent="0.25">
@@ -6141,7 +6456,7 @@
         <v>96</v>
       </c>
       <c r="BU199" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="72:73" x14ac:dyDescent="0.25">
@@ -6149,7 +6464,7 @@
         <v>96</v>
       </c>
       <c r="BU200" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="201" spans="72:73" x14ac:dyDescent="0.25">
@@ -6157,7 +6472,7 @@
         <v>96</v>
       </c>
       <c r="BU201" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="202" spans="72:73" x14ac:dyDescent="0.25">
@@ -6165,7 +6480,7 @@
         <v>96</v>
       </c>
       <c r="BU202" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="203" spans="72:73" x14ac:dyDescent="0.25">
@@ -6173,7 +6488,7 @@
         <v>96</v>
       </c>
       <c r="BU203" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="72:73" x14ac:dyDescent="0.25">
@@ -6181,7 +6496,7 @@
         <v>96</v>
       </c>
       <c r="BU204" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" spans="72:73" x14ac:dyDescent="0.25">
@@ -6189,7 +6504,7 @@
         <v>96</v>
       </c>
       <c r="BU205" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="206" spans="72:73" x14ac:dyDescent="0.25">
@@ -6197,7 +6512,7 @@
         <v>96</v>
       </c>
       <c r="BU206" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="207" spans="72:73" x14ac:dyDescent="0.25">
@@ -6205,7 +6520,7 @@
         <v>96</v>
       </c>
       <c r="BU207" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="208" spans="72:73" x14ac:dyDescent="0.25">
@@ -6213,7 +6528,7 @@
         <v>96</v>
       </c>
       <c r="BU208" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="209" spans="72:73" x14ac:dyDescent="0.25">
@@ -6221,7 +6536,7 @@
         <v>96</v>
       </c>
       <c r="BU209" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="210" spans="72:73" x14ac:dyDescent="0.25">
@@ -6229,7 +6544,7 @@
         <v>96</v>
       </c>
       <c r="BU210" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="211" spans="72:73" x14ac:dyDescent="0.25">
@@ -6237,7 +6552,7 @@
         <v>96</v>
       </c>
       <c r="BU211" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="212" spans="72:73" x14ac:dyDescent="0.25">
@@ -6245,7 +6560,7 @@
         <v>96</v>
       </c>
       <c r="BU212" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="213" spans="72:73" x14ac:dyDescent="0.25">
@@ -6253,7 +6568,7 @@
         <v>96</v>
       </c>
       <c r="BU213" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="214" spans="72:73" x14ac:dyDescent="0.25">
@@ -6261,7 +6576,7 @@
         <v>96</v>
       </c>
       <c r="BU214" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="215" spans="72:73" x14ac:dyDescent="0.25">
@@ -6269,7 +6584,7 @@
         <v>96</v>
       </c>
       <c r="BU215" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="216" spans="72:73" x14ac:dyDescent="0.25">
@@ -6277,7 +6592,7 @@
         <v>96</v>
       </c>
       <c r="BU216" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="217" spans="72:73" x14ac:dyDescent="0.25">
@@ -6285,7 +6600,7 @@
         <v>96</v>
       </c>
       <c r="BU217" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="218" spans="72:73" x14ac:dyDescent="0.25">
@@ -6293,7 +6608,7 @@
         <v>97</v>
       </c>
       <c r="BU218" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="219" spans="72:73" x14ac:dyDescent="0.25">
@@ -6301,7 +6616,7 @@
         <v>97</v>
       </c>
       <c r="BU219" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="220" spans="72:73" x14ac:dyDescent="0.25">
@@ -6309,7 +6624,7 @@
         <v>97</v>
       </c>
       <c r="BU220" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="221" spans="72:73" x14ac:dyDescent="0.25">
@@ -6317,7 +6632,7 @@
         <v>97</v>
       </c>
       <c r="BU221" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="222" spans="72:73" x14ac:dyDescent="0.25">
@@ -6325,7 +6640,7 @@
         <v>97</v>
       </c>
       <c r="BU222" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="223" spans="72:73" x14ac:dyDescent="0.25">
@@ -6333,7 +6648,7 @@
         <v>97</v>
       </c>
       <c r="BU223" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="224" spans="72:73" x14ac:dyDescent="0.25">
@@ -6341,7 +6656,7 @@
         <v>97</v>
       </c>
       <c r="BU224" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="225" spans="72:73" x14ac:dyDescent="0.25">
@@ -6349,7 +6664,7 @@
         <v>97</v>
       </c>
       <c r="BU225" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="226" spans="72:73" x14ac:dyDescent="0.25">
@@ -6357,7 +6672,7 @@
         <v>97</v>
       </c>
       <c r="BU226" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="227" spans="72:73" x14ac:dyDescent="0.25">
@@ -6365,7 +6680,7 @@
         <v>97</v>
       </c>
       <c r="BU227" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="228" spans="72:73" x14ac:dyDescent="0.25">
@@ -6373,7 +6688,7 @@
         <v>97</v>
       </c>
       <c r="BU228" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="229" spans="72:73" x14ac:dyDescent="0.25">
@@ -6381,7 +6696,7 @@
         <v>97</v>
       </c>
       <c r="BU229" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="230" spans="72:73" x14ac:dyDescent="0.25">
@@ -6389,7 +6704,7 @@
         <v>97</v>
       </c>
       <c r="BU230" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="231" spans="72:73" x14ac:dyDescent="0.25">
@@ -6397,7 +6712,7 @@
         <v>97</v>
       </c>
       <c r="BU231" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="232" spans="72:73" x14ac:dyDescent="0.25">
@@ -6405,7 +6720,7 @@
         <v>97</v>
       </c>
       <c r="BU232" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="233" spans="72:73" x14ac:dyDescent="0.25">
@@ -6413,7 +6728,7 @@
         <v>97</v>
       </c>
       <c r="BU233" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="234" spans="72:73" x14ac:dyDescent="0.25">
@@ -6421,7 +6736,7 @@
         <v>97</v>
       </c>
       <c r="BU234" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="235" spans="72:73" x14ac:dyDescent="0.25">
@@ -6429,7 +6744,7 @@
         <v>97</v>
       </c>
       <c r="BU235" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="236" spans="72:73" x14ac:dyDescent="0.25">
@@ -6437,7 +6752,7 @@
         <v>97</v>
       </c>
       <c r="BU236" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="237" spans="72:73" x14ac:dyDescent="0.25">
@@ -6445,7 +6760,7 @@
         <v>98</v>
       </c>
       <c r="BU237" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="238" spans="72:73" x14ac:dyDescent="0.25">
@@ -6453,7 +6768,7 @@
         <v>98</v>
       </c>
       <c r="BU238" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="239" spans="72:73" x14ac:dyDescent="0.25">
@@ -6461,7 +6776,7 @@
         <v>98</v>
       </c>
       <c r="BU239" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="240" spans="72:73" x14ac:dyDescent="0.25">
@@ -6469,7 +6784,7 @@
         <v>98</v>
       </c>
       <c r="BU240" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="241" spans="72:73" x14ac:dyDescent="0.25">
@@ -6477,7 +6792,7 @@
         <v>98</v>
       </c>
       <c r="BU241" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="242" spans="72:73" x14ac:dyDescent="0.25">
@@ -6485,7 +6800,7 @@
         <v>98</v>
       </c>
       <c r="BU242" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="243" spans="72:73" x14ac:dyDescent="0.25">
@@ -6493,7 +6808,7 @@
         <v>98</v>
       </c>
       <c r="BU243" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="244" spans="72:73" x14ac:dyDescent="0.25">
@@ -6501,7 +6816,7 @@
         <v>98</v>
       </c>
       <c r="BU244" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="245" spans="72:73" x14ac:dyDescent="0.25">
@@ -6509,7 +6824,7 @@
         <v>98</v>
       </c>
       <c r="BU245" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="246" spans="72:73" x14ac:dyDescent="0.25">
@@ -6517,7 +6832,7 @@
         <v>98</v>
       </c>
       <c r="BU246" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="247" spans="72:73" x14ac:dyDescent="0.25">
@@ -6525,7 +6840,7 @@
         <v>99</v>
       </c>
       <c r="BU247" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="248" spans="72:73" x14ac:dyDescent="0.25">
@@ -6533,7 +6848,7 @@
         <v>99</v>
       </c>
       <c r="BU248" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="249" spans="72:73" x14ac:dyDescent="0.25">
@@ -6541,7 +6856,7 @@
         <v>99</v>
       </c>
       <c r="BU249" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="250" spans="72:73" x14ac:dyDescent="0.25">
@@ -6549,7 +6864,7 @@
         <v>99</v>
       </c>
       <c r="BU250" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="251" spans="72:73" x14ac:dyDescent="0.25">
@@ -6557,7 +6872,7 @@
         <v>99</v>
       </c>
       <c r="BU251" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="252" spans="72:73" x14ac:dyDescent="0.25">
@@ -6565,7 +6880,7 @@
         <v>99</v>
       </c>
       <c r="BU252" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="253" spans="72:73" x14ac:dyDescent="0.25">
@@ -6573,7 +6888,7 @@
         <v>99</v>
       </c>
       <c r="BU253" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="254" spans="72:73" x14ac:dyDescent="0.25">
@@ -6581,7 +6896,7 @@
         <v>99</v>
       </c>
       <c r="BU254" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="255" spans="72:73" x14ac:dyDescent="0.25">
@@ -6589,7 +6904,7 @@
         <v>99</v>
       </c>
       <c r="BU255" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="256" spans="72:73" x14ac:dyDescent="0.25">
@@ -6597,7 +6912,7 @@
         <v>99</v>
       </c>
       <c r="BU256" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="257" spans="72:73" x14ac:dyDescent="0.25">
@@ -6605,7 +6920,7 @@
         <v>99</v>
       </c>
       <c r="BU257" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="258" spans="72:73" x14ac:dyDescent="0.25">
@@ -6613,7 +6928,7 @@
         <v>99</v>
       </c>
       <c r="BU258" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="259" spans="72:73" x14ac:dyDescent="0.25">
@@ -6621,7 +6936,7 @@
         <v>99</v>
       </c>
       <c r="BU259" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="260" spans="72:73" x14ac:dyDescent="0.25">
@@ -6629,7 +6944,7 @@
         <v>99</v>
       </c>
       <c r="BU260" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="261" spans="72:73" x14ac:dyDescent="0.25">
@@ -6637,7 +6952,7 @@
         <v>99</v>
       </c>
       <c r="BU261" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="262" spans="72:73" x14ac:dyDescent="0.25">
@@ -6645,7 +6960,7 @@
         <v>99</v>
       </c>
       <c r="BU262" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="263" spans="72:73" x14ac:dyDescent="0.25">
@@ -6653,7 +6968,7 @@
         <v>99</v>
       </c>
       <c r="BU263" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="264" spans="72:73" x14ac:dyDescent="0.25">
@@ -6661,7 +6976,7 @@
         <v>100</v>
       </c>
       <c r="BU264" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="265" spans="72:73" x14ac:dyDescent="0.25">
@@ -6669,7 +6984,7 @@
         <v>100</v>
       </c>
       <c r="BU265" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="266" spans="72:73" x14ac:dyDescent="0.25">
@@ -6677,7 +6992,7 @@
         <v>100</v>
       </c>
       <c r="BU266" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="267" spans="72:73" x14ac:dyDescent="0.25">
@@ -6685,7 +7000,7 @@
         <v>100</v>
       </c>
       <c r="BU267" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="268" spans="72:73" x14ac:dyDescent="0.25">
@@ -6693,7 +7008,7 @@
         <v>100</v>
       </c>
       <c r="BU268" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="269" spans="72:73" x14ac:dyDescent="0.25">
@@ -6701,7 +7016,7 @@
         <v>100</v>
       </c>
       <c r="BU269" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="270" spans="72:73" x14ac:dyDescent="0.25">
@@ -6709,7 +7024,7 @@
         <v>100</v>
       </c>
       <c r="BU270" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="271" spans="72:73" x14ac:dyDescent="0.25">
@@ -6717,7 +7032,7 @@
         <v>100</v>
       </c>
       <c r="BU271" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="272" spans="72:73" x14ac:dyDescent="0.25">
@@ -6725,7 +7040,7 @@
         <v>100</v>
       </c>
       <c r="BU272" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="273" spans="72:73" x14ac:dyDescent="0.25">
@@ -6733,7 +7048,7 @@
         <v>100</v>
       </c>
       <c r="BU273" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="274" spans="72:73" x14ac:dyDescent="0.25">
@@ -6741,7 +7056,7 @@
         <v>100</v>
       </c>
       <c r="BU274" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="275" spans="72:73" x14ac:dyDescent="0.25">
@@ -6749,7 +7064,7 @@
         <v>100</v>
       </c>
       <c r="BU275" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="276" spans="72:73" x14ac:dyDescent="0.25">
@@ -6757,7 +7072,7 @@
         <v>100</v>
       </c>
       <c r="BU276" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="277" spans="72:73" x14ac:dyDescent="0.25">
@@ -6765,7 +7080,7 @@
         <v>100</v>
       </c>
       <c r="BU277" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="278" spans="72:73" x14ac:dyDescent="0.25">
@@ -6773,7 +7088,7 @@
         <v>100</v>
       </c>
       <c r="BU278" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="279" spans="72:73" x14ac:dyDescent="0.25">
@@ -6781,7 +7096,7 @@
         <v>100</v>
       </c>
       <c r="BU279" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="280" spans="72:73" x14ac:dyDescent="0.25">
@@ -6789,7 +7104,7 @@
         <v>101</v>
       </c>
       <c r="BU280" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="281" spans="72:73" x14ac:dyDescent="0.25">
@@ -6797,7 +7112,7 @@
         <v>101</v>
       </c>
       <c r="BU281" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="282" spans="72:73" x14ac:dyDescent="0.25">
@@ -6805,7 +7120,7 @@
         <v>101</v>
       </c>
       <c r="BU282" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="283" spans="72:73" x14ac:dyDescent="0.25">
@@ -6813,7 +7128,7 @@
         <v>101</v>
       </c>
       <c r="BU283" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="284" spans="72:73" x14ac:dyDescent="0.25">
@@ -6821,7 +7136,7 @@
         <v>101</v>
       </c>
       <c r="BU284" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="285" spans="72:73" x14ac:dyDescent="0.25">
@@ -6829,7 +7144,7 @@
         <v>101</v>
       </c>
       <c r="BU285" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="286" spans="72:73" x14ac:dyDescent="0.25">
@@ -6837,7 +7152,7 @@
         <v>101</v>
       </c>
       <c r="BU286" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="287" spans="72:73" x14ac:dyDescent="0.25">
@@ -6845,7 +7160,7 @@
         <v>101</v>
       </c>
       <c r="BU287" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="288" spans="72:73" x14ac:dyDescent="0.25">
@@ -6853,7 +7168,7 @@
         <v>101</v>
       </c>
       <c r="BU288" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="289" spans="72:73" x14ac:dyDescent="0.25">
@@ -6861,7 +7176,7 @@
         <v>101</v>
       </c>
       <c r="BU289" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="290" spans="72:73" x14ac:dyDescent="0.25">
@@ -6869,7 +7184,7 @@
         <v>101</v>
       </c>
       <c r="BU290" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="291" spans="72:73" x14ac:dyDescent="0.25">
@@ -6877,7 +7192,7 @@
         <v>101</v>
       </c>
       <c r="BU291" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="292" spans="72:73" x14ac:dyDescent="0.25">
@@ -6885,7 +7200,7 @@
         <v>101</v>
       </c>
       <c r="BU292" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="293" spans="72:73" x14ac:dyDescent="0.25">
@@ -6893,7 +7208,7 @@
         <v>101</v>
       </c>
       <c r="BU293" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="294" spans="72:73" x14ac:dyDescent="0.25">
@@ -6901,7 +7216,7 @@
         <v>101</v>
       </c>
       <c r="BU294" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="295" spans="72:73" x14ac:dyDescent="0.25">
@@ -6909,7 +7224,7 @@
         <v>101</v>
       </c>
       <c r="BU295" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="296" spans="72:73" x14ac:dyDescent="0.25">
@@ -6917,7 +7232,7 @@
         <v>101</v>
       </c>
       <c r="BU296" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="297" spans="72:73" x14ac:dyDescent="0.25">
@@ -6925,7 +7240,7 @@
         <v>101</v>
       </c>
       <c r="BU297" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="298" spans="72:73" x14ac:dyDescent="0.25">
@@ -6933,7 +7248,7 @@
         <v>101</v>
       </c>
       <c r="BU298" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="299" spans="72:73" x14ac:dyDescent="0.25">
@@ -6941,7 +7256,7 @@
         <v>101</v>
       </c>
       <c r="BU299" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="300" spans="72:73" x14ac:dyDescent="0.25">
@@ -6949,7 +7264,7 @@
         <v>101</v>
       </c>
       <c r="BU300" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="301" spans="72:73" x14ac:dyDescent="0.25">
@@ -6957,7 +7272,7 @@
         <v>102</v>
       </c>
       <c r="BU301" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="302" spans="72:73" x14ac:dyDescent="0.25">
@@ -6965,7 +7280,7 @@
         <v>102</v>
       </c>
       <c r="BU302" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="303" spans="72:73" x14ac:dyDescent="0.25">
@@ -6973,7 +7288,7 @@
         <v>102</v>
       </c>
       <c r="BU303" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="304" spans="72:73" x14ac:dyDescent="0.25">
@@ -6981,7 +7296,7 @@
         <v>102</v>
       </c>
       <c r="BU304" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="305" spans="72:73" x14ac:dyDescent="0.25">
@@ -6989,7 +7304,7 @@
         <v>102</v>
       </c>
       <c r="BU305" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="306" spans="72:73" x14ac:dyDescent="0.25">
@@ -6997,7 +7312,7 @@
         <v>102</v>
       </c>
       <c r="BU306" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="307" spans="72:73" x14ac:dyDescent="0.25">
@@ -7005,7 +7320,7 @@
         <v>102</v>
       </c>
       <c r="BU307" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="308" spans="72:73" x14ac:dyDescent="0.25">
@@ -7013,7 +7328,7 @@
         <v>102</v>
       </c>
       <c r="BU308" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="309" spans="72:73" x14ac:dyDescent="0.25">
@@ -7021,7 +7336,7 @@
         <v>102</v>
       </c>
       <c r="BU309" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="310" spans="72:73" x14ac:dyDescent="0.25">
@@ -7029,7 +7344,7 @@
         <v>102</v>
       </c>
       <c r="BU310" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="311" spans="72:73" x14ac:dyDescent="0.25">
@@ -7037,7 +7352,7 @@
         <v>102</v>
       </c>
       <c r="BU311" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="312" spans="72:73" x14ac:dyDescent="0.25">
@@ -7045,7 +7360,7 @@
         <v>102</v>
       </c>
       <c r="BU312" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="313" spans="72:73" x14ac:dyDescent="0.25">
@@ -7053,7 +7368,7 @@
         <v>102</v>
       </c>
       <c r="BU313" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="314" spans="72:73" x14ac:dyDescent="0.25">
@@ -7061,7 +7376,7 @@
         <v>102</v>
       </c>
       <c r="BU314" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="315" spans="72:73" x14ac:dyDescent="0.25">
@@ -7069,7 +7384,7 @@
         <v>102</v>
       </c>
       <c r="BU315" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="316" spans="72:73" x14ac:dyDescent="0.25">
@@ -7077,7 +7392,7 @@
         <v>102</v>
       </c>
       <c r="BU316" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="317" spans="72:73" x14ac:dyDescent="0.25">
@@ -7085,7 +7400,7 @@
         <v>102</v>
       </c>
       <c r="BU317" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="318" spans="72:73" x14ac:dyDescent="0.25">
@@ -7093,7 +7408,7 @@
         <v>102</v>
       </c>
       <c r="BU318" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="319" spans="72:73" x14ac:dyDescent="0.25">
@@ -7101,7 +7416,7 @@
         <v>102</v>
       </c>
       <c r="BU319" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="320" spans="72:73" x14ac:dyDescent="0.25">
@@ -7109,7 +7424,7 @@
         <v>102</v>
       </c>
       <c r="BU320" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="321" spans="72:73" x14ac:dyDescent="0.25">
@@ -7117,7 +7432,7 @@
         <v>102</v>
       </c>
       <c r="BU321" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="322" spans="72:73" x14ac:dyDescent="0.25">
@@ -7125,7 +7440,7 @@
         <v>102</v>
       </c>
       <c r="BU322" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="323" spans="72:73" x14ac:dyDescent="0.25">
@@ -7133,7 +7448,7 @@
         <v>102</v>
       </c>
       <c r="BU323" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="324" spans="72:73" x14ac:dyDescent="0.25">
@@ -7141,7 +7456,7 @@
         <v>102</v>
       </c>
       <c r="BU324" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="325" spans="72:73" x14ac:dyDescent="0.25">
@@ -7149,7 +7464,7 @@
         <v>102</v>
       </c>
       <c r="BU325" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="326" spans="72:73" x14ac:dyDescent="0.25">
@@ -7157,7 +7472,7 @@
         <v>102</v>
       </c>
       <c r="BU326" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="327" spans="72:73" x14ac:dyDescent="0.25">
@@ -7165,7 +7480,7 @@
         <v>102</v>
       </c>
       <c r="BU327" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="328" spans="72:73" x14ac:dyDescent="0.25">
@@ -7173,7 +7488,7 @@
         <v>102</v>
       </c>
       <c r="BU328" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="329" spans="72:73" x14ac:dyDescent="0.25">
@@ -7181,7 +7496,7 @@
         <v>102</v>
       </c>
       <c r="BU329" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="330" spans="72:73" x14ac:dyDescent="0.25">
@@ -7189,7 +7504,7 @@
         <v>102</v>
       </c>
       <c r="BU330" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="331" spans="72:73" x14ac:dyDescent="0.25">
@@ -7197,7 +7512,7 @@
         <v>102</v>
       </c>
       <c r="BU331" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="332" spans="72:73" x14ac:dyDescent="0.25">
@@ -7205,7 +7520,7 @@
         <v>102</v>
       </c>
       <c r="BU332" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="333" spans="72:73" x14ac:dyDescent="0.25">
@@ -7213,7 +7528,7 @@
         <v>102</v>
       </c>
       <c r="BU333" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="334" spans="72:73" x14ac:dyDescent="0.25">
@@ -7221,7 +7536,7 @@
         <v>102</v>
       </c>
       <c r="BU334" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="335" spans="72:73" x14ac:dyDescent="0.25">
@@ -7229,7 +7544,7 @@
         <v>102</v>
       </c>
       <c r="BU335" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="336" spans="72:73" x14ac:dyDescent="0.25">
@@ -7237,7 +7552,7 @@
         <v>102</v>
       </c>
       <c r="BU336" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="337" spans="72:73" x14ac:dyDescent="0.25">
@@ -7245,7 +7560,7 @@
         <v>102</v>
       </c>
       <c r="BU337" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="338" spans="72:73" x14ac:dyDescent="0.25">
@@ -7253,7 +7568,7 @@
         <v>102</v>
       </c>
       <c r="BU338" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="339" spans="72:73" x14ac:dyDescent="0.25">
@@ -7261,7 +7576,7 @@
         <v>102</v>
       </c>
       <c r="BU339" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="340" spans="72:73" x14ac:dyDescent="0.25">
@@ -7269,7 +7584,7 @@
         <v>102</v>
       </c>
       <c r="BU340" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="341" spans="72:73" x14ac:dyDescent="0.25">
@@ -7277,7 +7592,7 @@
         <v>102</v>
       </c>
       <c r="BU341" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="342" spans="72:73" x14ac:dyDescent="0.25">
@@ -7285,7 +7600,7 @@
         <v>102</v>
       </c>
       <c r="BU342" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="343" spans="72:73" x14ac:dyDescent="0.25">
@@ -7293,7 +7608,7 @@
         <v>102</v>
       </c>
       <c r="BU343" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="344" spans="72:73" x14ac:dyDescent="0.25">
@@ -7301,7 +7616,7 @@
         <v>102</v>
       </c>
       <c r="BU344" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="345" spans="72:73" x14ac:dyDescent="0.25">
@@ -7309,7 +7624,7 @@
         <v>102</v>
       </c>
       <c r="BU345" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="346" spans="72:73" x14ac:dyDescent="0.25">
@@ -7317,7 +7632,7 @@
         <v>102</v>
       </c>
       <c r="BU346" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="347" spans="72:73" x14ac:dyDescent="0.25">
@@ -7325,7 +7640,7 @@
         <v>102</v>
       </c>
       <c r="BU347" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="348" spans="72:73" x14ac:dyDescent="0.25">
@@ -7333,7 +7648,7 @@
         <v>103</v>
       </c>
       <c r="BU348" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="349" spans="72:73" x14ac:dyDescent="0.25">
@@ -7341,7 +7656,7 @@
         <v>103</v>
       </c>
       <c r="BU349" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="350" spans="72:73" x14ac:dyDescent="0.25">
@@ -7349,7 +7664,7 @@
         <v>103</v>
       </c>
       <c r="BU350" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="351" spans="72:73" x14ac:dyDescent="0.25">
@@ -7357,7 +7672,7 @@
         <v>103</v>
       </c>
       <c r="BU351" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="352" spans="72:73" x14ac:dyDescent="0.25">
@@ -7365,7 +7680,7 @@
         <v>103</v>
       </c>
       <c r="BU352" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="353" spans="72:73" x14ac:dyDescent="0.25">
@@ -7373,7 +7688,7 @@
         <v>103</v>
       </c>
       <c r="BU353" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="354" spans="72:73" x14ac:dyDescent="0.25">
@@ -7381,7 +7696,7 @@
         <v>103</v>
       </c>
       <c r="BU354" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="355" spans="72:73" x14ac:dyDescent="0.25">
@@ -7389,7 +7704,7 @@
         <v>103</v>
       </c>
       <c r="BU355" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="356" spans="72:73" x14ac:dyDescent="0.25">
@@ -7397,7 +7712,7 @@
         <v>103</v>
       </c>
       <c r="BU356" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="357" spans="72:73" x14ac:dyDescent="0.25">
@@ -7405,7 +7720,7 @@
         <v>103</v>
       </c>
       <c r="BU357" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="358" spans="72:73" x14ac:dyDescent="0.25">
@@ -7413,7 +7728,7 @@
         <v>104</v>
       </c>
       <c r="BU358" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="359" spans="72:73" x14ac:dyDescent="0.25">
@@ -7421,7 +7736,7 @@
         <v>104</v>
       </c>
       <c r="BU359" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="360" spans="72:73" x14ac:dyDescent="0.25">
@@ -7429,7 +7744,7 @@
         <v>104</v>
       </c>
       <c r="BU360" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="361" spans="72:73" x14ac:dyDescent="0.25">
@@ -7437,7 +7752,7 @@
         <v>104</v>
       </c>
       <c r="BU361" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="362" spans="72:73" x14ac:dyDescent="0.25">
@@ -7445,7 +7760,7 @@
         <v>104</v>
       </c>
       <c r="BU362" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="363" spans="72:73" x14ac:dyDescent="0.25">
@@ -7453,7 +7768,7 @@
         <v>104</v>
       </c>
       <c r="BU363" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="364" spans="72:73" x14ac:dyDescent="0.25">
@@ -7461,7 +7776,7 @@
         <v>104</v>
       </c>
       <c r="BU364" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="365" spans="72:73" x14ac:dyDescent="0.25">
@@ -7469,7 +7784,7 @@
         <v>104</v>
       </c>
       <c r="BU365" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="366" spans="72:73" x14ac:dyDescent="0.25">
@@ -7477,7 +7792,7 @@
         <v>104</v>
       </c>
       <c r="BU366" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="367" spans="72:73" x14ac:dyDescent="0.25">
@@ -7485,7 +7800,7 @@
         <v>104</v>
       </c>
       <c r="BU367" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="368" spans="72:73" x14ac:dyDescent="0.25">
@@ -7493,7 +7808,7 @@
         <v>104</v>
       </c>
       <c r="BU368" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="369" spans="72:73" x14ac:dyDescent="0.25">
@@ -7501,7 +7816,7 @@
         <v>104</v>
       </c>
       <c r="BU369" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="370" spans="72:73" x14ac:dyDescent="0.25">
@@ -7509,7 +7824,7 @@
         <v>104</v>
       </c>
       <c r="BU370" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="371" spans="72:73" x14ac:dyDescent="0.25">
@@ -7517,7 +7832,7 @@
         <v>104</v>
       </c>
       <c r="BU371" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="372" spans="72:73" x14ac:dyDescent="0.25">
@@ -7525,7 +7840,7 @@
         <v>104</v>
       </c>
       <c r="BU372" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="373" spans="72:73" x14ac:dyDescent="0.25">
@@ -7533,7 +7848,7 @@
         <v>104</v>
       </c>
       <c r="BU373" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="374" spans="72:73" x14ac:dyDescent="0.25">
@@ -7541,7 +7856,7 @@
         <v>104</v>
       </c>
       <c r="BU374" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="375" spans="72:73" x14ac:dyDescent="0.25">
@@ -7549,7 +7864,7 @@
         <v>104</v>
       </c>
       <c r="BU375" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="376" spans="72:73" x14ac:dyDescent="0.25">
@@ -7557,7 +7872,7 @@
         <v>104</v>
       </c>
       <c r="BU376" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="377" spans="72:73" x14ac:dyDescent="0.25">
@@ -7565,7 +7880,7 @@
         <v>104</v>
       </c>
       <c r="BU377" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="378" spans="72:73" x14ac:dyDescent="0.25">
@@ -7573,7 +7888,7 @@
         <v>104</v>
       </c>
       <c r="BU378" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="379" spans="72:73" x14ac:dyDescent="0.25">
@@ -7581,7 +7896,7 @@
         <v>104</v>
       </c>
       <c r="BU379" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="380" spans="72:73" x14ac:dyDescent="0.25">
@@ -7589,7 +7904,7 @@
         <v>104</v>
       </c>
       <c r="BU380" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="381" spans="72:73" x14ac:dyDescent="0.25">
@@ -7597,7 +7912,7 @@
         <v>104</v>
       </c>
       <c r="BU381" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="382" spans="72:73" x14ac:dyDescent="0.25">
@@ -7605,7 +7920,7 @@
         <v>104</v>
       </c>
       <c r="BU382" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="383" spans="72:73" x14ac:dyDescent="0.25">
@@ -7613,7 +7928,7 @@
         <v>104</v>
       </c>
       <c r="BU383" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="384" spans="72:73" x14ac:dyDescent="0.25">
@@ -7621,7 +7936,7 @@
         <v>104</v>
       </c>
       <c r="BU384" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="385" spans="72:73" x14ac:dyDescent="0.25">
@@ -7629,7 +7944,7 @@
         <v>104</v>
       </c>
       <c r="BU385" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="386" spans="72:73" x14ac:dyDescent="0.25">
@@ -7637,7 +7952,7 @@
         <v>104</v>
       </c>
       <c r="BU386" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="387" spans="72:73" x14ac:dyDescent="0.25">
@@ -7645,7 +7960,7 @@
         <v>104</v>
       </c>
       <c r="BU387" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="388" spans="72:73" x14ac:dyDescent="0.25">
@@ -7653,7 +7968,7 @@
         <v>104</v>
       </c>
       <c r="BU388" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="389" spans="72:73" x14ac:dyDescent="0.25">
@@ -7661,7 +7976,7 @@
         <v>104</v>
       </c>
       <c r="BU389" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="390" spans="72:73" x14ac:dyDescent="0.25">
@@ -7669,7 +7984,7 @@
         <v>104</v>
       </c>
       <c r="BU390" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="391" spans="72:73" x14ac:dyDescent="0.25">
@@ -7677,7 +7992,7 @@
         <v>104</v>
       </c>
       <c r="BU391" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="392" spans="72:73" x14ac:dyDescent="0.25">
@@ -7685,7 +8000,7 @@
         <v>104</v>
       </c>
       <c r="BU392" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="393" spans="72:73" x14ac:dyDescent="0.25">
@@ -7693,7 +8008,7 @@
         <v>104</v>
       </c>
       <c r="BU393" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="394" spans="72:73" x14ac:dyDescent="0.25">
@@ -7701,7 +8016,7 @@
         <v>104</v>
       </c>
       <c r="BU394" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="395" spans="72:73" x14ac:dyDescent="0.25">
@@ -7709,7 +8024,7 @@
         <v>104</v>
       </c>
       <c r="BU395" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="396" spans="72:73" x14ac:dyDescent="0.25">
@@ -7717,7 +8032,7 @@
         <v>104</v>
       </c>
       <c r="BU396" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="397" spans="72:73" x14ac:dyDescent="0.25">
@@ -7725,7 +8040,7 @@
         <v>104</v>
       </c>
       <c r="BU397" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="398" spans="72:73" x14ac:dyDescent="0.25">
@@ -7733,7 +8048,7 @@
         <v>104</v>
       </c>
       <c r="BU398" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="399" spans="72:73" x14ac:dyDescent="0.25">
@@ -7741,7 +8056,7 @@
         <v>104</v>
       </c>
       <c r="BU399" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="400" spans="72:73" x14ac:dyDescent="0.25">
@@ -7749,7 +8064,7 @@
         <v>104</v>
       </c>
       <c r="BU400" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="401" spans="72:73" x14ac:dyDescent="0.25">
@@ -7757,7 +8072,7 @@
         <v>104</v>
       </c>
       <c r="BU401" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="402" spans="72:73" x14ac:dyDescent="0.25">
@@ -7765,7 +8080,7 @@
         <v>104</v>
       </c>
       <c r="BU402" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="403" spans="72:73" x14ac:dyDescent="0.25">
@@ -7773,7 +8088,7 @@
         <v>104</v>
       </c>
       <c r="BU403" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="404" spans="72:73" x14ac:dyDescent="0.25">
@@ -7781,7 +8096,7 @@
         <v>104</v>
       </c>
       <c r="BU404" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="405" spans="72:73" x14ac:dyDescent="0.25">
@@ -7789,7 +8104,7 @@
         <v>105</v>
       </c>
       <c r="BU405" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="406" spans="72:73" x14ac:dyDescent="0.25">
@@ -7797,7 +8112,7 @@
         <v>105</v>
       </c>
       <c r="BU406" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="407" spans="72:73" x14ac:dyDescent="0.25">
@@ -7805,7 +8120,7 @@
         <v>105</v>
       </c>
       <c r="BU407" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="408" spans="72:73" x14ac:dyDescent="0.25">
@@ -7813,7 +8128,7 @@
         <v>105</v>
       </c>
       <c r="BU408" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="409" spans="72:73" x14ac:dyDescent="0.25">
@@ -7821,7 +8136,7 @@
         <v>105</v>
       </c>
       <c r="BU409" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="410" spans="72:73" x14ac:dyDescent="0.25">
@@ -7829,7 +8144,7 @@
         <v>105</v>
       </c>
       <c r="BU410" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="411" spans="72:73" x14ac:dyDescent="0.25">
@@ -7837,7 +8152,7 @@
         <v>105</v>
       </c>
       <c r="BU411" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="412" spans="72:73" x14ac:dyDescent="0.25">
@@ -7845,7 +8160,7 @@
         <v>105</v>
       </c>
       <c r="BU412" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="413" spans="72:73" x14ac:dyDescent="0.25">
@@ -7853,7 +8168,7 @@
         <v>105</v>
       </c>
       <c r="BU413" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="414" spans="72:73" x14ac:dyDescent="0.25">
@@ -7861,7 +8176,7 @@
         <v>105</v>
       </c>
       <c r="BU414" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="415" spans="72:73" x14ac:dyDescent="0.25">
@@ -7869,7 +8184,7 @@
         <v>105</v>
       </c>
       <c r="BU415" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="416" spans="72:73" x14ac:dyDescent="0.25">
@@ -7885,7 +8200,7 @@
         <v>105</v>
       </c>
       <c r="BU417" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="418" spans="72:73" x14ac:dyDescent="0.25">
@@ -7893,7 +8208,7 @@
         <v>105</v>
       </c>
       <c r="BU418" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="419" spans="72:73" x14ac:dyDescent="0.25">
@@ -7901,7 +8216,7 @@
         <v>105</v>
       </c>
       <c r="BU419" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="420" spans="72:73" x14ac:dyDescent="0.25">
@@ -7909,7 +8224,7 @@
         <v>105</v>
       </c>
       <c r="BU420" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="421" spans="72:73" x14ac:dyDescent="0.25">
@@ -7917,7 +8232,7 @@
         <v>105</v>
       </c>
       <c r="BU421" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="422" spans="72:73" x14ac:dyDescent="0.25">
@@ -7925,7 +8240,7 @@
         <v>105</v>
       </c>
       <c r="BU422" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="423" spans="72:73" x14ac:dyDescent="0.25">
@@ -7933,7 +8248,7 @@
         <v>106</v>
       </c>
       <c r="BU423" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="424" spans="72:73" x14ac:dyDescent="0.25">
@@ -7941,7 +8256,7 @@
         <v>106</v>
       </c>
       <c r="BU424" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="425" spans="72:73" x14ac:dyDescent="0.25">
@@ -7949,7 +8264,7 @@
         <v>106</v>
       </c>
       <c r="BU425" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="426" spans="72:73" x14ac:dyDescent="0.25">
@@ -7957,7 +8272,7 @@
         <v>106</v>
       </c>
       <c r="BU426" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="427" spans="72:73" x14ac:dyDescent="0.25">
@@ -7965,7 +8280,7 @@
         <v>106</v>
       </c>
       <c r="BU427" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="428" spans="72:73" x14ac:dyDescent="0.25">
@@ -7973,7 +8288,7 @@
         <v>106</v>
       </c>
       <c r="BU428" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="429" spans="72:73" x14ac:dyDescent="0.25">
@@ -7981,7 +8296,7 @@
         <v>106</v>
       </c>
       <c r="BU429" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="430" spans="72:73" x14ac:dyDescent="0.25">
@@ -7989,7 +8304,7 @@
         <v>106</v>
       </c>
       <c r="BU430" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="431" spans="72:73" x14ac:dyDescent="0.25">
@@ -7997,7 +8312,7 @@
         <v>106</v>
       </c>
       <c r="BU431" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="432" spans="72:73" x14ac:dyDescent="0.25">
@@ -8005,7 +8320,7 @@
         <v>106</v>
       </c>
       <c r="BU432" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="433" spans="72:73" x14ac:dyDescent="0.25">
@@ -8013,7 +8328,7 @@
         <v>106</v>
       </c>
       <c r="BU433" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="434" spans="72:73" x14ac:dyDescent="0.25">
@@ -8021,7 +8336,7 @@
         <v>106</v>
       </c>
       <c r="BU434" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="435" spans="72:73" x14ac:dyDescent="0.25">
@@ -8029,7 +8344,7 @@
         <v>106</v>
       </c>
       <c r="BU435" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="436" spans="72:73" x14ac:dyDescent="0.25">
@@ -8037,7 +8352,7 @@
         <v>106</v>
       </c>
       <c r="BU436" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="437" spans="72:73" x14ac:dyDescent="0.25">
@@ -8045,7 +8360,7 @@
         <v>106</v>
       </c>
       <c r="BU437" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="438" spans="72:73" x14ac:dyDescent="0.25">
@@ -8053,7 +8368,7 @@
         <v>106</v>
       </c>
       <c r="BU438" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="439" spans="72:73" x14ac:dyDescent="0.25">
@@ -8061,7 +8376,7 @@
         <v>106</v>
       </c>
       <c r="BU439" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="440" spans="72:73" x14ac:dyDescent="0.25">
@@ -8069,7 +8384,7 @@
         <v>106</v>
       </c>
       <c r="BU440" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="441" spans="72:73" x14ac:dyDescent="0.25">
@@ -8077,7 +8392,7 @@
         <v>106</v>
       </c>
       <c r="BU441" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="442" spans="72:73" x14ac:dyDescent="0.25">
@@ -8085,7 +8400,7 @@
         <v>106</v>
       </c>
       <c r="BU442" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="443" spans="72:73" x14ac:dyDescent="0.25">
@@ -8093,7 +8408,7 @@
         <v>106</v>
       </c>
       <c r="BU443" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="444" spans="72:73" x14ac:dyDescent="0.25">
@@ -8101,7 +8416,7 @@
         <v>106</v>
       </c>
       <c r="BU444" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="445" spans="72:73" x14ac:dyDescent="0.25">
@@ -8109,7 +8424,7 @@
         <v>106</v>
       </c>
       <c r="BU445" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="446" spans="72:73" x14ac:dyDescent="0.25">
@@ -8117,7 +8432,7 @@
         <v>106</v>
       </c>
       <c r="BU446" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="447" spans="72:73" x14ac:dyDescent="0.25">
@@ -8125,7 +8440,7 @@
         <v>106</v>
       </c>
       <c r="BU447" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="448" spans="72:73" x14ac:dyDescent="0.25">
@@ -8133,7 +8448,7 @@
         <v>106</v>
       </c>
       <c r="BU448" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="449" spans="72:73" x14ac:dyDescent="0.25">
@@ -8141,7 +8456,7 @@
         <v>106</v>
       </c>
       <c r="BU449" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="450" spans="72:73" x14ac:dyDescent="0.25">
@@ -8149,7 +8464,7 @@
         <v>106</v>
       </c>
       <c r="BU450" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="451" spans="72:73" x14ac:dyDescent="0.25">
@@ -8157,7 +8472,7 @@
         <v>106</v>
       </c>
       <c r="BU451" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="452" spans="72:73" x14ac:dyDescent="0.25">
@@ -8165,7 +8480,7 @@
         <v>106</v>
       </c>
       <c r="BU452" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="453" spans="72:73" x14ac:dyDescent="0.25">
@@ -8173,7 +8488,7 @@
         <v>106</v>
       </c>
       <c r="BU453" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="454" spans="72:73" x14ac:dyDescent="0.25">
@@ -8181,7 +8496,7 @@
         <v>106</v>
       </c>
       <c r="BU454" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="455" spans="72:73" x14ac:dyDescent="0.25">
@@ -8189,7 +8504,7 @@
         <v>106</v>
       </c>
       <c r="BU455" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="456" spans="72:73" x14ac:dyDescent="0.25">
@@ -8197,7 +8512,7 @@
         <v>106</v>
       </c>
       <c r="BU456" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="457" spans="72:73" x14ac:dyDescent="0.25">
@@ -8205,7 +8520,7 @@
         <v>106</v>
       </c>
       <c r="BU457" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="458" spans="72:73" x14ac:dyDescent="0.25">
@@ -8213,7 +8528,7 @@
         <v>107</v>
       </c>
       <c r="BU458" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="459" spans="72:73" x14ac:dyDescent="0.25">
@@ -8221,7 +8536,7 @@
         <v>107</v>
       </c>
       <c r="BU459" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="460" spans="72:73" x14ac:dyDescent="0.25">
@@ -8229,7 +8544,7 @@
         <v>107</v>
       </c>
       <c r="BU460" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="461" spans="72:73" x14ac:dyDescent="0.25">
@@ -8237,7 +8552,7 @@
         <v>107</v>
       </c>
       <c r="BU461" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="462" spans="72:73" x14ac:dyDescent="0.25">
@@ -8245,7 +8560,7 @@
         <v>107</v>
       </c>
       <c r="BU462" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="463" spans="72:73" x14ac:dyDescent="0.25">
@@ -8253,7 +8568,7 @@
         <v>107</v>
       </c>
       <c r="BU463" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="464" spans="72:73" x14ac:dyDescent="0.25">
@@ -8261,7 +8576,7 @@
         <v>107</v>
       </c>
       <c r="BU464" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="465" spans="72:73" x14ac:dyDescent="0.25">
@@ -8269,7 +8584,7 @@
         <v>107</v>
       </c>
       <c r="BU465" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="466" spans="72:73" x14ac:dyDescent="0.25">
@@ -8277,7 +8592,7 @@
         <v>107</v>
       </c>
       <c r="BU466" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="467" spans="72:73" x14ac:dyDescent="0.25">
@@ -8285,7 +8600,7 @@
         <v>107</v>
       </c>
       <c r="BU467" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="468" spans="72:73" x14ac:dyDescent="0.25">
@@ -8293,7 +8608,7 @@
         <v>107</v>
       </c>
       <c r="BU468" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="469" spans="72:73" x14ac:dyDescent="0.25">
@@ -8301,7 +8616,7 @@
         <v>108</v>
       </c>
       <c r="BU469" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="470" spans="72:73" x14ac:dyDescent="0.25">
@@ -8309,7 +8624,7 @@
         <v>108</v>
       </c>
       <c r="BU470" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="471" spans="72:73" x14ac:dyDescent="0.25">
@@ -8317,7 +8632,7 @@
         <v>108</v>
       </c>
       <c r="BU471" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="472" spans="72:73" x14ac:dyDescent="0.25">
@@ -8325,7 +8640,7 @@
         <v>108</v>
       </c>
       <c r="BU472" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="473" spans="72:73" x14ac:dyDescent="0.25">
@@ -8333,7 +8648,7 @@
         <v>108</v>
       </c>
       <c r="BU473" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="474" spans="72:73" x14ac:dyDescent="0.25">
@@ -8341,7 +8656,7 @@
         <v>108</v>
       </c>
       <c r="BU474" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="475" spans="72:73" x14ac:dyDescent="0.25">
@@ -8349,7 +8664,7 @@
         <v>108</v>
       </c>
       <c r="BU475" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="476" spans="72:73" x14ac:dyDescent="0.25">
@@ -8357,7 +8672,7 @@
         <v>108</v>
       </c>
       <c r="BU476" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="477" spans="72:73" x14ac:dyDescent="0.25">
@@ -8365,7 +8680,7 @@
         <v>108</v>
       </c>
       <c r="BU477" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="478" spans="72:73" x14ac:dyDescent="0.25">
@@ -8373,7 +8688,7 @@
         <v>108</v>
       </c>
       <c r="BU478" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="479" spans="72:73" x14ac:dyDescent="0.25">
@@ -8381,7 +8696,7 @@
         <v>108</v>
       </c>
       <c r="BU479" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="480" spans="72:73" x14ac:dyDescent="0.25">
@@ -8389,7 +8704,7 @@
         <v>108</v>
       </c>
       <c r="BU480" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="481" spans="72:73" x14ac:dyDescent="0.25">
@@ -8397,7 +8712,7 @@
         <v>108</v>
       </c>
       <c r="BU481" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="482" spans="72:73" x14ac:dyDescent="0.25">
@@ -8405,7 +8720,7 @@
         <v>108</v>
       </c>
       <c r="BU482" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="483" spans="72:73" x14ac:dyDescent="0.25">
@@ -8413,7 +8728,7 @@
         <v>108</v>
       </c>
       <c r="BU483" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="484" spans="72:73" x14ac:dyDescent="0.25">
@@ -8421,7 +8736,7 @@
         <v>108</v>
       </c>
       <c r="BU484" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="485" spans="72:73" x14ac:dyDescent="0.25">
@@ -8429,7 +8744,7 @@
         <v>108</v>
       </c>
       <c r="BU485" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="486" spans="72:73" x14ac:dyDescent="0.25">
@@ -8437,7 +8752,7 @@
         <v>108</v>
       </c>
       <c r="BU486" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="487" spans="72:73" x14ac:dyDescent="0.25">
@@ -8445,7 +8760,7 @@
         <v>108</v>
       </c>
       <c r="BU487" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="488" spans="72:73" x14ac:dyDescent="0.25">
@@ -8453,7 +8768,7 @@
         <v>108</v>
       </c>
       <c r="BU488" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="489" spans="72:73" x14ac:dyDescent="0.25">
@@ -8461,7 +8776,7 @@
         <v>108</v>
       </c>
       <c r="BU489" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="490" spans="72:73" x14ac:dyDescent="0.25">
@@ -8469,7 +8784,7 @@
         <v>108</v>
       </c>
       <c r="BU490" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="491" spans="72:73" x14ac:dyDescent="0.25">
@@ -8477,7 +8792,7 @@
         <v>108</v>
       </c>
       <c r="BU491" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="492" spans="72:73" x14ac:dyDescent="0.25">
@@ -8485,7 +8800,7 @@
         <v>108</v>
       </c>
       <c r="BU492" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="493" spans="72:73" x14ac:dyDescent="0.25">
@@ -8493,7 +8808,7 @@
         <v>108</v>
       </c>
       <c r="BU493" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="494" spans="72:73" x14ac:dyDescent="0.25">
@@ -8501,7 +8816,7 @@
         <v>108</v>
       </c>
       <c r="BU494" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="495" spans="72:73" x14ac:dyDescent="0.25">
@@ -8509,7 +8824,7 @@
         <v>108</v>
       </c>
       <c r="BU495" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="496" spans="72:73" x14ac:dyDescent="0.25">
@@ -8517,7 +8832,7 @@
         <v>108</v>
       </c>
       <c r="BU496" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="497" spans="72:73" x14ac:dyDescent="0.25">
@@ -8525,7 +8840,7 @@
         <v>108</v>
       </c>
       <c r="BU497" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="498" spans="72:73" x14ac:dyDescent="0.25">
@@ -8533,7 +8848,7 @@
         <v>108</v>
       </c>
       <c r="BU498" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="499" spans="72:73" x14ac:dyDescent="0.25">
@@ -8541,7 +8856,7 @@
         <v>108</v>
       </c>
       <c r="BU499" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="500" spans="72:73" x14ac:dyDescent="0.25">
@@ -8549,7 +8864,7 @@
         <v>108</v>
       </c>
       <c r="BU500" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="501" spans="72:73" x14ac:dyDescent="0.25">
@@ -8557,7 +8872,7 @@
         <v>108</v>
       </c>
       <c r="BU501" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="502" spans="72:73" x14ac:dyDescent="0.25">
@@ -8565,7 +8880,7 @@
         <v>108</v>
       </c>
       <c r="BU502" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="503" spans="72:73" x14ac:dyDescent="0.25">
@@ -8573,7 +8888,7 @@
         <v>108</v>
       </c>
       <c r="BU503" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="504" spans="72:73" x14ac:dyDescent="0.25">
@@ -8581,7 +8896,7 @@
         <v>108</v>
       </c>
       <c r="BU504" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="505" spans="72:73" x14ac:dyDescent="0.25">
@@ -8589,7 +8904,7 @@
         <v>108</v>
       </c>
       <c r="BU505" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="506" spans="72:73" x14ac:dyDescent="0.25">
@@ -8597,7 +8912,7 @@
         <v>108</v>
       </c>
       <c r="BU506" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="507" spans="72:73" x14ac:dyDescent="0.25">
@@ -8605,7 +8920,7 @@
         <v>108</v>
       </c>
       <c r="BU507" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="508" spans="72:73" x14ac:dyDescent="0.25">
@@ -8613,7 +8928,7 @@
         <v>108</v>
       </c>
       <c r="BU508" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="509" spans="72:73" x14ac:dyDescent="0.25">
@@ -8621,7 +8936,7 @@
         <v>108</v>
       </c>
       <c r="BU509" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="510" spans="72:73" x14ac:dyDescent="0.25">
@@ -8629,7 +8944,7 @@
         <v>108</v>
       </c>
       <c r="BU510" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="511" spans="72:73" x14ac:dyDescent="0.25">
@@ -8637,7 +8952,7 @@
         <v>109</v>
       </c>
       <c r="BU511" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="512" spans="72:73" x14ac:dyDescent="0.25">
@@ -8645,7 +8960,7 @@
         <v>109</v>
       </c>
       <c r="BU512" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="513" spans="72:73" x14ac:dyDescent="0.25">
@@ -8653,7 +8968,7 @@
         <v>109</v>
       </c>
       <c r="BU513" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="514" spans="72:73" x14ac:dyDescent="0.25">
@@ -8661,7 +8976,7 @@
         <v>109</v>
       </c>
       <c r="BU514" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="515" spans="72:73" x14ac:dyDescent="0.25">
@@ -8669,7 +8984,7 @@
         <v>109</v>
       </c>
       <c r="BU515" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="516" spans="72:73" x14ac:dyDescent="0.25">
@@ -8677,7 +8992,7 @@
         <v>109</v>
       </c>
       <c r="BU516" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="517" spans="72:73" x14ac:dyDescent="0.25">
@@ -8685,7 +9000,7 @@
         <v>109</v>
       </c>
       <c r="BU517" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="518" spans="72:73" x14ac:dyDescent="0.25">
@@ -8693,7 +9008,7 @@
         <v>109</v>
       </c>
       <c r="BU518" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="519" spans="72:73" x14ac:dyDescent="0.25">
@@ -8701,7 +9016,7 @@
         <v>109</v>
       </c>
       <c r="BU519" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="520" spans="72:73" x14ac:dyDescent="0.25">
@@ -8709,7 +9024,7 @@
         <v>109</v>
       </c>
       <c r="BU520" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="521" spans="72:73" x14ac:dyDescent="0.25">
@@ -8717,7 +9032,7 @@
         <v>109</v>
       </c>
       <c r="BU521" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="522" spans="72:73" x14ac:dyDescent="0.25">
@@ -8725,7 +9040,7 @@
         <v>109</v>
       </c>
       <c r="BU522" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="523" spans="72:73" x14ac:dyDescent="0.25">
@@ -8733,7 +9048,7 @@
         <v>109</v>
       </c>
       <c r="BU523" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="524" spans="72:73" x14ac:dyDescent="0.25">
@@ -8741,7 +9056,7 @@
         <v>109</v>
       </c>
       <c r="BU524" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="525" spans="72:73" x14ac:dyDescent="0.25">
@@ -8749,7 +9064,7 @@
         <v>109</v>
       </c>
       <c r="BU525" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="526" spans="72:73" x14ac:dyDescent="0.25">
@@ -8757,7 +9072,7 @@
         <v>109</v>
       </c>
       <c r="BU526" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="527" spans="72:73" x14ac:dyDescent="0.25">
@@ -8765,7 +9080,7 @@
         <v>109</v>
       </c>
       <c r="BU527" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="528" spans="72:73" x14ac:dyDescent="0.25">
@@ -8773,7 +9088,7 @@
         <v>109</v>
       </c>
       <c r="BU528" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="529" spans="72:73" x14ac:dyDescent="0.25">
@@ -8781,7 +9096,7 @@
         <v>110</v>
       </c>
       <c r="BU529" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="530" spans="72:73" x14ac:dyDescent="0.25">
@@ -8789,7 +9104,7 @@
         <v>110</v>
       </c>
       <c r="BU530" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="531" spans="72:73" x14ac:dyDescent="0.25">
@@ -8797,7 +9112,7 @@
         <v>110</v>
       </c>
       <c r="BU531" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="532" spans="72:73" x14ac:dyDescent="0.25">
@@ -8805,7 +9120,7 @@
         <v>110</v>
       </c>
       <c r="BU532" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="533" spans="72:73" x14ac:dyDescent="0.25">
@@ -8813,7 +9128,7 @@
         <v>110</v>
       </c>
       <c r="BU533" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="534" spans="72:73" x14ac:dyDescent="0.25">
@@ -8821,7 +9136,7 @@
         <v>110</v>
       </c>
       <c r="BU534" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="535" spans="72:73" x14ac:dyDescent="0.25">
@@ -8829,7 +9144,7 @@
         <v>110</v>
       </c>
       <c r="BU535" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="536" spans="72:73" x14ac:dyDescent="0.25">
@@ -8837,7 +9152,7 @@
         <v>110</v>
       </c>
       <c r="BU536" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="537" spans="72:73" x14ac:dyDescent="0.25">
@@ -8845,7 +9160,7 @@
         <v>110</v>
       </c>
       <c r="BU537" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="538" spans="72:73" x14ac:dyDescent="0.25">
@@ -8853,7 +9168,7 @@
         <v>110</v>
       </c>
       <c r="BU538" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="539" spans="72:73" x14ac:dyDescent="0.25">
@@ -8861,7 +9176,7 @@
         <v>110</v>
       </c>
       <c r="BU539" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="540" spans="72:73" x14ac:dyDescent="0.25">
@@ -8869,7 +9184,7 @@
         <v>110</v>
       </c>
       <c r="BU540" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="541" spans="72:73" x14ac:dyDescent="0.25">
@@ -8877,7 +9192,7 @@
         <v>110</v>
       </c>
       <c r="BU541" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="542" spans="72:73" x14ac:dyDescent="0.25">
@@ -8885,7 +9200,7 @@
         <v>110</v>
       </c>
       <c r="BU542" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="543" spans="72:73" x14ac:dyDescent="0.25">
@@ -8893,7 +9208,7 @@
         <v>110</v>
       </c>
       <c r="BU543" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="544" spans="72:73" x14ac:dyDescent="0.25">
@@ -8901,7 +9216,7 @@
         <v>111</v>
       </c>
       <c r="BU544" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="545" spans="72:73" x14ac:dyDescent="0.25">
@@ -8909,7 +9224,7 @@
         <v>111</v>
       </c>
       <c r="BU545" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="546" spans="72:73" x14ac:dyDescent="0.25">
@@ -8917,7 +9232,7 @@
         <v>111</v>
       </c>
       <c r="BU546" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="547" spans="72:73" x14ac:dyDescent="0.25">
@@ -8925,7 +9240,7 @@
         <v>111</v>
       </c>
       <c r="BU547" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="548" spans="72:73" x14ac:dyDescent="0.25">
@@ -8933,7 +9248,7 @@
         <v>111</v>
       </c>
       <c r="BU548" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="549" spans="72:73" x14ac:dyDescent="0.25">
@@ -8941,7 +9256,7 @@
         <v>111</v>
       </c>
       <c r="BU549" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="550" spans="72:73" x14ac:dyDescent="0.25">
@@ -8949,7 +9264,7 @@
         <v>111</v>
       </c>
       <c r="BU550" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="551" spans="72:73" x14ac:dyDescent="0.25">
@@ -8957,7 +9272,7 @@
         <v>111</v>
       </c>
       <c r="BU551" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="552" spans="72:73" x14ac:dyDescent="0.25">
@@ -8965,7 +9280,7 @@
         <v>111</v>
       </c>
       <c r="BU552" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="553" spans="72:73" x14ac:dyDescent="0.25">
@@ -8973,7 +9288,7 @@
         <v>111</v>
       </c>
       <c r="BU553" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="554" spans="72:73" x14ac:dyDescent="0.25">
@@ -8981,7 +9296,7 @@
         <v>111</v>
       </c>
       <c r="BU554" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="555" spans="72:73" x14ac:dyDescent="0.25">
@@ -8989,7 +9304,7 @@
         <v>111</v>
       </c>
       <c r="BU555" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="556" spans="72:73" x14ac:dyDescent="0.25">
@@ -8997,7 +9312,7 @@
         <v>111</v>
       </c>
       <c r="BU556" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="557" spans="72:73" x14ac:dyDescent="0.25">
@@ -9005,7 +9320,7 @@
         <v>111</v>
       </c>
       <c r="BU557" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="558" spans="72:73" x14ac:dyDescent="0.25">
@@ -9013,7 +9328,7 @@
         <v>111</v>
       </c>
       <c r="BU558" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="559" spans="72:73" x14ac:dyDescent="0.25">
@@ -9021,7 +9336,7 @@
         <v>111</v>
       </c>
       <c r="BU559" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="560" spans="72:73" x14ac:dyDescent="0.25">
@@ -9029,7 +9344,7 @@
         <v>111</v>
       </c>
       <c r="BU560" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="561" spans="72:73" x14ac:dyDescent="0.25">
@@ -9037,7 +9352,7 @@
         <v>111</v>
       </c>
       <c r="BU561" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="562" spans="72:73" x14ac:dyDescent="0.25">
@@ -9045,7 +9360,7 @@
         <v>112</v>
       </c>
       <c r="BU562" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="563" spans="72:73" x14ac:dyDescent="0.25">
@@ -9053,7 +9368,7 @@
         <v>112</v>
       </c>
       <c r="BU563" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="564" spans="72:73" x14ac:dyDescent="0.25">
@@ -9061,7 +9376,7 @@
         <v>112</v>
       </c>
       <c r="BU564" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="565" spans="72:73" x14ac:dyDescent="0.25">
@@ -9069,7 +9384,7 @@
         <v>112</v>
       </c>
       <c r="BU565" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="566" spans="72:73" x14ac:dyDescent="0.25">
@@ -9077,7 +9392,7 @@
         <v>112</v>
       </c>
       <c r="BU566" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="567" spans="72:73" x14ac:dyDescent="0.25">
@@ -9085,7 +9400,7 @@
         <v>112</v>
       </c>
       <c r="BU567" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="568" spans="72:73" x14ac:dyDescent="0.25">
@@ -9093,7 +9408,7 @@
         <v>112</v>
       </c>
       <c r="BU568" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="569" spans="72:73" x14ac:dyDescent="0.25">
@@ -9101,7 +9416,7 @@
         <v>112</v>
       </c>
       <c r="BU569" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="570" spans="72:73" x14ac:dyDescent="0.25">
@@ -9109,7 +9424,7 @@
         <v>112</v>
       </c>
       <c r="BU570" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="571" spans="72:73" x14ac:dyDescent="0.25">
@@ -9117,7 +9432,7 @@
         <v>112</v>
       </c>
       <c r="BU571" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="572" spans="72:73" x14ac:dyDescent="0.25">
@@ -9125,7 +9440,7 @@
         <v>112</v>
       </c>
       <c r="BU572" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="573" spans="72:73" x14ac:dyDescent="0.25">
@@ -9133,7 +9448,7 @@
         <v>112</v>
       </c>
       <c r="BU573" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="574" spans="72:73" x14ac:dyDescent="0.25">
@@ -9141,7 +9456,7 @@
         <v>113</v>
       </c>
       <c r="BU574" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="575" spans="72:73" x14ac:dyDescent="0.25">
@@ -9149,7 +9464,7 @@
         <v>113</v>
       </c>
       <c r="BU575" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="576" spans="72:73" x14ac:dyDescent="0.25">
@@ -9157,7 +9472,7 @@
         <v>113</v>
       </c>
       <c r="BU576" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="577" spans="72:73" x14ac:dyDescent="0.25">
@@ -9165,7 +9480,7 @@
         <v>113</v>
       </c>
       <c r="BU577" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="578" spans="72:73" x14ac:dyDescent="0.25">
@@ -9173,7 +9488,7 @@
         <v>113</v>
       </c>
       <c r="BU578" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="579" spans="72:73" x14ac:dyDescent="0.25">
@@ -9181,7 +9496,7 @@
         <v>113</v>
       </c>
       <c r="BU579" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="580" spans="72:73" x14ac:dyDescent="0.25">
@@ -9189,7 +9504,7 @@
         <v>113</v>
       </c>
       <c r="BU580" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="581" spans="72:73" x14ac:dyDescent="0.25">
@@ -9197,7 +9512,7 @@
         <v>113</v>
       </c>
       <c r="BU581" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="582" spans="72:73" x14ac:dyDescent="0.25">
@@ -9205,7 +9520,7 @@
         <v>113</v>
       </c>
       <c r="BU582" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="583" spans="72:73" x14ac:dyDescent="0.25">
@@ -9213,7 +9528,7 @@
         <v>113</v>
       </c>
       <c r="BU583" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="584" spans="72:73" x14ac:dyDescent="0.25">
@@ -9221,7 +9536,7 @@
         <v>113</v>
       </c>
       <c r="BU584" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="585" spans="72:73" x14ac:dyDescent="0.25">
@@ -9229,7 +9544,7 @@
         <v>113</v>
       </c>
       <c r="BU585" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="586" spans="72:73" x14ac:dyDescent="0.25">
@@ -9237,7 +9552,7 @@
         <v>113</v>
       </c>
       <c r="BU586" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="587" spans="72:73" x14ac:dyDescent="0.25">
@@ -9245,7 +9560,7 @@
         <v>113</v>
       </c>
       <c r="BU587" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="588" spans="72:73" x14ac:dyDescent="0.25">
@@ -9253,7 +9568,7 @@
         <v>113</v>
       </c>
       <c r="BU588" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="589" spans="72:73" x14ac:dyDescent="0.25">
@@ -9261,7 +9576,7 @@
         <v>113</v>
       </c>
       <c r="BU589" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="590" spans="72:73" x14ac:dyDescent="0.25">
@@ -9269,7 +9584,7 @@
         <v>113</v>
       </c>
       <c r="BU590" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="591" spans="72:73" x14ac:dyDescent="0.25">
@@ -9277,7 +9592,7 @@
         <v>113</v>
       </c>
       <c r="BU591" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="592" spans="72:73" x14ac:dyDescent="0.25">
@@ -9285,7 +9600,7 @@
         <v>113</v>
       </c>
       <c r="BU592" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="593" spans="72:73" x14ac:dyDescent="0.25">
@@ -9293,7 +9608,7 @@
         <v>113</v>
       </c>
       <c r="BU593" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="594" spans="72:73" x14ac:dyDescent="0.25">
@@ -9301,7 +9616,7 @@
         <v>113</v>
       </c>
       <c r="BU594" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="595" spans="72:73" x14ac:dyDescent="0.25">
@@ -9309,7 +9624,7 @@
         <v>113</v>
       </c>
       <c r="BU595" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="596" spans="72:73" x14ac:dyDescent="0.25">
@@ -9325,7 +9640,7 @@
         <v>113</v>
       </c>
       <c r="BU597" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="598" spans="72:73" x14ac:dyDescent="0.25">
@@ -9341,7 +9656,7 @@
         <v>114</v>
       </c>
       <c r="BU599" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="600" spans="72:73" x14ac:dyDescent="0.25">
@@ -9349,7 +9664,7 @@
         <v>114</v>
       </c>
       <c r="BU600" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="601" spans="72:73" x14ac:dyDescent="0.25">
@@ -9357,7 +9672,7 @@
         <v>114</v>
       </c>
       <c r="BU601" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="602" spans="72:73" x14ac:dyDescent="0.25">
@@ -9365,7 +9680,7 @@
         <v>114</v>
       </c>
       <c r="BU602" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="603" spans="72:73" x14ac:dyDescent="0.25">
@@ -9373,7 +9688,7 @@
         <v>114</v>
       </c>
       <c r="BU603" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="604" spans="72:73" x14ac:dyDescent="0.25">
@@ -9381,7 +9696,7 @@
         <v>114</v>
       </c>
       <c r="BU604" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="605" spans="72:73" x14ac:dyDescent="0.25">
@@ -9397,7 +9712,7 @@
         <v>114</v>
       </c>
       <c r="BU606" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="607" spans="72:73" x14ac:dyDescent="0.25">
@@ -9405,7 +9720,7 @@
         <v>114</v>
       </c>
       <c r="BU607" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="608" spans="72:73" x14ac:dyDescent="0.25">
@@ -9413,7 +9728,7 @@
         <v>114</v>
       </c>
       <c r="BU608" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="609" spans="72:73" x14ac:dyDescent="0.25">
@@ -9421,7 +9736,7 @@
         <v>114</v>
       </c>
       <c r="BU609" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="610" spans="72:73" x14ac:dyDescent="0.25">
@@ -9429,7 +9744,7 @@
         <v>114</v>
       </c>
       <c r="BU610" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="611" spans="72:73" x14ac:dyDescent="0.25">
@@ -9437,17 +9752,18 @@
         <v>114</v>
       </c>
       <c r="BU611" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" display="mailto:kdd777ip2@yandex.ru"/>
+    <hyperlink ref="B2" r:id="rId2" display="mailto:kdd777ip2@yandex.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -12,55 +12,55 @@
     <sheet name="Авторизация" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="a">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$3,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="b">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$4,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="d">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$5,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="e">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$6,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="f">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="g">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="h">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$X$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="a">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Y$3,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="b">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Y$4,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="d">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Y$5,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="e">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Y$6,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="f">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Y$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="g">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Y$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="h">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Y$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
     <definedName name="IT">Авторизация!$BT$3:$BT$37</definedName>
-    <definedName name="o">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$3,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="p">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$4,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="q">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="s">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$5,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="t">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$6,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="w">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="z">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$Z$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="а">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$3,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="б">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$4,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="в">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$5,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="восемь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="г">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$6,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="д">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="двенадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$13,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="девять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$10,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="десять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$11,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="е">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="ё">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$T$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="и">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="КАТЕГОРИЯ">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$3:$R$102,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="м">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$6,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="одинадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$12,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="пять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$6:$R$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="с">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$5,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="семь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="т">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="три">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$4:$R$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="тринадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$14,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="ч">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$4,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="четыре">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$5:$R$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="четырнадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$15,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="шесть">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$R$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="ь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
-    <definedName name="я">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$V$3,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$R$3:$R$1058),1)</definedName>
+    <definedName name="o">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$AA$3,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="p">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$AA$4,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="q">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$AA$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="s">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$AA$5,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="t">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$AA$6,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="w">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$AA$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="z">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$AA$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="а">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$U$3,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="б">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$U$4,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="в">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$U$5,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="восемь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$S$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="г">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$U$6,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="д">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$U$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="двенадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$S$13,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="девять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$S$10,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="десять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$S$11,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="е">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$U$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="ё">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$U$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="и">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$W$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="КАТЕГОРИЯ">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$S$3:$S$102,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="м">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$W$6,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="одинадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$S$12,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="пять">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$S$6:$S$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="с">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$W$5,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="семь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$S$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="т">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$W$8,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="три">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$S$4:$S$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="тринадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$S$14,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="ч">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$W$4,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="четыре">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$S$5:$S$803,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="четырнадцать">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$S$15,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="шесть">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$S$7,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="ь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$W$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
+    <definedName name="я">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$W$3,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="763">
   <si>
     <t>Название вакансии</t>
   </si>
@@ -2360,6 +2360,27 @@
   </si>
   <si>
     <t>Курьерская служба доставки</t>
+  </si>
+  <si>
+    <t>Рассматриваем на вакансию всех, в том числе</t>
+  </si>
+  <si>
+    <t>Пенсионеров (Возраст 55+)</t>
+  </si>
+  <si>
+    <t>Студентов</t>
+  </si>
+  <si>
+    <t>Кандидатов из других городов</t>
+  </si>
+  <si>
+    <t>Соискателей с инвалидностью</t>
+  </si>
+  <si>
+    <t>Иностранных граждан (мигрантов)</t>
+  </si>
+  <si>
+    <t>Коментарий к телефону</t>
   </si>
 </sst>
 </file>
@@ -2420,7 +2441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2441,6 +2462,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2759,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AH70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,147 +2803,179 @@
     <col min="12" max="12" width="33.140625" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
     <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" customWidth="1"/>
-    <col min="18" max="18" width="45.28515625" customWidth="1"/>
-    <col min="19" max="19" width="37.42578125" customWidth="1"/>
-    <col min="20" max="20" width="37.28515625" customWidth="1"/>
-    <col min="21" max="21" width="34.28515625" customWidth="1"/>
-    <col min="22" max="22" width="39.7109375" customWidth="1"/>
-    <col min="23" max="23" width="33.140625" customWidth="1"/>
-    <col min="24" max="24" width="31.140625" customWidth="1"/>
-    <col min="25" max="25" width="28.42578125" customWidth="1"/>
-    <col min="26" max="26" width="36.7109375" customWidth="1"/>
-    <col min="27" max="27" width="27.28515625" customWidth="1"/>
-    <col min="28" max="28" width="40.85546875" customWidth="1"/>
+    <col min="15" max="15" width="33.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="45.28515625" customWidth="1"/>
+    <col min="20" max="20" width="37.42578125" customWidth="1"/>
+    <col min="21" max="21" width="37.28515625" customWidth="1"/>
+    <col min="22" max="22" width="34.28515625" customWidth="1"/>
+    <col min="23" max="23" width="39.7109375" customWidth="1"/>
+    <col min="24" max="24" width="33.140625" customWidth="1"/>
+    <col min="25" max="25" width="31.140625" customWidth="1"/>
+    <col min="26" max="26" width="28.42578125" customWidth="1"/>
+    <col min="27" max="27" width="36.7109375" customWidth="1"/>
+    <col min="28" max="28" width="27.28515625" customWidth="1"/>
+    <col min="29" max="29" width="40.85546875" customWidth="1"/>
+    <col min="30" max="30" width="24.5703125" customWidth="1"/>
+    <col min="31" max="31" width="21.140625" customWidth="1"/>
+    <col min="32" max="32" width="28.140625" customWidth="1"/>
+    <col min="33" max="33" width="27.140625" customWidth="1"/>
+    <col min="34" max="34" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="13" t="s">
         <v>753</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="13" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="AD1" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-    </row>
-    <row r="3" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>735</v>
       </c>
@@ -2962,44 +3018,59 @@
       <c r="N3">
         <v>1412718</v>
       </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
       <c r="P3" s="8">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
         <v>29</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>114</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>221</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>113</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>571</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>91</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>221</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>91</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>221</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>736</v>
       </c>
@@ -3042,44 +3113,59 @@
       <c r="N4">
         <v>1412718</v>
       </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
       <c r="P4" s="8">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>29</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>114</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>221</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>113</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>336</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>91</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>221</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>91</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>221</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>221</v>
       </c>
@@ -3122,44 +3208,59 @@
       <c r="N5">
         <v>1412718</v>
       </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
       <c r="P5" s="8">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>114</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>221</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>113</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>336</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>91</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>221</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>91</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>221</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>737</v>
       </c>
@@ -3202,44 +3303,59 @@
       <c r="N6">
         <v>1412718</v>
       </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
       <c r="P6" s="8">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>29</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>114</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>221</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>113</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>336</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>91</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>221</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>91</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>221</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>738</v>
       </c>
@@ -3282,44 +3398,59 @@
       <c r="N7">
         <v>1412718</v>
       </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
       <c r="P7" s="8">
         <v>0</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
         <v>29</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>114</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>221</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>113</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>336</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>91</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>221</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>91</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>221</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>739</v>
       </c>
@@ -3362,72 +3493,87 @@
       <c r="N8">
         <v>1412718</v>
       </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
       <c r="P8" s="8">
         <v>0</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
         <v>29</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>114</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>221</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>113</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>336</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>91</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>221</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>91</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>221</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
@@ -3648,157 +3794,158 @@
       <c r="H70" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="M1:N1"/>
+  <mergeCells count="24">
+    <mergeCell ref="AD1:AH1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H46">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3 S16:S820">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3 T16:T820">
       <formula1>КАТЕГОРИЯ</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4">
       <formula1>три</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5">
       <formula1>четыре</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T6">
       <formula1>пять</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7">
       <formula1>шесть</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T8">
       <formula1>семь</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9">
       <formula1>восемь</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T11">
       <formula1>десять</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T10">
       <formula1>девять</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T12">
       <formula1>одинадцать</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T13">
       <formula1>двенадцать</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T14">
       <formula1>тринадцать</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15">
       <formula1>четырнадцать</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3">
       <formula1>а</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4">
       <formula1>б</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5">
       <formula1>в</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V6">
       <formula1>г</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7">
       <formula1>д</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8">
       <formula1>е</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V9">
       <formula1>ё</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3">
       <formula1>я</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X4">
       <formula1>ч</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5">
       <formula1>с</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X6">
       <formula1>м</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7">
       <formula1>и</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8">
       <formula1>т</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X9">
       <formula1>ь</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3">
       <formula1>a</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4">
       <formula1>b</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5">
       <formula1>d</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z6">
       <formula1>e</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7">
       <formula1>f</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z8">
       <formula1>g</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z9">
       <formula1>h</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3">
       <formula1>o</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4">
       <formula1>p</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB5">
       <formula1>s</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6">
       <formula1>t</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB7">
       <formula1>q</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB8">
       <formula1>w</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB9">
       <formula1>z</formula1>
     </dataValidation>
   </dataValidations>
@@ -3814,13 +3961,13 @@
           <x14:formula1>
             <xm:f>Авторизация!$BN$1:$BN$48</xm:f>
           </x14:formula1>
-          <xm:sqref>O3:P1001</xm:sqref>
+          <xm:sqref>P3:Q1001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Авторизация!$BP$1:$BP$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q658</xm:sqref>
+          <xm:sqref>R3:R658</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3850,7 +3997,7 @@
           <x14:formula1>
             <xm:f>Авторизация!$BS$1:$BS$30</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R1347 T3:T8 V3:V8 X3:X8 Z3:Z8</xm:sqref>
+          <xm:sqref>S3:S1347 U3:U8 W3:W8 Y3:Y8 AA3:AA8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4515,8 +4662,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BU611"/>
   <sheetViews>
-    <sheetView topLeftCell="BM115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="BU1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BV2" sqref="BV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4531,13 +4678,13 @@
     <col min="71" max="71" width="45.85546875" customWidth="1"/>
     <col min="72" max="72" width="61.140625" customWidth="1"/>
     <col min="73" max="73" width="82.140625" customWidth="1"/>
-    <col min="74" max="74" width="5.5703125" customWidth="1"/>
-    <col min="75" max="75" width="5.42578125" customWidth="1"/>
+    <col min="74" max="74" width="41.42578125" customWidth="1"/>
+    <col min="75" max="75" width="39.5703125" customWidth="1"/>
     <col min="76" max="76" width="13" customWidth="1"/>
     <col min="77" max="77" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="808">
   <si>
     <t>Название вакансии</t>
   </si>
@@ -2382,6 +2382,141 @@
   <si>
     <t>Коментарий к телефону</t>
   </si>
+  <si>
+    <t>Шаблоны</t>
+  </si>
+  <si>
+    <t>Шаблон Наземное такси2</t>
+  </si>
+  <si>
+    <t>Шаблон Наземное такси1</t>
+  </si>
+  <si>
+    <t>Шаблон Наземное такси3</t>
+  </si>
+  <si>
+    <t>Шаблон АМБЕР1</t>
+  </si>
+  <si>
+    <t>Шаблон АМБЕР2</t>
+  </si>
+  <si>
+    <t>Шаблон Рестораны / Питание1</t>
+  </si>
+  <si>
+    <t>Шаблон Транспорт / Логистика1</t>
+  </si>
+  <si>
+    <t>Шаблон Охрана и безопасность1</t>
+  </si>
+  <si>
+    <t>Шаблон Рестораны / Питание2</t>
+  </si>
+  <si>
+    <t>Шаблон Рестораны / Питание3</t>
+  </si>
+  <si>
+    <t>Шаблон Транспорт / Логистика2</t>
+  </si>
+  <si>
+    <t>Шаблон Строительство1</t>
+  </si>
+  <si>
+    <t>Шаблон Производство / Агропром1</t>
+  </si>
+  <si>
+    <t>Шаблон Торговля1</t>
+  </si>
+  <si>
+    <t>Шаблон Туризм1</t>
+  </si>
+  <si>
+    <t>Шаблон Строительство2</t>
+  </si>
+  <si>
+    <t>Шаблон Торговля2</t>
+  </si>
+  <si>
+    <t>Шаблон Строительство3</t>
+  </si>
+  <si>
+    <t>Шаблон Туризм2</t>
+  </si>
+  <si>
+    <t>Шаблон Производство / Агропром2</t>
+  </si>
+  <si>
+    <t>Шаблон Производство / Агропром3</t>
+  </si>
+  <si>
+    <t>Шаблон Производство1</t>
+  </si>
+  <si>
+    <t>Шаблон Цветы1</t>
+  </si>
+  <si>
+    <t>Шаблон Швейное производство1</t>
+  </si>
+  <si>
+    <t>Шаблон Медицина1</t>
+  </si>
+  <si>
+    <t>Шаблон кол-центр1</t>
+  </si>
+  <si>
+    <t>Шаблон Офисный персонал1</t>
+  </si>
+  <si>
+    <t>Шаблон Рестораны / Питание4</t>
+  </si>
+  <si>
+    <t>Шаблон Торговля3</t>
+  </si>
+  <si>
+    <t>Шаблон Мебельное производство1</t>
+  </si>
+  <si>
+    <t>Шаблон Работа на АЗС</t>
+  </si>
+  <si>
+    <t>Шаблон Производство2</t>
+  </si>
+  <si>
+    <t>Шаблон Производство3</t>
+  </si>
+  <si>
+    <t>Шаблон Столярное дело</t>
+  </si>
+  <si>
+    <t>Шаблон Торговля4</t>
+  </si>
+  <si>
+    <t>Шаблон Транспорт / Логистика3</t>
+  </si>
+  <si>
+    <t>Шаблон Транспорт / Логистика4</t>
+  </si>
+  <si>
+    <t>Шаблон Офисный персонал2</t>
+  </si>
+  <si>
+    <t>Шаблон Офисный персонал3</t>
+  </si>
+  <si>
+    <t>Шаблон Офисный персонал4</t>
+  </si>
+  <si>
+    <t>Шаблон Офисный персонал5</t>
+  </si>
+  <si>
+    <t>Шаблон Охрана и безопасность2</t>
+  </si>
+  <si>
+    <t>Шаблон Торговля5</t>
+  </si>
+  <si>
+    <t>Оформление вакансии</t>
+  </si>
 </sst>
 </file>
 
@@ -2390,7 +2525,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2413,8 +2548,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2427,6 +2570,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2437,11 +2585,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2466,15 +2615,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2783,10 +2934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH70"/>
+  <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,113 +2974,117 @@
     <col min="32" max="32" width="28.140625" customWidth="1"/>
     <col min="33" max="33" width="27.140625" customWidth="1"/>
     <col min="34" max="34" width="30.42578125" customWidth="1"/>
+    <col min="35" max="35" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="13"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="14" t="s">
         <v>752</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="14" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="6" t="s">
         <v>25</v>
       </c>
@@ -2948,17 +3103,17 @@
       <c r="R2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
       <c r="AD2" s="4" t="s">
         <v>757</v>
       </c>
@@ -2974,8 +3129,9 @@
       <c r="AH2" s="4" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI2" s="14"/>
+    </row>
+    <row r="3" spans="1:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>735</v>
       </c>
@@ -3069,8 +3225,11 @@
       <c r="AH3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>736</v>
       </c>
@@ -3164,8 +3323,11 @@
       <c r="AH4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>221</v>
       </c>
@@ -3259,8 +3421,11 @@
       <c r="AH5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>737</v>
       </c>
@@ -3354,8 +3519,11 @@
       <c r="AH6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>738</v>
       </c>
@@ -3449,8 +3617,11 @@
       <c r="AH7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>739</v>
       </c>
@@ -3544,36 +3715,39 @@
       <c r="AH8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
@@ -3794,7 +3968,16 @@
       <c r="H70" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AD1:AH1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
@@ -3811,14 +3994,6 @@
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H46">
@@ -3956,7 +4131,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Авторизация!$BN$1:$BN$48</xm:f>
@@ -3999,6 +4174,12 @@
           </x14:formula1>
           <xm:sqref>S3:S1347 U3:U8 W3:W8 Y3:Y8 AA3:AA8</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Авторизация!$BV$2:$BV$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>AI3:AI67</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -4660,10 +4841,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:BU611"/>
+  <dimension ref="A1:BV611"/>
   <sheetViews>
-    <sheetView topLeftCell="BU1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BV2" sqref="BV2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BW41" sqref="BW41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4684,7 +4865,7 @@
     <col min="77" max="77" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4712,8 +4893,11 @@
       <c r="BS1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BV1" s="15" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4747,8 +4931,11 @@
       <c r="BU2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BL3" t="s">
         <v>33</v>
       </c>
@@ -4776,8 +4963,11 @@
       <c r="BU3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BL4" t="s">
         <v>34</v>
       </c>
@@ -4799,8 +4989,11 @@
       <c r="BU4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BL5" t="s">
         <v>35</v>
       </c>
@@ -4822,8 +5015,11 @@
       <c r="BU5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BL6" t="s">
         <v>36</v>
       </c>
@@ -4842,8 +5038,11 @@
       <c r="BU6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BM7" t="s">
         <v>44</v>
       </c>
@@ -4859,8 +5058,11 @@
       <c r="BU7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BM8" t="s">
         <v>45</v>
       </c>
@@ -4876,8 +5078,11 @@
       <c r="BU8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BM9" t="s">
         <v>46</v>
       </c>
@@ -4893,8 +5098,11 @@
       <c r="BU9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BM10" t="s">
         <v>47</v>
       </c>
@@ -4910,8 +5118,11 @@
       <c r="BU10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BM11" t="s">
         <v>48</v>
       </c>
@@ -4927,8 +5138,11 @@
       <c r="BU11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BM12" t="s">
         <v>49</v>
       </c>
@@ -4944,8 +5158,11 @@
       <c r="BU12" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV12" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BM13" t="s">
         <v>50</v>
       </c>
@@ -4961,8 +5178,11 @@
       <c r="BU13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BN14" s="7">
         <v>0.27083333333333331</v>
       </c>
@@ -4975,8 +5195,11 @@
       <c r="BU14" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV14" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BN15" s="7">
         <v>0.29166666666666669</v>
       </c>
@@ -4989,8 +5212,11 @@
       <c r="BU15" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BV15" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BN16" s="7">
         <v>0.3125</v>
       </c>
@@ -5003,8 +5229,11 @@
       <c r="BU16" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV16" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="17" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN17" s="7">
         <v>0.33333333333333331</v>
       </c>
@@ -5017,8 +5246,11 @@
       <c r="BU17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV17" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="18" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN18" s="7">
         <v>0.35416666666666669</v>
       </c>
@@ -5031,8 +5263,11 @@
       <c r="BU18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="19" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV18" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="19" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN19" s="7">
         <v>0.375</v>
       </c>
@@ -5045,8 +5280,11 @@
       <c r="BU19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="20" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV19" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="20" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN20" s="7">
         <v>0.39583333333333331</v>
       </c>
@@ -5059,8 +5297,11 @@
       <c r="BU20" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV20" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="21" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN21" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -5073,8 +5314,11 @@
       <c r="BU21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV21" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="22" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN22" s="7">
         <v>0.4375</v>
       </c>
@@ -5087,8 +5331,11 @@
       <c r="BU22" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV22" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="23" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN23" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -5101,8 +5348,11 @@
       <c r="BU23" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV23" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="24" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN24" s="7">
         <v>0.47916666666666669</v>
       </c>
@@ -5115,8 +5365,11 @@
       <c r="BU24" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="25" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV24" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="25" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN25" s="7">
         <v>0.5</v>
       </c>
@@ -5129,8 +5382,11 @@
       <c r="BU25" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="26" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV25" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="26" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN26" s="7">
         <v>0.52083333333333337</v>
       </c>
@@ -5143,8 +5399,11 @@
       <c r="BU26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV26" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="27" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN27" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -5157,8 +5416,11 @@
       <c r="BU27" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="28" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV27" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="28" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN28" s="7">
         <v>0.5625</v>
       </c>
@@ -5171,8 +5433,11 @@
       <c r="BU28" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="29" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV28" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="29" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN29" s="7">
         <v>0.58333333333333337</v>
       </c>
@@ -5185,8 +5450,11 @@
       <c r="BU29" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="30" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV29" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="30" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN30" s="7">
         <v>0.60416666666666663</v>
       </c>
@@ -5199,8 +5467,11 @@
       <c r="BU30" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV30" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="31" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN31" s="7">
         <v>0.625</v>
       </c>
@@ -5210,8 +5481,11 @@
       <c r="BU31" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="32" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV31" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="32" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN32" s="7">
         <v>0.64583333333333337</v>
       </c>
@@ -5221,8 +5495,11 @@
       <c r="BU32" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="33" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV32" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="33" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN33" s="7">
         <v>0.66666666666666663</v>
       </c>
@@ -5232,8 +5509,11 @@
       <c r="BU33" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="34" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV33" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="34" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN34" s="7">
         <v>0.6875</v>
       </c>
@@ -5243,8 +5523,11 @@
       <c r="BU34" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="35" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV34" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="35" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN35" s="7">
         <v>0.70833333333333337</v>
       </c>
@@ -5254,8 +5537,11 @@
       <c r="BU35" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="36" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV35" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="36" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN36" s="7">
         <v>0.72916666666666663</v>
       </c>
@@ -5265,8 +5551,11 @@
       <c r="BU36" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="37" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV36" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="37" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN37" s="7">
         <v>0.75</v>
       </c>
@@ -5276,8 +5565,11 @@
       <c r="BU37" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="38" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV37" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="38" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN38" s="7">
         <v>0.77083333333333337</v>
       </c>
@@ -5287,8 +5579,11 @@
       <c r="BU38" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="39" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV38" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="39" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN39" s="7">
         <v>0.79166666666666663</v>
       </c>
@@ -5298,8 +5593,11 @@
       <c r="BU39" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="40" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV39" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="40" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN40" s="7">
         <v>0.8125</v>
       </c>
@@ -5309,8 +5607,11 @@
       <c r="BU40" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="41" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV40" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="41" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN41" s="7">
         <v>0.83333333333333337</v>
       </c>
@@ -5320,8 +5621,11 @@
       <c r="BU41" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="42" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV41" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="42" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN42" s="7">
         <v>0.85416666666666663</v>
       </c>
@@ -5331,8 +5635,11 @@
       <c r="BU42" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="43" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV42" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="43" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN43" s="7">
         <v>0.875</v>
       </c>
@@ -5342,8 +5649,11 @@
       <c r="BU43" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="44" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV43" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="44" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN44" s="7">
         <v>0.89583333333333337</v>
       </c>
@@ -5353,8 +5663,11 @@
       <c r="BU44" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="45" spans="66:73" x14ac:dyDescent="0.25">
+      <c r="BV44" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="45" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN45" s="7">
         <v>0.91666666666666663</v>
       </c>
@@ -5365,7 +5678,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="66:73" x14ac:dyDescent="0.25">
+    <row r="46" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN46" s="7">
         <v>0.9375</v>
       </c>
@@ -5376,7 +5689,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="66:73" x14ac:dyDescent="0.25">
+    <row r="47" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN47" s="7">
         <v>0.95833333333333337</v>
       </c>
@@ -5387,7 +5700,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="66:73" x14ac:dyDescent="0.25">
+    <row r="48" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN48" s="7">
         <v>0.97916666666666663</v>
       </c>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="809">
   <si>
     <t>Название вакансии</t>
   </si>
@@ -2282,18 +2282,216 @@
   </si>
   <si>
     <t>Пеший курьер</t>
+  </si>
+  <si>
+    <t>rabora.eda@yandex.ru</t>
+  </si>
+  <si>
+    <t>kdd777ip2@yandex.ru</t>
+  </si>
+  <si>
+    <t>Профессиональная сфера1</t>
+  </si>
+  <si>
+    <t>Категория1</t>
+  </si>
+  <si>
+    <t>Профессиональная сфера2</t>
+  </si>
+  <si>
+    <t>Категория2</t>
+  </si>
+  <si>
+    <t>Профессиональная сфера3</t>
+  </si>
+  <si>
+    <t>Категория3</t>
+  </si>
+  <si>
+    <t>Профессиональная сфера4</t>
+  </si>
+  <si>
+    <t>Категория4</t>
+  </si>
+  <si>
+    <t>Профессиональная сфера5</t>
+  </si>
+  <si>
+    <t>Категория5</t>
+  </si>
+  <si>
+    <t>Название компании</t>
+  </si>
+  <si>
+    <t>Курьерская служба доставки</t>
+  </si>
+  <si>
+    <t>Рассматриваем на вакансию всех, в том числе</t>
+  </si>
+  <si>
+    <t>Пенсионеров (Возраст 55+)</t>
+  </si>
+  <si>
+    <t>Студентов</t>
+  </si>
+  <si>
+    <t>Кандидатов из других городов</t>
+  </si>
+  <si>
+    <t>Соискателей с инвалидностью</t>
+  </si>
+  <si>
+    <t>Иностранных граждан (мигрантов)</t>
+  </si>
+  <si>
+    <t>Коментарий к телефону</t>
+  </si>
+  <si>
+    <t>Шаблоны</t>
+  </si>
+  <si>
+    <t>Шаблон Наземное такси2</t>
+  </si>
+  <si>
+    <t>Шаблон Наземное такси1</t>
+  </si>
+  <si>
+    <t>Шаблон Наземное такси3</t>
+  </si>
+  <si>
+    <t>Шаблон АМБЕР1</t>
+  </si>
+  <si>
+    <t>Шаблон АМБЕР2</t>
+  </si>
+  <si>
+    <t>Шаблон Рестораны / Питание1</t>
+  </si>
+  <si>
+    <t>Шаблон Транспорт / Логистика1</t>
+  </si>
+  <si>
+    <t>Шаблон Охрана и безопасность1</t>
+  </si>
+  <si>
+    <t>Шаблон Рестораны / Питание2</t>
+  </si>
+  <si>
+    <t>Шаблон Рестораны / Питание3</t>
+  </si>
+  <si>
+    <t>Шаблон Транспорт / Логистика2</t>
+  </si>
+  <si>
+    <t>Шаблон Строительство1</t>
+  </si>
+  <si>
+    <t>Шаблон Производство / Агропром1</t>
+  </si>
+  <si>
+    <t>Шаблон Торговля1</t>
+  </si>
+  <si>
+    <t>Шаблон Туризм1</t>
+  </si>
+  <si>
+    <t>Шаблон Строительство2</t>
+  </si>
+  <si>
+    <t>Шаблон Торговля2</t>
+  </si>
+  <si>
+    <t>Шаблон Строительство3</t>
+  </si>
+  <si>
+    <t>Шаблон Туризм2</t>
+  </si>
+  <si>
+    <t>Шаблон Производство / Агропром2</t>
+  </si>
+  <si>
+    <t>Шаблон Производство / Агропром3</t>
+  </si>
+  <si>
+    <t>Шаблон Производство1</t>
+  </si>
+  <si>
+    <t>Шаблон Цветы1</t>
+  </si>
+  <si>
+    <t>Шаблон Швейное производство1</t>
+  </si>
+  <si>
+    <t>Шаблон Медицина1</t>
+  </si>
+  <si>
+    <t>Шаблон кол-центр1</t>
+  </si>
+  <si>
+    <t>Шаблон Офисный персонал1</t>
+  </si>
+  <si>
+    <t>Шаблон Рестораны / Питание4</t>
+  </si>
+  <si>
+    <t>Шаблон Торговля3</t>
+  </si>
+  <si>
+    <t>Шаблон Мебельное производство1</t>
+  </si>
+  <si>
+    <t>Шаблон Работа на АЗС</t>
+  </si>
+  <si>
+    <t>Шаблон Производство2</t>
+  </si>
+  <si>
+    <t>Шаблон Производство3</t>
+  </si>
+  <si>
+    <t>Шаблон Столярное дело</t>
+  </si>
+  <si>
+    <t>Шаблон Торговля4</t>
+  </si>
+  <si>
+    <t>Шаблон Транспорт / Логистика3</t>
+  </si>
+  <si>
+    <t>Шаблон Транспорт / Логистика4</t>
+  </si>
+  <si>
+    <t>Шаблон Офисный персонал2</t>
+  </si>
+  <si>
+    <t>Шаблон Офисный персонал3</t>
+  </si>
+  <si>
+    <t>Шаблон Офисный персонал4</t>
+  </si>
+  <si>
+    <t>Шаблон Офисный персонал5</t>
+  </si>
+  <si>
+    <t>Шаблон Охрана и безопасность2</t>
+  </si>
+  <si>
+    <t>Шаблон Торговля5</t>
+  </si>
+  <si>
+    <t>Оформление вакансии</t>
   </si>
   <si>
     <t>Яндекс.Еда - сервис заказа еды из ресторанов.
 Срочно на работу или подработку к партнеру Яндекс.Еда требуются пеший курьер и авто-курьер!
 Заработай до 2500 рублей в день!
 Условия:
-Работа в любом районе города, даже рядом с домом;
-На выбор смены по 4/6/8/10/12 часов;
-Утренние/дневные/вечерние смены;
-Можно совмещать с другой работой или учебой;
-Платим, даже если нет заказов!
-Выплаты каждую неделю.
+- Работа в любом районе города, даже рядом с домом;
+- На выбор смены по 4/6/8/10/12 часов;
+- Утренние/дневные/вечерние смены;
+- Можно совмещать с другой работой или учебой;
+- Платим, даже если нет заказов!
+- Выплаты каждую неделю.
 Обязанности:
 Доставка еды из ресторанов партнеров
 Требования:
@@ -2306,12 +2504,12 @@
 Срочно на работу или подработку к партнеру Яндекс.Еда требуются пеший курьер и авто-курьер!
 Заработай до 2500 рублей в день!
 Условия:
-Работа в любом районе города, даже рядом с домом;
-На выбор смены по 4/6/8/10/12 часов;
-Утренние/дневные/вечерние смены;
-Можно совмещать с другой работой или учебой;
-Платим, даже если нет заказов!
-Выплаты каждую неделю.
+- Работа в любом районе города, даже рядом с домом;
+- На выбор смены по 4/6/8/10/12 часов;
+- Утренние/дневные/вечерние смены;
+- Можно совмещать с другой работой или учебой;
+- Платим, даже если нет заказов!
+- Выплаты каждую неделю.
 Обязанности:
 Доставка еды из ресторанов партнеров
 Требования:
@@ -2320,202 +2518,22 @@
 Чтобы устроиться, просто напишите нам в Viber или WhatsApp по номеру из объявления!  После получения сообщения в течение 10 минут поступит ответное сообщение с приглашением на работу. </t>
   </si>
   <si>
-    <t>rabora.eda@yandex.ru</t>
-  </si>
-  <si>
-    <t>kdd777ip2@yandex.ru</t>
-  </si>
-  <si>
-    <t>Профессиональная сфера1</t>
-  </si>
-  <si>
-    <t>Категория1</t>
-  </si>
-  <si>
-    <t>Профессиональная сфера2</t>
-  </si>
-  <si>
-    <t>Категория2</t>
-  </si>
-  <si>
-    <t>Профессиональная сфера3</t>
-  </si>
-  <si>
-    <t>Категория3</t>
-  </si>
-  <si>
-    <t>Профессиональная сфера4</t>
-  </si>
-  <si>
-    <t>Категория4</t>
-  </si>
-  <si>
-    <t>Профессиональная сфера5</t>
-  </si>
-  <si>
-    <t>Категория5</t>
-  </si>
-  <si>
-    <t>Название компании</t>
-  </si>
-  <si>
-    <t>Курьерская служба доставки</t>
-  </si>
-  <si>
-    <t>Рассматриваем на вакансию всех, в том числе</t>
-  </si>
-  <si>
-    <t>Пенсионеров (Возраст 55+)</t>
-  </si>
-  <si>
-    <t>Студентов</t>
-  </si>
-  <si>
-    <t>Кандидатов из других городов</t>
-  </si>
-  <si>
-    <t>Соискателей с инвалидностью</t>
-  </si>
-  <si>
-    <t>Иностранных граждан (мигрантов)</t>
-  </si>
-  <si>
-    <t>Коментарий к телефону</t>
-  </si>
-  <si>
-    <t>Шаблоны</t>
-  </si>
-  <si>
-    <t>Шаблон Наземное такси2</t>
-  </si>
-  <si>
-    <t>Шаблон Наземное такси1</t>
-  </si>
-  <si>
-    <t>Шаблон Наземное такси3</t>
-  </si>
-  <si>
-    <t>Шаблон АМБЕР1</t>
-  </si>
-  <si>
-    <t>Шаблон АМБЕР2</t>
-  </si>
-  <si>
-    <t>Шаблон Рестораны / Питание1</t>
-  </si>
-  <si>
-    <t>Шаблон Транспорт / Логистика1</t>
-  </si>
-  <si>
-    <t>Шаблон Охрана и безопасность1</t>
-  </si>
-  <si>
-    <t>Шаблон Рестораны / Питание2</t>
-  </si>
-  <si>
-    <t>Шаблон Рестораны / Питание3</t>
-  </si>
-  <si>
-    <t>Шаблон Транспорт / Логистика2</t>
-  </si>
-  <si>
-    <t>Шаблон Строительство1</t>
-  </si>
-  <si>
-    <t>Шаблон Производство / Агропром1</t>
-  </si>
-  <si>
-    <t>Шаблон Торговля1</t>
-  </si>
-  <si>
-    <t>Шаблон Туризм1</t>
-  </si>
-  <si>
-    <t>Шаблон Строительство2</t>
-  </si>
-  <si>
-    <t>Шаблон Торговля2</t>
-  </si>
-  <si>
-    <t>Шаблон Строительство3</t>
-  </si>
-  <si>
-    <t>Шаблон Туризм2</t>
-  </si>
-  <si>
-    <t>Шаблон Производство / Агропром2</t>
-  </si>
-  <si>
-    <t>Шаблон Производство / Агропром3</t>
-  </si>
-  <si>
-    <t>Шаблон Производство1</t>
-  </si>
-  <si>
-    <t>Шаблон Цветы1</t>
-  </si>
-  <si>
-    <t>Шаблон Швейное производство1</t>
-  </si>
-  <si>
-    <t>Шаблон Медицина1</t>
-  </si>
-  <si>
-    <t>Шаблон кол-центр1</t>
-  </si>
-  <si>
-    <t>Шаблон Офисный персонал1</t>
-  </si>
-  <si>
-    <t>Шаблон Рестораны / Питание4</t>
-  </si>
-  <si>
-    <t>Шаблон Торговля3</t>
-  </si>
-  <si>
-    <t>Шаблон Мебельное производство1</t>
-  </si>
-  <si>
-    <t>Шаблон Работа на АЗС</t>
-  </si>
-  <si>
-    <t>Шаблон Производство2</t>
-  </si>
-  <si>
-    <t>Шаблон Производство3</t>
-  </si>
-  <si>
-    <t>Шаблон Столярное дело</t>
-  </si>
-  <si>
-    <t>Шаблон Торговля4</t>
-  </si>
-  <si>
-    <t>Шаблон Транспорт / Логистика3</t>
-  </si>
-  <si>
-    <t>Шаблон Транспорт / Логистика4</t>
-  </si>
-  <si>
-    <t>Шаблон Офисный персонал2</t>
-  </si>
-  <si>
-    <t>Шаблон Офисный персонал3</t>
-  </si>
-  <si>
-    <t>Шаблон Офисный персонал4</t>
-  </si>
-  <si>
-    <t>Шаблон Офисный персонал5</t>
-  </si>
-  <si>
-    <t>Шаблон Охрана и безопасность2</t>
-  </si>
-  <si>
-    <t>Шаблон Торговля5</t>
-  </si>
-  <si>
-    <t>Оформление вакансии</t>
+    <t xml:space="preserve">Яндекс.Еда - сервис заказа еды из ресторанов.
+Срочно на работу или подработку к партнеру Яндекс.Еда требуются пеший курьер и авто-курьер!
+Заработай до 2500 рублей в день!
+Условия:
+Работа в любом районе города, даже рядом с домом;
+- На выбор смены по 4/6/8/10/12 часов;
+- Утренние/дневные/вечерние смены;
+- Можно совмещать с другой работой или учебой;
+- Платим, даже если нет заказов!
+- Выплаты каждую неделю.
+Обязанности:
+Доставка еды из ресторанов партнеров
+Требования:
+Для трудоустройства потребуется только паспорт
+Навыки использования устройств на базе ОС Android (в работе используется приложение на базе Android версия 4.2 и выше)
+Чтобы устроиться, просто напишите нам в Viber или WhatsApp по номеру из объявления!  После получения сообщения в течение 10 минут поступит ответное сообщение с приглашением на работу. </t>
   </si>
 </sst>
 </file>
@@ -2614,13 +2632,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2936,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,10 +3022,10 @@
       <c r="J1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="15" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="14" t="s">
@@ -3021,47 +3039,47 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="U1" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>752</v>
       </c>
-      <c r="AB1" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="AD1" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
       <c r="AI1" s="14" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -3092,7 +3110,7 @@
         <v>26</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>11</v>
@@ -3115,23 +3133,23 @@
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="AF2" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="AG2" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>761</v>
-      </c>
       <c r="AI2" s="14"/>
     </row>
-    <row r="3" spans="1:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>735</v>
       </c>
@@ -3157,7 +3175,7 @@
         <v>60</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>740</v>
+        <v>806</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>31</v>
@@ -3166,7 +3184,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M3">
         <v>999</v>
@@ -3201,14 +3219,8 @@
       <c r="X3" t="s">
         <v>221</v>
       </c>
-      <c r="Y3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>221</v>
-      </c>
       <c r="AC3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -3226,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3255,7 +3267,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>741</v>
+        <v>807</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>32</v>
@@ -3264,7 +3276,7 @@
         <v>24</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M4">
         <v>999</v>
@@ -3299,14 +3311,8 @@
       <c r="X4" t="s">
         <v>221</v>
       </c>
-      <c r="AA4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>221</v>
-      </c>
       <c r="AC4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -3324,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3353,7 +3359,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>741</v>
+        <v>807</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>33</v>
@@ -3362,7 +3368,7 @@
         <v>24</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M5">
         <v>999</v>
@@ -3397,14 +3403,8 @@
       <c r="X5" t="s">
         <v>221</v>
       </c>
-      <c r="AA5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>221</v>
-      </c>
       <c r="AC5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="AI5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3451,7 +3451,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>741</v>
+        <v>807</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>34</v>
@@ -3460,7 +3460,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M6">
         <v>999</v>
@@ -3495,14 +3495,8 @@
       <c r="X6" t="s">
         <v>221</v>
       </c>
-      <c r="AA6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>221</v>
-      </c>
       <c r="AC6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -3520,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3549,7 +3543,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>741</v>
+        <v>807</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>33</v>
@@ -3558,7 +3552,7 @@
         <v>24</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M7">
         <v>999</v>
@@ -3593,14 +3587,8 @@
       <c r="X7" t="s">
         <v>221</v>
       </c>
-      <c r="Y7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>221</v>
-      </c>
       <c r="AC7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -3618,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3647,7 +3635,7 @@
         <v>60</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>741</v>
+        <v>808</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>36</v>
@@ -3656,7 +3644,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M8">
         <v>999</v>
@@ -3691,14 +3679,8 @@
       <c r="X8" t="s">
         <v>221</v>
       </c>
-      <c r="AA8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>221</v>
-      </c>
       <c r="AC8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -3716,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="AI8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -3969,6 +3951,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
@@ -3979,18 +3973,6 @@
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
@@ -4843,8 +4825,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BV611"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BW41" sqref="BW41"/>
+    <sheetView topLeftCell="BP1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BW2" sqref="BW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4870,7 +4852,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="BL1" t="s">
         <v>31</v>
@@ -4893,8 +4875,8 @@
       <c r="BS1" t="s">
         <v>85</v>
       </c>
-      <c r="BV1" s="15" t="s">
-        <v>763</v>
+      <c r="BV1" s="13" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="2" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4902,7 +4884,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="BL2" t="s">
         <v>32</v>
@@ -4932,7 +4914,7 @@
         <v>117</v>
       </c>
       <c r="BV2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
@@ -4964,7 +4946,7 @@
         <v>82</v>
       </c>
       <c r="BV3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.25">
@@ -4990,7 +4972,7 @@
         <v>118</v>
       </c>
       <c r="BV4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.25">
@@ -5016,7 +4998,7 @@
         <v>119</v>
       </c>
       <c r="BV5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.25">
@@ -5039,7 +5021,7 @@
         <v>120</v>
       </c>
       <c r="BV6" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.25">
@@ -5059,7 +5041,7 @@
         <v>121</v>
       </c>
       <c r="BV7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.25">
@@ -5079,7 +5061,7 @@
         <v>122</v>
       </c>
       <c r="BV8" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.25">
@@ -5099,7 +5081,7 @@
         <v>123</v>
       </c>
       <c r="BV9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.25">
@@ -5119,7 +5101,7 @@
         <v>124</v>
       </c>
       <c r="BV10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
@@ -5139,7 +5121,7 @@
         <v>125</v>
       </c>
       <c r="BV11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
@@ -5159,7 +5141,7 @@
         <v>126</v>
       </c>
       <c r="BV12" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
@@ -5179,7 +5161,7 @@
         <v>127</v>
       </c>
       <c r="BV13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
@@ -5196,7 +5178,7 @@
         <v>128</v>
       </c>
       <c r="BV14" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">
@@ -5213,7 +5195,7 @@
         <v>129</v>
       </c>
       <c r="BV15" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.25">
@@ -5230,7 +5212,7 @@
         <v>130</v>
       </c>
       <c r="BV16" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="66:74" x14ac:dyDescent="0.25">
@@ -5247,7 +5229,7 @@
         <v>131</v>
       </c>
       <c r="BV17" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="18" spans="66:74" x14ac:dyDescent="0.25">
@@ -5264,7 +5246,7 @@
         <v>132</v>
       </c>
       <c r="BV18" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="19" spans="66:74" x14ac:dyDescent="0.25">
@@ -5281,7 +5263,7 @@
         <v>133</v>
       </c>
       <c r="BV19" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="20" spans="66:74" x14ac:dyDescent="0.25">
@@ -5298,7 +5280,7 @@
         <v>115</v>
       </c>
       <c r="BV20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="21" spans="66:74" x14ac:dyDescent="0.25">
@@ -5315,7 +5297,7 @@
         <v>134</v>
       </c>
       <c r="BV21" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="22" spans="66:74" x14ac:dyDescent="0.25">
@@ -5332,7 +5314,7 @@
         <v>116</v>
       </c>
       <c r="BV22" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="23" spans="66:74" x14ac:dyDescent="0.25">
@@ -5349,7 +5331,7 @@
         <v>135</v>
       </c>
       <c r="BV23" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="24" spans="66:74" x14ac:dyDescent="0.25">
@@ -5366,7 +5348,7 @@
         <v>136</v>
       </c>
       <c r="BV24" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="25" spans="66:74" x14ac:dyDescent="0.25">
@@ -5383,7 +5365,7 @@
         <v>137</v>
       </c>
       <c r="BV25" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="26" spans="66:74" x14ac:dyDescent="0.25">
@@ -5400,7 +5382,7 @@
         <v>138</v>
       </c>
       <c r="BV26" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="27" spans="66:74" x14ac:dyDescent="0.25">
@@ -5417,7 +5399,7 @@
         <v>139</v>
       </c>
       <c r="BV27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="28" spans="66:74" x14ac:dyDescent="0.25">
@@ -5434,7 +5416,7 @@
         <v>140</v>
       </c>
       <c r="BV28" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="29" spans="66:74" x14ac:dyDescent="0.25">
@@ -5451,7 +5433,7 @@
         <v>141</v>
       </c>
       <c r="BV29" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="30" spans="66:74" x14ac:dyDescent="0.25">
@@ -5468,7 +5450,7 @@
         <v>142</v>
       </c>
       <c r="BV30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="66:74" x14ac:dyDescent="0.25">
@@ -5482,7 +5464,7 @@
         <v>143</v>
       </c>
       <c r="BV31" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="66:74" x14ac:dyDescent="0.25">
@@ -5496,7 +5478,7 @@
         <v>144</v>
       </c>
       <c r="BV32" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="33" spans="66:74" x14ac:dyDescent="0.25">
@@ -5510,7 +5492,7 @@
         <v>145</v>
       </c>
       <c r="BV33" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="34" spans="66:74" x14ac:dyDescent="0.25">
@@ -5524,7 +5506,7 @@
         <v>146</v>
       </c>
       <c r="BV34" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="35" spans="66:74" x14ac:dyDescent="0.25">
@@ -5538,7 +5520,7 @@
         <v>147</v>
       </c>
       <c r="BV35" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="36" spans="66:74" x14ac:dyDescent="0.25">
@@ -5552,7 +5534,7 @@
         <v>148</v>
       </c>
       <c r="BV36" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="37" spans="66:74" x14ac:dyDescent="0.25">
@@ -5566,7 +5548,7 @@
         <v>149</v>
       </c>
       <c r="BV37" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="38" spans="66:74" x14ac:dyDescent="0.25">
@@ -5580,7 +5562,7 @@
         <v>150</v>
       </c>
       <c r="BV38" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="39" spans="66:74" x14ac:dyDescent="0.25">
@@ -5594,7 +5576,7 @@
         <v>145</v>
       </c>
       <c r="BV39" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="40" spans="66:74" x14ac:dyDescent="0.25">
@@ -5608,7 +5590,7 @@
         <v>151</v>
       </c>
       <c r="BV40" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="41" spans="66:74" x14ac:dyDescent="0.25">
@@ -5622,7 +5604,7 @@
         <v>152</v>
       </c>
       <c r="BV41" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="66:74" x14ac:dyDescent="0.25">
@@ -5636,7 +5618,7 @@
         <v>144</v>
       </c>
       <c r="BV42" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="66:74" x14ac:dyDescent="0.25">
@@ -5650,7 +5632,7 @@
         <v>153</v>
       </c>
       <c r="BV43" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="44" spans="66:74" x14ac:dyDescent="0.25">
@@ -5664,7 +5646,7 @@
         <v>154</v>
       </c>
       <c r="BV44" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="45" spans="66:74" x14ac:dyDescent="0.25">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Вакансии" sheetId="9" r:id="rId1"/>
@@ -286,9 +286,6 @@
     <t>Саратов</t>
   </si>
   <si>
-    <t>Сочи (+Адлер)</t>
-  </si>
-  <si>
     <t>Тольятти</t>
   </si>
   <si>
@@ -2534,6 +2531,9 @@
 Для трудоустройства потребуется только паспорт
 Навыки использования устройств на базе ОС Android (в работе используется приложение на базе Android версия 4.2 и выше)
 Чтобы устроиться, просто напишите нам в Viber или WhatsApp по номеру из объявления!  После получения сообщения в течение 10 минут поступит ответное сообщение с приглашением на работу. </t>
+  </si>
+  <si>
+    <t>Сочи</t>
   </si>
 </sst>
 </file>
@@ -2954,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -3039,47 +3039,47 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="AC1" s="14" t="s">
-        <v>752</v>
-      </c>
       <c r="AD1" s="15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AE1" s="15"/>
       <c r="AF1" s="15"/>
       <c r="AG1" s="15"/>
       <c r="AH1" s="15"/>
       <c r="AI1" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -3110,7 +3110,7 @@
         <v>26</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>11</v>
@@ -3133,25 +3133,25 @@
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>758</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>759</v>
       </c>
       <c r="AI2" s="14"/>
     </row>
     <row r="3" spans="1:35" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B3">
         <v>17000</v>
@@ -3166,7 +3166,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="9">
         <v>20</v>
@@ -3175,7 +3175,7 @@
         <v>60</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>31</v>
@@ -3184,7 +3184,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M3">
         <v>999</v>
@@ -3202,25 +3202,25 @@
         <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="W3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -3238,12 +3238,12 @@
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B4">
         <v>12000</v>
@@ -3258,7 +3258,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="9">
         <v>20</v>
@@ -3267,7 +3267,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>32</v>
@@ -3276,7 +3276,7 @@
         <v>24</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M4">
         <v>999</v>
@@ -3294,25 +3294,25 @@
         <v>29</v>
       </c>
       <c r="S4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -3330,12 +3330,12 @@
         <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5">
         <v>25000</v>
@@ -3350,7 +3350,7 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="9">
         <v>20</v>
@@ -3359,7 +3359,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>33</v>
@@ -3368,7 +3368,7 @@
         <v>24</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M5">
         <v>999</v>
@@ -3386,25 +3386,25 @@
         <v>29</v>
       </c>
       <c r="S5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -3422,12 +3422,12 @@
         <v>1</v>
       </c>
       <c r="AI5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B6">
         <v>19000</v>
@@ -3442,7 +3442,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="9">
         <v>20</v>
@@ -3451,7 +3451,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>34</v>
@@ -3460,7 +3460,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M6">
         <v>999</v>
@@ -3478,25 +3478,25 @@
         <v>29</v>
       </c>
       <c r="S6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -3514,12 +3514,12 @@
         <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -3534,7 +3534,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="9">
         <v>20</v>
@@ -3543,7 +3543,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>33</v>
@@ -3552,7 +3552,7 @@
         <v>24</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M7">
         <v>999</v>
@@ -3570,25 +3570,25 @@
         <v>29</v>
       </c>
       <c r="S7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -3606,12 +3606,12 @@
         <v>1</v>
       </c>
       <c r="AI7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B8">
         <v>33000</v>
@@ -3626,7 +3626,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="9">
         <v>20</v>
@@ -3635,7 +3635,7 @@
         <v>60</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>36</v>
@@ -3644,7 +3644,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M8">
         <v>999</v>
@@ -3662,25 +3662,25 @@
         <v>29</v>
       </c>
       <c r="S8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -3698,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="AI8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -3951,18 +3951,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
@@ -3976,6 +3964,18 @@
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H46">
@@ -4172,8 +4172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4199,19 +4199,19 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C2" t="s">
         <v>580</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>581</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>582</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>583</v>
-      </c>
-      <c r="F2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4219,19 +4219,19 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C3" t="s">
         <v>585</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>586</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>587</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>588</v>
-      </c>
-      <c r="F3" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,19 +4239,19 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4" t="s">
         <v>590</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>591</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>592</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>593</v>
-      </c>
-      <c r="F4" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4259,19 +4259,19 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C5" t="s">
         <v>595</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>596</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>597</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>598</v>
-      </c>
-      <c r="F5" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4279,19 +4279,19 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C6" t="s">
         <v>600</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>601</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>602</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>603</v>
-      </c>
-      <c r="F6" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4299,19 +4299,19 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C7" t="s">
         <v>605</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>606</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>607</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>608</v>
-      </c>
-      <c r="F7" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4319,19 +4319,19 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C8" t="s">
         <v>610</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>611</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>612</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>613</v>
-      </c>
-      <c r="F8" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4339,19 +4339,19 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C9" t="s">
         <v>615</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>616</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>617</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>618</v>
-      </c>
-      <c r="F9" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4359,19 +4359,19 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C10" t="s">
         <v>620</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>621</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>622</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>623</v>
-      </c>
-      <c r="F10" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4379,19 +4379,19 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C11" t="s">
         <v>625</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>626</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>627</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>628</v>
-      </c>
-      <c r="F11" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4399,19 +4399,19 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
+        <v>629</v>
+      </c>
+      <c r="C12" t="s">
         <v>630</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>631</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>632</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>633</v>
-      </c>
-      <c r="F12" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4419,19 +4419,19 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
+        <v>634</v>
+      </c>
+      <c r="C13" t="s">
         <v>635</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>636</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>637</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>638</v>
-      </c>
-      <c r="F13" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4439,19 +4439,19 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
+        <v>639</v>
+      </c>
+      <c r="C14" t="s">
         <v>640</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>641</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>642</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>643</v>
-      </c>
-      <c r="F14" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4459,19 +4459,19 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
+        <v>644</v>
+      </c>
+      <c r="C15" t="s">
         <v>645</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>646</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>647</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>648</v>
-      </c>
-      <c r="F15" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4479,19 +4479,19 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
+        <v>649</v>
+      </c>
+      <c r="C16" t="s">
         <v>650</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>651</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>652</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>653</v>
-      </c>
-      <c r="F16" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4499,19 +4499,19 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
+        <v>654</v>
+      </c>
+      <c r="C17" t="s">
         <v>655</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>656</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>657</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>658</v>
-      </c>
-      <c r="F17" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4519,19 +4519,19 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
+        <v>659</v>
+      </c>
+      <c r="C18" t="s">
         <v>660</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>661</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>662</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>663</v>
-      </c>
-      <c r="F18" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4539,19 +4539,19 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
+        <v>664</v>
+      </c>
+      <c r="C19" t="s">
         <v>665</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>666</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>667</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>668</v>
-      </c>
-      <c r="F19" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4559,19 +4559,19 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
+        <v>669</v>
+      </c>
+      <c r="C20" t="s">
         <v>670</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>671</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>672</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>673</v>
-      </c>
-      <c r="F20" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4579,19 +4579,19 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
+        <v>674</v>
+      </c>
+      <c r="C21" t="s">
         <v>675</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>676</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>677</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>678</v>
-      </c>
-      <c r="F21" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4599,19 +4599,19 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
+        <v>679</v>
+      </c>
+      <c r="C22" t="s">
         <v>680</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>681</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>682</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>683</v>
-      </c>
-      <c r="F22" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4619,19 +4619,19 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
+        <v>684</v>
+      </c>
+      <c r="C23" t="s">
         <v>685</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>686</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>687</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>688</v>
-      </c>
-      <c r="F23" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4639,179 +4639,179 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
+        <v>689</v>
+      </c>
+      <c r="C24" t="s">
         <v>690</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>691</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>692</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>693</v>
-      </c>
-      <c r="F24" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>74</v>
+        <v>808</v>
       </c>
       <c r="B25" t="s">
+        <v>694</v>
+      </c>
+      <c r="C25" t="s">
         <v>695</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>696</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>697</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>698</v>
-      </c>
-      <c r="F25" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
+        <v>699</v>
+      </c>
+      <c r="C26" t="s">
         <v>700</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>701</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>702</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>703</v>
-      </c>
-      <c r="F26" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
+        <v>704</v>
+      </c>
+      <c r="C27" t="s">
         <v>705</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>706</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>707</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>708</v>
-      </c>
-      <c r="F27" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
+        <v>709</v>
+      </c>
+      <c r="C28" t="s">
         <v>710</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>711</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>712</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>713</v>
-      </c>
-      <c r="F28" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
+        <v>714</v>
+      </c>
+      <c r="C29" t="s">
         <v>715</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>716</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>717</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>718</v>
-      </c>
-      <c r="F29" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
+        <v>719</v>
+      </c>
+      <c r="C30" t="s">
         <v>720</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>721</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>722</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>723</v>
-      </c>
-      <c r="F30" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
+        <v>724</v>
+      </c>
+      <c r="C31" t="s">
         <v>725</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>726</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>727</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>728</v>
-      </c>
-      <c r="F31" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
+        <v>729</v>
+      </c>
+      <c r="C32" t="s">
         <v>730</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>731</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>732</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>733</v>
-      </c>
-      <c r="F32" t="s">
-        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -4852,7 +4852,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="BL1" t="s">
         <v>31</v>
@@ -4867,16 +4867,16 @@
         <v>27</v>
       </c>
       <c r="BQ1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BR1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="BS1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BV1" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4884,7 +4884,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="BL2" t="s">
         <v>32</v>
@@ -4905,16 +4905,16 @@
         <v>18</v>
       </c>
       <c r="BS2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BT2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BV2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
@@ -4931,22 +4931,22 @@
         <v>29</v>
       </c>
       <c r="BQ3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BR3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="BS3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BT3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BV3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.25">
@@ -4963,16 +4963,16 @@
         <v>20</v>
       </c>
       <c r="BS4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BT4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BV4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.25">
@@ -4989,16 +4989,16 @@
         <v>21</v>
       </c>
       <c r="BS5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BT5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BV5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.25">
@@ -5012,16 +5012,16 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="BS6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BT6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BV6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.25">
@@ -5032,16 +5032,16 @@
         <v>0.125</v>
       </c>
       <c r="BS7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BT7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BV7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.25">
@@ -5052,16 +5052,16 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="BS8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BT8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BV8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.25">
@@ -5072,16 +5072,16 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="BS9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.25">
@@ -5092,16 +5092,16 @@
         <v>0.1875</v>
       </c>
       <c r="BS10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BT10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BV10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
@@ -5112,16 +5112,16 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="BS11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BT11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BV11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
@@ -5132,16 +5132,16 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="BS12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BT12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BV12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
@@ -5152,16 +5152,16 @@
         <v>0.25</v>
       </c>
       <c r="BS13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BT13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BV13" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
@@ -5169,16 +5169,16 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="BS14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BT14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BV14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">
@@ -5186,16 +5186,16 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="BS15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BT15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BV15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.25">
@@ -5203,16 +5203,16 @@
         <v>0.3125</v>
       </c>
       <c r="BS16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BT16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BV16" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="17" spans="66:74" x14ac:dyDescent="0.25">
@@ -5220,16 +5220,16 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="BS17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BT17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BV17" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="18" spans="66:74" x14ac:dyDescent="0.25">
@@ -5237,16 +5237,16 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="BS18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BT18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BV18" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" spans="66:74" x14ac:dyDescent="0.25">
@@ -5254,16 +5254,16 @@
         <v>0.375</v>
       </c>
       <c r="BS19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BT19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BV19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="20" spans="66:74" x14ac:dyDescent="0.25">
@@ -5271,16 +5271,16 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="BS20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BT20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BV20" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="21" spans="66:74" x14ac:dyDescent="0.25">
@@ -5288,16 +5288,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="BS21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BT21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BV21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="22" spans="66:74" x14ac:dyDescent="0.25">
@@ -5305,16 +5305,16 @@
         <v>0.4375</v>
       </c>
       <c r="BS22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BT22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BV22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="23" spans="66:74" x14ac:dyDescent="0.25">
@@ -5322,16 +5322,16 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="BS23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BT23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BV23" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="24" spans="66:74" x14ac:dyDescent="0.25">
@@ -5339,16 +5339,16 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="BS24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BT24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BV24" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="66:74" x14ac:dyDescent="0.25">
@@ -5356,16 +5356,16 @@
         <v>0.5</v>
       </c>
       <c r="BS25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BT25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BV25" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" spans="66:74" x14ac:dyDescent="0.25">
@@ -5373,16 +5373,16 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="BS26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BT26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BV26" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="27" spans="66:74" x14ac:dyDescent="0.25">
@@ -5390,16 +5390,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="BS27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BT27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BV27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="28" spans="66:74" x14ac:dyDescent="0.25">
@@ -5407,16 +5407,16 @@
         <v>0.5625</v>
       </c>
       <c r="BS28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BT28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BV28" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="29" spans="66:74" x14ac:dyDescent="0.25">
@@ -5424,16 +5424,16 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="BS29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BT29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BV29" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="30" spans="66:74" x14ac:dyDescent="0.25">
@@ -5441,16 +5441,16 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="BS30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BT30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BV30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="31" spans="66:74" x14ac:dyDescent="0.25">
@@ -5458,13 +5458,13 @@
         <v>0.625</v>
       </c>
       <c r="BT31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BV31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="32" spans="66:74" x14ac:dyDescent="0.25">
@@ -5472,13 +5472,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="BT32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BV32" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="33" spans="66:74" x14ac:dyDescent="0.25">
@@ -5486,13 +5486,13 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="BT33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BV33" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="34" spans="66:74" x14ac:dyDescent="0.25">
@@ -5500,13 +5500,13 @@
         <v>0.6875</v>
       </c>
       <c r="BT34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BV34" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="35" spans="66:74" x14ac:dyDescent="0.25">
@@ -5514,13 +5514,13 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="BT35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BV35" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="36" spans="66:74" x14ac:dyDescent="0.25">
@@ -5528,13 +5528,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="BT36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BV36" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="37" spans="66:74" x14ac:dyDescent="0.25">
@@ -5542,13 +5542,13 @@
         <v>0.75</v>
       </c>
       <c r="BT37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BU37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BV37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="38" spans="66:74" x14ac:dyDescent="0.25">
@@ -5556,13 +5556,13 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="BT38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BV38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="39" spans="66:74" x14ac:dyDescent="0.25">
@@ -5570,13 +5570,13 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="BT39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BV39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="40" spans="66:74" x14ac:dyDescent="0.25">
@@ -5584,13 +5584,13 @@
         <v>0.8125</v>
       </c>
       <c r="BT40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BV40" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="41" spans="66:74" x14ac:dyDescent="0.25">
@@ -5598,13 +5598,13 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="BT41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BV41" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="42" spans="66:74" x14ac:dyDescent="0.25">
@@ -5612,13 +5612,13 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="BT42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BV42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="66:74" x14ac:dyDescent="0.25">
@@ -5626,13 +5626,13 @@
         <v>0.875</v>
       </c>
       <c r="BT43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BV43" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="44" spans="66:74" x14ac:dyDescent="0.25">
@@ -5640,13 +5640,13 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="BT44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BV44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="45" spans="66:74" x14ac:dyDescent="0.25">
@@ -5654,10 +5654,10 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="BT45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="66:74" x14ac:dyDescent="0.25">
@@ -5665,10 +5665,10 @@
         <v>0.9375</v>
       </c>
       <c r="BT46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="66:74" x14ac:dyDescent="0.25">
@@ -5676,10 +5676,10 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="BT47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="66:74" x14ac:dyDescent="0.25">
@@ -5687,4514 +5687,4514 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="BT48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BU64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BU86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BU87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BU88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BU89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BU90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BU91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BU92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BU93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BU94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BU95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BU96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BU97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU99" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT100" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU101" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU102" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU109" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT110" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT111" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT112" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT115" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU115" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT116" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU116" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU117" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT118" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU118" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT119" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU119" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT120" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU121" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT122" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU122" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT123" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU123" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="124" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU124" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT125" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU125" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT126" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU126" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT127" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU127" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="128" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT128" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU128" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT129" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU129" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="130" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT130" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU130" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT131" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT132" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT133" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT134" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT135" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU135" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT136" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT137" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU137" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT138" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU138" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT139" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU139" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT140" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU140" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT141" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU141" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT142" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU142" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="143" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT143" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU143" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT144" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT145" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT146" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT147" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT148" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU148" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="149" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT149" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU149" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU150" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="151" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT151" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU151" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT152" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="153" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU153" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="154" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT154" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT155" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU155" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT156" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU156" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT157" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU157" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT158" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU158" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT159" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU159" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT160" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU160" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="161" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT161" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU161" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT162" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU162" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="163" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT163" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU163" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="164" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT164" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU164" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="165" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT165" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU165" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="166" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT166" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU166" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="167" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT167" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU167" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="168" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT168" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU168" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="169" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT169" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU169" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="170" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT170" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU170" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT171" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU171" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT172" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU172" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="173" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT173" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU173" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT174" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU174" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT175" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU175" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="176" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT176" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU176" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT177" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU177" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="178" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT178" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU178" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="179" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT179" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU179" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="180" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT180" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU180" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="181" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT181" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU181" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="182" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT182" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU182" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="183" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT183" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU183" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="184" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT184" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU184" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="185" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT185" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU185" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="186" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT186" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU186" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="187" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT187" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU187" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="188" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT188" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU188" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT189" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU189" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT190" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU190" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT191" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU191" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="192" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT192" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU192" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="193" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT193" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU193" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="194" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT194" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU194" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="195" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT195" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU195" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="196" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT196" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU196" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT197" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU197" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="198" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT198" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU198" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="199" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT199" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU199" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT200" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU200" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="201" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT201" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU201" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="202" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT202" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU202" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="203" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT203" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU203" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="204" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT204" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU204" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="205" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT205" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU205" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="206" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT206" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU206" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="207" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT207" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU207" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="208" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT208" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU208" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT209" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU209" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="210" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT210" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU210" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="211" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT211" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU211" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="212" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT212" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU212" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="213" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT213" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU213" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="214" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT214" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU214" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="215" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT215" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU215" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="216" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT216" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU216" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="217" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT217" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BU217" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="218" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT218" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU218" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="219" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT219" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU219" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="220" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT220" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU220" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="221" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT221" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU221" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="222" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT222" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU222" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="223" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU223" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="224" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT224" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU224" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="225" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT225" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU225" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="226" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT226" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU226" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="227" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT227" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU227" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="228" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT228" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU228" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="229" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT229" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU229" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="230" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT230" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU230" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="231" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT231" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU231" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="232" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT232" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU232" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="233" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT233" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU233" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="234" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT234" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU234" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="235" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT235" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU235" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="236" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT236" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BU236" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="237" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT237" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU237" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="238" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT238" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU238" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="239" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT239" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU239" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="240" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT240" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU240" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="241" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT241" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU241" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="242" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT242" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU242" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="243" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT243" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU243" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="244" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT244" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU244" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="245" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT245" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU245" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="246" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT246" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU246" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="247" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT247" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU247" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT248" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU248" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT249" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU249" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="250" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT250" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU250" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT251" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU251" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="252" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT252" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU252" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="253" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT253" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU253" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="254" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT254" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU254" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT255" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU255" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="256" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT256" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU256" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="257" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT257" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU257" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="258" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT258" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU258" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT259" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU259" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="260" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT260" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU260" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="261" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT261" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU261" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="262" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT262" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU262" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="263" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT263" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BU263" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="264" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT264" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU264" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="265" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT265" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU265" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="266" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT266" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU266" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="267" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT267" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU267" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="268" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT268" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU268" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="269" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT269" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU269" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="270" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT270" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU270" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="271" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT271" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU271" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="272" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT272" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU272" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="273" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT273" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU273" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="274" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT274" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU274" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="275" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT275" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU275" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="276" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT276" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU276" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="277" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT277" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU277" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="278" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT278" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU278" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="279" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT279" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU279" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="280" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT280" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU280" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="281" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT281" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU281" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="282" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT282" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU282" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="283" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT283" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU283" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="284" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT284" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU284" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="285" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT285" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU285" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="286" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT286" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU286" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="287" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT287" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU287" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="288" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT288" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU288" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="289" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT289" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU289" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="290" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT290" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU290" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="291" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT291" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU291" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="292" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT292" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU292" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="293" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT293" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU293" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="294" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT294" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU294" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="295" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT295" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU295" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="296" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT296" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU296" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="297" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT297" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU297" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="298" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT298" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU298" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="299" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT299" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU299" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="300" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT300" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU300" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="301" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT301" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU301" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="302" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT302" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU302" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="303" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT303" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU303" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="304" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT304" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU304" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="305" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT305" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU305" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="306" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT306" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU306" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="307" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT307" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU307" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="308" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT308" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU308" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="309" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT309" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU309" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="310" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT310" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU310" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="311" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT311" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU311" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="312" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT312" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU312" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="313" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT313" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU313" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="314" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT314" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU314" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="315" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT315" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU315" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="316" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT316" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU316" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="317" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT317" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU317" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="318" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT318" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU318" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="319" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT319" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU319" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="320" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT320" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU320" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="321" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT321" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU321" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="322" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT322" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU322" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="323" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT323" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU323" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="324" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT324" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU324" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="325" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT325" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU325" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="326" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT326" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU326" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="327" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT327" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU327" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="328" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT328" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU328" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="329" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT329" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU329" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="330" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT330" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU330" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="331" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT331" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU331" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="332" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT332" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU332" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="333" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT333" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU333" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="334" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT334" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU334" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="335" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT335" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU335" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="336" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT336" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU336" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="337" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT337" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU337" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="338" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT338" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU338" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="339" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT339" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU339" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="340" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT340" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU340" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="341" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT341" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU341" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="342" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT342" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU342" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="343" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT343" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU343" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="344" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT344" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU344" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="345" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT345" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU345" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="346" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT346" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU346" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="347" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT347" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU347" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="348" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT348" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU348" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="349" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT349" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU349" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="350" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT350" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU350" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="351" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT351" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU351" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="352" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT352" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU352" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="353" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT353" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU353" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="354" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT354" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU354" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="355" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT355" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU355" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="356" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT356" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU356" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="357" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT357" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BU357" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="358" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT358" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU358" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="359" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT359" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU359" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="360" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT360" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU360" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="361" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT361" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU361" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="362" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT362" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU362" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="363" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT363" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU363" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="364" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT364" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU364" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="365" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT365" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU365" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="366" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT366" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU366" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="367" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT367" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU367" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="368" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT368" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU368" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="369" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT369" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU369" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="370" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT370" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU370" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="371" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT371" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU371" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="372" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT372" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU372" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="373" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT373" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU373" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="374" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT374" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU374" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="375" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT375" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU375" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="376" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT376" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU376" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="377" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT377" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU377" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="378" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT378" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU378" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="379" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT379" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU379" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="380" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT380" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU380" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="381" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT381" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU381" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="382" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT382" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU382" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="383" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT383" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU383" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="384" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT384" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU384" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="385" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT385" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU385" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="386" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT386" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU386" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="387" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT387" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU387" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="388" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT388" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU388" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="389" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT389" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU389" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="390" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT390" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU390" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="391" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT391" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU391" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="392" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT392" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU392" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="393" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT393" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU393" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="394" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT394" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU394" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="395" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT395" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU395" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="396" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT396" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU396" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="397" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT397" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU397" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="398" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT398" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU398" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="399" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT399" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU399" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="400" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT400" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU400" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="401" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT401" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU401" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="402" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT402" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU402" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="403" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT403" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU403" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="404" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT404" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU404" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="405" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT405" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU405" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="406" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT406" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU406" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="407" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT407" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU407" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="408" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT408" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU408" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="409" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT409" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU409" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="410" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT410" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU410" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="411" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT411" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU411" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="412" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT412" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU412" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="413" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT413" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU413" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="414" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT414" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU414" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="415" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT415" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU415" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="416" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT416" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU416" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="417" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT417" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU417" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="418" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT418" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU418" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="419" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT419" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU419" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="420" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT420" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU420" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="421" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT421" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU421" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="422" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT422" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU422" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="423" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT423" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU423" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="424" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT424" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU424" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="425" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT425" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU425" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="426" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT426" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU426" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="427" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT427" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU427" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="428" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT428" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU428" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="429" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT429" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU429" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="430" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT430" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU430" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="431" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT431" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU431" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="432" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT432" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU432" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="433" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT433" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU433" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="434" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT434" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU434" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="435" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT435" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU435" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="436" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT436" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU436" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="437" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT437" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU437" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="438" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT438" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU438" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="439" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT439" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU439" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="440" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT440" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU440" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="441" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT441" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU441" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="442" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT442" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU442" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="443" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT443" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU443" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="444" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT444" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU444" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="445" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT445" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU445" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="446" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT446" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU446" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="447" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT447" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU447" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="448" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT448" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU448" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="449" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT449" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU449" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="450" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT450" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU450" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="451" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT451" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU451" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="452" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT452" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU452" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="453" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT453" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU453" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="454" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT454" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU454" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="455" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT455" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU455" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="456" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT456" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU456" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="457" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT457" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BU457" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="458" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT458" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU458" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="459" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT459" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU459" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="460" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT460" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU460" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="461" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT461" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU461" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="462" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT462" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU462" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="463" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT463" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU463" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="464" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT464" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU464" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="465" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT465" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU465" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="466" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT466" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU466" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="467" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT467" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU467" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="468" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT468" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU468" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="469" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT469" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU469" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="470" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT470" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU470" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="471" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT471" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU471" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="472" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT472" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU472" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="473" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT473" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU473" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="474" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT474" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU474" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="475" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT475" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU475" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="476" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT476" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU476" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="477" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT477" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU477" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="478" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT478" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU478" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="479" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT479" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU479" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="480" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT480" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU480" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="481" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT481" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU481" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="482" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT482" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU482" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="483" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT483" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU483" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="484" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT484" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU484" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="485" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT485" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU485" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="486" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT486" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU486" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="487" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT487" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU487" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="488" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT488" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU488" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="489" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT489" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU489" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="490" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT490" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU490" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="491" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT491" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU491" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="492" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT492" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU492" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="493" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT493" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU493" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="494" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT494" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU494" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="495" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT495" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU495" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="496" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT496" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU496" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="497" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT497" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU497" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="498" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT498" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU498" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="499" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT499" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU499" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="500" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT500" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU500" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="501" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT501" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU501" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="502" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT502" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU502" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="503" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT503" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU503" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="504" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT504" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU504" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="505" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT505" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU505" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="506" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT506" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU506" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="507" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT507" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU507" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="508" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT508" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU508" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="509" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT509" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU509" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="510" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT510" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU510" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="511" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT511" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU511" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="512" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT512" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU512" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="513" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT513" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU513" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="514" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT514" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU514" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="515" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT515" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU515" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="516" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT516" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU516" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="517" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT517" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU517" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="518" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT518" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU518" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="519" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT519" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU519" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="520" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT520" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU520" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="521" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT521" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU521" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="522" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT522" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU522" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="523" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT523" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU523" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="524" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT524" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU524" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="525" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT525" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU525" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="526" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT526" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU526" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="527" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT527" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU527" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="528" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT528" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BU528" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="529" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT529" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU529" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="530" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT530" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU530" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="531" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT531" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU531" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="532" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT532" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU532" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="533" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT533" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU533" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="534" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT534" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU534" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="535" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT535" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU535" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="536" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT536" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU536" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="537" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT537" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU537" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="538" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT538" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU538" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="539" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT539" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU539" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="540" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT540" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU540" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="541" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT541" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU541" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="542" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT542" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU542" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="543" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT543" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BU543" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="544" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT544" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU544" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="545" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT545" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU545" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="546" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT546" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU546" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="547" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT547" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU547" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="548" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT548" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU548" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="549" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT549" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU549" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="550" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT550" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU550" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="551" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT551" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU551" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="552" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT552" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU552" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="553" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT553" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU553" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="554" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT554" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU554" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="555" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT555" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU555" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="556" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT556" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU556" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="557" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT557" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU557" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="558" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT558" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU558" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="559" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT559" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU559" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="560" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT560" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU560" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="561" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT561" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU561" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="562" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT562" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU562" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="563" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT563" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU563" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="564" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT564" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU564" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="565" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT565" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU565" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="566" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT566" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU566" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="567" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT567" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU567" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="568" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT568" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU568" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="569" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT569" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU569" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="570" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT570" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU570" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="571" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT571" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU571" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="572" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT572" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU572" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="573" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT573" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BU573" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="574" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT574" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU574" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="575" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT575" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU575" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="576" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT576" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU576" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="577" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT577" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU577" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="578" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT578" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU578" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="579" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT579" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU579" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="580" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT580" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU580" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="581" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT581" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU581" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="582" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT582" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU582" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="583" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT583" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU583" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="584" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT584" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU584" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="585" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT585" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU585" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="586" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT586" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU586" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="587" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT587" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU587" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="588" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT588" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU588" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="589" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT589" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU589" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="590" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT590" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU590" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="591" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT591" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU591" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="592" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT592" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU592" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="593" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT593" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU593" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="594" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT594" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU594" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="595" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT595" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU595" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="596" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT596" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU596" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="597" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT597" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BU597" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="598" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT598" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU598" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="599" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT599" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU599" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="600" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT600" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU600" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="601" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT601" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU601" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="602" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT602" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU602" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="603" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT603" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU603" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="604" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT604" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU604" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="605" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT605" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU605" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="606" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT606" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU606" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="607" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT607" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU607" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="608" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT608" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU608" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="609" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT609" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU609" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="610" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT610" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU610" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="611" spans="72:73" x14ac:dyDescent="0.25">
       <c r="BT611" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU611" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Вакансии" sheetId="9" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="856">
   <si>
     <t>Название вакансии</t>
   </si>
@@ -2535,14 +2535,152 @@
   <si>
     <t>Сочи</t>
   </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>01:30</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>02:30</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>03:30</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>04:30</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2608,7 +2746,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2622,8 +2760,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2639,6 +2775,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2952,10 +3089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI70"/>
+  <dimension ref="A1:AI392"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2996,120 +3133,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="14"/>
+      <c r="N1" s="12"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="12" t="s">
         <v>742</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AC1" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="13" t="s">
         <v>753</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="14" t="s">
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="12" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="10" t="s">
         <v>759</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -3121,17 +3258,17 @@
       <c r="R2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
       <c r="AD2" s="4" t="s">
         <v>754</v>
       </c>
@@ -3147,9 +3284,9 @@
       <c r="AH2" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="AI2" s="14"/>
-    </row>
-    <row r="3" spans="1:35" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI2" s="12"/>
+    </row>
+    <row r="3" spans="1:35" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>734</v>
       </c>
@@ -3168,13 +3305,13 @@
       <c r="F3" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>20</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>60</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>805</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -3192,11 +3329,11 @@
       <c r="N3">
         <v>1412718</v>
       </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
+      <c r="P3" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>809</v>
       </c>
       <c r="R3" t="s">
         <v>29</v>
@@ -3260,13 +3397,13 @@
       <c r="F4" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>20</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>60</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>806</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -3284,11 +3421,11 @@
       <c r="N4">
         <v>1412718</v>
       </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
+      <c r="P4" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>809</v>
       </c>
       <c r="R4" t="s">
         <v>29</v>
@@ -3352,13 +3489,13 @@
       <c r="F5" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>20</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>60</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>806</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -3376,11 +3513,11 @@
       <c r="N5">
         <v>1412718</v>
       </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
+      <c r="P5" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>809</v>
       </c>
       <c r="R5" t="s">
         <v>29</v>
@@ -3444,13 +3581,13 @@
       <c r="F6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>20</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>60</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
         <v>806</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -3468,11 +3605,11 @@
       <c r="N6">
         <v>1412718</v>
       </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
+      <c r="P6" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>809</v>
       </c>
       <c r="R6" t="s">
         <v>29</v>
@@ -3536,13 +3673,13 @@
       <c r="F7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>20</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>60</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="8" t="s">
         <v>806</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -3560,11 +3697,11 @@
       <c r="N7">
         <v>1412718</v>
       </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0</v>
+      <c r="P7" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>809</v>
       </c>
       <c r="R7" t="s">
         <v>29</v>
@@ -3628,13 +3765,13 @@
       <c r="F8" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>20</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>60</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="8" t="s">
         <v>807</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -3652,11 +3789,11 @@
       <c r="N8">
         <v>1412718</v>
       </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>0</v>
+      <c r="P8" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>809</v>
       </c>
       <c r="R8" t="s">
         <v>29</v>
@@ -3702,252 +3839,1664 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-    </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-    </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-    </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-    </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-    </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-    </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+    </row>
+    <row r="37" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+    </row>
+    <row r="38" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+    </row>
+    <row r="41" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+    </row>
+    <row r="42" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+    </row>
+    <row r="43" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+    </row>
+    <row r="44" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+    </row>
+    <row r="45" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+    </row>
+    <row r="46" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+    </row>
+    <row r="47" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+    </row>
+    <row r="48" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="50" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+    </row>
+    <row r="52" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+    </row>
+    <row r="53" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+    </row>
+    <row r="54" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+    </row>
+    <row r="55" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+    </row>
+    <row r="56" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+    </row>
+    <row r="57" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+    </row>
+    <row r="58" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+    </row>
+    <row r="59" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+    </row>
+    <row r="60" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+    </row>
+    <row r="61" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+    </row>
+    <row r="62" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+    </row>
+    <row r="63" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+    </row>
+    <row r="64" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+    </row>
+    <row r="65" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+    </row>
+    <row r="66" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+    </row>
+    <row r="67" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+    </row>
+    <row r="68" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+    </row>
+    <row r="69" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+    </row>
+    <row r="70" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+    </row>
+    <row r="71" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+    </row>
+    <row r="72" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+    </row>
+    <row r="73" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+    </row>
+    <row r="74" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+    </row>
+    <row r="75" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+    </row>
+    <row r="76" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+    </row>
+    <row r="77" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+    </row>
+    <row r="78" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+    </row>
+    <row r="79" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+    </row>
+    <row r="80" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+    </row>
+    <row r="81" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+    </row>
+    <row r="82" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+    </row>
+    <row r="83" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+    </row>
+    <row r="84" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+    </row>
+    <row r="85" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+    </row>
+    <row r="86" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+    </row>
+    <row r="87" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P87" s="14"/>
+      <c r="Q87" s="14"/>
+    </row>
+    <row r="88" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+    </row>
+    <row r="89" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
+    </row>
+    <row r="90" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P90" s="14"/>
+      <c r="Q90" s="14"/>
+    </row>
+    <row r="91" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P91" s="14"/>
+      <c r="Q91" s="14"/>
+    </row>
+    <row r="92" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P92" s="14"/>
+      <c r="Q92" s="14"/>
+    </row>
+    <row r="93" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14"/>
+    </row>
+    <row r="94" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+    </row>
+    <row r="95" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P95" s="14"/>
+      <c r="Q95" s="14"/>
+    </row>
+    <row r="96" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P96" s="14"/>
+      <c r="Q96" s="14"/>
+    </row>
+    <row r="97" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
+    </row>
+    <row r="98" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
+    </row>
+    <row r="99" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
+    </row>
+    <row r="100" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P100" s="14"/>
+      <c r="Q100" s="14"/>
+    </row>
+    <row r="101" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
+    </row>
+    <row r="102" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P102" s="14"/>
+      <c r="Q102" s="14"/>
+    </row>
+    <row r="103" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
+    </row>
+    <row r="104" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P104" s="14"/>
+      <c r="Q104" s="14"/>
+    </row>
+    <row r="105" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
+    </row>
+    <row r="106" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
+    </row>
+    <row r="107" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
+    </row>
+    <row r="108" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
+    </row>
+    <row r="109" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14"/>
+    </row>
+    <row r="110" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P110" s="14"/>
+      <c r="Q110" s="14"/>
+    </row>
+    <row r="111" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
+    </row>
+    <row r="112" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P112" s="14"/>
+      <c r="Q112" s="14"/>
+    </row>
+    <row r="113" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14"/>
+    </row>
+    <row r="114" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P114" s="14"/>
+      <c r="Q114" s="14"/>
+    </row>
+    <row r="115" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P115" s="14"/>
+      <c r="Q115" s="14"/>
+    </row>
+    <row r="116" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P116" s="14"/>
+      <c r="Q116" s="14"/>
+    </row>
+    <row r="117" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P117" s="14"/>
+      <c r="Q117" s="14"/>
+    </row>
+    <row r="118" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P118" s="14"/>
+      <c r="Q118" s="14"/>
+    </row>
+    <row r="119" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P119" s="14"/>
+      <c r="Q119" s="14"/>
+    </row>
+    <row r="120" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P120" s="14"/>
+      <c r="Q120" s="14"/>
+    </row>
+    <row r="121" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P121" s="14"/>
+      <c r="Q121" s="14"/>
+    </row>
+    <row r="122" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P122" s="14"/>
+      <c r="Q122" s="14"/>
+    </row>
+    <row r="123" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P123" s="14"/>
+      <c r="Q123" s="14"/>
+    </row>
+    <row r="124" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P124" s="14"/>
+      <c r="Q124" s="14"/>
+    </row>
+    <row r="125" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P125" s="14"/>
+      <c r="Q125" s="14"/>
+    </row>
+    <row r="126" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P126" s="14"/>
+      <c r="Q126" s="14"/>
+    </row>
+    <row r="127" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P127" s="14"/>
+      <c r="Q127" s="14"/>
+    </row>
+    <row r="128" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P128" s="14"/>
+      <c r="Q128" s="14"/>
+    </row>
+    <row r="129" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P129" s="14"/>
+      <c r="Q129" s="14"/>
+    </row>
+    <row r="130" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P130" s="14"/>
+      <c r="Q130" s="14"/>
+    </row>
+    <row r="131" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P131" s="14"/>
+      <c r="Q131" s="14"/>
+    </row>
+    <row r="132" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P132" s="14"/>
+      <c r="Q132" s="14"/>
+    </row>
+    <row r="133" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P133" s="14"/>
+      <c r="Q133" s="14"/>
+    </row>
+    <row r="134" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P134" s="14"/>
+      <c r="Q134" s="14"/>
+    </row>
+    <row r="135" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P135" s="14"/>
+      <c r="Q135" s="14"/>
+    </row>
+    <row r="136" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P136" s="14"/>
+      <c r="Q136" s="14"/>
+    </row>
+    <row r="137" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P137" s="14"/>
+      <c r="Q137" s="14"/>
+    </row>
+    <row r="138" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P138" s="14"/>
+      <c r="Q138" s="14"/>
+    </row>
+    <row r="139" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+    </row>
+    <row r="140" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P140" s="14"/>
+      <c r="Q140" s="14"/>
+    </row>
+    <row r="141" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P141" s="14"/>
+      <c r="Q141" s="14"/>
+    </row>
+    <row r="142" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P142" s="14"/>
+      <c r="Q142" s="14"/>
+    </row>
+    <row r="143" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P143" s="14"/>
+      <c r="Q143" s="14"/>
+    </row>
+    <row r="144" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P144" s="14"/>
+      <c r="Q144" s="14"/>
+    </row>
+    <row r="145" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P145" s="14"/>
+      <c r="Q145" s="14"/>
+    </row>
+    <row r="146" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P146" s="14"/>
+      <c r="Q146" s="14"/>
+    </row>
+    <row r="147" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P147" s="14"/>
+      <c r="Q147" s="14"/>
+    </row>
+    <row r="148" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P148" s="14"/>
+      <c r="Q148" s="14"/>
+    </row>
+    <row r="149" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P149" s="14"/>
+      <c r="Q149" s="14"/>
+    </row>
+    <row r="150" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
+    </row>
+    <row r="151" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P151" s="14"/>
+      <c r="Q151" s="14"/>
+    </row>
+    <row r="152" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P152" s="14"/>
+      <c r="Q152" s="14"/>
+    </row>
+    <row r="153" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P153" s="14"/>
+      <c r="Q153" s="14"/>
+    </row>
+    <row r="154" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P154" s="14"/>
+      <c r="Q154" s="14"/>
+    </row>
+    <row r="155" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P155" s="14"/>
+      <c r="Q155" s="14"/>
+    </row>
+    <row r="156" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P156" s="14"/>
+      <c r="Q156" s="14"/>
+    </row>
+    <row r="157" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P157" s="14"/>
+      <c r="Q157" s="14"/>
+    </row>
+    <row r="158" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P158" s="14"/>
+      <c r="Q158" s="14"/>
+    </row>
+    <row r="159" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P159" s="14"/>
+      <c r="Q159" s="14"/>
+    </row>
+    <row r="160" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P160" s="14"/>
+      <c r="Q160" s="14"/>
+    </row>
+    <row r="161" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P161" s="14"/>
+      <c r="Q161" s="14"/>
+    </row>
+    <row r="162" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P162" s="14"/>
+      <c r="Q162" s="14"/>
+    </row>
+    <row r="163" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P163" s="14"/>
+      <c r="Q163" s="14"/>
+    </row>
+    <row r="164" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P164" s="14"/>
+      <c r="Q164" s="14"/>
+    </row>
+    <row r="165" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P165" s="14"/>
+      <c r="Q165" s="14"/>
+    </row>
+    <row r="166" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P166" s="14"/>
+      <c r="Q166" s="14"/>
+    </row>
+    <row r="167" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P167" s="14"/>
+      <c r="Q167" s="14"/>
+    </row>
+    <row r="168" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P168" s="14"/>
+      <c r="Q168" s="14"/>
+    </row>
+    <row r="169" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P169" s="14"/>
+      <c r="Q169" s="14"/>
+    </row>
+    <row r="170" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P170" s="14"/>
+      <c r="Q170" s="14"/>
+    </row>
+    <row r="171" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P171" s="14"/>
+      <c r="Q171" s="14"/>
+    </row>
+    <row r="172" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P172" s="14"/>
+      <c r="Q172" s="14"/>
+    </row>
+    <row r="173" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P173" s="14"/>
+      <c r="Q173" s="14"/>
+    </row>
+    <row r="174" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P174" s="14"/>
+      <c r="Q174" s="14"/>
+    </row>
+    <row r="175" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P175" s="14"/>
+      <c r="Q175" s="14"/>
+    </row>
+    <row r="176" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P176" s="14"/>
+      <c r="Q176" s="14"/>
+    </row>
+    <row r="177" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P177" s="14"/>
+      <c r="Q177" s="14"/>
+    </row>
+    <row r="178" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P178" s="14"/>
+      <c r="Q178" s="14"/>
+    </row>
+    <row r="179" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P179" s="14"/>
+      <c r="Q179" s="14"/>
+    </row>
+    <row r="180" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P180" s="14"/>
+      <c r="Q180" s="14"/>
+    </row>
+    <row r="181" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P181" s="14"/>
+      <c r="Q181" s="14"/>
+    </row>
+    <row r="182" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P182" s="14"/>
+      <c r="Q182" s="14"/>
+    </row>
+    <row r="183" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P183" s="14"/>
+      <c r="Q183" s="14"/>
+    </row>
+    <row r="184" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P184" s="14"/>
+      <c r="Q184" s="14"/>
+    </row>
+    <row r="185" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P185" s="14"/>
+      <c r="Q185" s="14"/>
+    </row>
+    <row r="186" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P186" s="14"/>
+      <c r="Q186" s="14"/>
+    </row>
+    <row r="187" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P187" s="14"/>
+      <c r="Q187" s="14"/>
+    </row>
+    <row r="188" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P188" s="14"/>
+      <c r="Q188" s="14"/>
+    </row>
+    <row r="189" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P189" s="14"/>
+      <c r="Q189" s="14"/>
+    </row>
+    <row r="190" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P190" s="14"/>
+      <c r="Q190" s="14"/>
+    </row>
+    <row r="191" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P191" s="14"/>
+      <c r="Q191" s="14"/>
+    </row>
+    <row r="192" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P192" s="14"/>
+      <c r="Q192" s="14"/>
+    </row>
+    <row r="193" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P193" s="14"/>
+      <c r="Q193" s="14"/>
+    </row>
+    <row r="194" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P194" s="14"/>
+      <c r="Q194" s="14"/>
+    </row>
+    <row r="195" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P195" s="14"/>
+      <c r="Q195" s="14"/>
+    </row>
+    <row r="196" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P196" s="14"/>
+      <c r="Q196" s="14"/>
+    </row>
+    <row r="197" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P197" s="14"/>
+      <c r="Q197" s="14"/>
+    </row>
+    <row r="198" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P198" s="14"/>
+      <c r="Q198" s="14"/>
+    </row>
+    <row r="199" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P199" s="14"/>
+      <c r="Q199" s="14"/>
+    </row>
+    <row r="200" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P200" s="14"/>
+      <c r="Q200" s="14"/>
+    </row>
+    <row r="201" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P201" s="14"/>
+      <c r="Q201" s="14"/>
+    </row>
+    <row r="202" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P202" s="14"/>
+      <c r="Q202" s="14"/>
+    </row>
+    <row r="203" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P203" s="14"/>
+      <c r="Q203" s="14"/>
+    </row>
+    <row r="204" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P204" s="14"/>
+      <c r="Q204" s="14"/>
+    </row>
+    <row r="205" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P205" s="14"/>
+      <c r="Q205" s="14"/>
+    </row>
+    <row r="206" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P206" s="14"/>
+      <c r="Q206" s="14"/>
+    </row>
+    <row r="207" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P207" s="14"/>
+      <c r="Q207" s="14"/>
+    </row>
+    <row r="208" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P208" s="14"/>
+      <c r="Q208" s="14"/>
+    </row>
+    <row r="209" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P209" s="14"/>
+      <c r="Q209" s="14"/>
+    </row>
+    <row r="210" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P210" s="14"/>
+      <c r="Q210" s="14"/>
+    </row>
+    <row r="211" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P211" s="14"/>
+      <c r="Q211" s="14"/>
+    </row>
+    <row r="212" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P212" s="14"/>
+      <c r="Q212" s="14"/>
+    </row>
+    <row r="213" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P213" s="14"/>
+      <c r="Q213" s="14"/>
+    </row>
+    <row r="214" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P214" s="14"/>
+      <c r="Q214" s="14"/>
+    </row>
+    <row r="215" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P215" s="14"/>
+      <c r="Q215" s="14"/>
+    </row>
+    <row r="216" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P216" s="14"/>
+      <c r="Q216" s="14"/>
+    </row>
+    <row r="217" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P217" s="14"/>
+      <c r="Q217" s="14"/>
+    </row>
+    <row r="218" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P218" s="14"/>
+      <c r="Q218" s="14"/>
+    </row>
+    <row r="219" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P219" s="14"/>
+      <c r="Q219" s="14"/>
+    </row>
+    <row r="220" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P220" s="14"/>
+      <c r="Q220" s="14"/>
+    </row>
+    <row r="221" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P221" s="14"/>
+      <c r="Q221" s="14"/>
+    </row>
+    <row r="222" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P222" s="14"/>
+      <c r="Q222" s="14"/>
+    </row>
+    <row r="223" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P223" s="14"/>
+      <c r="Q223" s="14"/>
+    </row>
+    <row r="224" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P224" s="14"/>
+      <c r="Q224" s="14"/>
+    </row>
+    <row r="225" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P225" s="14"/>
+      <c r="Q225" s="14"/>
+    </row>
+    <row r="226" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P226" s="14"/>
+      <c r="Q226" s="14"/>
+    </row>
+    <row r="227" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P227" s="14"/>
+      <c r="Q227" s="14"/>
+    </row>
+    <row r="228" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P228" s="14"/>
+      <c r="Q228" s="14"/>
+    </row>
+    <row r="229" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P229" s="14"/>
+      <c r="Q229" s="14"/>
+    </row>
+    <row r="230" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P230" s="14"/>
+      <c r="Q230" s="14"/>
+    </row>
+    <row r="231" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P231" s="14"/>
+      <c r="Q231" s="14"/>
+    </row>
+    <row r="232" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P232" s="14"/>
+      <c r="Q232" s="14"/>
+    </row>
+    <row r="233" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P233" s="14"/>
+      <c r="Q233" s="14"/>
+    </row>
+    <row r="234" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P234" s="14"/>
+      <c r="Q234" s="14"/>
+    </row>
+    <row r="235" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P235" s="14"/>
+      <c r="Q235" s="14"/>
+    </row>
+    <row r="236" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P236" s="14"/>
+      <c r="Q236" s="14"/>
+    </row>
+    <row r="237" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P237" s="14"/>
+      <c r="Q237" s="14"/>
+    </row>
+    <row r="238" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P238" s="14"/>
+      <c r="Q238" s="14"/>
+    </row>
+    <row r="239" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P239" s="14"/>
+      <c r="Q239" s="14"/>
+    </row>
+    <row r="240" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P240" s="14"/>
+      <c r="Q240" s="14"/>
+    </row>
+    <row r="241" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P241" s="14"/>
+      <c r="Q241" s="14"/>
+    </row>
+    <row r="242" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P242" s="14"/>
+      <c r="Q242" s="14"/>
+    </row>
+    <row r="243" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P243" s="14"/>
+      <c r="Q243" s="14"/>
+    </row>
+    <row r="244" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P244" s="14"/>
+      <c r="Q244" s="14"/>
+    </row>
+    <row r="245" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P245" s="14"/>
+      <c r="Q245" s="14"/>
+    </row>
+    <row r="246" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P246" s="14"/>
+      <c r="Q246" s="14"/>
+    </row>
+    <row r="247" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P247" s="14"/>
+      <c r="Q247" s="14"/>
+    </row>
+    <row r="248" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P248" s="14"/>
+      <c r="Q248" s="14"/>
+    </row>
+    <row r="249" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P249" s="14"/>
+      <c r="Q249" s="14"/>
+    </row>
+    <row r="250" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P250" s="14"/>
+      <c r="Q250" s="14"/>
+    </row>
+    <row r="251" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P251" s="14"/>
+      <c r="Q251" s="14"/>
+    </row>
+    <row r="252" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P252" s="14"/>
+      <c r="Q252" s="14"/>
+    </row>
+    <row r="253" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P253" s="14"/>
+      <c r="Q253" s="14"/>
+    </row>
+    <row r="254" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P254" s="14"/>
+      <c r="Q254" s="14"/>
+    </row>
+    <row r="255" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P255" s="14"/>
+      <c r="Q255" s="14"/>
+    </row>
+    <row r="256" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P256" s="14"/>
+      <c r="Q256" s="14"/>
+    </row>
+    <row r="257" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P257" s="14"/>
+      <c r="Q257" s="14"/>
+    </row>
+    <row r="258" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P258" s="14"/>
+      <c r="Q258" s="14"/>
+    </row>
+    <row r="259" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P259" s="14"/>
+      <c r="Q259" s="14"/>
+    </row>
+    <row r="260" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P260" s="14"/>
+      <c r="Q260" s="14"/>
+    </row>
+    <row r="261" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P261" s="14"/>
+      <c r="Q261" s="14"/>
+    </row>
+    <row r="262" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P262" s="14"/>
+      <c r="Q262" s="14"/>
+    </row>
+    <row r="263" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P263" s="14"/>
+      <c r="Q263" s="14"/>
+    </row>
+    <row r="264" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P264" s="14"/>
+      <c r="Q264" s="14"/>
+    </row>
+    <row r="265" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P265" s="14"/>
+      <c r="Q265" s="14"/>
+    </row>
+    <row r="266" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P266" s="14"/>
+      <c r="Q266" s="14"/>
+    </row>
+    <row r="267" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P267" s="14"/>
+      <c r="Q267" s="14"/>
+    </row>
+    <row r="268" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P268" s="14"/>
+      <c r="Q268" s="14"/>
+    </row>
+    <row r="269" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P269" s="14"/>
+      <c r="Q269" s="14"/>
+    </row>
+    <row r="270" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P270" s="14"/>
+      <c r="Q270" s="14"/>
+    </row>
+    <row r="271" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P271" s="14"/>
+      <c r="Q271" s="14"/>
+    </row>
+    <row r="272" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P272" s="14"/>
+      <c r="Q272" s="14"/>
+    </row>
+    <row r="273" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P273" s="14"/>
+      <c r="Q273" s="14"/>
+    </row>
+    <row r="274" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P274" s="14"/>
+      <c r="Q274" s="14"/>
+    </row>
+    <row r="275" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P275" s="14"/>
+      <c r="Q275" s="14"/>
+    </row>
+    <row r="276" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P276" s="14"/>
+      <c r="Q276" s="14"/>
+    </row>
+    <row r="277" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P277" s="14"/>
+      <c r="Q277" s="14"/>
+    </row>
+    <row r="278" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P278" s="14"/>
+      <c r="Q278" s="14"/>
+    </row>
+    <row r="279" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P279" s="14"/>
+      <c r="Q279" s="14"/>
+    </row>
+    <row r="280" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P280" s="14"/>
+      <c r="Q280" s="14"/>
+    </row>
+    <row r="281" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P281" s="14"/>
+      <c r="Q281" s="14"/>
+    </row>
+    <row r="282" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P282" s="14"/>
+      <c r="Q282" s="14"/>
+    </row>
+    <row r="283" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P283" s="14"/>
+      <c r="Q283" s="14"/>
+    </row>
+    <row r="284" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P284" s="14"/>
+      <c r="Q284" s="14"/>
+    </row>
+    <row r="285" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P285" s="14"/>
+      <c r="Q285" s="14"/>
+    </row>
+    <row r="286" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P286" s="14"/>
+      <c r="Q286" s="14"/>
+    </row>
+    <row r="287" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P287" s="14"/>
+      <c r="Q287" s="14"/>
+    </row>
+    <row r="288" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P288" s="14"/>
+      <c r="Q288" s="14"/>
+    </row>
+    <row r="289" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P289" s="14"/>
+      <c r="Q289" s="14"/>
+    </row>
+    <row r="290" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P290" s="14"/>
+      <c r="Q290" s="14"/>
+    </row>
+    <row r="291" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P291" s="14"/>
+      <c r="Q291" s="14"/>
+    </row>
+    <row r="292" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P292" s="14"/>
+      <c r="Q292" s="14"/>
+    </row>
+    <row r="293" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P293" s="14"/>
+      <c r="Q293" s="14"/>
+    </row>
+    <row r="294" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P294" s="14"/>
+      <c r="Q294" s="14"/>
+    </row>
+    <row r="295" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P295" s="14"/>
+      <c r="Q295" s="14"/>
+    </row>
+    <row r="296" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P296" s="14"/>
+      <c r="Q296" s="14"/>
+    </row>
+    <row r="297" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P297" s="14"/>
+      <c r="Q297" s="14"/>
+    </row>
+    <row r="298" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P298" s="14"/>
+      <c r="Q298" s="14"/>
+    </row>
+    <row r="299" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P299" s="14"/>
+      <c r="Q299" s="14"/>
+    </row>
+    <row r="300" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P300" s="14"/>
+      <c r="Q300" s="14"/>
+    </row>
+    <row r="301" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P301" s="14"/>
+      <c r="Q301" s="14"/>
+    </row>
+    <row r="302" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P302" s="14"/>
+      <c r="Q302" s="14"/>
+    </row>
+    <row r="303" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P303" s="14"/>
+      <c r="Q303" s="14"/>
+    </row>
+    <row r="304" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P304" s="14"/>
+      <c r="Q304" s="14"/>
+    </row>
+    <row r="305" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P305" s="14"/>
+      <c r="Q305" s="14"/>
+    </row>
+    <row r="306" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P306" s="14"/>
+      <c r="Q306" s="14"/>
+    </row>
+    <row r="307" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P307" s="14"/>
+      <c r="Q307" s="14"/>
+    </row>
+    <row r="308" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P308" s="14"/>
+      <c r="Q308" s="14"/>
+    </row>
+    <row r="309" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P309" s="14"/>
+      <c r="Q309" s="14"/>
+    </row>
+    <row r="310" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P310" s="14"/>
+      <c r="Q310" s="14"/>
+    </row>
+    <row r="311" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P311" s="14"/>
+      <c r="Q311" s="14"/>
+    </row>
+    <row r="312" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P312" s="14"/>
+      <c r="Q312" s="14"/>
+    </row>
+    <row r="313" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P313" s="14"/>
+      <c r="Q313" s="14"/>
+    </row>
+    <row r="314" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P314" s="14"/>
+      <c r="Q314" s="14"/>
+    </row>
+    <row r="315" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P315" s="14"/>
+      <c r="Q315" s="14"/>
+    </row>
+    <row r="316" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P316" s="14"/>
+      <c r="Q316" s="14"/>
+    </row>
+    <row r="317" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P317" s="14"/>
+      <c r="Q317" s="14"/>
+    </row>
+    <row r="318" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P318" s="14"/>
+      <c r="Q318" s="14"/>
+    </row>
+    <row r="319" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P319" s="14"/>
+      <c r="Q319" s="14"/>
+    </row>
+    <row r="320" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P320" s="14"/>
+      <c r="Q320" s="14"/>
+    </row>
+    <row r="321" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P321" s="14"/>
+      <c r="Q321" s="14"/>
+    </row>
+    <row r="322" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P322" s="14"/>
+      <c r="Q322" s="14"/>
+    </row>
+    <row r="323" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P323" s="14"/>
+      <c r="Q323" s="14"/>
+    </row>
+    <row r="324" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P324" s="14"/>
+      <c r="Q324" s="14"/>
+    </row>
+    <row r="325" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P325" s="14"/>
+      <c r="Q325" s="14"/>
+    </row>
+    <row r="326" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P326" s="14"/>
+      <c r="Q326" s="14"/>
+    </row>
+    <row r="327" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P327" s="14"/>
+      <c r="Q327" s="14"/>
+    </row>
+    <row r="328" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P328" s="14"/>
+      <c r="Q328" s="14"/>
+    </row>
+    <row r="329" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P329" s="14"/>
+      <c r="Q329" s="14"/>
+    </row>
+    <row r="330" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P330" s="14"/>
+      <c r="Q330" s="14"/>
+    </row>
+    <row r="331" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P331" s="14"/>
+      <c r="Q331" s="14"/>
+    </row>
+    <row r="332" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P332" s="14"/>
+      <c r="Q332" s="14"/>
+    </row>
+    <row r="333" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P333" s="14"/>
+      <c r="Q333" s="14"/>
+    </row>
+    <row r="334" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P334" s="14"/>
+      <c r="Q334" s="14"/>
+    </row>
+    <row r="335" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P335" s="14"/>
+      <c r="Q335" s="14"/>
+    </row>
+    <row r="336" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P336" s="14"/>
+      <c r="Q336" s="14"/>
+    </row>
+    <row r="337" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P337" s="14"/>
+      <c r="Q337" s="14"/>
+    </row>
+    <row r="338" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P338" s="14"/>
+      <c r="Q338" s="14"/>
+    </row>
+    <row r="339" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P339" s="14"/>
+      <c r="Q339" s="14"/>
+    </row>
+    <row r="340" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P340" s="14"/>
+      <c r="Q340" s="14"/>
+    </row>
+    <row r="341" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P341" s="14"/>
+      <c r="Q341" s="14"/>
+    </row>
+    <row r="342" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P342" s="14"/>
+      <c r="Q342" s="14"/>
+    </row>
+    <row r="343" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P343" s="14"/>
+      <c r="Q343" s="14"/>
+    </row>
+    <row r="344" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P344" s="14"/>
+      <c r="Q344" s="14"/>
+    </row>
+    <row r="345" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P345" s="14"/>
+      <c r="Q345" s="14"/>
+    </row>
+    <row r="346" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P346" s="14"/>
+      <c r="Q346" s="14"/>
+    </row>
+    <row r="347" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P347" s="14"/>
+      <c r="Q347" s="14"/>
+    </row>
+    <row r="348" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P348" s="14"/>
+      <c r="Q348" s="14"/>
+    </row>
+    <row r="349" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P349" s="14"/>
+      <c r="Q349" s="14"/>
+    </row>
+    <row r="350" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P350" s="14"/>
+      <c r="Q350" s="14"/>
+    </row>
+    <row r="351" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P351" s="14"/>
+      <c r="Q351" s="14"/>
+    </row>
+    <row r="352" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P352" s="14"/>
+      <c r="Q352" s="14"/>
+    </row>
+    <row r="353" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P353" s="14"/>
+      <c r="Q353" s="14"/>
+    </row>
+    <row r="354" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P354" s="14"/>
+      <c r="Q354" s="14"/>
+    </row>
+    <row r="355" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P355" s="14"/>
+      <c r="Q355" s="14"/>
+    </row>
+    <row r="356" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P356" s="14"/>
+      <c r="Q356" s="14"/>
+    </row>
+    <row r="357" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P357" s="14"/>
+      <c r="Q357" s="14"/>
+    </row>
+    <row r="358" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P358" s="14"/>
+      <c r="Q358" s="14"/>
+    </row>
+    <row r="359" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P359" s="14"/>
+      <c r="Q359" s="14"/>
+    </row>
+    <row r="360" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P360" s="14"/>
+      <c r="Q360" s="14"/>
+    </row>
+    <row r="361" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P361" s="14"/>
+      <c r="Q361" s="14"/>
+    </row>
+    <row r="362" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P362" s="14"/>
+      <c r="Q362" s="14"/>
+    </row>
+    <row r="363" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P363" s="14"/>
+      <c r="Q363" s="14"/>
+    </row>
+    <row r="364" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P364" s="14"/>
+      <c r="Q364" s="14"/>
+    </row>
+    <row r="365" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P365" s="14"/>
+      <c r="Q365" s="14"/>
+    </row>
+    <row r="366" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P366" s="14"/>
+      <c r="Q366" s="14"/>
+    </row>
+    <row r="367" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P367" s="14"/>
+      <c r="Q367" s="14"/>
+    </row>
+    <row r="368" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P368" s="14"/>
+      <c r="Q368" s="14"/>
+    </row>
+    <row r="369" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P369" s="14"/>
+      <c r="Q369" s="14"/>
+    </row>
+    <row r="370" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P370" s="14"/>
+      <c r="Q370" s="14"/>
+    </row>
+    <row r="371" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P371" s="14"/>
+      <c r="Q371" s="14"/>
+    </row>
+    <row r="372" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P372" s="14"/>
+      <c r="Q372" s="14"/>
+    </row>
+    <row r="373" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P373" s="14"/>
+      <c r="Q373" s="14"/>
+    </row>
+    <row r="374" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P374" s="14"/>
+      <c r="Q374" s="14"/>
+    </row>
+    <row r="375" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P375" s="14"/>
+      <c r="Q375" s="14"/>
+    </row>
+    <row r="376" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P376" s="14"/>
+      <c r="Q376" s="14"/>
+    </row>
+    <row r="377" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P377" s="14"/>
+      <c r="Q377" s="14"/>
+    </row>
+    <row r="378" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P378" s="14"/>
+      <c r="Q378" s="14"/>
+    </row>
+    <row r="379" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P379" s="14"/>
+      <c r="Q379" s="14"/>
+    </row>
+    <row r="380" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P380" s="14"/>
+      <c r="Q380" s="14"/>
+    </row>
+    <row r="381" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P381" s="14"/>
+      <c r="Q381" s="14"/>
+    </row>
+    <row r="382" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P382" s="14"/>
+      <c r="Q382" s="14"/>
+    </row>
+    <row r="383" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P383" s="14"/>
+      <c r="Q383" s="14"/>
+    </row>
+    <row r="384" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P384" s="14"/>
+      <c r="Q384" s="14"/>
+    </row>
+    <row r="385" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P385" s="14"/>
+      <c r="Q385" s="14"/>
+    </row>
+    <row r="386" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P386" s="14"/>
+      <c r="Q386" s="14"/>
+    </row>
+    <row r="387" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P387" s="14"/>
+      <c r="Q387" s="14"/>
+    </row>
+    <row r="388" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P388" s="14"/>
+      <c r="Q388" s="14"/>
+    </row>
+    <row r="389" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P389" s="14"/>
+      <c r="Q389" s="14"/>
+    </row>
+    <row r="390" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P390" s="14"/>
+      <c r="Q390" s="14"/>
+    </row>
+    <row r="391" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P391" s="14"/>
+      <c r="Q391" s="14"/>
+    </row>
+    <row r="392" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P392" s="14"/>
+      <c r="Q392" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -4172,7 +5721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -4195,7 +5744,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
@@ -4215,7 +5764,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
@@ -4235,7 +5784,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
@@ -4255,7 +5804,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
@@ -4275,7 +5824,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
@@ -4295,7 +5844,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
@@ -4315,7 +5864,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -4335,7 +5884,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
@@ -4355,7 +5904,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
@@ -4375,7 +5924,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
@@ -4395,7 +5944,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B12" t="s">
@@ -4415,7 +5964,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B13" t="s">
@@ -4435,7 +5984,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B14" t="s">
@@ -4455,7 +6004,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B15" t="s">
@@ -4475,7 +6024,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B16" t="s">
@@ -4495,7 +6044,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B17" t="s">
@@ -4515,7 +6064,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B18" t="s">
@@ -4535,7 +6084,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B19" t="s">
@@ -4555,7 +6104,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B20" t="s">
@@ -4575,7 +6124,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B21" t="s">
@@ -4595,7 +6144,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B22" t="s">
@@ -4615,7 +6164,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B23" t="s">
@@ -4635,7 +6184,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B24" t="s">
@@ -4655,7 +6204,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>808</v>
       </c>
       <c r="B25" t="s">
@@ -4675,7 +6224,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B26" t="s">
@@ -4695,7 +6244,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B27" t="s">
@@ -4715,7 +6264,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B28" t="s">
@@ -4735,7 +6284,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B29" t="s">
@@ -4755,7 +6304,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B30" t="s">
@@ -4775,7 +6324,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B31" t="s">
@@ -4795,7 +6344,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B32" t="s">
@@ -4825,8 +6374,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BV611"/>
   <sheetViews>
-    <sheetView topLeftCell="BP1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BW2" sqref="BW2"/>
+    <sheetView topLeftCell="BI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BR28" sqref="BR28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4860,8 +6409,11 @@
       <c r="BM1" t="s">
         <v>38</v>
       </c>
-      <c r="BN1" s="7">
-        <v>0</v>
+      <c r="BN1" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="BO1" s="14" t="s">
+        <v>809</v>
       </c>
       <c r="BP1" t="s">
         <v>27</v>
@@ -4875,7 +6427,7 @@
       <c r="BS1" t="s">
         <v>84</v>
       </c>
-      <c r="BV1" s="13" t="s">
+      <c r="BV1" s="11" t="s">
         <v>760</v>
       </c>
     </row>
@@ -4892,8 +6444,11 @@
       <c r="BM2" t="s">
         <v>39</v>
       </c>
-      <c r="BN2" s="7">
-        <v>2.0833333333333332E-2</v>
+      <c r="BN2" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="BO2" s="14" t="s">
+        <v>810</v>
       </c>
       <c r="BP2" t="s">
         <v>28</v>
@@ -4924,8 +6479,11 @@
       <c r="BM3" t="s">
         <v>40</v>
       </c>
-      <c r="BN3" s="7">
-        <v>4.1666666666666664E-2</v>
+      <c r="BN3" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="BO3" s="14" t="s">
+        <v>811</v>
       </c>
       <c r="BP3" t="s">
         <v>29</v>
@@ -4956,8 +6514,11 @@
       <c r="BM4" t="s">
         <v>41</v>
       </c>
-      <c r="BN4" s="7">
-        <v>6.25E-2</v>
+      <c r="BN4" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="BO4" s="14" t="s">
+        <v>812</v>
       </c>
       <c r="BR4" s="5" t="s">
         <v>20</v>
@@ -4982,8 +6543,11 @@
       <c r="BM5" t="s">
         <v>42</v>
       </c>
-      <c r="BN5" s="7">
-        <v>8.3333333333333329E-2</v>
+      <c r="BN5" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="BO5" s="14" t="s">
+        <v>813</v>
       </c>
       <c r="BR5" s="5" t="s">
         <v>21</v>
@@ -5008,8 +6572,11 @@
       <c r="BM6" t="s">
         <v>43</v>
       </c>
-      <c r="BN6" s="7">
-        <v>0.10416666666666667</v>
+      <c r="BN6" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="BO6" s="14" t="s">
+        <v>814</v>
       </c>
       <c r="BS6" t="s">
         <v>89</v>
@@ -5028,8 +6595,11 @@
       <c r="BM7" t="s">
         <v>44</v>
       </c>
-      <c r="BN7" s="7">
-        <v>0.125</v>
+      <c r="BN7" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="BO7" s="14" t="s">
+        <v>815</v>
       </c>
       <c r="BS7" t="s">
         <v>90</v>
@@ -5048,8 +6618,11 @@
       <c r="BM8" t="s">
         <v>45</v>
       </c>
-      <c r="BN8" s="7">
-        <v>0.14583333333333334</v>
+      <c r="BN8" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="BO8" s="14" t="s">
+        <v>816</v>
       </c>
       <c r="BS8" t="s">
         <v>91</v>
@@ -5068,8 +6641,11 @@
       <c r="BM9" t="s">
         <v>46</v>
       </c>
-      <c r="BN9" s="7">
-        <v>0.16666666666666666</v>
+      <c r="BN9" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="BO9" s="14" t="s">
+        <v>817</v>
       </c>
       <c r="BS9" t="s">
         <v>92</v>
@@ -5088,8 +6664,11 @@
       <c r="BM10" t="s">
         <v>47</v>
       </c>
-      <c r="BN10" s="7">
-        <v>0.1875</v>
+      <c r="BN10" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="BO10" s="14" t="s">
+        <v>818</v>
       </c>
       <c r="BS10" t="s">
         <v>93</v>
@@ -5108,8 +6687,11 @@
       <c r="BM11" t="s">
         <v>48</v>
       </c>
-      <c r="BN11" s="7">
-        <v>0.20833333333333334</v>
+      <c r="BN11" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="BO11" s="14" t="s">
+        <v>819</v>
       </c>
       <c r="BS11" t="s">
         <v>94</v>
@@ -5128,8 +6710,11 @@
       <c r="BM12" t="s">
         <v>49</v>
       </c>
-      <c r="BN12" s="7">
-        <v>0.22916666666666666</v>
+      <c r="BN12" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="BO12" s="14" t="s">
+        <v>819</v>
       </c>
       <c r="BS12" t="s">
         <v>95</v>
@@ -5148,8 +6733,11 @@
       <c r="BM13" t="s">
         <v>50</v>
       </c>
-      <c r="BN13" s="7">
-        <v>0.25</v>
+      <c r="BN13" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="BO13" s="14" t="s">
+        <v>820</v>
       </c>
       <c r="BS13" t="s">
         <v>96</v>
@@ -5165,8 +6753,11 @@
       </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BN14" s="7">
-        <v>0.27083333333333331</v>
+      <c r="BN14" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="BO14" s="14" t="s">
+        <v>821</v>
       </c>
       <c r="BS14" t="s">
         <v>97</v>
@@ -5182,8 +6773,11 @@
       </c>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BN15" s="7">
-        <v>0.29166666666666669</v>
+      <c r="BN15" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="BO15" s="14" t="s">
+        <v>822</v>
       </c>
       <c r="BS15" t="s">
         <v>98</v>
@@ -5199,8 +6793,11 @@
       </c>
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BN16" s="7">
-        <v>0.3125</v>
+      <c r="BN16" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="BO16" s="14" t="s">
+        <v>823</v>
       </c>
       <c r="BS16" t="s">
         <v>99</v>
@@ -5216,8 +6813,11 @@
       </c>
     </row>
     <row r="17" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN17" s="7">
-        <v>0.33333333333333331</v>
+      <c r="BN17" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="BO17" s="14" t="s">
+        <v>824</v>
       </c>
       <c r="BS17" t="s">
         <v>100</v>
@@ -5233,8 +6833,11 @@
       </c>
     </row>
     <row r="18" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN18" s="7">
-        <v>0.35416666666666669</v>
+      <c r="BN18" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="BO18" s="14" t="s">
+        <v>825</v>
       </c>
       <c r="BS18" t="s">
         <v>101</v>
@@ -5250,8 +6853,11 @@
       </c>
     </row>
     <row r="19" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN19" s="7">
-        <v>0.375</v>
+      <c r="BN19" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="BO19" s="14" t="s">
+        <v>826</v>
       </c>
       <c r="BS19" t="s">
         <v>102</v>
@@ -5267,8 +6873,11 @@
       </c>
     </row>
     <row r="20" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN20" s="7">
-        <v>0.39583333333333331</v>
+      <c r="BN20" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="BO20" s="14" t="s">
+        <v>827</v>
       </c>
       <c r="BS20" t="s">
         <v>103</v>
@@ -5284,8 +6893,11 @@
       </c>
     </row>
     <row r="21" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN21" s="7">
-        <v>0.41666666666666669</v>
+      <c r="BN21" s="14" t="s">
+        <v>828</v>
+      </c>
+      <c r="BO21" s="14" t="s">
+        <v>828</v>
       </c>
       <c r="BS21" t="s">
         <v>104</v>
@@ -5301,8 +6913,11 @@
       </c>
     </row>
     <row r="22" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN22" s="7">
-        <v>0.4375</v>
+      <c r="BN22" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="BO22" s="14" t="s">
+        <v>829</v>
       </c>
       <c r="BS22" t="s">
         <v>105</v>
@@ -5318,8 +6933,11 @@
       </c>
     </row>
     <row r="23" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN23" s="7">
-        <v>0.45833333333333331</v>
+      <c r="BN23" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="BO23" s="14" t="s">
+        <v>830</v>
       </c>
       <c r="BS23" t="s">
         <v>106</v>
@@ -5335,8 +6953,11 @@
       </c>
     </row>
     <row r="24" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN24" s="7">
-        <v>0.47916666666666669</v>
+      <c r="BN24" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="BO24" s="14" t="s">
+        <v>831</v>
       </c>
       <c r="BS24" t="s">
         <v>107</v>
@@ -5352,8 +6973,11 @@
       </c>
     </row>
     <row r="25" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN25" s="7">
-        <v>0.5</v>
+      <c r="BN25" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="BO25" s="14" t="s">
+        <v>832</v>
       </c>
       <c r="BS25" t="s">
         <v>108</v>
@@ -5369,8 +6993,11 @@
       </c>
     </row>
     <row r="26" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN26" s="7">
-        <v>0.52083333333333337</v>
+      <c r="BN26" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="BO26" s="14" t="s">
+        <v>833</v>
       </c>
       <c r="BS26" t="s">
         <v>109</v>
@@ -5386,8 +7013,11 @@
       </c>
     </row>
     <row r="27" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN27" s="7">
-        <v>0.54166666666666663</v>
+      <c r="BN27" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="BO27" s="14" t="s">
+        <v>834</v>
       </c>
       <c r="BS27" t="s">
         <v>110</v>
@@ -5403,8 +7033,11 @@
       </c>
     </row>
     <row r="28" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN28" s="7">
-        <v>0.5625</v>
+      <c r="BN28" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="BO28" s="14" t="s">
+        <v>835</v>
       </c>
       <c r="BS28" t="s">
         <v>111</v>
@@ -5420,8 +7053,11 @@
       </c>
     </row>
     <row r="29" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN29" s="7">
-        <v>0.58333333333333337</v>
+      <c r="BN29" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="BO29" s="14" t="s">
+        <v>836</v>
       </c>
       <c r="BS29" t="s">
         <v>112</v>
@@ -5437,8 +7073,11 @@
       </c>
     </row>
     <row r="30" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN30" s="7">
-        <v>0.60416666666666663</v>
+      <c r="BN30" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="BO30" s="14" t="s">
+        <v>837</v>
       </c>
       <c r="BS30" t="s">
         <v>113</v>
@@ -5454,8 +7093,11 @@
       </c>
     </row>
     <row r="31" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN31" s="7">
-        <v>0.625</v>
+      <c r="BN31" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="BO31" s="14" t="s">
+        <v>838</v>
       </c>
       <c r="BT31" t="s">
         <v>84</v>
@@ -5468,8 +7110,11 @@
       </c>
     </row>
     <row r="32" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN32" s="7">
-        <v>0.64583333333333337</v>
+      <c r="BN32" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="BO32" s="14" t="s">
+        <v>839</v>
       </c>
       <c r="BT32" t="s">
         <v>84</v>
@@ -5482,8 +7127,11 @@
       </c>
     </row>
     <row r="33" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN33" s="7">
-        <v>0.66666666666666663</v>
+      <c r="BN33" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="BO33" s="14" t="s">
+        <v>840</v>
       </c>
       <c r="BT33" t="s">
         <v>84</v>
@@ -5496,8 +7144,11 @@
       </c>
     </row>
     <row r="34" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN34" s="7">
-        <v>0.6875</v>
+      <c r="BN34" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="BO34" s="14" t="s">
+        <v>841</v>
       </c>
       <c r="BT34" t="s">
         <v>84</v>
@@ -5510,8 +7161,11 @@
       </c>
     </row>
     <row r="35" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN35" s="7">
-        <v>0.70833333333333337</v>
+      <c r="BN35" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="BO35" s="14" t="s">
+        <v>842</v>
       </c>
       <c r="BT35" t="s">
         <v>84</v>
@@ -5524,8 +7178,11 @@
       </c>
     </row>
     <row r="36" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN36" s="7">
-        <v>0.72916666666666663</v>
+      <c r="BN36" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="BO36" s="14" t="s">
+        <v>843</v>
       </c>
       <c r="BT36" t="s">
         <v>84</v>
@@ -5538,8 +7195,11 @@
       </c>
     </row>
     <row r="37" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN37" s="7">
-        <v>0.75</v>
+      <c r="BN37" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="BO37" s="14" t="s">
+        <v>844</v>
       </c>
       <c r="BT37" t="s">
         <v>84</v>
@@ -5552,8 +7212,11 @@
       </c>
     </row>
     <row r="38" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN38" s="7">
-        <v>0.77083333333333337</v>
+      <c r="BN38" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="BO38" s="14" t="s">
+        <v>845</v>
       </c>
       <c r="BT38" t="s">
         <v>85</v>
@@ -5566,8 +7229,11 @@
       </c>
     </row>
     <row r="39" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN39" s="7">
-        <v>0.79166666666666663</v>
+      <c r="BN39" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="BO39" s="14" t="s">
+        <v>846</v>
       </c>
       <c r="BT39" t="s">
         <v>85</v>
@@ -5580,8 +7246,11 @@
       </c>
     </row>
     <row r="40" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN40" s="7">
-        <v>0.8125</v>
+      <c r="BN40" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="BO40" s="14" t="s">
+        <v>847</v>
       </c>
       <c r="BT40" t="s">
         <v>85</v>
@@ -5594,8 +7263,11 @@
       </c>
     </row>
     <row r="41" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN41" s="7">
-        <v>0.83333333333333337</v>
+      <c r="BN41" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="BO41" s="14" t="s">
+        <v>848</v>
       </c>
       <c r="BT41" t="s">
         <v>85</v>
@@ -5608,8 +7280,11 @@
       </c>
     </row>
     <row r="42" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN42" s="7">
-        <v>0.85416666666666663</v>
+      <c r="BN42" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="BO42" s="14" t="s">
+        <v>849</v>
       </c>
       <c r="BT42" t="s">
         <v>85</v>
@@ -5622,8 +7297,11 @@
       </c>
     </row>
     <row r="43" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN43" s="7">
-        <v>0.875</v>
+      <c r="BN43" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="BO43" s="14" t="s">
+        <v>850</v>
       </c>
       <c r="BT43" t="s">
         <v>85</v>
@@ -5636,8 +7314,11 @@
       </c>
     </row>
     <row r="44" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN44" s="7">
-        <v>0.89583333333333337</v>
+      <c r="BN44" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="BO44" s="14" t="s">
+        <v>851</v>
       </c>
       <c r="BT44" t="s">
         <v>85</v>
@@ -5650,8 +7331,11 @@
       </c>
     </row>
     <row r="45" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN45" s="7">
-        <v>0.91666666666666663</v>
+      <c r="BN45" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="BO45" s="14" t="s">
+        <v>852</v>
       </c>
       <c r="BT45" t="s">
         <v>85</v>
@@ -5661,8 +7345,11 @@
       </c>
     </row>
     <row r="46" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN46" s="7">
-        <v>0.9375</v>
+      <c r="BN46" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="BO46" s="14" t="s">
+        <v>853</v>
       </c>
       <c r="BT46" t="s">
         <v>85</v>
@@ -5672,8 +7359,11 @@
       </c>
     </row>
     <row r="47" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN47" s="7">
-        <v>0.95833333333333337</v>
+      <c r="BN47" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="BO47" s="14" t="s">
+        <v>854</v>
       </c>
       <c r="BT47" t="s">
         <v>85</v>
@@ -5683,8 +7373,11 @@
       </c>
     </row>
     <row r="48" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN48" s="7">
-        <v>0.97916666666666663</v>
+      <c r="BN48" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="BO48" s="14" t="s">
+        <v>855</v>
       </c>
       <c r="BT48" t="s">
         <v>85</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -55,12 +55,12 @@
     <definedName name="ь">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$W$9,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
     <definedName name="я">OFFSET(Авторизация!$BT$1,MATCH(Вакансии!$W$3,Авторизация!$BT$2:$BT$611,0),1,COUNTIF(Авторизация!$BT$2:$BT$611,Вакансии!$S$3:$S$1058),1)</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="854">
   <si>
     <t>Название вакансии</t>
   </si>
@@ -2479,202 +2479,166 @@
     <t>Оформление вакансии</t>
   </si>
   <si>
-    <t>Яндекс.Еда - сервис заказа еды из ресторанов.
-Срочно на работу или подработку к партнеру Яндекс.Еда требуются пеший курьер и авто-курьер!
-Заработай до 2500 рублей в день!
-Условия:
-- Работа в любом районе города, даже рядом с домом;
-- На выбор смены по 4/6/8/10/12 часов;
-- Утренние/дневные/вечерние смены;
-- Можно совмещать с другой работой или учебой;
-- Платим, даже если нет заказов!
-- Выплаты каждую неделю.
-Обязанности:
-Доставка еды из ресторанов партнеров
-Требования:
-Для трудоустройства потребуется только паспорт
-Навыки использования устройств на базе ОС Android (в работе используется приложение на базе Android версия 4.2 и выше)
-Чтобы устроиться, просто напишите нам в Viber или WhatsApp по номеру из объявления!  После получения сообщения в течение 10 минут поступит ответное сообщение с приглашением на работу.</t>
+    <t>Сочи</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>01:30</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>02:30</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>03:30</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>04:30</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>23:30</t>
   </si>
   <si>
     <t xml:space="preserve">Яндекс.Еда - сервис заказа еды из ресторанов.
 Срочно на работу или подработку к партнеру Яндекс.Еда требуются пеший курьер и авто-курьер!
 Заработай до 2500 рублей в день!
 Условия:
-- Работа в любом районе города, даже рядом с домом;
-- На выбор смены по 4/6/8/10/12 часов;
-- Утренние/дневные/вечерние смены;
-- Можно совмещать с другой работой или учебой;
-- Платим, даже если нет заказов!
-- Выплаты каждую неделю.
+Работа в любом районе города, даже рядом с домом;
+На выбор смены по 4/6/8/10/12 часов;
+Утренние/дневные/вечерние смены;
+Можно совмещать с другой работой или учебой;
+Платим, даже если нет заказов!
+Выплаты каждую неделю.
 Обязанности:
 Доставка еды из ресторанов партнеров
 Требования:
 Для трудоустройства потребуется только паспорт
 Навыки использования устройств на базе ОС Android (в работе используется приложение на базе Android версия 4.2 и выше)
 Чтобы устроиться, просто напишите нам в Viber или WhatsApp по номеру из объявления!  После получения сообщения в течение 10 минут поступит ответное сообщение с приглашением на работу. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Яндекс.Еда - сервис заказа еды из ресторанов.
-Срочно на работу или подработку к партнеру Яндекс.Еда требуются пеший курьер и авто-курьер!
-Заработай до 2500 рублей в день!
-Условия:
-Работа в любом районе города, даже рядом с домом;
-- На выбор смены по 4/6/8/10/12 часов;
-- Утренние/дневные/вечерние смены;
-- Можно совмещать с другой работой или учебой;
-- Платим, даже если нет заказов!
-- Выплаты каждую неделю.
-Обязанности:
-Доставка еды из ресторанов партнеров
-Требования:
-Для трудоустройства потребуется только паспорт
-Навыки использования устройств на базе ОС Android (в работе используется приложение на базе Android версия 4.2 и выше)
-Чтобы устроиться, просто напишите нам в Viber или WhatsApp по номеру из объявления!  После получения сообщения в течение 10 минут поступит ответное сообщение с приглашением на работу. </t>
-  </si>
-  <si>
-    <t>Сочи</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>00:30</t>
-  </si>
-  <si>
-    <t>01:00</t>
-  </si>
-  <si>
-    <t>01:30</t>
-  </si>
-  <si>
-    <t>02:00</t>
-  </si>
-  <si>
-    <t>02:30</t>
-  </si>
-  <si>
-    <t>03:00</t>
-  </si>
-  <si>
-    <t>03:30</t>
-  </si>
-  <si>
-    <t>04:00</t>
-  </si>
-  <si>
-    <t>04:30</t>
-  </si>
-  <si>
-    <t>05:00</t>
-  </si>
-  <si>
-    <t>06:00</t>
-  </si>
-  <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>07:30</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>18:30</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>19:30</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>20:30</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>23:00</t>
-  </si>
-  <si>
-    <t>23:30</t>
   </si>
 </sst>
 </file>
@@ -2769,13 +2733,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3091,7 +3055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -3133,113 +3097,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="12"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="12" t="s">
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="13" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="6" t="s">
         <v>25</v>
       </c>
@@ -3258,17 +3222,17 @@
       <c r="R2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
       <c r="AD2" s="4" t="s">
         <v>754</v>
       </c>
@@ -3284,7 +3248,7 @@
       <c r="AH2" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="AI2" s="12"/>
+      <c r="AI2" s="13"/>
     </row>
     <row r="3" spans="1:35" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3312,7 +3276,7 @@
         <v>60</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>805</v>
+        <v>853</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>31</v>
@@ -3329,11 +3293,11 @@
       <c r="N3">
         <v>1412718</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>809</v>
+      <c r="P3" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>806</v>
       </c>
       <c r="R3" t="s">
         <v>29</v>
@@ -3404,7 +3368,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>806</v>
+        <v>853</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>32</v>
@@ -3421,11 +3385,11 @@
       <c r="N4">
         <v>1412718</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>809</v>
+      <c r="P4" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>806</v>
       </c>
       <c r="R4" t="s">
         <v>29</v>
@@ -3496,7 +3460,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>806</v>
+        <v>853</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>33</v>
@@ -3513,11 +3477,11 @@
       <c r="N5">
         <v>1412718</v>
       </c>
-      <c r="P5" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>809</v>
+      <c r="P5" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>806</v>
       </c>
       <c r="R5" t="s">
         <v>29</v>
@@ -3588,7 +3552,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>806</v>
+        <v>853</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>34</v>
@@ -3605,11 +3569,11 @@
       <c r="N6">
         <v>1412718</v>
       </c>
-      <c r="P6" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>809</v>
+      <c r="P6" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>806</v>
       </c>
       <c r="R6" t="s">
         <v>29</v>
@@ -3680,7 +3644,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>806</v>
+        <v>853</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>33</v>
@@ -3697,11 +3661,11 @@
       <c r="N7">
         <v>1412718</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>809</v>
+      <c r="P7" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>806</v>
       </c>
       <c r="R7" t="s">
         <v>29</v>
@@ -3772,7 +3736,7 @@
         <v>60</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>807</v>
+        <v>853</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>36</v>
@@ -3789,11 +3753,11 @@
       <c r="N8">
         <v>1412718</v>
       </c>
-      <c r="P8" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>809</v>
+      <c r="P8" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>806</v>
       </c>
       <c r="R8" t="s">
         <v>29</v>
@@ -3841,1665 +3805,1677 @@
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
     </row>
     <row r="34" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
     </row>
     <row r="37" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
     </row>
     <row r="38" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
     </row>
     <row r="40" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
     </row>
     <row r="41" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
     </row>
     <row r="42" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
     </row>
     <row r="43" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
     </row>
     <row r="44" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
     </row>
     <row r="45" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
     </row>
     <row r="46" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
     </row>
     <row r="47" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
     </row>
     <row r="48" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
     </row>
     <row r="49" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
     </row>
     <row r="50" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
     </row>
     <row r="51" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
     </row>
     <row r="52" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
     </row>
     <row r="53" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
     </row>
     <row r="54" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
     </row>
     <row r="55" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
     </row>
     <row r="56" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
     </row>
     <row r="57" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
     </row>
     <row r="58" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
     </row>
     <row r="59" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
     </row>
     <row r="60" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
     </row>
     <row r="62" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
     </row>
     <row r="66" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
     </row>
     <row r="67" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
     </row>
     <row r="68" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
     </row>
     <row r="69" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
     </row>
     <row r="70" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
     </row>
     <row r="71" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
     </row>
     <row r="72" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
     </row>
     <row r="73" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
     </row>
     <row r="74" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
     </row>
     <row r="75" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
     </row>
     <row r="76" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="P76" s="14"/>
-      <c r="Q76" s="14"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
     </row>
     <row r="77" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
     </row>
     <row r="78" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="P78" s="14"/>
-      <c r="Q78" s="14"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
     </row>
     <row r="79" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="P79" s="14"/>
-      <c r="Q79" s="14"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
     </row>
     <row r="80" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="P80" s="14"/>
-      <c r="Q80" s="14"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
     </row>
     <row r="81" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P81" s="14"/>
-      <c r="Q81" s="14"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
     </row>
     <row r="82" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P82" s="14"/>
-      <c r="Q82" s="14"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
     </row>
     <row r="83" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
     </row>
     <row r="84" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
     </row>
     <row r="85" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P85" s="14"/>
-      <c r="Q85" s="14"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
     </row>
     <row r="86" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P86" s="14"/>
-      <c r="Q86" s="14"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
     </row>
     <row r="87" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P87" s="14"/>
-      <c r="Q87" s="14"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
     </row>
     <row r="88" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P88" s="14"/>
-      <c r="Q88" s="14"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
     </row>
     <row r="89" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P89" s="14"/>
-      <c r="Q89" s="14"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
     </row>
     <row r="90" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P90" s="14"/>
-      <c r="Q90" s="14"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
     </row>
     <row r="91" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P91" s="14"/>
-      <c r="Q91" s="14"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
     </row>
     <row r="92" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P92" s="14"/>
-      <c r="Q92" s="14"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
     </row>
     <row r="93" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P93" s="14"/>
-      <c r="Q93" s="14"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
     </row>
     <row r="94" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P94" s="14"/>
-      <c r="Q94" s="14"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
     </row>
     <row r="95" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P95" s="14"/>
-      <c r="Q95" s="14"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
     </row>
     <row r="96" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P96" s="14"/>
-      <c r="Q96" s="14"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
     </row>
     <row r="97" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
     </row>
     <row r="98" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
     </row>
     <row r="99" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
     </row>
     <row r="100" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
     </row>
     <row r="101" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
     </row>
     <row r="102" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P102" s="14"/>
-      <c r="Q102" s="14"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
     </row>
     <row r="103" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P103" s="14"/>
-      <c r="Q103" s="14"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
     </row>
     <row r="104" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
     </row>
     <row r="105" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P105" s="14"/>
-      <c r="Q105" s="14"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
     </row>
     <row r="106" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P106" s="14"/>
-      <c r="Q106" s="14"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
     </row>
     <row r="107" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P107" s="14"/>
-      <c r="Q107" s="14"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
     </row>
     <row r="108" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
     </row>
     <row r="109" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
     </row>
     <row r="110" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P110" s="14"/>
-      <c r="Q110" s="14"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
     </row>
     <row r="111" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P111" s="14"/>
-      <c r="Q111" s="14"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
     </row>
     <row r="112" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P112" s="14"/>
-      <c r="Q112" s="14"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
     </row>
     <row r="113" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P113" s="14"/>
-      <c r="Q113" s="14"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
     </row>
     <row r="114" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P114" s="14"/>
-      <c r="Q114" s="14"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
     </row>
     <row r="115" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P115" s="14"/>
-      <c r="Q115" s="14"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
     </row>
     <row r="116" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P116" s="14"/>
-      <c r="Q116" s="14"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
     </row>
     <row r="117" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P117" s="14"/>
-      <c r="Q117" s="14"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
     </row>
     <row r="118" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P118" s="14"/>
-      <c r="Q118" s="14"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
     </row>
     <row r="119" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P119" s="14"/>
-      <c r="Q119" s="14"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
     </row>
     <row r="120" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P120" s="14"/>
-      <c r="Q120" s="14"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
     </row>
     <row r="121" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P121" s="14"/>
-      <c r="Q121" s="14"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
     </row>
     <row r="122" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P122" s="14"/>
-      <c r="Q122" s="14"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
     </row>
     <row r="123" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P123" s="14"/>
-      <c r="Q123" s="14"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
     </row>
     <row r="124" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P124" s="14"/>
-      <c r="Q124" s="14"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
     </row>
     <row r="125" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P125" s="14"/>
-      <c r="Q125" s="14"/>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="12"/>
     </row>
     <row r="126" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P126" s="14"/>
-      <c r="Q126" s="14"/>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
     </row>
     <row r="127" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P127" s="14"/>
-      <c r="Q127" s="14"/>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
     </row>
     <row r="128" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P128" s="14"/>
-      <c r="Q128" s="14"/>
+      <c r="P128" s="12"/>
+      <c r="Q128" s="12"/>
     </row>
     <row r="129" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P129" s="14"/>
-      <c r="Q129" s="14"/>
+      <c r="P129" s="12"/>
+      <c r="Q129" s="12"/>
     </row>
     <row r="130" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P130" s="14"/>
-      <c r="Q130" s="14"/>
+      <c r="P130" s="12"/>
+      <c r="Q130" s="12"/>
     </row>
     <row r="131" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P131" s="14"/>
-      <c r="Q131" s="14"/>
+      <c r="P131" s="12"/>
+      <c r="Q131" s="12"/>
     </row>
     <row r="132" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P132" s="14"/>
-      <c r="Q132" s="14"/>
+      <c r="P132" s="12"/>
+      <c r="Q132" s="12"/>
     </row>
     <row r="133" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P133" s="14"/>
-      <c r="Q133" s="14"/>
+      <c r="P133" s="12"/>
+      <c r="Q133" s="12"/>
     </row>
     <row r="134" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P134" s="14"/>
-      <c r="Q134" s="14"/>
+      <c r="P134" s="12"/>
+      <c r="Q134" s="12"/>
     </row>
     <row r="135" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P135" s="14"/>
-      <c r="Q135" s="14"/>
+      <c r="P135" s="12"/>
+      <c r="Q135" s="12"/>
     </row>
     <row r="136" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P136" s="14"/>
-      <c r="Q136" s="14"/>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="12"/>
     </row>
     <row r="137" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P137" s="14"/>
-      <c r="Q137" s="14"/>
+      <c r="P137" s="12"/>
+      <c r="Q137" s="12"/>
     </row>
     <row r="138" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P138" s="14"/>
-      <c r="Q138" s="14"/>
+      <c r="P138" s="12"/>
+      <c r="Q138" s="12"/>
     </row>
     <row r="139" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P139" s="14"/>
-      <c r="Q139" s="14"/>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="12"/>
     </row>
     <row r="140" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P140" s="14"/>
-      <c r="Q140" s="14"/>
+      <c r="P140" s="12"/>
+      <c r="Q140" s="12"/>
     </row>
     <row r="141" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P141" s="14"/>
-      <c r="Q141" s="14"/>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="12"/>
     </row>
     <row r="142" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P142" s="14"/>
-      <c r="Q142" s="14"/>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="12"/>
     </row>
     <row r="143" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P143" s="14"/>
-      <c r="Q143" s="14"/>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12"/>
     </row>
     <row r="144" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P144" s="14"/>
-      <c r="Q144" s="14"/>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="12"/>
     </row>
     <row r="145" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P145" s="14"/>
-      <c r="Q145" s="14"/>
+      <c r="P145" s="12"/>
+      <c r="Q145" s="12"/>
     </row>
     <row r="146" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P146" s="14"/>
-      <c r="Q146" s="14"/>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="12"/>
     </row>
     <row r="147" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P147" s="14"/>
-      <c r="Q147" s="14"/>
+      <c r="P147" s="12"/>
+      <c r="Q147" s="12"/>
     </row>
     <row r="148" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P148" s="14"/>
-      <c r="Q148" s="14"/>
+      <c r="P148" s="12"/>
+      <c r="Q148" s="12"/>
     </row>
     <row r="149" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P149" s="14"/>
-      <c r="Q149" s="14"/>
+      <c r="P149" s="12"/>
+      <c r="Q149" s="12"/>
     </row>
     <row r="150" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P150" s="14"/>
-      <c r="Q150" s="14"/>
+      <c r="P150" s="12"/>
+      <c r="Q150" s="12"/>
     </row>
     <row r="151" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P151" s="14"/>
-      <c r="Q151" s="14"/>
+      <c r="P151" s="12"/>
+      <c r="Q151" s="12"/>
     </row>
     <row r="152" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P152" s="14"/>
-      <c r="Q152" s="14"/>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="12"/>
     </row>
     <row r="153" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P153" s="14"/>
-      <c r="Q153" s="14"/>
+      <c r="P153" s="12"/>
+      <c r="Q153" s="12"/>
     </row>
     <row r="154" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P154" s="14"/>
-      <c r="Q154" s="14"/>
+      <c r="P154" s="12"/>
+      <c r="Q154" s="12"/>
     </row>
     <row r="155" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P155" s="14"/>
-      <c r="Q155" s="14"/>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="12"/>
     </row>
     <row r="156" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P156" s="14"/>
-      <c r="Q156" s="14"/>
+      <c r="P156" s="12"/>
+      <c r="Q156" s="12"/>
     </row>
     <row r="157" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P157" s="14"/>
-      <c r="Q157" s="14"/>
+      <c r="P157" s="12"/>
+      <c r="Q157" s="12"/>
     </row>
     <row r="158" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P158" s="14"/>
-      <c r="Q158" s="14"/>
+      <c r="P158" s="12"/>
+      <c r="Q158" s="12"/>
     </row>
     <row r="159" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P159" s="14"/>
-      <c r="Q159" s="14"/>
+      <c r="P159" s="12"/>
+      <c r="Q159" s="12"/>
     </row>
     <row r="160" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P160" s="14"/>
-      <c r="Q160" s="14"/>
+      <c r="P160" s="12"/>
+      <c r="Q160" s="12"/>
     </row>
     <row r="161" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P161" s="14"/>
-      <c r="Q161" s="14"/>
+      <c r="P161" s="12"/>
+      <c r="Q161" s="12"/>
     </row>
     <row r="162" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P162" s="14"/>
-      <c r="Q162" s="14"/>
+      <c r="P162" s="12"/>
+      <c r="Q162" s="12"/>
     </row>
     <row r="163" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P163" s="14"/>
-      <c r="Q163" s="14"/>
+      <c r="P163" s="12"/>
+      <c r="Q163" s="12"/>
     </row>
     <row r="164" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P164" s="14"/>
-      <c r="Q164" s="14"/>
+      <c r="P164" s="12"/>
+      <c r="Q164" s="12"/>
     </row>
     <row r="165" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P165" s="14"/>
-      <c r="Q165" s="14"/>
+      <c r="P165" s="12"/>
+      <c r="Q165" s="12"/>
     </row>
     <row r="166" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P166" s="14"/>
-      <c r="Q166" s="14"/>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="12"/>
     </row>
     <row r="167" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P167" s="14"/>
-      <c r="Q167" s="14"/>
+      <c r="P167" s="12"/>
+      <c r="Q167" s="12"/>
     </row>
     <row r="168" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P168" s="14"/>
-      <c r="Q168" s="14"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="12"/>
     </row>
     <row r="169" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P169" s="14"/>
-      <c r="Q169" s="14"/>
+      <c r="P169" s="12"/>
+      <c r="Q169" s="12"/>
     </row>
     <row r="170" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P170" s="14"/>
-      <c r="Q170" s="14"/>
+      <c r="P170" s="12"/>
+      <c r="Q170" s="12"/>
     </row>
     <row r="171" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P171" s="14"/>
-      <c r="Q171" s="14"/>
+      <c r="P171" s="12"/>
+      <c r="Q171" s="12"/>
     </row>
     <row r="172" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P172" s="14"/>
-      <c r="Q172" s="14"/>
+      <c r="P172" s="12"/>
+      <c r="Q172" s="12"/>
     </row>
     <row r="173" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P173" s="14"/>
-      <c r="Q173" s="14"/>
+      <c r="P173" s="12"/>
+      <c r="Q173" s="12"/>
     </row>
     <row r="174" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P174" s="14"/>
-      <c r="Q174" s="14"/>
+      <c r="P174" s="12"/>
+      <c r="Q174" s="12"/>
     </row>
     <row r="175" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P175" s="14"/>
-      <c r="Q175" s="14"/>
+      <c r="P175" s="12"/>
+      <c r="Q175" s="12"/>
     </row>
     <row r="176" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P176" s="14"/>
-      <c r="Q176" s="14"/>
+      <c r="P176" s="12"/>
+      <c r="Q176" s="12"/>
     </row>
     <row r="177" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P177" s="14"/>
-      <c r="Q177" s="14"/>
+      <c r="P177" s="12"/>
+      <c r="Q177" s="12"/>
     </row>
     <row r="178" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P178" s="14"/>
-      <c r="Q178" s="14"/>
+      <c r="P178" s="12"/>
+      <c r="Q178" s="12"/>
     </row>
     <row r="179" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P179" s="14"/>
-      <c r="Q179" s="14"/>
+      <c r="P179" s="12"/>
+      <c r="Q179" s="12"/>
     </row>
     <row r="180" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P180" s="14"/>
-      <c r="Q180" s="14"/>
+      <c r="P180" s="12"/>
+      <c r="Q180" s="12"/>
     </row>
     <row r="181" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P181" s="14"/>
-      <c r="Q181" s="14"/>
+      <c r="P181" s="12"/>
+      <c r="Q181" s="12"/>
     </row>
     <row r="182" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P182" s="14"/>
-      <c r="Q182" s="14"/>
+      <c r="P182" s="12"/>
+      <c r="Q182" s="12"/>
     </row>
     <row r="183" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P183" s="14"/>
-      <c r="Q183" s="14"/>
+      <c r="P183" s="12"/>
+      <c r="Q183" s="12"/>
     </row>
     <row r="184" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P184" s="14"/>
-      <c r="Q184" s="14"/>
+      <c r="P184" s="12"/>
+      <c r="Q184" s="12"/>
     </row>
     <row r="185" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P185" s="14"/>
-      <c r="Q185" s="14"/>
+      <c r="P185" s="12"/>
+      <c r="Q185" s="12"/>
     </row>
     <row r="186" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P186" s="14"/>
-      <c r="Q186" s="14"/>
+      <c r="P186" s="12"/>
+      <c r="Q186" s="12"/>
     </row>
     <row r="187" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P187" s="14"/>
-      <c r="Q187" s="14"/>
+      <c r="P187" s="12"/>
+      <c r="Q187" s="12"/>
     </row>
     <row r="188" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P188" s="14"/>
-      <c r="Q188" s="14"/>
+      <c r="P188" s="12"/>
+      <c r="Q188" s="12"/>
     </row>
     <row r="189" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P189" s="14"/>
-      <c r="Q189" s="14"/>
+      <c r="P189" s="12"/>
+      <c r="Q189" s="12"/>
     </row>
     <row r="190" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P190" s="14"/>
-      <c r="Q190" s="14"/>
+      <c r="P190" s="12"/>
+      <c r="Q190" s="12"/>
     </row>
     <row r="191" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P191" s="14"/>
-      <c r="Q191" s="14"/>
+      <c r="P191" s="12"/>
+      <c r="Q191" s="12"/>
     </row>
     <row r="192" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P192" s="14"/>
-      <c r="Q192" s="14"/>
+      <c r="P192" s="12"/>
+      <c r="Q192" s="12"/>
     </row>
     <row r="193" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P193" s="14"/>
-      <c r="Q193" s="14"/>
+      <c r="P193" s="12"/>
+      <c r="Q193" s="12"/>
     </row>
     <row r="194" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P194" s="14"/>
-      <c r="Q194" s="14"/>
+      <c r="P194" s="12"/>
+      <c r="Q194" s="12"/>
     </row>
     <row r="195" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P195" s="14"/>
-      <c r="Q195" s="14"/>
+      <c r="P195" s="12"/>
+      <c r="Q195" s="12"/>
     </row>
     <row r="196" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P196" s="14"/>
-      <c r="Q196" s="14"/>
+      <c r="P196" s="12"/>
+      <c r="Q196" s="12"/>
     </row>
     <row r="197" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P197" s="14"/>
-      <c r="Q197" s="14"/>
+      <c r="P197" s="12"/>
+      <c r="Q197" s="12"/>
     </row>
     <row r="198" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P198" s="14"/>
-      <c r="Q198" s="14"/>
+      <c r="P198" s="12"/>
+      <c r="Q198" s="12"/>
     </row>
     <row r="199" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P199" s="14"/>
-      <c r="Q199" s="14"/>
+      <c r="P199" s="12"/>
+      <c r="Q199" s="12"/>
     </row>
     <row r="200" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P200" s="14"/>
-      <c r="Q200" s="14"/>
+      <c r="P200" s="12"/>
+      <c r="Q200" s="12"/>
     </row>
     <row r="201" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P201" s="14"/>
-      <c r="Q201" s="14"/>
+      <c r="P201" s="12"/>
+      <c r="Q201" s="12"/>
     </row>
     <row r="202" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P202" s="14"/>
-      <c r="Q202" s="14"/>
+      <c r="P202" s="12"/>
+      <c r="Q202" s="12"/>
     </row>
     <row r="203" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P203" s="14"/>
-      <c r="Q203" s="14"/>
+      <c r="P203" s="12"/>
+      <c r="Q203" s="12"/>
     </row>
     <row r="204" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P204" s="14"/>
-      <c r="Q204" s="14"/>
+      <c r="P204" s="12"/>
+      <c r="Q204" s="12"/>
     </row>
     <row r="205" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P205" s="14"/>
-      <c r="Q205" s="14"/>
+      <c r="P205" s="12"/>
+      <c r="Q205" s="12"/>
     </row>
     <row r="206" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P206" s="14"/>
-      <c r="Q206" s="14"/>
+      <c r="P206" s="12"/>
+      <c r="Q206" s="12"/>
     </row>
     <row r="207" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P207" s="14"/>
-      <c r="Q207" s="14"/>
+      <c r="P207" s="12"/>
+      <c r="Q207" s="12"/>
     </row>
     <row r="208" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P208" s="14"/>
-      <c r="Q208" s="14"/>
+      <c r="P208" s="12"/>
+      <c r="Q208" s="12"/>
     </row>
     <row r="209" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P209" s="14"/>
-      <c r="Q209" s="14"/>
+      <c r="P209" s="12"/>
+      <c r="Q209" s="12"/>
     </row>
     <row r="210" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P210" s="14"/>
-      <c r="Q210" s="14"/>
+      <c r="P210" s="12"/>
+      <c r="Q210" s="12"/>
     </row>
     <row r="211" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P211" s="14"/>
-      <c r="Q211" s="14"/>
+      <c r="P211" s="12"/>
+      <c r="Q211" s="12"/>
     </row>
     <row r="212" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P212" s="14"/>
-      <c r="Q212" s="14"/>
+      <c r="P212" s="12"/>
+      <c r="Q212" s="12"/>
     </row>
     <row r="213" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P213" s="14"/>
-      <c r="Q213" s="14"/>
+      <c r="P213" s="12"/>
+      <c r="Q213" s="12"/>
     </row>
     <row r="214" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P214" s="14"/>
-      <c r="Q214" s="14"/>
+      <c r="P214" s="12"/>
+      <c r="Q214" s="12"/>
     </row>
     <row r="215" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P215" s="14"/>
-      <c r="Q215" s="14"/>
+      <c r="P215" s="12"/>
+      <c r="Q215" s="12"/>
     </row>
     <row r="216" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P216" s="14"/>
-      <c r="Q216" s="14"/>
+      <c r="P216" s="12"/>
+      <c r="Q216" s="12"/>
     </row>
     <row r="217" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P217" s="14"/>
-      <c r="Q217" s="14"/>
+      <c r="P217" s="12"/>
+      <c r="Q217" s="12"/>
     </row>
     <row r="218" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P218" s="14"/>
-      <c r="Q218" s="14"/>
+      <c r="P218" s="12"/>
+      <c r="Q218" s="12"/>
     </row>
     <row r="219" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P219" s="14"/>
-      <c r="Q219" s="14"/>
+      <c r="P219" s="12"/>
+      <c r="Q219" s="12"/>
     </row>
     <row r="220" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P220" s="14"/>
-      <c r="Q220" s="14"/>
+      <c r="P220" s="12"/>
+      <c r="Q220" s="12"/>
     </row>
     <row r="221" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P221" s="14"/>
-      <c r="Q221" s="14"/>
+      <c r="P221" s="12"/>
+      <c r="Q221" s="12"/>
     </row>
     <row r="222" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P222" s="14"/>
-      <c r="Q222" s="14"/>
+      <c r="P222" s="12"/>
+      <c r="Q222" s="12"/>
     </row>
     <row r="223" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P223" s="14"/>
-      <c r="Q223" s="14"/>
+      <c r="P223" s="12"/>
+      <c r="Q223" s="12"/>
     </row>
     <row r="224" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P224" s="14"/>
-      <c r="Q224" s="14"/>
+      <c r="P224" s="12"/>
+      <c r="Q224" s="12"/>
     </row>
     <row r="225" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P225" s="14"/>
-      <c r="Q225" s="14"/>
+      <c r="P225" s="12"/>
+      <c r="Q225" s="12"/>
     </row>
     <row r="226" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P226" s="14"/>
-      <c r="Q226" s="14"/>
+      <c r="P226" s="12"/>
+      <c r="Q226" s="12"/>
     </row>
     <row r="227" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P227" s="14"/>
-      <c r="Q227" s="14"/>
+      <c r="P227" s="12"/>
+      <c r="Q227" s="12"/>
     </row>
     <row r="228" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P228" s="14"/>
-      <c r="Q228" s="14"/>
+      <c r="P228" s="12"/>
+      <c r="Q228" s="12"/>
     </row>
     <row r="229" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P229" s="14"/>
-      <c r="Q229" s="14"/>
+      <c r="P229" s="12"/>
+      <c r="Q229" s="12"/>
     </row>
     <row r="230" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P230" s="14"/>
-      <c r="Q230" s="14"/>
+      <c r="P230" s="12"/>
+      <c r="Q230" s="12"/>
     </row>
     <row r="231" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P231" s="14"/>
-      <c r="Q231" s="14"/>
+      <c r="P231" s="12"/>
+      <c r="Q231" s="12"/>
     </row>
     <row r="232" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P232" s="14"/>
-      <c r="Q232" s="14"/>
+      <c r="P232" s="12"/>
+      <c r="Q232" s="12"/>
     </row>
     <row r="233" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P233" s="14"/>
-      <c r="Q233" s="14"/>
+      <c r="P233" s="12"/>
+      <c r="Q233" s="12"/>
     </row>
     <row r="234" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P234" s="14"/>
-      <c r="Q234" s="14"/>
+      <c r="P234" s="12"/>
+      <c r="Q234" s="12"/>
     </row>
     <row r="235" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P235" s="14"/>
-      <c r="Q235" s="14"/>
+      <c r="P235" s="12"/>
+      <c r="Q235" s="12"/>
     </row>
     <row r="236" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P236" s="14"/>
-      <c r="Q236" s="14"/>
+      <c r="P236" s="12"/>
+      <c r="Q236" s="12"/>
     </row>
     <row r="237" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P237" s="14"/>
-      <c r="Q237" s="14"/>
+      <c r="P237" s="12"/>
+      <c r="Q237" s="12"/>
     </row>
     <row r="238" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P238" s="14"/>
-      <c r="Q238" s="14"/>
+      <c r="P238" s="12"/>
+      <c r="Q238" s="12"/>
     </row>
     <row r="239" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P239" s="14"/>
-      <c r="Q239" s="14"/>
+      <c r="P239" s="12"/>
+      <c r="Q239" s="12"/>
     </row>
     <row r="240" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P240" s="14"/>
-      <c r="Q240" s="14"/>
+      <c r="P240" s="12"/>
+      <c r="Q240" s="12"/>
     </row>
     <row r="241" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P241" s="14"/>
-      <c r="Q241" s="14"/>
+      <c r="P241" s="12"/>
+      <c r="Q241" s="12"/>
     </row>
     <row r="242" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P242" s="14"/>
-      <c r="Q242" s="14"/>
+      <c r="P242" s="12"/>
+      <c r="Q242" s="12"/>
     </row>
     <row r="243" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P243" s="14"/>
-      <c r="Q243" s="14"/>
+      <c r="P243" s="12"/>
+      <c r="Q243" s="12"/>
     </row>
     <row r="244" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P244" s="14"/>
-      <c r="Q244" s="14"/>
+      <c r="P244" s="12"/>
+      <c r="Q244" s="12"/>
     </row>
     <row r="245" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P245" s="14"/>
-      <c r="Q245" s="14"/>
+      <c r="P245" s="12"/>
+      <c r="Q245" s="12"/>
     </row>
     <row r="246" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P246" s="14"/>
-      <c r="Q246" s="14"/>
+      <c r="P246" s="12"/>
+      <c r="Q246" s="12"/>
     </row>
     <row r="247" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P247" s="14"/>
-      <c r="Q247" s="14"/>
+      <c r="P247" s="12"/>
+      <c r="Q247" s="12"/>
     </row>
     <row r="248" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P248" s="14"/>
-      <c r="Q248" s="14"/>
+      <c r="P248" s="12"/>
+      <c r="Q248" s="12"/>
     </row>
     <row r="249" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P249" s="14"/>
-      <c r="Q249" s="14"/>
+      <c r="P249" s="12"/>
+      <c r="Q249" s="12"/>
     </row>
     <row r="250" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P250" s="14"/>
-      <c r="Q250" s="14"/>
+      <c r="P250" s="12"/>
+      <c r="Q250" s="12"/>
     </row>
     <row r="251" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P251" s="14"/>
-      <c r="Q251" s="14"/>
+      <c r="P251" s="12"/>
+      <c r="Q251" s="12"/>
     </row>
     <row r="252" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P252" s="14"/>
-      <c r="Q252" s="14"/>
+      <c r="P252" s="12"/>
+      <c r="Q252" s="12"/>
     </row>
     <row r="253" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P253" s="14"/>
-      <c r="Q253" s="14"/>
+      <c r="P253" s="12"/>
+      <c r="Q253" s="12"/>
     </row>
     <row r="254" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P254" s="14"/>
-      <c r="Q254" s="14"/>
+      <c r="P254" s="12"/>
+      <c r="Q254" s="12"/>
     </row>
     <row r="255" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P255" s="14"/>
-      <c r="Q255" s="14"/>
+      <c r="P255" s="12"/>
+      <c r="Q255" s="12"/>
     </row>
     <row r="256" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P256" s="14"/>
-      <c r="Q256" s="14"/>
+      <c r="P256" s="12"/>
+      <c r="Q256" s="12"/>
     </row>
     <row r="257" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P257" s="14"/>
-      <c r="Q257" s="14"/>
+      <c r="P257" s="12"/>
+      <c r="Q257" s="12"/>
     </row>
     <row r="258" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P258" s="14"/>
-      <c r="Q258" s="14"/>
+      <c r="P258" s="12"/>
+      <c r="Q258" s="12"/>
     </row>
     <row r="259" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P259" s="14"/>
-      <c r="Q259" s="14"/>
+      <c r="P259" s="12"/>
+      <c r="Q259" s="12"/>
     </row>
     <row r="260" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P260" s="14"/>
-      <c r="Q260" s="14"/>
+      <c r="P260" s="12"/>
+      <c r="Q260" s="12"/>
     </row>
     <row r="261" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P261" s="14"/>
-      <c r="Q261" s="14"/>
+      <c r="P261" s="12"/>
+      <c r="Q261" s="12"/>
     </row>
     <row r="262" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P262" s="14"/>
-      <c r="Q262" s="14"/>
+      <c r="P262" s="12"/>
+      <c r="Q262" s="12"/>
     </row>
     <row r="263" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P263" s="14"/>
-      <c r="Q263" s="14"/>
+      <c r="P263" s="12"/>
+      <c r="Q263" s="12"/>
     </row>
     <row r="264" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P264" s="14"/>
-      <c r="Q264" s="14"/>
+      <c r="P264" s="12"/>
+      <c r="Q264" s="12"/>
     </row>
     <row r="265" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P265" s="14"/>
-      <c r="Q265" s="14"/>
+      <c r="P265" s="12"/>
+      <c r="Q265" s="12"/>
     </row>
     <row r="266" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P266" s="14"/>
-      <c r="Q266" s="14"/>
+      <c r="P266" s="12"/>
+      <c r="Q266" s="12"/>
     </row>
     <row r="267" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P267" s="14"/>
-      <c r="Q267" s="14"/>
+      <c r="P267" s="12"/>
+      <c r="Q267" s="12"/>
     </row>
     <row r="268" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P268" s="14"/>
-      <c r="Q268" s="14"/>
+      <c r="P268" s="12"/>
+      <c r="Q268" s="12"/>
     </row>
     <row r="269" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P269" s="14"/>
-      <c r="Q269" s="14"/>
+      <c r="P269" s="12"/>
+      <c r="Q269" s="12"/>
     </row>
     <row r="270" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P270" s="14"/>
-      <c r="Q270" s="14"/>
+      <c r="P270" s="12"/>
+      <c r="Q270" s="12"/>
     </row>
     <row r="271" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P271" s="14"/>
-      <c r="Q271" s="14"/>
+      <c r="P271" s="12"/>
+      <c r="Q271" s="12"/>
     </row>
     <row r="272" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P272" s="14"/>
-      <c r="Q272" s="14"/>
+      <c r="P272" s="12"/>
+      <c r="Q272" s="12"/>
     </row>
     <row r="273" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P273" s="14"/>
-      <c r="Q273" s="14"/>
+      <c r="P273" s="12"/>
+      <c r="Q273" s="12"/>
     </row>
     <row r="274" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P274" s="14"/>
-      <c r="Q274" s="14"/>
+      <c r="P274" s="12"/>
+      <c r="Q274" s="12"/>
     </row>
     <row r="275" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P275" s="14"/>
-      <c r="Q275" s="14"/>
+      <c r="P275" s="12"/>
+      <c r="Q275" s="12"/>
     </row>
     <row r="276" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P276" s="14"/>
-      <c r="Q276" s="14"/>
+      <c r="P276" s="12"/>
+      <c r="Q276" s="12"/>
     </row>
     <row r="277" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P277" s="14"/>
-      <c r="Q277" s="14"/>
+      <c r="P277" s="12"/>
+      <c r="Q277" s="12"/>
     </row>
     <row r="278" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P278" s="14"/>
-      <c r="Q278" s="14"/>
+      <c r="P278" s="12"/>
+      <c r="Q278" s="12"/>
     </row>
     <row r="279" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P279" s="14"/>
-      <c r="Q279" s="14"/>
+      <c r="P279" s="12"/>
+      <c r="Q279" s="12"/>
     </row>
     <row r="280" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P280" s="14"/>
-      <c r="Q280" s="14"/>
+      <c r="P280" s="12"/>
+      <c r="Q280" s="12"/>
     </row>
     <row r="281" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P281" s="14"/>
-      <c r="Q281" s="14"/>
+      <c r="P281" s="12"/>
+      <c r="Q281" s="12"/>
     </row>
     <row r="282" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P282" s="14"/>
-      <c r="Q282" s="14"/>
+      <c r="P282" s="12"/>
+      <c r="Q282" s="12"/>
     </row>
     <row r="283" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P283" s="14"/>
-      <c r="Q283" s="14"/>
+      <c r="P283" s="12"/>
+      <c r="Q283" s="12"/>
     </row>
     <row r="284" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P284" s="14"/>
-      <c r="Q284" s="14"/>
+      <c r="P284" s="12"/>
+      <c r="Q284" s="12"/>
     </row>
     <row r="285" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P285" s="14"/>
-      <c r="Q285" s="14"/>
+      <c r="P285" s="12"/>
+      <c r="Q285" s="12"/>
     </row>
     <row r="286" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P286" s="14"/>
-      <c r="Q286" s="14"/>
+      <c r="P286" s="12"/>
+      <c r="Q286" s="12"/>
     </row>
     <row r="287" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P287" s="14"/>
-      <c r="Q287" s="14"/>
+      <c r="P287" s="12"/>
+      <c r="Q287" s="12"/>
     </row>
     <row r="288" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P288" s="14"/>
-      <c r="Q288" s="14"/>
+      <c r="P288" s="12"/>
+      <c r="Q288" s="12"/>
     </row>
     <row r="289" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P289" s="14"/>
-      <c r="Q289" s="14"/>
+      <c r="P289" s="12"/>
+      <c r="Q289" s="12"/>
     </row>
     <row r="290" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P290" s="14"/>
-      <c r="Q290" s="14"/>
+      <c r="P290" s="12"/>
+      <c r="Q290" s="12"/>
     </row>
     <row r="291" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P291" s="14"/>
-      <c r="Q291" s="14"/>
+      <c r="P291" s="12"/>
+      <c r="Q291" s="12"/>
     </row>
     <row r="292" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P292" s="14"/>
-      <c r="Q292" s="14"/>
+      <c r="P292" s="12"/>
+      <c r="Q292" s="12"/>
     </row>
     <row r="293" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P293" s="14"/>
-      <c r="Q293" s="14"/>
+      <c r="P293" s="12"/>
+      <c r="Q293" s="12"/>
     </row>
     <row r="294" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P294" s="14"/>
-      <c r="Q294" s="14"/>
+      <c r="P294" s="12"/>
+      <c r="Q294" s="12"/>
     </row>
     <row r="295" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P295" s="14"/>
-      <c r="Q295" s="14"/>
+      <c r="P295" s="12"/>
+      <c r="Q295" s="12"/>
     </row>
     <row r="296" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P296" s="14"/>
-      <c r="Q296" s="14"/>
+      <c r="P296" s="12"/>
+      <c r="Q296" s="12"/>
     </row>
     <row r="297" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P297" s="14"/>
-      <c r="Q297" s="14"/>
+      <c r="P297" s="12"/>
+      <c r="Q297" s="12"/>
     </row>
     <row r="298" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P298" s="14"/>
-      <c r="Q298" s="14"/>
+      <c r="P298" s="12"/>
+      <c r="Q298" s="12"/>
     </row>
     <row r="299" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P299" s="14"/>
-      <c r="Q299" s="14"/>
+      <c r="P299" s="12"/>
+      <c r="Q299" s="12"/>
     </row>
     <row r="300" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P300" s="14"/>
-      <c r="Q300" s="14"/>
+      <c r="P300" s="12"/>
+      <c r="Q300" s="12"/>
     </row>
     <row r="301" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P301" s="14"/>
-      <c r="Q301" s="14"/>
+      <c r="P301" s="12"/>
+      <c r="Q301" s="12"/>
     </row>
     <row r="302" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P302" s="14"/>
-      <c r="Q302" s="14"/>
+      <c r="P302" s="12"/>
+      <c r="Q302" s="12"/>
     </row>
     <row r="303" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P303" s="14"/>
-      <c r="Q303" s="14"/>
+      <c r="P303" s="12"/>
+      <c r="Q303" s="12"/>
     </row>
     <row r="304" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P304" s="14"/>
-      <c r="Q304" s="14"/>
+      <c r="P304" s="12"/>
+      <c r="Q304" s="12"/>
     </row>
     <row r="305" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P305" s="14"/>
-      <c r="Q305" s="14"/>
+      <c r="P305" s="12"/>
+      <c r="Q305" s="12"/>
     </row>
     <row r="306" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P306" s="14"/>
-      <c r="Q306" s="14"/>
+      <c r="P306" s="12"/>
+      <c r="Q306" s="12"/>
     </row>
     <row r="307" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P307" s="14"/>
-      <c r="Q307" s="14"/>
+      <c r="P307" s="12"/>
+      <c r="Q307" s="12"/>
     </row>
     <row r="308" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P308" s="14"/>
-      <c r="Q308" s="14"/>
+      <c r="P308" s="12"/>
+      <c r="Q308" s="12"/>
     </row>
     <row r="309" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P309" s="14"/>
-      <c r="Q309" s="14"/>
+      <c r="P309" s="12"/>
+      <c r="Q309" s="12"/>
     </row>
     <row r="310" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P310" s="14"/>
-      <c r="Q310" s="14"/>
+      <c r="P310" s="12"/>
+      <c r="Q310" s="12"/>
     </row>
     <row r="311" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P311" s="14"/>
-      <c r="Q311" s="14"/>
+      <c r="P311" s="12"/>
+      <c r="Q311" s="12"/>
     </row>
     <row r="312" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P312" s="14"/>
-      <c r="Q312" s="14"/>
+      <c r="P312" s="12"/>
+      <c r="Q312" s="12"/>
     </row>
     <row r="313" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P313" s="14"/>
-      <c r="Q313" s="14"/>
+      <c r="P313" s="12"/>
+      <c r="Q313" s="12"/>
     </row>
     <row r="314" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P314" s="14"/>
-      <c r="Q314" s="14"/>
+      <c r="P314" s="12"/>
+      <c r="Q314" s="12"/>
     </row>
     <row r="315" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P315" s="14"/>
-      <c r="Q315" s="14"/>
+      <c r="P315" s="12"/>
+      <c r="Q315" s="12"/>
     </row>
     <row r="316" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P316" s="14"/>
-      <c r="Q316" s="14"/>
+      <c r="P316" s="12"/>
+      <c r="Q316" s="12"/>
     </row>
     <row r="317" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P317" s="14"/>
-      <c r="Q317" s="14"/>
+      <c r="P317" s="12"/>
+      <c r="Q317" s="12"/>
     </row>
     <row r="318" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P318" s="14"/>
-      <c r="Q318" s="14"/>
+      <c r="P318" s="12"/>
+      <c r="Q318" s="12"/>
     </row>
     <row r="319" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P319" s="14"/>
-      <c r="Q319" s="14"/>
+      <c r="P319" s="12"/>
+      <c r="Q319" s="12"/>
     </row>
     <row r="320" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P320" s="14"/>
-      <c r="Q320" s="14"/>
+      <c r="P320" s="12"/>
+      <c r="Q320" s="12"/>
     </row>
     <row r="321" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P321" s="14"/>
-      <c r="Q321" s="14"/>
+      <c r="P321" s="12"/>
+      <c r="Q321" s="12"/>
     </row>
     <row r="322" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P322" s="14"/>
-      <c r="Q322" s="14"/>
+      <c r="P322" s="12"/>
+      <c r="Q322" s="12"/>
     </row>
     <row r="323" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P323" s="14"/>
-      <c r="Q323" s="14"/>
+      <c r="P323" s="12"/>
+      <c r="Q323" s="12"/>
     </row>
     <row r="324" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P324" s="14"/>
-      <c r="Q324" s="14"/>
+      <c r="P324" s="12"/>
+      <c r="Q324" s="12"/>
     </row>
     <row r="325" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P325" s="14"/>
-      <c r="Q325" s="14"/>
+      <c r="P325" s="12"/>
+      <c r="Q325" s="12"/>
     </row>
     <row r="326" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P326" s="14"/>
-      <c r="Q326" s="14"/>
+      <c r="P326" s="12"/>
+      <c r="Q326" s="12"/>
     </row>
     <row r="327" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P327" s="14"/>
-      <c r="Q327" s="14"/>
+      <c r="P327" s="12"/>
+      <c r="Q327" s="12"/>
     </row>
     <row r="328" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P328" s="14"/>
-      <c r="Q328" s="14"/>
+      <c r="P328" s="12"/>
+      <c r="Q328" s="12"/>
     </row>
     <row r="329" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P329" s="14"/>
-      <c r="Q329" s="14"/>
+      <c r="P329" s="12"/>
+      <c r="Q329" s="12"/>
     </row>
     <row r="330" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P330" s="14"/>
-      <c r="Q330" s="14"/>
+      <c r="P330" s="12"/>
+      <c r="Q330" s="12"/>
     </row>
     <row r="331" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P331" s="14"/>
-      <c r="Q331" s="14"/>
+      <c r="P331" s="12"/>
+      <c r="Q331" s="12"/>
     </row>
     <row r="332" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P332" s="14"/>
-      <c r="Q332" s="14"/>
+      <c r="P332" s="12"/>
+      <c r="Q332" s="12"/>
     </row>
     <row r="333" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P333" s="14"/>
-      <c r="Q333" s="14"/>
+      <c r="P333" s="12"/>
+      <c r="Q333" s="12"/>
     </row>
     <row r="334" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P334" s="14"/>
-      <c r="Q334" s="14"/>
+      <c r="P334" s="12"/>
+      <c r="Q334" s="12"/>
     </row>
     <row r="335" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P335" s="14"/>
-      <c r="Q335" s="14"/>
+      <c r="P335" s="12"/>
+      <c r="Q335" s="12"/>
     </row>
     <row r="336" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P336" s="14"/>
-      <c r="Q336" s="14"/>
+      <c r="P336" s="12"/>
+      <c r="Q336" s="12"/>
     </row>
     <row r="337" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P337" s="14"/>
-      <c r="Q337" s="14"/>
+      <c r="P337" s="12"/>
+      <c r="Q337" s="12"/>
     </row>
     <row r="338" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P338" s="14"/>
-      <c r="Q338" s="14"/>
+      <c r="P338" s="12"/>
+      <c r="Q338" s="12"/>
     </row>
     <row r="339" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P339" s="14"/>
-      <c r="Q339" s="14"/>
+      <c r="P339" s="12"/>
+      <c r="Q339" s="12"/>
     </row>
     <row r="340" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P340" s="14"/>
-      <c r="Q340" s="14"/>
+      <c r="P340" s="12"/>
+      <c r="Q340" s="12"/>
     </row>
     <row r="341" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P341" s="14"/>
-      <c r="Q341" s="14"/>
+      <c r="P341" s="12"/>
+      <c r="Q341" s="12"/>
     </row>
     <row r="342" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P342" s="14"/>
-      <c r="Q342" s="14"/>
+      <c r="P342" s="12"/>
+      <c r="Q342" s="12"/>
     </row>
     <row r="343" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P343" s="14"/>
-      <c r="Q343" s="14"/>
+      <c r="P343" s="12"/>
+      <c r="Q343" s="12"/>
     </row>
     <row r="344" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P344" s="14"/>
-      <c r="Q344" s="14"/>
+      <c r="P344" s="12"/>
+      <c r="Q344" s="12"/>
     </row>
     <row r="345" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P345" s="14"/>
-      <c r="Q345" s="14"/>
+      <c r="P345" s="12"/>
+      <c r="Q345" s="12"/>
     </row>
     <row r="346" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P346" s="14"/>
-      <c r="Q346" s="14"/>
+      <c r="P346" s="12"/>
+      <c r="Q346" s="12"/>
     </row>
     <row r="347" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P347" s="14"/>
-      <c r="Q347" s="14"/>
+      <c r="P347" s="12"/>
+      <c r="Q347" s="12"/>
     </row>
     <row r="348" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P348" s="14"/>
-      <c r="Q348" s="14"/>
+      <c r="P348" s="12"/>
+      <c r="Q348" s="12"/>
     </row>
     <row r="349" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P349" s="14"/>
-      <c r="Q349" s="14"/>
+      <c r="P349" s="12"/>
+      <c r="Q349" s="12"/>
     </row>
     <row r="350" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P350" s="14"/>
-      <c r="Q350" s="14"/>
+      <c r="P350" s="12"/>
+      <c r="Q350" s="12"/>
     </row>
     <row r="351" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P351" s="14"/>
-      <c r="Q351" s="14"/>
+      <c r="P351" s="12"/>
+      <c r="Q351" s="12"/>
     </row>
     <row r="352" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P352" s="14"/>
-      <c r="Q352" s="14"/>
+      <c r="P352" s="12"/>
+      <c r="Q352" s="12"/>
     </row>
     <row r="353" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P353" s="14"/>
-      <c r="Q353" s="14"/>
+      <c r="P353" s="12"/>
+      <c r="Q353" s="12"/>
     </row>
     <row r="354" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P354" s="14"/>
-      <c r="Q354" s="14"/>
+      <c r="P354" s="12"/>
+      <c r="Q354" s="12"/>
     </row>
     <row r="355" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P355" s="14"/>
-      <c r="Q355" s="14"/>
+      <c r="P355" s="12"/>
+      <c r="Q355" s="12"/>
     </row>
     <row r="356" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P356" s="14"/>
-      <c r="Q356" s="14"/>
+      <c r="P356" s="12"/>
+      <c r="Q356" s="12"/>
     </row>
     <row r="357" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P357" s="14"/>
-      <c r="Q357" s="14"/>
+      <c r="P357" s="12"/>
+      <c r="Q357" s="12"/>
     </row>
     <row r="358" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P358" s="14"/>
-      <c r="Q358" s="14"/>
+      <c r="P358" s="12"/>
+      <c r="Q358" s="12"/>
     </row>
     <row r="359" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P359" s="14"/>
-      <c r="Q359" s="14"/>
+      <c r="P359" s="12"/>
+      <c r="Q359" s="12"/>
     </row>
     <row r="360" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P360" s="14"/>
-      <c r="Q360" s="14"/>
+      <c r="P360" s="12"/>
+      <c r="Q360" s="12"/>
     </row>
     <row r="361" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P361" s="14"/>
-      <c r="Q361" s="14"/>
+      <c r="P361" s="12"/>
+      <c r="Q361" s="12"/>
     </row>
     <row r="362" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P362" s="14"/>
-      <c r="Q362" s="14"/>
+      <c r="P362" s="12"/>
+      <c r="Q362" s="12"/>
     </row>
     <row r="363" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P363" s="14"/>
-      <c r="Q363" s="14"/>
+      <c r="P363" s="12"/>
+      <c r="Q363" s="12"/>
     </row>
     <row r="364" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P364" s="14"/>
-      <c r="Q364" s="14"/>
+      <c r="P364" s="12"/>
+      <c r="Q364" s="12"/>
     </row>
     <row r="365" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P365" s="14"/>
-      <c r="Q365" s="14"/>
+      <c r="P365" s="12"/>
+      <c r="Q365" s="12"/>
     </row>
     <row r="366" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P366" s="14"/>
-      <c r="Q366" s="14"/>
+      <c r="P366" s="12"/>
+      <c r="Q366" s="12"/>
     </row>
     <row r="367" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P367" s="14"/>
-      <c r="Q367" s="14"/>
+      <c r="P367" s="12"/>
+      <c r="Q367" s="12"/>
     </row>
     <row r="368" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P368" s="14"/>
-      <c r="Q368" s="14"/>
+      <c r="P368" s="12"/>
+      <c r="Q368" s="12"/>
     </row>
     <row r="369" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P369" s="14"/>
-      <c r="Q369" s="14"/>
+      <c r="P369" s="12"/>
+      <c r="Q369" s="12"/>
     </row>
     <row r="370" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P370" s="14"/>
-      <c r="Q370" s="14"/>
+      <c r="P370" s="12"/>
+      <c r="Q370" s="12"/>
     </row>
     <row r="371" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P371" s="14"/>
-      <c r="Q371" s="14"/>
+      <c r="P371" s="12"/>
+      <c r="Q371" s="12"/>
     </row>
     <row r="372" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P372" s="14"/>
-      <c r="Q372" s="14"/>
+      <c r="P372" s="12"/>
+      <c r="Q372" s="12"/>
     </row>
     <row r="373" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P373" s="14"/>
-      <c r="Q373" s="14"/>
+      <c r="P373" s="12"/>
+      <c r="Q373" s="12"/>
     </row>
     <row r="374" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P374" s="14"/>
-      <c r="Q374" s="14"/>
+      <c r="P374" s="12"/>
+      <c r="Q374" s="12"/>
     </row>
     <row r="375" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P375" s="14"/>
-      <c r="Q375" s="14"/>
+      <c r="P375" s="12"/>
+      <c r="Q375" s="12"/>
     </row>
     <row r="376" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P376" s="14"/>
-      <c r="Q376" s="14"/>
+      <c r="P376" s="12"/>
+      <c r="Q376" s="12"/>
     </row>
     <row r="377" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P377" s="14"/>
-      <c r="Q377" s="14"/>
+      <c r="P377" s="12"/>
+      <c r="Q377" s="12"/>
     </row>
     <row r="378" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P378" s="14"/>
-      <c r="Q378" s="14"/>
+      <c r="P378" s="12"/>
+      <c r="Q378" s="12"/>
     </row>
     <row r="379" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P379" s="14"/>
-      <c r="Q379" s="14"/>
+      <c r="P379" s="12"/>
+      <c r="Q379" s="12"/>
     </row>
     <row r="380" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P380" s="14"/>
-      <c r="Q380" s="14"/>
+      <c r="P380" s="12"/>
+      <c r="Q380" s="12"/>
     </row>
     <row r="381" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P381" s="14"/>
-      <c r="Q381" s="14"/>
+      <c r="P381" s="12"/>
+      <c r="Q381" s="12"/>
     </row>
     <row r="382" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P382" s="14"/>
-      <c r="Q382" s="14"/>
+      <c r="P382" s="12"/>
+      <c r="Q382" s="12"/>
     </row>
     <row r="383" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P383" s="14"/>
-      <c r="Q383" s="14"/>
+      <c r="P383" s="12"/>
+      <c r="Q383" s="12"/>
     </row>
     <row r="384" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P384" s="14"/>
-      <c r="Q384" s="14"/>
+      <c r="P384" s="12"/>
+      <c r="Q384" s="12"/>
     </row>
     <row r="385" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P385" s="14"/>
-      <c r="Q385" s="14"/>
+      <c r="P385" s="12"/>
+      <c r="Q385" s="12"/>
     </row>
     <row r="386" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P386" s="14"/>
-      <c r="Q386" s="14"/>
+      <c r="P386" s="12"/>
+      <c r="Q386" s="12"/>
     </row>
     <row r="387" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P387" s="14"/>
-      <c r="Q387" s="14"/>
+      <c r="P387" s="12"/>
+      <c r="Q387" s="12"/>
     </row>
     <row r="388" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P388" s="14"/>
-      <c r="Q388" s="14"/>
+      <c r="P388" s="12"/>
+      <c r="Q388" s="12"/>
     </row>
     <row r="389" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P389" s="14"/>
-      <c r="Q389" s="14"/>
+      <c r="P389" s="12"/>
+      <c r="Q389" s="12"/>
     </row>
     <row r="390" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P390" s="14"/>
-      <c r="Q390" s="14"/>
+      <c r="P390" s="12"/>
+      <c r="Q390" s="12"/>
     </row>
     <row r="391" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P391" s="14"/>
-      <c r="Q391" s="14"/>
+      <c r="P391" s="12"/>
+      <c r="Q391" s="12"/>
     </row>
     <row r="392" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P392" s="14"/>
-      <c r="Q392" s="14"/>
+      <c r="P392" s="12"/>
+      <c r="Q392" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
@@ -5513,18 +5489,6 @@
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H46">
@@ -6205,7 +6169,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B25" t="s">
         <v>694</v>
@@ -6374,8 +6338,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BV611"/>
   <sheetViews>
-    <sheetView topLeftCell="BI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BR28" sqref="BR28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6409,11 +6373,11 @@
       <c r="BM1" t="s">
         <v>38</v>
       </c>
-      <c r="BN1" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="BO1" s="14" t="s">
-        <v>809</v>
+      <c r="BN1" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="BO1" s="12" t="s">
+        <v>806</v>
       </c>
       <c r="BP1" t="s">
         <v>27</v>
@@ -6444,11 +6408,11 @@
       <c r="BM2" t="s">
         <v>39</v>
       </c>
-      <c r="BN2" s="14" t="s">
-        <v>810</v>
-      </c>
-      <c r="BO2" s="14" t="s">
-        <v>810</v>
+      <c r="BN2" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="BO2" s="12" t="s">
+        <v>807</v>
       </c>
       <c r="BP2" t="s">
         <v>28</v>
@@ -6479,11 +6443,11 @@
       <c r="BM3" t="s">
         <v>40</v>
       </c>
-      <c r="BN3" s="14" t="s">
-        <v>811</v>
-      </c>
-      <c r="BO3" s="14" t="s">
-        <v>811</v>
+      <c r="BN3" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="BO3" s="12" t="s">
+        <v>808</v>
       </c>
       <c r="BP3" t="s">
         <v>29</v>
@@ -6514,11 +6478,11 @@
       <c r="BM4" t="s">
         <v>41</v>
       </c>
-      <c r="BN4" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="BO4" s="14" t="s">
-        <v>812</v>
+      <c r="BN4" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="BO4" s="12" t="s">
+        <v>809</v>
       </c>
       <c r="BR4" s="5" t="s">
         <v>20</v>
@@ -6543,11 +6507,11 @@
       <c r="BM5" t="s">
         <v>42</v>
       </c>
-      <c r="BN5" s="14" t="s">
-        <v>813</v>
-      </c>
-      <c r="BO5" s="14" t="s">
-        <v>813</v>
+      <c r="BN5" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="BO5" s="12" t="s">
+        <v>810</v>
       </c>
       <c r="BR5" s="5" t="s">
         <v>21</v>
@@ -6572,11 +6536,11 @@
       <c r="BM6" t="s">
         <v>43</v>
       </c>
-      <c r="BN6" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="BO6" s="14" t="s">
-        <v>814</v>
+      <c r="BN6" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="BO6" s="12" t="s">
+        <v>811</v>
       </c>
       <c r="BS6" t="s">
         <v>89</v>
@@ -6595,11 +6559,11 @@
       <c r="BM7" t="s">
         <v>44</v>
       </c>
-      <c r="BN7" s="14" t="s">
-        <v>815</v>
-      </c>
-      <c r="BO7" s="14" t="s">
-        <v>815</v>
+      <c r="BN7" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="BO7" s="12" t="s">
+        <v>812</v>
       </c>
       <c r="BS7" t="s">
         <v>90</v>
@@ -6618,11 +6582,11 @@
       <c r="BM8" t="s">
         <v>45</v>
       </c>
-      <c r="BN8" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="BO8" s="14" t="s">
-        <v>816</v>
+      <c r="BN8" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="BO8" s="12" t="s">
+        <v>813</v>
       </c>
       <c r="BS8" t="s">
         <v>91</v>
@@ -6641,11 +6605,11 @@
       <c r="BM9" t="s">
         <v>46</v>
       </c>
-      <c r="BN9" s="14" t="s">
-        <v>817</v>
-      </c>
-      <c r="BO9" s="14" t="s">
-        <v>817</v>
+      <c r="BN9" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="BO9" s="12" t="s">
+        <v>814</v>
       </c>
       <c r="BS9" t="s">
         <v>92</v>
@@ -6664,11 +6628,11 @@
       <c r="BM10" t="s">
         <v>47</v>
       </c>
-      <c r="BN10" s="14" t="s">
-        <v>818</v>
-      </c>
-      <c r="BO10" s="14" t="s">
-        <v>818</v>
+      <c r="BN10" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="BO10" s="12" t="s">
+        <v>815</v>
       </c>
       <c r="BS10" t="s">
         <v>93</v>
@@ -6687,11 +6651,11 @@
       <c r="BM11" t="s">
         <v>48</v>
       </c>
-      <c r="BN11" s="14" t="s">
-        <v>819</v>
-      </c>
-      <c r="BO11" s="14" t="s">
-        <v>819</v>
+      <c r="BN11" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="BO11" s="12" t="s">
+        <v>816</v>
       </c>
       <c r="BS11" t="s">
         <v>94</v>
@@ -6710,11 +6674,11 @@
       <c r="BM12" t="s">
         <v>49</v>
       </c>
-      <c r="BN12" s="14" t="s">
-        <v>819</v>
-      </c>
-      <c r="BO12" s="14" t="s">
-        <v>819</v>
+      <c r="BN12" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="BO12" s="12" t="s">
+        <v>816</v>
       </c>
       <c r="BS12" t="s">
         <v>95</v>
@@ -6733,11 +6697,11 @@
       <c r="BM13" t="s">
         <v>50</v>
       </c>
-      <c r="BN13" s="14" t="s">
-        <v>820</v>
-      </c>
-      <c r="BO13" s="14" t="s">
-        <v>820</v>
+      <c r="BN13" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="BO13" s="12" t="s">
+        <v>817</v>
       </c>
       <c r="BS13" t="s">
         <v>96</v>
@@ -6753,11 +6717,11 @@
       </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BN14" s="14" t="s">
-        <v>821</v>
-      </c>
-      <c r="BO14" s="14" t="s">
-        <v>821</v>
+      <c r="BN14" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="BO14" s="12" t="s">
+        <v>818</v>
       </c>
       <c r="BS14" t="s">
         <v>97</v>
@@ -6773,11 +6737,11 @@
       </c>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BN15" s="14" t="s">
-        <v>822</v>
-      </c>
-      <c r="BO15" s="14" t="s">
-        <v>822</v>
+      <c r="BN15" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="BO15" s="12" t="s">
+        <v>819</v>
       </c>
       <c r="BS15" t="s">
         <v>98</v>
@@ -6793,11 +6757,11 @@
       </c>
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BN16" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="BO16" s="14" t="s">
-        <v>823</v>
+      <c r="BN16" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="BO16" s="12" t="s">
+        <v>820</v>
       </c>
       <c r="BS16" t="s">
         <v>99</v>
@@ -6813,11 +6777,11 @@
       </c>
     </row>
     <row r="17" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN17" s="14" t="s">
-        <v>824</v>
-      </c>
-      <c r="BO17" s="14" t="s">
-        <v>824</v>
+      <c r="BN17" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="BO17" s="12" t="s">
+        <v>821</v>
       </c>
       <c r="BS17" t="s">
         <v>100</v>
@@ -6833,11 +6797,11 @@
       </c>
     </row>
     <row r="18" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN18" s="14" t="s">
-        <v>825</v>
-      </c>
-      <c r="BO18" s="14" t="s">
-        <v>825</v>
+      <c r="BN18" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="BO18" s="12" t="s">
+        <v>822</v>
       </c>
       <c r="BS18" t="s">
         <v>101</v>
@@ -6853,11 +6817,11 @@
       </c>
     </row>
     <row r="19" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN19" s="14" t="s">
-        <v>826</v>
-      </c>
-      <c r="BO19" s="14" t="s">
-        <v>826</v>
+      <c r="BN19" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="BO19" s="12" t="s">
+        <v>823</v>
       </c>
       <c r="BS19" t="s">
         <v>102</v>
@@ -6873,11 +6837,11 @@
       </c>
     </row>
     <row r="20" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN20" s="14" t="s">
-        <v>827</v>
-      </c>
-      <c r="BO20" s="14" t="s">
-        <v>827</v>
+      <c r="BN20" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="BO20" s="12" t="s">
+        <v>824</v>
       </c>
       <c r="BS20" t="s">
         <v>103</v>
@@ -6893,11 +6857,11 @@
       </c>
     </row>
     <row r="21" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN21" s="14" t="s">
-        <v>828</v>
-      </c>
-      <c r="BO21" s="14" t="s">
-        <v>828</v>
+      <c r="BN21" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="BO21" s="12" t="s">
+        <v>825</v>
       </c>
       <c r="BS21" t="s">
         <v>104</v>
@@ -6913,11 +6877,11 @@
       </c>
     </row>
     <row r="22" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN22" s="14" t="s">
-        <v>829</v>
-      </c>
-      <c r="BO22" s="14" t="s">
-        <v>829</v>
+      <c r="BN22" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="BO22" s="12" t="s">
+        <v>826</v>
       </c>
       <c r="BS22" t="s">
         <v>105</v>
@@ -6933,11 +6897,11 @@
       </c>
     </row>
     <row r="23" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN23" s="14" t="s">
-        <v>830</v>
-      </c>
-      <c r="BO23" s="14" t="s">
-        <v>830</v>
+      <c r="BN23" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="BO23" s="12" t="s">
+        <v>827</v>
       </c>
       <c r="BS23" t="s">
         <v>106</v>
@@ -6953,11 +6917,11 @@
       </c>
     </row>
     <row r="24" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN24" s="14" t="s">
-        <v>831</v>
-      </c>
-      <c r="BO24" s="14" t="s">
-        <v>831</v>
+      <c r="BN24" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="BO24" s="12" t="s">
+        <v>828</v>
       </c>
       <c r="BS24" t="s">
         <v>107</v>
@@ -6973,11 +6937,11 @@
       </c>
     </row>
     <row r="25" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN25" s="14" t="s">
-        <v>832</v>
-      </c>
-      <c r="BO25" s="14" t="s">
-        <v>832</v>
+      <c r="BN25" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="BO25" s="12" t="s">
+        <v>829</v>
       </c>
       <c r="BS25" t="s">
         <v>108</v>
@@ -6993,11 +6957,11 @@
       </c>
     </row>
     <row r="26" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN26" s="14" t="s">
-        <v>833</v>
-      </c>
-      <c r="BO26" s="14" t="s">
-        <v>833</v>
+      <c r="BN26" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="BO26" s="12" t="s">
+        <v>830</v>
       </c>
       <c r="BS26" t="s">
         <v>109</v>
@@ -7013,11 +6977,11 @@
       </c>
     </row>
     <row r="27" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN27" s="14" t="s">
-        <v>834</v>
-      </c>
-      <c r="BO27" s="14" t="s">
-        <v>834</v>
+      <c r="BN27" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="BO27" s="12" t="s">
+        <v>831</v>
       </c>
       <c r="BS27" t="s">
         <v>110</v>
@@ -7033,11 +6997,11 @@
       </c>
     </row>
     <row r="28" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN28" s="14" t="s">
-        <v>835</v>
-      </c>
-      <c r="BO28" s="14" t="s">
-        <v>835</v>
+      <c r="BN28" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="BO28" s="12" t="s">
+        <v>832</v>
       </c>
       <c r="BS28" t="s">
         <v>111</v>
@@ -7053,11 +7017,11 @@
       </c>
     </row>
     <row r="29" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN29" s="14" t="s">
-        <v>836</v>
-      </c>
-      <c r="BO29" s="14" t="s">
-        <v>836</v>
+      <c r="BN29" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="BO29" s="12" t="s">
+        <v>833</v>
       </c>
       <c r="BS29" t="s">
         <v>112</v>
@@ -7073,11 +7037,11 @@
       </c>
     </row>
     <row r="30" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN30" s="14" t="s">
-        <v>837</v>
-      </c>
-      <c r="BO30" s="14" t="s">
-        <v>837</v>
+      <c r="BN30" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="BO30" s="12" t="s">
+        <v>834</v>
       </c>
       <c r="BS30" t="s">
         <v>113</v>
@@ -7093,11 +7057,11 @@
       </c>
     </row>
     <row r="31" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN31" s="14" t="s">
-        <v>838</v>
-      </c>
-      <c r="BO31" s="14" t="s">
-        <v>838</v>
+      <c r="BN31" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="BO31" s="12" t="s">
+        <v>835</v>
       </c>
       <c r="BT31" t="s">
         <v>84</v>
@@ -7110,11 +7074,11 @@
       </c>
     </row>
     <row r="32" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN32" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="BO32" s="14" t="s">
-        <v>839</v>
+      <c r="BN32" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="BO32" s="12" t="s">
+        <v>836</v>
       </c>
       <c r="BT32" t="s">
         <v>84</v>
@@ -7127,11 +7091,11 @@
       </c>
     </row>
     <row r="33" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN33" s="14" t="s">
-        <v>840</v>
-      </c>
-      <c r="BO33" s="14" t="s">
-        <v>840</v>
+      <c r="BN33" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="BO33" s="12" t="s">
+        <v>837</v>
       </c>
       <c r="BT33" t="s">
         <v>84</v>
@@ -7144,11 +7108,11 @@
       </c>
     </row>
     <row r="34" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN34" s="14" t="s">
-        <v>841</v>
-      </c>
-      <c r="BO34" s="14" t="s">
-        <v>841</v>
+      <c r="BN34" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="BO34" s="12" t="s">
+        <v>838</v>
       </c>
       <c r="BT34" t="s">
         <v>84</v>
@@ -7161,11 +7125,11 @@
       </c>
     </row>
     <row r="35" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN35" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="BO35" s="14" t="s">
-        <v>842</v>
+      <c r="BN35" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="BO35" s="12" t="s">
+        <v>839</v>
       </c>
       <c r="BT35" t="s">
         <v>84</v>
@@ -7178,11 +7142,11 @@
       </c>
     </row>
     <row r="36" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN36" s="14" t="s">
-        <v>843</v>
-      </c>
-      <c r="BO36" s="14" t="s">
-        <v>843</v>
+      <c r="BN36" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="BO36" s="12" t="s">
+        <v>840</v>
       </c>
       <c r="BT36" t="s">
         <v>84</v>
@@ -7195,11 +7159,11 @@
       </c>
     </row>
     <row r="37" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN37" s="14" t="s">
-        <v>844</v>
-      </c>
-      <c r="BO37" s="14" t="s">
-        <v>844</v>
+      <c r="BN37" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="BO37" s="12" t="s">
+        <v>841</v>
       </c>
       <c r="BT37" t="s">
         <v>84</v>
@@ -7212,11 +7176,11 @@
       </c>
     </row>
     <row r="38" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN38" s="14" t="s">
-        <v>845</v>
-      </c>
-      <c r="BO38" s="14" t="s">
-        <v>845</v>
+      <c r="BN38" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="BO38" s="12" t="s">
+        <v>842</v>
       </c>
       <c r="BT38" t="s">
         <v>85</v>
@@ -7229,11 +7193,11 @@
       </c>
     </row>
     <row r="39" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN39" s="14" t="s">
-        <v>846</v>
-      </c>
-      <c r="BO39" s="14" t="s">
-        <v>846</v>
+      <c r="BN39" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="BO39" s="12" t="s">
+        <v>843</v>
       </c>
       <c r="BT39" t="s">
         <v>85</v>
@@ -7246,11 +7210,11 @@
       </c>
     </row>
     <row r="40" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN40" s="14" t="s">
-        <v>847</v>
-      </c>
-      <c r="BO40" s="14" t="s">
-        <v>847</v>
+      <c r="BN40" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="BO40" s="12" t="s">
+        <v>844</v>
       </c>
       <c r="BT40" t="s">
         <v>85</v>
@@ -7263,11 +7227,11 @@
       </c>
     </row>
     <row r="41" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN41" s="14" t="s">
-        <v>848</v>
-      </c>
-      <c r="BO41" s="14" t="s">
-        <v>848</v>
+      <c r="BN41" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="BO41" s="12" t="s">
+        <v>845</v>
       </c>
       <c r="BT41" t="s">
         <v>85</v>
@@ -7280,11 +7244,11 @@
       </c>
     </row>
     <row r="42" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN42" s="14" t="s">
-        <v>849</v>
-      </c>
-      <c r="BO42" s="14" t="s">
-        <v>849</v>
+      <c r="BN42" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="BO42" s="12" t="s">
+        <v>846</v>
       </c>
       <c r="BT42" t="s">
         <v>85</v>
@@ -7297,11 +7261,11 @@
       </c>
     </row>
     <row r="43" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN43" s="14" t="s">
-        <v>850</v>
-      </c>
-      <c r="BO43" s="14" t="s">
-        <v>850</v>
+      <c r="BN43" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="BO43" s="12" t="s">
+        <v>847</v>
       </c>
       <c r="BT43" t="s">
         <v>85</v>
@@ -7314,11 +7278,11 @@
       </c>
     </row>
     <row r="44" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN44" s="14" t="s">
-        <v>851</v>
-      </c>
-      <c r="BO44" s="14" t="s">
-        <v>851</v>
+      <c r="BN44" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="BO44" s="12" t="s">
+        <v>848</v>
       </c>
       <c r="BT44" t="s">
         <v>85</v>
@@ -7331,11 +7295,11 @@
       </c>
     </row>
     <row r="45" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN45" s="14" t="s">
-        <v>852</v>
-      </c>
-      <c r="BO45" s="14" t="s">
-        <v>852</v>
+      <c r="BN45" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="BO45" s="12" t="s">
+        <v>849</v>
       </c>
       <c r="BT45" t="s">
         <v>85</v>
@@ -7345,11 +7309,11 @@
       </c>
     </row>
     <row r="46" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN46" s="14" t="s">
-        <v>853</v>
-      </c>
-      <c r="BO46" s="14" t="s">
-        <v>853</v>
+      <c r="BN46" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="BO46" s="12" t="s">
+        <v>850</v>
       </c>
       <c r="BT46" t="s">
         <v>85</v>
@@ -7359,11 +7323,11 @@
       </c>
     </row>
     <row r="47" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN47" s="14" t="s">
-        <v>854</v>
-      </c>
-      <c r="BO47" s="14" t="s">
-        <v>854</v>
+      <c r="BN47" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="BO47" s="12" t="s">
+        <v>851</v>
       </c>
       <c r="BT47" t="s">
         <v>85</v>
@@ -7373,11 +7337,11 @@
       </c>
     </row>
     <row r="48" spans="66:74" x14ac:dyDescent="0.25">
-      <c r="BN48" s="14" t="s">
-        <v>855</v>
-      </c>
-      <c r="BO48" s="14" t="s">
-        <v>855</v>
+      <c r="BN48" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="BO48" s="12" t="s">
+        <v>852</v>
       </c>
       <c r="BT48" t="s">
         <v>85</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -2628,16 +2628,16 @@
 Заработай до 2500 рублей в день!
 Условия:
 Работа в любом районе города, даже рядом с домом;
-На выбор смены по 4/6/8/10/12 часов;
-Утренние/дневные/вечерние смены;
-Можно совмещать с другой работой или учебой;
-Платим, даже если нет заказов!
-Выплаты каждую неделю.
+  На выбор смены по 4/6/8/10/12 часов;
+  Утренние/дневные/вечерние смены;
+  Можно совмещать с другой работой или учебой;
+  Платим, даже если нет заказов!
+  Выплаты каждую неделю.
 Обязанности:
 Доставка еды из ресторанов партнеров
 Требования:
 Для трудоустройства потребуется только паспорт
-Навыки использования устройств на базе ОС Android (в работе используется приложение на базе Android версия 4.2 и выше)
+  Навыки использования устройств на базе ОС Android (в работе используется приложение на базе Android версия 4.2 и выше)
 Чтобы устроиться, просто напишите нам в Viber или WhatsApp по номеру из объявления!  После получения сообщения в течение 10 минут поступит ответное сообщение с приглашением на работу. </t>
   </si>
 </sst>
@@ -3055,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3312,7 +3312,7 @@
         <v>112</v>
       </c>
       <c r="V3" t="s">
-        <v>570</v>
+        <v>220</v>
       </c>
       <c r="W3" t="s">
         <v>90</v>
@@ -3404,7 +3404,7 @@
         <v>112</v>
       </c>
       <c r="V4" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="W4" t="s">
         <v>90</v>
@@ -3496,7 +3496,7 @@
         <v>112</v>
       </c>
       <c r="V5" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="W5" t="s">
         <v>90</v>
@@ -3588,7 +3588,7 @@
         <v>112</v>
       </c>
       <c r="V6" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="W6" t="s">
         <v>90</v>
@@ -3680,7 +3680,7 @@
         <v>112</v>
       </c>
       <c r="V7" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="W7" t="s">
         <v>90</v>
@@ -3772,7 +3772,7 @@
         <v>112</v>
       </c>
       <c r="V8" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="W8" t="s">
         <v>90</v>
@@ -6339,7 +6339,7 @@
   <dimension ref="A1:BV611"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11579,7 +11579,7 @@
         <v>112</v>
       </c>
       <c r="BU577" t="s">
-        <v>561</v>
+        <v>220</v>
       </c>
     </row>
     <row r="578" spans="72:73" x14ac:dyDescent="0.25">
@@ -11707,7 +11707,7 @@
         <v>112</v>
       </c>
       <c r="BU593" t="s">
-        <v>220</v>
+        <v>561</v>
       </c>
     </row>
     <row r="594" spans="72:73" x14ac:dyDescent="0.25">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Вакансии" sheetId="9" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="853">
   <si>
     <t>Название вакансии</t>
   </si>
@@ -2282,9 +2282,6 @@
   </si>
   <si>
     <t>rabora.eda@yandex.ru</t>
-  </si>
-  <si>
-    <t>kdd777ip2@yandex.ru</t>
   </si>
   <si>
     <t>Профессиональная сфера1</t>
@@ -3055,7 +3052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI392"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -3140,47 +3137,47 @@
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="AC1" s="13" t="s">
-        <v>751</v>
-      </c>
       <c r="AD1" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AE1" s="14"/>
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -3211,7 +3208,7 @@
         <v>26</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>11</v>
@@ -3234,19 +3231,19 @@
       <c r="AB2" s="13"/>
       <c r="AC2" s="13"/>
       <c r="AD2" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>758</v>
       </c>
       <c r="AI2" s="13"/>
     </row>
@@ -3276,7 +3273,7 @@
         <v>60</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>31</v>
@@ -3294,10 +3291,10 @@
         <v>1412718</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R3" t="s">
         <v>29</v>
@@ -3321,7 +3318,7 @@
         <v>220</v>
       </c>
       <c r="AC3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -3339,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3368,7 +3365,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>32</v>
@@ -3386,10 +3383,10 @@
         <v>1412718</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R4" t="s">
         <v>29</v>
@@ -3413,7 +3410,7 @@
         <v>220</v>
       </c>
       <c r="AC4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -3431,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3460,7 +3457,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>33</v>
@@ -3478,10 +3475,10 @@
         <v>1412718</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R5" t="s">
         <v>29</v>
@@ -3505,7 +3502,7 @@
         <v>220</v>
       </c>
       <c r="AC5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -3523,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="AI5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3552,7 +3549,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>34</v>
@@ -3570,10 +3567,10 @@
         <v>1412718</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R6" t="s">
         <v>29</v>
@@ -3597,7 +3594,7 @@
         <v>220</v>
       </c>
       <c r="AC6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -3615,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3644,7 +3641,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>33</v>
@@ -3662,10 +3659,10 @@
         <v>1412718</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R7" t="s">
         <v>29</v>
@@ -3689,7 +3686,7 @@
         <v>220</v>
       </c>
       <c r="AC7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -3707,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3736,7 +3733,7 @@
         <v>60</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>36</v>
@@ -3754,10 +3751,10 @@
         <v>1412718</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R8" t="s">
         <v>29</v>
@@ -3781,7 +3778,7 @@
         <v>220</v>
       </c>
       <c r="AC8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -3799,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="AI8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -5464,18 +5461,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
@@ -5489,6 +5474,18 @@
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H46">
@@ -6169,7 +6166,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B25" t="s">
         <v>694</v>
@@ -6338,8 +6335,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BV611"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6365,7 +6362,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="BL1" t="s">
         <v>31</v>
@@ -6374,10 +6371,10 @@
         <v>38</v>
       </c>
       <c r="BN1" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="BO1" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="BP1" t="s">
         <v>27</v>
@@ -6392,7 +6389,7 @@
         <v>84</v>
       </c>
       <c r="BV1" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6400,7 +6397,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="BL2" t="s">
         <v>32</v>
@@ -6409,10 +6406,10 @@
         <v>39</v>
       </c>
       <c r="BN2" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="BO2" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="BP2" t="s">
         <v>28</v>
@@ -6433,7 +6430,7 @@
         <v>116</v>
       </c>
       <c r="BV2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
@@ -6444,10 +6441,10 @@
         <v>40</v>
       </c>
       <c r="BN3" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="BO3" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="BP3" t="s">
         <v>29</v>
@@ -6468,7 +6465,7 @@
         <v>81</v>
       </c>
       <c r="BV3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.25">
@@ -6479,10 +6476,10 @@
         <v>41</v>
       </c>
       <c r="BN4" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="BO4" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="BR4" s="5" t="s">
         <v>20</v>
@@ -6497,7 +6494,7 @@
         <v>117</v>
       </c>
       <c r="BV4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.25">
@@ -6508,10 +6505,10 @@
         <v>42</v>
       </c>
       <c r="BN5" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="BO5" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="BR5" s="5" t="s">
         <v>21</v>
@@ -6526,7 +6523,7 @@
         <v>118</v>
       </c>
       <c r="BV5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.25">
@@ -6537,10 +6534,10 @@
         <v>43</v>
       </c>
       <c r="BN6" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="BO6" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="BS6" t="s">
         <v>89</v>
@@ -6552,7 +6549,7 @@
         <v>119</v>
       </c>
       <c r="BV6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.25">
@@ -6560,10 +6557,10 @@
         <v>44</v>
       </c>
       <c r="BN7" s="12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="BO7" s="12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="BS7" t="s">
         <v>90</v>
@@ -6575,7 +6572,7 @@
         <v>120</v>
       </c>
       <c r="BV7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.25">
@@ -6583,10 +6580,10 @@
         <v>45</v>
       </c>
       <c r="BN8" s="12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="BO8" s="12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="BS8" t="s">
         <v>91</v>
@@ -6598,7 +6595,7 @@
         <v>121</v>
       </c>
       <c r="BV8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.25">
@@ -6606,10 +6603,10 @@
         <v>46</v>
       </c>
       <c r="BN9" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="BO9" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="BS9" t="s">
         <v>92</v>
@@ -6621,7 +6618,7 @@
         <v>122</v>
       </c>
       <c r="BV9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.25">
@@ -6629,10 +6626,10 @@
         <v>47</v>
       </c>
       <c r="BN10" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="BO10" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="BS10" t="s">
         <v>93</v>
@@ -6644,7 +6641,7 @@
         <v>123</v>
       </c>
       <c r="BV10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
@@ -6652,10 +6649,10 @@
         <v>48</v>
       </c>
       <c r="BN11" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="BO11" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="BS11" t="s">
         <v>94</v>
@@ -6667,7 +6664,7 @@
         <v>124</v>
       </c>
       <c r="BV11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
@@ -6675,10 +6672,10 @@
         <v>49</v>
       </c>
       <c r="BN12" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="BO12" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="BS12" t="s">
         <v>95</v>
@@ -6690,7 +6687,7 @@
         <v>125</v>
       </c>
       <c r="BV12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
@@ -6698,10 +6695,10 @@
         <v>50</v>
       </c>
       <c r="BN13" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="BO13" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="BS13" t="s">
         <v>96</v>
@@ -6713,15 +6710,15 @@
         <v>126</v>
       </c>
       <c r="BV13" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BN14" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="BO14" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="BS14" t="s">
         <v>97</v>
@@ -6733,15 +6730,15 @@
         <v>127</v>
       </c>
       <c r="BV14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BN15" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="BO15" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="BS15" t="s">
         <v>98</v>
@@ -6753,15 +6750,15 @@
         <v>128</v>
       </c>
       <c r="BV15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.25">
       <c r="BN16" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="BO16" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="BS16" t="s">
         <v>99</v>
@@ -6773,15 +6770,15 @@
         <v>129</v>
       </c>
       <c r="BV16" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN17" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="BO17" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="BS17" t="s">
         <v>100</v>
@@ -6793,15 +6790,15 @@
         <v>130</v>
       </c>
       <c r="BV17" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN18" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="BO18" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="BS18" t="s">
         <v>101</v>
@@ -6813,15 +6810,15 @@
         <v>131</v>
       </c>
       <c r="BV18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN19" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="BO19" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="BS19" t="s">
         <v>102</v>
@@ -6833,15 +6830,15 @@
         <v>132</v>
       </c>
       <c r="BV19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="20" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN20" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="BO20" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="BS20" t="s">
         <v>103</v>
@@ -6853,15 +6850,15 @@
         <v>114</v>
       </c>
       <c r="BV20" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN21" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="BO21" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="BS21" t="s">
         <v>104</v>
@@ -6873,15 +6870,15 @@
         <v>133</v>
       </c>
       <c r="BV21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="22" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN22" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="BO22" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="BS22" t="s">
         <v>105</v>
@@ -6893,15 +6890,15 @@
         <v>115</v>
       </c>
       <c r="BV22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN23" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="BO23" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="BS23" t="s">
         <v>106</v>
@@ -6913,15 +6910,15 @@
         <v>134</v>
       </c>
       <c r="BV23" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="24" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN24" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="BO24" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="BS24" t="s">
         <v>107</v>
@@ -6933,15 +6930,15 @@
         <v>135</v>
       </c>
       <c r="BV24" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="25" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN25" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="BO25" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="BS25" t="s">
         <v>108</v>
@@ -6953,15 +6950,15 @@
         <v>136</v>
       </c>
       <c r="BV25" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN26" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="BO26" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="BS26" t="s">
         <v>109</v>
@@ -6973,15 +6970,15 @@
         <v>137</v>
       </c>
       <c r="BV26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN27" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BO27" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="BS27" t="s">
         <v>110</v>
@@ -6993,15 +6990,15 @@
         <v>138</v>
       </c>
       <c r="BV27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="28" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN28" s="12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="BO28" s="12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="BS28" t="s">
         <v>111</v>
@@ -7013,15 +7010,15 @@
         <v>139</v>
       </c>
       <c r="BV28" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="29" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN29" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="BO29" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="BS29" t="s">
         <v>112</v>
@@ -7033,15 +7030,15 @@
         <v>140</v>
       </c>
       <c r="BV29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN30" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="BO30" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="BS30" t="s">
         <v>113</v>
@@ -7053,15 +7050,15 @@
         <v>141</v>
       </c>
       <c r="BV30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="31" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN31" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="BO31" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="BT31" t="s">
         <v>84</v>
@@ -7070,15 +7067,15 @@
         <v>142</v>
       </c>
       <c r="BV31" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN32" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BO32" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="BT32" t="s">
         <v>84</v>
@@ -7087,15 +7084,15 @@
         <v>143</v>
       </c>
       <c r="BV32" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="33" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN33" s="12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BO33" s="12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="BT33" t="s">
         <v>84</v>
@@ -7104,15 +7101,15 @@
         <v>144</v>
       </c>
       <c r="BV33" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="34" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN34" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="BO34" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="BT34" t="s">
         <v>84</v>
@@ -7121,15 +7118,15 @@
         <v>145</v>
       </c>
       <c r="BV34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="35" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN35" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="BO35" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="BT35" t="s">
         <v>84</v>
@@ -7138,15 +7135,15 @@
         <v>146</v>
       </c>
       <c r="BV35" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="36" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN36" s="12" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="BO36" s="12" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="BT36" t="s">
         <v>84</v>
@@ -7155,15 +7152,15 @@
         <v>147</v>
       </c>
       <c r="BV36" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="37" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN37" s="12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="BO37" s="12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="BT37" t="s">
         <v>84</v>
@@ -7172,15 +7169,15 @@
         <v>148</v>
       </c>
       <c r="BV37" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="38" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN38" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BO38" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="BT38" t="s">
         <v>85</v>
@@ -7189,15 +7186,15 @@
         <v>149</v>
       </c>
       <c r="BV38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="39" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN39" s="12" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="BO39" s="12" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="BT39" t="s">
         <v>85</v>
@@ -7206,15 +7203,15 @@
         <v>144</v>
       </c>
       <c r="BV39" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN40" s="12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="BO40" s="12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="BT40" t="s">
         <v>85</v>
@@ -7223,15 +7220,15 @@
         <v>150</v>
       </c>
       <c r="BV40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="41" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN41" s="12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="BO41" s="12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="BT41" t="s">
         <v>85</v>
@@ -7240,15 +7237,15 @@
         <v>151</v>
       </c>
       <c r="BV41" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN42" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BO42" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="BT42" t="s">
         <v>85</v>
@@ -7257,15 +7254,15 @@
         <v>143</v>
       </c>
       <c r="BV42" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="43" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN43" s="12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BO43" s="12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BT43" t="s">
         <v>85</v>
@@ -7274,15 +7271,15 @@
         <v>152</v>
       </c>
       <c r="BV43" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="44" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN44" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="BO44" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="BT44" t="s">
         <v>85</v>
@@ -7291,15 +7288,15 @@
         <v>153</v>
       </c>
       <c r="BV44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN45" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="BO45" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="BT45" t="s">
         <v>85</v>
@@ -7310,10 +7307,10 @@
     </row>
     <row r="46" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN46" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="BO46" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="BT46" t="s">
         <v>85</v>
@@ -7324,10 +7321,10 @@
     </row>
     <row r="47" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN47" s="12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="BO47" s="12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="BT47" t="s">
         <v>85</v>
@@ -7338,10 +7335,10 @@
     </row>
     <row r="48" spans="66:74" x14ac:dyDescent="0.25">
       <c r="BN48" s="12" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="BO48" s="12" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="BT48" t="s">
         <v>85</v>
@@ -11855,14 +11852,10 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="mailto:kdd777ip2@yandex.ru"/>
-    <hyperlink ref="B2" r:id="rId2" display="mailto:kdd777ip2@yandex.ru"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>